--- a/data/shoot_elongation/shoot_elongation.xlsx
+++ b/data/shoot_elongation/shoot_elongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/britanywuuu/Documents/ubc/year5/TemporalEcologyLab/fuelinex/data/shoot_elongation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapph\Documents\ubc things\work\fuelinex\data\shoot_elongation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB05925-DCF6-3547-99E7-D87C8A549184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E0B6D1-F3C7-427B-B0EE-E0CFABE9A9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="828" windowWidth="19056" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="741">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2248,6 +2248,15 @@
   </si>
   <si>
     <t>doy 171: apical shoot dead, doy 192: new side shoot</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>doy 199: note that this is a side branch</t>
+  </si>
+  <si>
+    <t>doy 199: red paint fell off</t>
   </si>
 </sst>
 </file>
@@ -2739,8 +2748,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2786,7 +2796,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2977,40 +2995,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:T631" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:U631" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:U631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
     <filterColumn colId="1">
       <filters>
-        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="prunus"/>
+        <filter val="sequoiadendron"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{379A66C6-698B-434F-916E-AEAAE2414138}" name="128" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{62491E8B-0E97-FD4B-BCC5-4E7DBAEDE53C}" name="129" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{1393DE83-090B-694C-9F28-CB3508AB64D0}" name="130" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{207CC64C-FCD9-6541-912D-456AAFF93044}" name="131" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{B057ADF6-089A-7E49-A439-533CCCB22A43}" name="136" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{D0F960DD-A2F9-074D-98EC-CE8D38E12049}" name="137" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{35CC3589-A6D5-8840-9830-FA2F26525256}" name="143" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{42A0D812-81C2-384B-9DA8-8DD67E5EBF60}" name="150" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{5701E3D9-A7AB-1E4A-8802-92F3BFBE960B}" name="157" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{F90AD900-33C4-D449-ABD1-F7E0E3B4EDF2}" name="164" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{D706E942-3CA8-3F49-BA3E-A6ECB3F4F826}" name="171" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{CF92CF1B-48A8-4842-81E5-1005772FEFC3}" name="178" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{138A361D-3F66-E244-A947-0EFCE15F6690}" name="185" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{0BF7A4F6-800F-7548-A638-DF43A258D373}" name="192" dataDxfId="0"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{379A66C6-698B-434F-916E-AEAAE2414138}" name="128" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{62491E8B-0E97-FD4B-BCC5-4E7DBAEDE53C}" name="129" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{1393DE83-090B-694C-9F28-CB3508AB64D0}" name="130" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{207CC64C-FCD9-6541-912D-456AAFF93044}" name="131" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{B057ADF6-089A-7E49-A439-533CCCB22A43}" name="136" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{D0F960DD-A2F9-074D-98EC-CE8D38E12049}" name="137" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{35CC3589-A6D5-8840-9830-FA2F26525256}" name="143" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{42A0D812-81C2-384B-9DA8-8DD67E5EBF60}" name="150" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{5701E3D9-A7AB-1E4A-8802-92F3BFBE960B}" name="157" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{F90AD900-33C4-D449-ABD1-F7E0E3B4EDF2}" name="164" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{D706E942-3CA8-3F49-BA3E-A6ECB3F4F826}" name="171" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{CF92CF1B-48A8-4842-81E5-1005772FEFC3}" name="178" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{138A361D-3F66-E244-A947-0EFCE15F6690}" name="185" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{0BF7A4F6-800F-7548-A638-DF43A258D373}" name="192" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{84D950AD-7C40-4A1B-9BD8-38C59BC6ED07}" name="199" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3333,24 +3352,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T631"/>
+  <dimension ref="A1:U631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="133" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q371" sqref="Q370:Q371"/>
+    <sheetView tabSelected="1" topLeftCell="A570" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F601" sqref="F601"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" customWidth="1"/>
     <col min="7" max="12" width="11" customWidth="1"/>
-    <col min="13" max="17" width="9.83203125" customWidth="1"/>
+    <col min="13" max="17" width="9.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3411,8 +3430,11 @@
       <c r="T1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3458,8 +3480,9 @@
       <c r="T2">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3505,8 +3528,9 @@
       <c r="T3">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3552,8 +3576,9 @@
       <c r="T4">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3599,8 +3624,9 @@
       <c r="T5">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3646,8 +3672,9 @@
       <c r="T6">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3693,8 +3720,9 @@
       <c r="T7">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3740,8 +3768,9 @@
       <c r="T8">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3787,8 +3816,9 @@
       <c r="T9">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3834,8 +3864,9 @@
       <c r="T10">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3881,8 +3912,9 @@
       <c r="T11">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3931,8 +3963,9 @@
       <c r="T12">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3978,8 +4011,9 @@
       <c r="T13">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4025,8 +4059,9 @@
       <c r="T14">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4072,8 +4107,9 @@
       <c r="T15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4119,8 +4155,9 @@
       <c r="T16">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4166,8 +4203,9 @@
       <c r="T17">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4213,8 +4251,9 @@
       <c r="T18">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4260,8 +4299,9 @@
       <c r="T19">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -4307,8 +4347,9 @@
       <c r="T20">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4351,8 +4392,9 @@
       <c r="T21">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4401,8 +4443,9 @@
       <c r="T22">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4448,8 +4491,9 @@
       <c r="T23">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4498,8 +4542,9 @@
       <c r="T24">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4545,8 +4590,9 @@
       <c r="T25">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4592,8 +4638,9 @@
       <c r="T26">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -4639,8 +4686,9 @@
       <c r="T27">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4689,8 +4737,9 @@
       <c r="T28">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -4736,8 +4785,9 @@
       <c r="T29">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -4786,8 +4836,9 @@
       <c r="T30">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -4833,8 +4884,9 @@
       <c r="T31">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4880,8 +4932,9 @@
       <c r="T32">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -4927,8 +4980,9 @@
       <c r="T33">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -4974,8 +5028,9 @@
       <c r="T34">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -5021,8 +5076,9 @@
       <c r="T35">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -5068,8 +5124,9 @@
       <c r="T36">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -5118,8 +5175,9 @@
       <c r="T37">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -5165,8 +5223,9 @@
       <c r="T38">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -5212,8 +5271,9 @@
       <c r="T39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -5259,8 +5319,9 @@
       <c r="T40">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -5306,8 +5367,9 @@
       <c r="T41">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -5353,8 +5415,9 @@
       <c r="T42">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -5400,8 +5463,9 @@
       <c r="T43">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -5447,8 +5511,9 @@
       <c r="T44">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -5494,8 +5559,9 @@
       <c r="T45">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -5541,8 +5607,9 @@
       <c r="T46">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -5588,8 +5655,9 @@
       <c r="T47">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -5635,8 +5703,9 @@
       <c r="T48">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5751,9 @@
       <c r="T49">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -5729,8 +5799,9 @@
       <c r="T50">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -5776,8 +5847,9 @@
       <c r="T51">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -5823,8 +5895,9 @@
       <c r="T52">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -5870,8 +5943,9 @@
       <c r="T53">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -5920,8 +5994,9 @@
       <c r="T54">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5967,8 +6042,9 @@
       <c r="T55">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -6017,8 +6093,9 @@
       <c r="T56">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -6064,8 +6141,9 @@
       <c r="T57">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6114,8 +6192,9 @@
       <c r="T58">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -6161,8 +6240,9 @@
       <c r="T59">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -6211,8 +6291,9 @@
       <c r="T60">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -6258,8 +6339,9 @@
       <c r="T61">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -6305,8 +6387,9 @@
       <c r="T62">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -6352,8 +6435,9 @@
       <c r="T63">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -6399,8 +6483,9 @@
       <c r="T64">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -6446,8 +6531,9 @@
       <c r="T65">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -6493,8 +6579,9 @@
       <c r="T66">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -6540,8 +6627,9 @@
       <c r="T67">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -6587,8 +6675,9 @@
       <c r="T68">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U68" s="1"/>
+    </row>
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -6634,8 +6723,9 @@
       <c r="T69">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -6681,8 +6771,9 @@
       <c r="T70">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -6728,8 +6819,9 @@
       <c r="T71">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -6775,8 +6867,9 @@
       <c r="T72">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -6822,8 +6915,9 @@
       <c r="T73">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -6869,8 +6963,9 @@
       <c r="T74">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -6916,8 +7011,9 @@
       <c r="T75">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -6963,8 +7059,9 @@
       <c r="T76">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -7010,8 +7107,9 @@
       <c r="T77">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -7057,8 +7155,9 @@
       <c r="T78">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -7107,8 +7206,9 @@
       <c r="T79">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -7157,8 +7257,9 @@
       <c r="T80">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U80" s="1"/>
+    </row>
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -7204,8 +7305,9 @@
       <c r="T81">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U81" s="1"/>
+    </row>
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -7251,8 +7353,9 @@
       <c r="T82">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U82" s="1"/>
+    </row>
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -7298,8 +7401,9 @@
       <c r="T83">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U83" s="1"/>
+    </row>
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -7345,8 +7449,9 @@
       <c r="T84">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U84" s="1"/>
+    </row>
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -7392,8 +7497,9 @@
       <c r="T85">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U85" s="1"/>
+    </row>
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -7439,8 +7545,9 @@
       <c r="T86">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U86" s="1"/>
+    </row>
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -7486,8 +7593,9 @@
       <c r="T87">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U87" s="1"/>
+    </row>
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -7533,8 +7641,9 @@
       <c r="T88">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U88" s="1"/>
+    </row>
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -7580,8 +7689,9 @@
       <c r="T89">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U89" s="1"/>
+    </row>
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -7630,8 +7740,9 @@
       <c r="T90">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U90" s="1"/>
+    </row>
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -7677,8 +7788,9 @@
       <c r="T91">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U91" s="1"/>
+    </row>
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -7724,8 +7836,9 @@
       <c r="T92">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U92" s="1"/>
+    </row>
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -7771,8 +7884,9 @@
       <c r="T93">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U93" s="1"/>
+    </row>
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -7818,8 +7932,9 @@
       <c r="T94">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U94" s="1"/>
+    </row>
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -7868,8 +7983,9 @@
       <c r="T95">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U95" s="1"/>
+    </row>
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -7915,8 +8031,9 @@
       <c r="T96">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U96" s="1"/>
+    </row>
+    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -7962,8 +8079,9 @@
       <c r="T97">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U97" s="1"/>
+    </row>
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -8009,8 +8127,9 @@
       <c r="T98">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U98" s="1"/>
+    </row>
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -8056,8 +8175,9 @@
       <c r="T99">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U99" s="1"/>
+    </row>
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -8103,8 +8223,9 @@
       <c r="T100">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U100" s="1"/>
+    </row>
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -8150,8 +8271,9 @@
       <c r="T101">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U101" s="1"/>
+    </row>
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -8197,8 +8319,9 @@
       <c r="T102">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U102" s="1"/>
+    </row>
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -8244,8 +8367,9 @@
       <c r="T103">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U103" s="1"/>
+    </row>
+    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -8291,8 +8415,9 @@
       <c r="T104">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U104" s="1"/>
+    </row>
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -8338,8 +8463,9 @@
       <c r="T105">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U105" s="1"/>
+    </row>
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -8385,8 +8511,9 @@
       <c r="T106">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U106" s="1"/>
+    </row>
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -8432,8 +8559,9 @@
       <c r="T107">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U107" s="1"/>
+    </row>
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -8479,8 +8607,9 @@
       <c r="T108">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U108" s="1"/>
+    </row>
+    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -8529,8 +8658,9 @@
       <c r="T109">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U109" s="1"/>
+    </row>
+    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -8576,8 +8706,9 @@
       <c r="T110">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U110" s="1"/>
+    </row>
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -8623,8 +8754,9 @@
       <c r="T111">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U111" s="1"/>
+    </row>
+    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -8670,8 +8802,9 @@
       <c r="T112">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U112" s="1"/>
+    </row>
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -8720,8 +8853,9 @@
       <c r="T113" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U113" s="1"/>
+    </row>
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -8767,8 +8901,9 @@
       <c r="T114">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U114" s="1"/>
+    </row>
+    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -8814,8 +8949,9 @@
       <c r="T115">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U115" s="1"/>
+    </row>
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -8861,8 +8997,9 @@
       <c r="T116">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U116" s="1"/>
+    </row>
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -8908,8 +9045,9 @@
       <c r="T117">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U117" s="1"/>
+    </row>
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -8955,8 +9093,9 @@
       <c r="T118">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U118" s="1"/>
+    </row>
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -9002,8 +9141,9 @@
       <c r="T119">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U119" s="1"/>
+    </row>
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -9049,8 +9189,9 @@
       <c r="T120">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U120" s="1"/>
+    </row>
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -9096,8 +9237,9 @@
       <c r="T121">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U121" s="1"/>
+    </row>
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -9146,8 +9288,9 @@
       <c r="T122">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U122" s="1"/>
+    </row>
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -9193,8 +9336,9 @@
       <c r="T123">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U123" s="1"/>
+    </row>
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -9240,8 +9384,9 @@
       <c r="T124">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U124" s="1"/>
+    </row>
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -9287,8 +9432,9 @@
       <c r="T125">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U125" s="1"/>
+    </row>
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -9334,8 +9480,9 @@
       <c r="T126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U126" s="1"/>
+    </row>
+    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -9381,8 +9528,9 @@
       <c r="T127">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U127" s="1"/>
+    </row>
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -9428,8 +9576,9 @@
       <c r="T128">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U128" s="1"/>
+    </row>
+    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -9475,8 +9624,9 @@
       <c r="T129">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U129" s="1"/>
+    </row>
+    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -9522,8 +9672,9 @@
       <c r="T130">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U130" s="1"/>
+    </row>
+    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -9569,8 +9720,9 @@
       <c r="T131">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U131" s="1"/>
+    </row>
+    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -9616,8 +9768,9 @@
       <c r="T132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U132" s="1"/>
+    </row>
+    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -9663,8 +9816,9 @@
       <c r="T133">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U133" s="1"/>
+    </row>
+    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -9710,8 +9864,9 @@
       <c r="T134">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U134" s="1"/>
+    </row>
+    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -9757,8 +9912,9 @@
       <c r="T135">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U135" s="1"/>
+    </row>
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -9807,8 +9963,9 @@
       <c r="T136">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U136" s="1"/>
+    </row>
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -9854,8 +10011,9 @@
       <c r="T137">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U137" s="1"/>
+    </row>
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>158</v>
       </c>
@@ -9901,8 +10059,9 @@
       <c r="T138">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U138" s="1"/>
+    </row>
+    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -9948,8 +10107,9 @@
       <c r="T139">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U139" s="1"/>
+    </row>
+    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -9995,8 +10155,9 @@
       <c r="T140">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U140" s="1"/>
+    </row>
+    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -10042,8 +10203,9 @@
       <c r="T141">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U141" s="1"/>
+    </row>
+    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -10089,8 +10251,9 @@
       <c r="T142">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U142" s="1"/>
+    </row>
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>163</v>
       </c>
@@ -10136,8 +10299,9 @@
       <c r="T143">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U143" s="1"/>
+    </row>
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -10183,8 +10347,9 @@
       <c r="T144">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U144" s="1"/>
+    </row>
+    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -10230,8 +10395,9 @@
       <c r="T145">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U145" s="1"/>
+    </row>
+    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -10277,8 +10443,9 @@
       <c r="T146">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U146" s="1"/>
+    </row>
+    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -10324,8 +10491,9 @@
       <c r="T147">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U147" s="1"/>
+    </row>
+    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -10371,8 +10539,9 @@
       <c r="T148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U148" s="1"/>
+    </row>
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>169</v>
       </c>
@@ -10418,8 +10587,9 @@
       <c r="T149">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U149" s="1"/>
+    </row>
+    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -10465,8 +10635,9 @@
       <c r="T150">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U150" s="1"/>
+    </row>
+    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -10512,8 +10683,9 @@
       <c r="T151">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U151" s="1"/>
+    </row>
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -10559,8 +10731,9 @@
       <c r="T152">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U152" s="1"/>
+    </row>
+    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -10606,8 +10779,9 @@
       <c r="T153">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U153" s="1"/>
+    </row>
+    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -10653,8 +10827,9 @@
       <c r="T154">
         <v>10</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U154" s="1"/>
+    </row>
+    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>175</v>
       </c>
@@ -10700,8 +10875,9 @@
       <c r="T155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U155" s="1"/>
+    </row>
+    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -10747,8 +10923,9 @@
       <c r="T156">
         <v>10</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U156" s="1"/>
+    </row>
+    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -10794,8 +10971,9 @@
       <c r="T157">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U157" s="1"/>
+    </row>
+    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -10841,8 +11019,9 @@
       <c r="T158">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U158" s="1"/>
+    </row>
+    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -10888,8 +11067,9 @@
       <c r="T159">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U159" s="1"/>
+    </row>
+    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -10935,8 +11115,9 @@
       <c r="T160">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U160" s="1"/>
+    </row>
+    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -10982,8 +11163,9 @@
       <c r="T161">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U161" s="1"/>
+    </row>
+    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -11032,8 +11214,9 @@
       <c r="T162">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U162" s="1"/>
+    </row>
+    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -11079,8 +11262,9 @@
       <c r="T163">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U163" s="1"/>
+    </row>
+    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -11129,8 +11313,9 @@
       <c r="T164">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U164" s="1"/>
+    </row>
+    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -11176,8 +11361,9 @@
       <c r="T165">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U165" s="1"/>
+    </row>
+    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -11223,8 +11409,9 @@
       <c r="T166">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U166" s="1"/>
+    </row>
+    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -11270,8 +11457,9 @@
       <c r="T167">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U167" s="1"/>
+    </row>
+    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -11317,8 +11505,9 @@
       <c r="T168">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U168" s="1"/>
+    </row>
+    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -11364,8 +11553,9 @@
       <c r="T169">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U169" s="1"/>
+    </row>
+    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -11411,8 +11601,9 @@
       <c r="T170">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U170" s="1"/>
+    </row>
+    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -11458,8 +11649,9 @@
       <c r="T171">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U171" s="1"/>
+    </row>
+    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -11505,8 +11697,9 @@
       <c r="T172">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U172" s="1"/>
+    </row>
+    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -11552,8 +11745,9 @@
       <c r="T173">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U173" s="1"/>
+    </row>
+    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -11599,8 +11793,9 @@
       <c r="T174">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U174" s="1"/>
+    </row>
+    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -11646,8 +11841,9 @@
       <c r="T175">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U175" s="1"/>
+    </row>
+    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -11693,8 +11889,9 @@
       <c r="T176">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U176" s="1"/>
+    </row>
+    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -11740,8 +11937,9 @@
       <c r="T177">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U177" s="1"/>
+    </row>
+    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -11787,8 +11985,9 @@
       <c r="T178">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U178" s="1"/>
+    </row>
+    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -11834,8 +12033,9 @@
       <c r="T179">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U179" s="1"/>
+    </row>
+    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -11881,8 +12081,9 @@
       <c r="T180">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U180" s="1"/>
+    </row>
+    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -11928,8 +12129,9 @@
       <c r="T181">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U181" s="1"/>
+    </row>
+    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -11975,8 +12177,9 @@
       <c r="T182">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U182" s="1"/>
+    </row>
+    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -12022,8 +12225,9 @@
       <c r="T183">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U183" s="1"/>
+    </row>
+    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -12069,8 +12273,9 @@
       <c r="T184">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U184" s="1"/>
+    </row>
+    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -12116,8 +12321,9 @@
       <c r="T185">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U185" s="1"/>
+    </row>
+    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -12163,8 +12369,9 @@
       <c r="T186">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U186" s="1"/>
+    </row>
+    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -12210,8 +12417,9 @@
       <c r="T187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U187" s="1"/>
+    </row>
+    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -12257,8 +12465,9 @@
       <c r="T188">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U188" s="1"/>
+    </row>
+    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -12307,8 +12516,9 @@
       <c r="T189">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U189" s="1"/>
+    </row>
+    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>213</v>
       </c>
@@ -12354,8 +12564,9 @@
       <c r="T190">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U190" s="1"/>
+    </row>
+    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -12401,8 +12612,9 @@
       <c r="T191">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U191" s="1"/>
+    </row>
+    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -12448,8 +12660,9 @@
       <c r="T192">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U192" s="1"/>
+    </row>
+    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -12495,8 +12708,9 @@
       <c r="T193">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U193" s="1"/>
+    </row>
+    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -12545,8 +12759,9 @@
       <c r="T194">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U194" s="1"/>
+    </row>
+    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -12592,8 +12807,9 @@
       <c r="T195">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U195" s="1"/>
+    </row>
+    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>219</v>
       </c>
@@ -12639,8 +12855,9 @@
       <c r="T196">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U196" s="1"/>
+    </row>
+    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -12686,8 +12903,9 @@
       <c r="T197">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U197" s="1"/>
+    </row>
+    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>221</v>
       </c>
@@ -12733,8 +12951,9 @@
       <c r="T198">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U198" s="1"/>
+    </row>
+    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -12780,8 +12999,9 @@
       <c r="T199">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U199" s="1"/>
+    </row>
+    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -12827,8 +13047,9 @@
       <c r="T200">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U200" s="1"/>
+    </row>
+    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -12874,8 +13095,9 @@
       <c r="T201">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U201" s="1"/>
+    </row>
+    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -12921,8 +13143,9 @@
       <c r="T202">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U202" s="1"/>
+    </row>
+    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -12968,8 +13191,9 @@
       <c r="T203">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U203" s="1"/>
+    </row>
+    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -13015,8 +13239,9 @@
       <c r="T204">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U204" s="1"/>
+    </row>
+    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -13062,8 +13287,9 @@
       <c r="T205">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U205" s="1"/>
+    </row>
+    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -13109,8 +13335,9 @@
       <c r="T206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U206" s="1"/>
+    </row>
+    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -13156,8 +13383,9 @@
       <c r="T207">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U207" s="1"/>
+    </row>
+    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -13203,8 +13431,9 @@
       <c r="T208">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U208" s="1"/>
+    </row>
+    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -13250,8 +13479,9 @@
       <c r="T209">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U209" s="1"/>
+    </row>
+    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -13297,8 +13527,9 @@
       <c r="T210">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U210" s="1"/>
+    </row>
+    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -13344,8 +13575,9 @@
       <c r="T211">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U211" s="1"/>
+    </row>
+    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -13391,8 +13623,9 @@
       <c r="T212">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U212" s="1"/>
+    </row>
+    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -13438,8 +13671,9 @@
       <c r="T213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U213" s="1"/>
+    </row>
+    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -13485,8 +13719,9 @@
       <c r="T214">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U214" s="1"/>
+    </row>
+    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -13532,8 +13767,9 @@
       <c r="T215">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U215" s="1"/>
+    </row>
+    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -13579,8 +13815,9 @@
       <c r="T216">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U216" s="1"/>
+    </row>
+    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -13626,8 +13863,9 @@
       <c r="T217">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U217" s="1"/>
+    </row>
+    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -13673,8 +13911,9 @@
       <c r="T218">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U218" s="1"/>
+    </row>
+    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -13723,8 +13962,9 @@
       <c r="T219">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U219" s="1"/>
+    </row>
+    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -13770,8 +14010,9 @@
       <c r="T220">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U220" s="1"/>
+    </row>
+    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>244</v>
       </c>
@@ -13817,8 +14058,9 @@
       <c r="T221">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U221" s="1"/>
+    </row>
+    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -13864,8 +14106,9 @@
       <c r="T222">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U222" s="1"/>
+    </row>
+    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>246</v>
       </c>
@@ -13911,8 +14154,9 @@
       <c r="T223">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U223" s="1"/>
+    </row>
+    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -13958,8 +14202,9 @@
       <c r="T224">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U224" s="1"/>
+    </row>
+    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>248</v>
       </c>
@@ -14005,8 +14250,9 @@
       <c r="T225">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U225" s="1"/>
+    </row>
+    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -14052,8 +14298,9 @@
       <c r="T226">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U226" s="1"/>
+    </row>
+    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -14099,8 +14346,9 @@
       <c r="T227">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U227" s="1"/>
+    </row>
+    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -14146,8 +14394,9 @@
       <c r="T228">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U228" s="1"/>
+    </row>
+    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -14193,8 +14442,9 @@
       <c r="T229">
         <v>12</v>
       </c>
-    </row>
-    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U229" s="1"/>
+    </row>
+    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -14240,8 +14490,9 @@
       <c r="T230">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U230" s="1"/>
+    </row>
+    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -14287,8 +14538,9 @@
       <c r="T231">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U231" s="1"/>
+    </row>
+    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -14334,8 +14586,9 @@
       <c r="T232">
         <v>15</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U232" s="1"/>
+    </row>
+    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -14381,8 +14634,9 @@
       <c r="T233">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U233" s="1"/>
+    </row>
+    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -14428,8 +14682,9 @@
       <c r="T234">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U234" s="1"/>
+    </row>
+    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -14475,8 +14730,9 @@
       <c r="T235">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U235" s="1"/>
+    </row>
+    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -14522,8 +14778,9 @@
       <c r="T236">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U236" s="1"/>
+    </row>
+    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>260</v>
       </c>
@@ -14572,8 +14829,9 @@
       <c r="T237">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U237" s="1"/>
+    </row>
+    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -14619,8 +14877,9 @@
       <c r="T238">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U238" s="1"/>
+    </row>
+    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -14666,8 +14925,9 @@
       <c r="T239">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U239" s="1"/>
+    </row>
+    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -14713,8 +14973,9 @@
       <c r="T240">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U240" s="1"/>
+    </row>
+    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -14760,8 +15021,9 @@
       <c r="T241">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U241" s="1"/>
+    </row>
+    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -14807,8 +15069,9 @@
       <c r="T242">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U242" s="1"/>
+    </row>
+    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -14854,8 +15117,9 @@
       <c r="T243">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U243" s="1"/>
+    </row>
+    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -14901,8 +15165,9 @@
       <c r="T244">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U244" s="1"/>
+    </row>
+    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>268</v>
       </c>
@@ -14948,8 +15213,9 @@
       <c r="T245">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U245" s="1"/>
+    </row>
+    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -14995,8 +15261,9 @@
       <c r="T246">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U246" s="1"/>
+    </row>
+    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>270</v>
       </c>
@@ -15042,8 +15309,9 @@
       <c r="T247">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U247" s="1"/>
+    </row>
+    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -15089,8 +15357,9 @@
       <c r="T248">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U248" s="1"/>
+    </row>
+    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>272</v>
       </c>
@@ -15136,8 +15405,9 @@
       <c r="T249">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U249" s="1"/>
+    </row>
+    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -15186,8 +15456,9 @@
       <c r="T250">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U250" s="1"/>
+    </row>
+    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>274</v>
       </c>
@@ -15236,8 +15507,9 @@
       <c r="T251">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U251" s="1"/>
+    </row>
+    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -15283,8 +15555,9 @@
       <c r="T252">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U252" s="1"/>
+    </row>
+    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>276</v>
       </c>
@@ -15330,8 +15603,9 @@
       <c r="T253">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U253" s="1"/>
+    </row>
+    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -15377,8 +15651,9 @@
       <c r="T254">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U254" s="1"/>
+    </row>
+    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -15424,8 +15699,9 @@
       <c r="T255">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U255" s="1"/>
+    </row>
+    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -15471,8 +15747,9 @@
       <c r="T256">
         <v>10</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U256" s="1"/>
+    </row>
+    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>280</v>
       </c>
@@ -15518,8 +15795,9 @@
       <c r="T257">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U257" s="1"/>
+    </row>
+    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>281</v>
       </c>
@@ -15565,8 +15843,9 @@
       <c r="T258">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U258" s="1"/>
+    </row>
+    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -15612,8 +15891,9 @@
       <c r="T259">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U259" s="1"/>
+    </row>
+    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>283</v>
       </c>
@@ -15659,8 +15939,9 @@
       <c r="T260">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U260" s="1"/>
+    </row>
+    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -15706,8 +15987,9 @@
       <c r="T261">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U261" s="1"/>
+    </row>
+    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>285</v>
       </c>
@@ -15753,8 +16035,9 @@
       <c r="T262">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U262" s="1"/>
+    </row>
+    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -15800,8 +16083,9 @@
       <c r="T263">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U263" s="1"/>
+    </row>
+    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -15847,8 +16131,9 @@
       <c r="T264">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U264" s="1"/>
+    </row>
+    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -15894,8 +16179,9 @@
       <c r="T265">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U265" s="1"/>
+    </row>
+    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -15941,8 +16227,9 @@
       <c r="T266">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U266" s="1"/>
+    </row>
+    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -15988,8 +16275,9 @@
       <c r="T267">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U267" s="1"/>
+    </row>
+    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>291</v>
       </c>
@@ -16035,8 +16323,9 @@
       <c r="T268">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U268" s="1"/>
+    </row>
+    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -16082,8 +16371,9 @@
       <c r="T269">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U269" s="1"/>
+    </row>
+    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -16129,8 +16419,9 @@
       <c r="T270">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U270" s="1"/>
+    </row>
+    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -16176,8 +16467,9 @@
       <c r="T271">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U271" s="1"/>
+    </row>
+    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -16226,8 +16518,9 @@
       <c r="T272">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U272" s="1"/>
+    </row>
+    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -16273,8 +16566,9 @@
       <c r="T273">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U273" s="1"/>
+    </row>
+    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>299</v>
       </c>
@@ -16320,8 +16614,9 @@
       <c r="T274">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U274" s="1"/>
+    </row>
+    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -16370,8 +16665,9 @@
       <c r="T275">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U275" s="1"/>
+    </row>
+    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>301</v>
       </c>
@@ -16420,8 +16716,9 @@
       <c r="T276">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U276" s="1"/>
+    </row>
+    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -16467,8 +16764,9 @@
       <c r="T277">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U277" s="1"/>
+    </row>
+    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>303</v>
       </c>
@@ -16514,8 +16812,9 @@
       <c r="T278">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U278" s="1"/>
+    </row>
+    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -16564,8 +16863,9 @@
       <c r="T279" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U279" s="1"/>
+    </row>
+    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>305</v>
       </c>
@@ -16611,8 +16911,9 @@
       <c r="T280">
         <v>2</v>
       </c>
-    </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U280" s="1"/>
+    </row>
+    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>306</v>
       </c>
@@ -16658,8 +16959,9 @@
       <c r="T281">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U281" s="1"/>
+    </row>
+    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -16705,8 +17007,9 @@
       <c r="T282">
         <v>7</v>
       </c>
-    </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U282" s="1"/>
+    </row>
+    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>308</v>
       </c>
@@ -16755,8 +17058,9 @@
       <c r="T283" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U283" s="1"/>
+    </row>
+    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -16805,8 +17109,9 @@
       <c r="T284">
         <v>8</v>
       </c>
-    </row>
-    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U284" s="1"/>
+    </row>
+    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -16855,8 +17160,9 @@
       <c r="T285">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U285" s="1"/>
+    </row>
+    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -16902,8 +17208,9 @@
       <c r="T286">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U286" s="1"/>
+    </row>
+    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -16949,8 +17256,9 @@
       <c r="T287">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U287" s="1"/>
+    </row>
+    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -16996,8 +17304,9 @@
       <c r="T288">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U288" s="1"/>
+    </row>
+    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -17043,8 +17352,9 @@
       <c r="T289">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U289" s="1"/>
+    </row>
+    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -17090,8 +17400,9 @@
       <c r="T290">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U290" s="1"/>
+    </row>
+    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -17137,8 +17448,9 @@
       <c r="T291">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U291" s="1"/>
+    </row>
+    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -17184,8 +17496,9 @@
       <c r="T292">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U292" s="1"/>
+    </row>
+    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -17231,8 +17544,9 @@
       <c r="T293">
         <v>8</v>
       </c>
-    </row>
-    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U293" s="1"/>
+    </row>
+    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -17278,8 +17592,9 @@
       <c r="T294">
         <v>9</v>
       </c>
-    </row>
-    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U294" s="1"/>
+    </row>
+    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>320</v>
       </c>
@@ -17325,8 +17640,9 @@
       <c r="T295">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U295" s="1"/>
+    </row>
+    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -17372,8 +17688,9 @@
       <c r="T296">
         <v>9</v>
       </c>
-    </row>
-    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U296" s="1"/>
+    </row>
+    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>322</v>
       </c>
@@ -17419,8 +17736,9 @@
       <c r="T297">
         <v>14</v>
       </c>
-    </row>
-    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U297" s="1"/>
+    </row>
+    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -17466,8 +17784,9 @@
       <c r="T298">
         <v>5</v>
       </c>
-    </row>
-    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U298" s="1"/>
+    </row>
+    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>324</v>
       </c>
@@ -17516,8 +17835,9 @@
       <c r="T299">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U299" s="1"/>
+    </row>
+    <row r="300" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -17563,8 +17883,9 @@
       <c r="T300">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U300" s="1"/>
+    </row>
+    <row r="301" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>326</v>
       </c>
@@ -17610,8 +17931,9 @@
       <c r="T301">
         <v>9</v>
       </c>
-    </row>
-    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U301" s="1"/>
+    </row>
+    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -17657,8 +17979,9 @@
       <c r="T302">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U302" s="1"/>
+    </row>
+    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>328</v>
       </c>
@@ -17704,8 +18027,9 @@
       <c r="T303">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U303" s="1"/>
+    </row>
+    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -17751,8 +18075,9 @@
       <c r="T304">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U304" s="1"/>
+    </row>
+    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>330</v>
       </c>
@@ -17798,8 +18123,9 @@
       <c r="T305">
         <v>11</v>
       </c>
-    </row>
-    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U305" s="1"/>
+    </row>
+    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -17845,8 +18171,9 @@
       <c r="T306">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U306" s="1"/>
+    </row>
+    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>332</v>
       </c>
@@ -17892,8 +18219,9 @@
       <c r="T307">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U307" s="1"/>
+    </row>
+    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -17939,8 +18267,9 @@
       <c r="T308">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U308" s="1"/>
+    </row>
+    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>334</v>
       </c>
@@ -17986,8 +18315,9 @@
       <c r="T309">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U309" s="1"/>
+    </row>
+    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -18036,8 +18366,9 @@
       <c r="T310">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U310" s="1"/>
+    </row>
+    <row r="311" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -18083,8 +18414,9 @@
       <c r="T311">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U311" s="1"/>
+    </row>
+    <row r="312" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -18130,8 +18462,9 @@
       <c r="T312">
         <v>5</v>
       </c>
-    </row>
-    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U312" s="1"/>
+    </row>
+    <row r="313" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -18177,8 +18510,9 @@
       <c r="T313">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U313" s="1"/>
+    </row>
+    <row r="314" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -18227,8 +18561,9 @@
       <c r="T314">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U314" s="1"/>
+    </row>
+    <row r="315" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -18274,8 +18609,9 @@
       <c r="T315">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U315" s="1"/>
+    </row>
+    <row r="316" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -18321,8 +18657,9 @@
       <c r="T316">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U316" s="1"/>
+    </row>
+    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -18371,8 +18708,9 @@
       <c r="T317">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U317" s="1"/>
+    </row>
+    <row r="318" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -18418,8 +18756,9 @@
       <c r="T318">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U318" s="1"/>
+    </row>
+    <row r="319" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -18465,8 +18804,9 @@
       <c r="T319">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U319" s="1"/>
+    </row>
+    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -18515,8 +18855,9 @@
       <c r="T320">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U320" s="1"/>
+    </row>
+    <row r="321" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -18562,8 +18903,9 @@
       <c r="T321">
         <v>10</v>
       </c>
-    </row>
-    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U321" s="1"/>
+    </row>
+    <row r="322" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -18612,8 +18954,9 @@
       <c r="T322" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U322" s="1"/>
+    </row>
+    <row r="323" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>349</v>
       </c>
@@ -18659,8 +19002,9 @@
       <c r="T323">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U323" s="1"/>
+    </row>
+    <row r="324" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -18709,8 +19053,9 @@
       <c r="T324" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U324" s="1"/>
+    </row>
+    <row r="325" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>352</v>
       </c>
@@ -18756,8 +19101,9 @@
       <c r="T325">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U325" s="1"/>
+    </row>
+    <row r="326" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -18803,8 +19149,9 @@
       <c r="T326">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U326" s="1"/>
+    </row>
+    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>354</v>
       </c>
@@ -18850,8 +19197,9 @@
       <c r="T327">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U327" s="1"/>
+    </row>
+    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>355</v>
       </c>
@@ -18897,8 +19245,9 @@
       <c r="T328">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U328" s="1"/>
+    </row>
+    <row r="329" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -18944,8 +19293,9 @@
       <c r="T329">
         <v>7</v>
       </c>
-    </row>
-    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U329" s="1"/>
+    </row>
+    <row r="330" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>357</v>
       </c>
@@ -18991,8 +19341,9 @@
       <c r="T330">
         <v>11</v>
       </c>
-    </row>
-    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U330" s="1"/>
+    </row>
+    <row r="331" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -19038,8 +19389,9 @@
       <c r="T331">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U331" s="1"/>
+    </row>
+    <row r="332" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>359</v>
       </c>
@@ -19088,8 +19440,9 @@
       <c r="T332">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U332" s="1"/>
+    </row>
+    <row r="333" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -19135,8 +19488,9 @@
       <c r="T333">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U333" s="1"/>
+    </row>
+    <row r="334" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>361</v>
       </c>
@@ -19185,8 +19539,9 @@
       <c r="T334">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U334" s="1"/>
+    </row>
+    <row r="335" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -19232,8 +19587,9 @@
       <c r="T335">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U335" s="1"/>
+    </row>
+    <row r="336" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>363</v>
       </c>
@@ -19282,8 +19638,9 @@
       <c r="T336">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U336" s="1"/>
+    </row>
+    <row r="337" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -19329,8 +19686,9 @@
       <c r="T337">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U337" s="1"/>
+    </row>
+    <row r="338" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>365</v>
       </c>
@@ -19376,8 +19734,9 @@
       <c r="T338">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U338" s="1"/>
+    </row>
+    <row r="339" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -19423,8 +19782,9 @@
       <c r="T339">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U339" s="1"/>
+    </row>
+    <row r="340" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>367</v>
       </c>
@@ -19470,8 +19830,9 @@
       <c r="T340">
         <v>24</v>
       </c>
-    </row>
-    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U340" s="1"/>
+    </row>
+    <row r="341" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -19517,8 +19878,9 @@
       <c r="T341">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U341" s="1"/>
+    </row>
+    <row r="342" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>369</v>
       </c>
@@ -19564,8 +19926,9 @@
       <c r="T342">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U342" s="1"/>
+    </row>
+    <row r="343" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -19614,8 +19977,9 @@
       <c r="T343">
         <v>27</v>
       </c>
-    </row>
-    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U343" s="1"/>
+    </row>
+    <row r="344" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>371</v>
       </c>
@@ -19661,8 +20025,9 @@
       <c r="T344">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U344" s="1"/>
+    </row>
+    <row r="345" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -19708,8 +20073,9 @@
       <c r="T345">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U345" s="1"/>
+    </row>
+    <row r="346" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>373</v>
       </c>
@@ -19755,8 +20121,9 @@
       <c r="T346">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U346" s="1"/>
+    </row>
+    <row r="347" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -19802,8 +20169,9 @@
       <c r="T347">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U347" s="1"/>
+    </row>
+    <row r="348" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>375</v>
       </c>
@@ -19849,8 +20217,9 @@
       <c r="T348">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U348" s="1"/>
+    </row>
+    <row r="349" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -19896,8 +20265,9 @@
       <c r="T349">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U349" s="1"/>
+    </row>
+    <row r="350" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>377</v>
       </c>
@@ -19946,8 +20316,9 @@
       <c r="T350">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U350" s="1"/>
+    </row>
+    <row r="351" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>378</v>
       </c>
@@ -19993,8 +20364,9 @@
       <c r="T351">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U351" s="1"/>
+    </row>
+    <row r="352" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -20043,8 +20415,9 @@
       <c r="T352">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U352" s="1"/>
+    </row>
+    <row r="353" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>380</v>
       </c>
@@ -20090,8 +20463,9 @@
       <c r="T353">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U353" s="1"/>
+    </row>
+    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -20137,8 +20511,9 @@
       <c r="T354">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U354" s="1"/>
+    </row>
+    <row r="355" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>382</v>
       </c>
@@ -20187,8 +20562,9 @@
       <c r="T355" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U355" s="1"/>
+    </row>
+    <row r="356" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -20234,8 +20610,9 @@
       <c r="T356">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U356" s="1"/>
+    </row>
+    <row r="357" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>384</v>
       </c>
@@ -20284,8 +20661,9 @@
       <c r="T357">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U357" s="1"/>
+    </row>
+    <row r="358" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -20331,8 +20709,9 @@
       <c r="T358">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U358" s="1"/>
+    </row>
+    <row r="359" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>386</v>
       </c>
@@ -20378,8 +20757,9 @@
       <c r="T359">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U359" s="1"/>
+    </row>
+    <row r="360" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -20425,8 +20805,9 @@
       <c r="T360">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U360" s="1"/>
+    </row>
+    <row r="361" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>388</v>
       </c>
@@ -20472,8 +20853,9 @@
       <c r="T361">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U361" s="1"/>
+    </row>
+    <row r="362" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -20519,8 +20901,9 @@
       <c r="T362">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U362" s="1"/>
+    </row>
+    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -20566,8 +20949,9 @@
       <c r="T363">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U363" s="1"/>
+    </row>
+    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -20616,8 +21000,9 @@
       <c r="T364">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U364" s="1"/>
+    </row>
+    <row r="365" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -20663,8 +21048,9 @@
       <c r="T365">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U365" s="1"/>
+    </row>
+    <row r="366" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -20710,8 +21096,9 @@
       <c r="T366">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U366" s="1"/>
+    </row>
+    <row r="367" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -20757,8 +21144,9 @@
       <c r="T367">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U367" s="1"/>
+    </row>
+    <row r="368" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -20807,8 +21195,9 @@
       <c r="T368">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U368" s="1"/>
+    </row>
+    <row r="369" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -20857,8 +21246,9 @@
       <c r="T369">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U369" s="1"/>
+    </row>
+    <row r="370" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -20904,8 +21294,9 @@
       <c r="T370">
         <v>2</v>
       </c>
-    </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U370" s="1"/>
+    </row>
+    <row r="371" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -20951,8 +21342,9 @@
       <c r="T371">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U371" s="1"/>
+    </row>
+    <row r="372" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -20998,8 +21390,9 @@
       <c r="T372">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U372" s="1"/>
+    </row>
+    <row r="373" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -21045,8 +21438,9 @@
       <c r="T373">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U373" s="1"/>
+    </row>
+    <row r="374" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -21092,8 +21486,9 @@
       <c r="T374">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U374" s="1"/>
+    </row>
+    <row r="375" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -21139,8 +21534,9 @@
       <c r="T375">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U375" s="1"/>
+    </row>
+    <row r="376" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -21189,8 +21585,9 @@
       <c r="T376">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U376" s="1"/>
+    </row>
+    <row r="377" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -21236,8 +21633,9 @@
       <c r="T377">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U377" s="1"/>
+    </row>
+    <row r="378" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -21283,8 +21681,9 @@
       <c r="T378">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U378" s="1"/>
+    </row>
+    <row r="379" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -21330,8 +21729,9 @@
       <c r="T379">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U379" s="1"/>
+    </row>
+    <row r="380" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -21380,8 +21780,9 @@
       <c r="T380" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U380" s="1"/>
+    </row>
+    <row r="381" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -21430,8 +21831,9 @@
       <c r="T381">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U381" s="1"/>
+    </row>
+    <row r="382" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -21477,8 +21879,9 @@
       <c r="T382">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U382" s="1"/>
+    </row>
+    <row r="383" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>415</v>
       </c>
@@ -21524,8 +21927,9 @@
       <c r="T383">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U383" s="1"/>
+    </row>
+    <row r="384" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -21571,8 +21975,9 @@
       <c r="T384">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U384" s="1"/>
+    </row>
+    <row r="385" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>417</v>
       </c>
@@ -21618,8 +22023,9 @@
       <c r="T385">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U385" s="1"/>
+    </row>
+    <row r="386" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -21665,8 +22071,9 @@
       <c r="T386">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U386" s="1"/>
+    </row>
+    <row r="387" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>419</v>
       </c>
@@ -21715,8 +22122,9 @@
       <c r="T387" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U387" s="1"/>
+    </row>
+    <row r="388" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -21762,8 +22170,9 @@
       <c r="T388">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U388" s="1"/>
+    </row>
+    <row r="389" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>422</v>
       </c>
@@ -21809,8 +22218,9 @@
       <c r="T389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U389" s="1"/>
+    </row>
+    <row r="390" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -21856,8 +22266,9 @@
       <c r="T390">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U390" s="1"/>
+    </row>
+    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>424</v>
       </c>
@@ -21903,8 +22314,9 @@
       <c r="T391">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U391" s="1"/>
+    </row>
+    <row r="392" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -21953,8 +22365,9 @@
       <c r="T392" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U392" s="1"/>
+    </row>
+    <row r="393" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -22000,8 +22413,9 @@
       <c r="T393">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U393" s="1"/>
+    </row>
+    <row r="394" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -22050,8 +22464,9 @@
       <c r="T394">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U394" s="1"/>
+    </row>
+    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -22097,8 +22512,9 @@
       <c r="T395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U395" s="1"/>
+    </row>
+    <row r="396" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -22144,8 +22560,9 @@
       <c r="T396">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U396" s="1"/>
+    </row>
+    <row r="397" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -22191,8 +22608,9 @@
       <c r="T397">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U397" s="1"/>
+    </row>
+    <row r="398" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -22238,8 +22656,9 @@
       <c r="T398">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U398" s="1"/>
+    </row>
+    <row r="399" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -22288,8 +22707,9 @@
       <c r="T399">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U399" s="1"/>
+    </row>
+    <row r="400" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>434</v>
       </c>
@@ -22335,8 +22755,9 @@
       <c r="T400">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U400" s="1"/>
+    </row>
+    <row r="401" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -22382,8 +22803,9 @@
       <c r="T401">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U401" s="1"/>
+    </row>
+    <row r="402" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>436</v>
       </c>
@@ -22432,8 +22854,9 @@
       <c r="T402" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U402" s="1"/>
+    </row>
+    <row r="403" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -22482,8 +22905,9 @@
       <c r="T403">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U403" s="1"/>
+    </row>
+    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>438</v>
       </c>
@@ -22532,8 +22956,9 @@
       <c r="T404" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U404" s="1"/>
+    </row>
+    <row r="405" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>439</v>
       </c>
@@ -22579,8 +23004,9 @@
       <c r="T405">
         <v>2</v>
       </c>
-    </row>
-    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U405" s="1"/>
+    </row>
+    <row r="406" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -22626,8 +23052,9 @@
       <c r="T406">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U406" s="1"/>
+    </row>
+    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>441</v>
       </c>
@@ -22673,8 +23100,9 @@
       <c r="T407">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U407" s="1"/>
+    </row>
+    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -22720,8 +23148,9 @@
       <c r="T408">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U408" s="1"/>
+    </row>
+    <row r="409" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>443</v>
       </c>
@@ -22767,8 +23196,9 @@
       <c r="T409">
         <v>3</v>
       </c>
-    </row>
-    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U409" s="1"/>
+    </row>
+    <row r="410" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -22814,8 +23244,9 @@
       <c r="T410">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U410" s="1"/>
+    </row>
+    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>445</v>
       </c>
@@ -22861,8 +23292,9 @@
       <c r="T411">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U411" s="1"/>
+    </row>
+    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -22908,8 +23340,9 @@
       <c r="T412">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U412" s="1"/>
+    </row>
+    <row r="413" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>447</v>
       </c>
@@ -22955,8 +23388,9 @@
       <c r="T413">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U413" s="1"/>
+    </row>
+    <row r="414" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -23002,8 +23436,9 @@
       <c r="T414">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U414" s="1"/>
+    </row>
+    <row r="415" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>449</v>
       </c>
@@ -23049,8 +23484,9 @@
       <c r="T415">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U415" s="1"/>
+    </row>
+    <row r="416" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -23099,8 +23535,9 @@
       <c r="T416" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U416" s="1"/>
+    </row>
+    <row r="417" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>451</v>
       </c>
@@ -23149,8 +23586,9 @@
       <c r="T417" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U417" s="1"/>
+    </row>
+    <row r="418" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -23196,8 +23634,9 @@
       <c r="T418">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U418" s="1"/>
+    </row>
+    <row r="419" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>453</v>
       </c>
@@ -23243,8 +23682,9 @@
       <c r="T419">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U419" s="1"/>
+    </row>
+    <row r="420" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -23290,8 +23730,9 @@
       <c r="T420">
         <v>1</v>
       </c>
-    </row>
-    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U420" s="1"/>
+    </row>
+    <row r="421" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -23340,8 +23781,9 @@
       <c r="T421" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U421" s="1"/>
+    </row>
+    <row r="422" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>457</v>
       </c>
@@ -23387,8 +23829,9 @@
       <c r="T422">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U422" s="1"/>
+    </row>
+    <row r="423" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>458</v>
       </c>
@@ -23437,8 +23880,9 @@
       <c r="T423" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U423" s="1"/>
+    </row>
+    <row r="424" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>460</v>
       </c>
@@ -23484,8 +23928,9 @@
       <c r="T424">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U424" s="1"/>
+    </row>
+    <row r="425" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>461</v>
       </c>
@@ -23531,8 +23976,9 @@
       <c r="T425">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U425" s="1"/>
+    </row>
+    <row r="426" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>462</v>
       </c>
@@ -23581,8 +24027,9 @@
       <c r="T426" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U426" s="1"/>
+    </row>
+    <row r="427" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>463</v>
       </c>
@@ -23628,8 +24075,9 @@
       <c r="T427">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U427" s="1"/>
+    </row>
+    <row r="428" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>464</v>
       </c>
@@ -23675,8 +24123,9 @@
       <c r="T428">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U428" s="1"/>
+    </row>
+    <row r="429" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>465</v>
       </c>
@@ -23722,8 +24171,9 @@
       <c r="T429" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U429" s="1"/>
+    </row>
+    <row r="430" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>467</v>
       </c>
@@ -23769,8 +24219,9 @@
       <c r="T430">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U430" s="1"/>
+    </row>
+    <row r="431" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>468</v>
       </c>
@@ -23819,8 +24270,9 @@
       <c r="T431" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U431" s="1"/>
+    </row>
+    <row r="432" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>469</v>
       </c>
@@ -23866,8 +24318,9 @@
       <c r="T432">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U432" s="1"/>
+    </row>
+    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>470</v>
       </c>
@@ -23913,8 +24366,9 @@
       <c r="T433">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U433" s="1"/>
+    </row>
+    <row r="434" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>471</v>
       </c>
@@ -23960,8 +24414,9 @@
       <c r="T434">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U434" s="1"/>
+    </row>
+    <row r="435" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>472</v>
       </c>
@@ -24007,8 +24462,9 @@
       <c r="T435">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U435" s="1"/>
+    </row>
+    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>473</v>
       </c>
@@ -24054,8 +24510,9 @@
       <c r="T436">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U436" s="1"/>
+    </row>
+    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>474</v>
       </c>
@@ -24101,8 +24558,9 @@
       <c r="T437">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U437" s="1"/>
+    </row>
+    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>475</v>
       </c>
@@ -24148,8 +24606,9 @@
       <c r="T438">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U438" s="1"/>
+    </row>
+    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>476</v>
       </c>
@@ -24195,8 +24654,9 @@
       <c r="T439">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U439" s="1"/>
+    </row>
+    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>477</v>
       </c>
@@ -24242,8 +24702,9 @@
       <c r="T440">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U440" s="1"/>
+    </row>
+    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>478</v>
       </c>
@@ -24289,8 +24750,9 @@
       <c r="T441">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U441" s="1"/>
+    </row>
+    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>479</v>
       </c>
@@ -24339,8 +24801,9 @@
       <c r="T442" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U442" s="1"/>
+    </row>
+    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>481</v>
       </c>
@@ -24386,8 +24849,9 @@
       <c r="T443">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U443" s="1"/>
+    </row>
+    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>482</v>
       </c>
@@ -24433,8 +24897,9 @@
       <c r="T444" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U444" s="1"/>
+    </row>
+    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>483</v>
       </c>
@@ -24480,8 +24945,9 @@
       <c r="T445">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U445" s="1"/>
+    </row>
+    <row r="446" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>484</v>
       </c>
@@ -24527,8 +24993,9 @@
       <c r="T446">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U446" s="1"/>
+    </row>
+    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>485</v>
       </c>
@@ -24574,8 +25041,9 @@
       <c r="T447">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U447" s="1"/>
+    </row>
+    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>486</v>
       </c>
@@ -24621,8 +25089,9 @@
       <c r="T448">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U448" s="1"/>
+    </row>
+    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>487</v>
       </c>
@@ -24668,8 +25137,9 @@
       <c r="T449">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U449" s="1"/>
+    </row>
+    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>488</v>
       </c>
@@ -24715,8 +25185,9 @@
       <c r="T450">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U450" s="1"/>
+    </row>
+    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>489</v>
       </c>
@@ -24765,8 +25236,9 @@
       <c r="T451" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="452" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U451" s="1"/>
+    </row>
+    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>490</v>
       </c>
@@ -24812,8 +25284,9 @@
       <c r="T452">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U452" s="1"/>
+    </row>
+    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>493</v>
       </c>
@@ -24859,8 +25332,9 @@
       <c r="T453">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="454" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U453" s="1"/>
+    </row>
+    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>494</v>
       </c>
@@ -24906,8 +25380,9 @@
       <c r="T454">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="455" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U454" s="1"/>
+    </row>
+    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>495</v>
       </c>
@@ -24953,8 +25428,9 @@
       <c r="T455">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="456" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U455" s="1"/>
+    </row>
+    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>496</v>
       </c>
@@ -25000,8 +25476,9 @@
       <c r="T456">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U456" s="1"/>
+    </row>
+    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>497</v>
       </c>
@@ -25047,8 +25524,9 @@
       <c r="T457">
         <v>3</v>
       </c>
-    </row>
-    <row r="458" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U457" s="1"/>
+    </row>
+    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>498</v>
       </c>
@@ -25094,8 +25572,9 @@
       <c r="T458">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="459" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U458" s="1"/>
+    </row>
+    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>499</v>
       </c>
@@ -25141,8 +25620,9 @@
       <c r="T459">
         <v>15</v>
       </c>
-    </row>
-    <row r="460" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U459" s="1"/>
+    </row>
+    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>500</v>
       </c>
@@ -25188,8 +25668,9 @@
       <c r="T460">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="461" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U460" s="1"/>
+    </row>
+    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>501</v>
       </c>
@@ -25235,8 +25716,9 @@
       <c r="T461">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="462" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U461" s="1"/>
+    </row>
+    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>502</v>
       </c>
@@ -25282,8 +25764,9 @@
       <c r="T462">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="463" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U462" s="1"/>
+    </row>
+    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>503</v>
       </c>
@@ -25329,8 +25812,9 @@
       <c r="T463">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="464" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U463" s="1"/>
+    </row>
+    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>504</v>
       </c>
@@ -25376,8 +25860,9 @@
       <c r="T464">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="465" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U464" s="1"/>
+    </row>
+    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>505</v>
       </c>
@@ -25423,8 +25908,9 @@
       <c r="T465">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="466" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U465" s="1"/>
+    </row>
+    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>506</v>
       </c>
@@ -25470,8 +25956,9 @@
       <c r="T466">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="467" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U466" s="1"/>
+    </row>
+    <row r="467" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>507</v>
       </c>
@@ -25517,8 +26004,9 @@
       <c r="T467">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="468" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U467" s="1"/>
+    </row>
+    <row r="468" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>508</v>
       </c>
@@ -25564,8 +26052,9 @@
       <c r="T468">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="469" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U468" s="1"/>
+    </row>
+    <row r="469" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>509</v>
       </c>
@@ -25611,8 +26100,9 @@
       <c r="T469">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="470" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U469" s="1"/>
+    </row>
+    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>510</v>
       </c>
@@ -25658,8 +26148,9 @@
       <c r="T470">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="471" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U470" s="1"/>
+    </row>
+    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>511</v>
       </c>
@@ -25705,8 +26196,9 @@
       <c r="T471">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="472" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U471" s="1"/>
+    </row>
+    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>512</v>
       </c>
@@ -25752,8 +26244,9 @@
       <c r="T472">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="473" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U472" s="1"/>
+    </row>
+    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>513</v>
       </c>
@@ -25799,8 +26292,9 @@
       <c r="T473">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="474" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U473" s="1"/>
+    </row>
+    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>514</v>
       </c>
@@ -25849,8 +26343,9 @@
       <c r="T474">
         <v>3</v>
       </c>
-    </row>
-    <row r="475" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U474" s="1"/>
+    </row>
+    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>516</v>
       </c>
@@ -25896,8 +26391,9 @@
       <c r="T475">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="476" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U475" s="1"/>
+    </row>
+    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>517</v>
       </c>
@@ -25943,8 +26439,9 @@
       <c r="T476">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="477" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U476" s="1"/>
+    </row>
+    <row r="477" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>518</v>
       </c>
@@ -25990,8 +26487,9 @@
       <c r="T477">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="478" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U477" s="1"/>
+    </row>
+    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>519</v>
       </c>
@@ -26037,8 +26535,9 @@
       <c r="T478">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="479" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U478" s="1"/>
+    </row>
+    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>520</v>
       </c>
@@ -26084,8 +26583,9 @@
       <c r="T479">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="480" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U479" s="1"/>
+    </row>
+    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>521</v>
       </c>
@@ -26131,8 +26631,9 @@
       <c r="T480">
         <v>18</v>
       </c>
-    </row>
-    <row r="481" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U480" s="1"/>
+    </row>
+    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>522</v>
       </c>
@@ -26178,8 +26679,9 @@
       <c r="T481">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="482" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U481" s="1"/>
+    </row>
+    <row r="482" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>523</v>
       </c>
@@ -26225,8 +26727,9 @@
       <c r="T482">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="483" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U482" s="1"/>
+    </row>
+    <row r="483" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>524</v>
       </c>
@@ -26272,8 +26775,9 @@
       <c r="T483">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="484" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U483" s="1"/>
+    </row>
+    <row r="484" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>525</v>
       </c>
@@ -26319,8 +26823,9 @@
       <c r="T484">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U484" s="1"/>
+    </row>
+    <row r="485" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>526</v>
       </c>
@@ -26366,8 +26871,9 @@
       <c r="T485">
         <v>8</v>
       </c>
-    </row>
-    <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U485" s="1"/>
+    </row>
+    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>527</v>
       </c>
@@ -26413,8 +26919,9 @@
       <c r="T486">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U486" s="1"/>
+    </row>
+    <row r="487" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>528</v>
       </c>
@@ -26460,8 +26967,9 @@
       <c r="T487">
         <v>4</v>
       </c>
-    </row>
-    <row r="488" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U487" s="1"/>
+    </row>
+    <row r="488" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>529</v>
       </c>
@@ -26507,8 +27015,9 @@
       <c r="T488">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="489" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U488" s="1"/>
+    </row>
+    <row r="489" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>530</v>
       </c>
@@ -26554,8 +27063,9 @@
       <c r="T489">
         <v>15</v>
       </c>
-    </row>
-    <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U489" s="1"/>
+    </row>
+    <row r="490" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>531</v>
       </c>
@@ -26601,8 +27111,9 @@
       <c r="T490">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U490" s="1"/>
+    </row>
+    <row r="491" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>532</v>
       </c>
@@ -26648,8 +27159,9 @@
       <c r="T491">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U491" s="1"/>
+    </row>
+    <row r="492" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>533</v>
       </c>
@@ -26695,8 +27207,9 @@
       <c r="T492">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U492" s="1"/>
+    </row>
+    <row r="493" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>534</v>
       </c>
@@ -26742,8 +27255,9 @@
       <c r="T493">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U493" s="1"/>
+    </row>
+    <row r="494" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>535</v>
       </c>
@@ -26789,8 +27303,9 @@
       <c r="T494">
         <v>2</v>
       </c>
-    </row>
-    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U494" s="1"/>
+    </row>
+    <row r="495" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>536</v>
       </c>
@@ -26839,8 +27354,9 @@
       <c r="T495" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="496" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U495" s="1"/>
+    </row>
+    <row r="496" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>538</v>
       </c>
@@ -26886,8 +27402,9 @@
       <c r="T496">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="497" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U496" s="1"/>
+    </row>
+    <row r="497" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>539</v>
       </c>
@@ -26933,8 +27450,9 @@
       <c r="T497">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="498" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U497" s="1"/>
+    </row>
+    <row r="498" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>540</v>
       </c>
@@ -26980,8 +27498,9 @@
       <c r="T498">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="499" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U498" s="1"/>
+    </row>
+    <row r="499" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>541</v>
       </c>
@@ -27027,8 +27546,9 @@
       <c r="T499">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="500" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U499" s="1"/>
+    </row>
+    <row r="500" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>542</v>
       </c>
@@ -27074,8 +27594,9 @@
       <c r="T500">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="501" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U500" s="1"/>
+    </row>
+    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>543</v>
       </c>
@@ -27121,8 +27642,9 @@
       <c r="T501">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="502" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U501" s="1"/>
+    </row>
+    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>544</v>
       </c>
@@ -27168,8 +27690,9 @@
       <c r="T502">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="503" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U502" s="1"/>
+    </row>
+    <row r="503" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>545</v>
       </c>
@@ -27215,8 +27738,9 @@
       <c r="T503">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="504" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U503" s="1"/>
+    </row>
+    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>546</v>
       </c>
@@ -27262,8 +27786,9 @@
       <c r="T504">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="505" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U504" s="1"/>
+    </row>
+    <row r="505" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>547</v>
       </c>
@@ -27309,8 +27834,9 @@
       <c r="T505">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="506" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U505" s="1"/>
+    </row>
+    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>548</v>
       </c>
@@ -27356,8 +27882,9 @@
       <c r="T506">
         <v>4</v>
       </c>
-    </row>
-    <row r="507" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U506" s="1"/>
+    </row>
+    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>549</v>
       </c>
@@ -27403,8 +27930,9 @@
       <c r="T507">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="508" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U507" s="1"/>
+    </row>
+    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>550</v>
       </c>
@@ -27450,8 +27978,9 @@
       <c r="T508">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="509" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U508" s="1"/>
+    </row>
+    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>551</v>
       </c>
@@ -27497,8 +28026,9 @@
       <c r="T509">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="510" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U509" s="1"/>
+    </row>
+    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>552</v>
       </c>
@@ -27544,8 +28074,9 @@
       <c r="T510">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U510" s="1"/>
+    </row>
+    <row r="511" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>553</v>
       </c>
@@ -27591,8 +28122,9 @@
       <c r="T511">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="512" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U511" s="1"/>
+    </row>
+    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>554</v>
       </c>
@@ -27638,8 +28170,9 @@
       <c r="T512">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="513" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U512" s="1"/>
+    </row>
+    <row r="513" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>555</v>
       </c>
@@ -27685,8 +28218,9 @@
       <c r="T513">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="514" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U513" s="1"/>
+    </row>
+    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>556</v>
       </c>
@@ -27732,8 +28266,9 @@
       <c r="T514">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="515" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U514" s="1"/>
+    </row>
+    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>557</v>
       </c>
@@ -27779,8 +28314,9 @@
       <c r="T515">
         <v>17</v>
       </c>
-    </row>
-    <row r="516" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U515" s="1"/>
+    </row>
+    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>558</v>
       </c>
@@ -27826,8 +28362,9 @@
       <c r="T516">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="517" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U516" s="1"/>
+    </row>
+    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>559</v>
       </c>
@@ -27876,8 +28413,9 @@
       <c r="T517" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="518" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U517" s="1"/>
+    </row>
+    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>560</v>
       </c>
@@ -27926,8 +28464,9 @@
       <c r="T518" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="519" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U518" s="1"/>
+    </row>
+    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>561</v>
       </c>
@@ -27973,8 +28512,9 @@
       <c r="T519">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="520" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U519" s="1"/>
+    </row>
+    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>562</v>
       </c>
@@ -28020,8 +28560,9 @@
       <c r="T520">
         <v>3</v>
       </c>
-    </row>
-    <row r="521" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U520" s="1"/>
+    </row>
+    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>563</v>
       </c>
@@ -28067,8 +28608,9 @@
       <c r="T521">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="522" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U521" s="1"/>
+    </row>
+    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>564</v>
       </c>
@@ -28114,8 +28656,9 @@
       <c r="T522">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="523" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U522" s="1"/>
+    </row>
+    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>565</v>
       </c>
@@ -28161,8 +28704,9 @@
       <c r="T523">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="524" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U523" s="1"/>
+    </row>
+    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>566</v>
       </c>
@@ -28208,8 +28752,9 @@
       <c r="T524">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="525" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U524" s="1"/>
+    </row>
+    <row r="525" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>567</v>
       </c>
@@ -28255,8 +28800,9 @@
       <c r="T525">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="526" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U525" s="1"/>
+    </row>
+    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>568</v>
       </c>
@@ -28302,8 +28848,9 @@
       <c r="T526">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="527" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U526" s="1"/>
+    </row>
+    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>569</v>
       </c>
@@ -28349,8 +28896,9 @@
       <c r="T527">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="528" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U527" s="1"/>
+    </row>
+    <row r="528" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>570</v>
       </c>
@@ -28396,8 +28944,9 @@
       <c r="T528">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="529" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U528" s="1"/>
+    </row>
+    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>571</v>
       </c>
@@ -28443,8 +28992,9 @@
       <c r="T529">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="530" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U529" s="1"/>
+    </row>
+    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>572</v>
       </c>
@@ -28490,8 +29040,9 @@
       <c r="T530">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="531" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U530" s="1"/>
+    </row>
+    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>573</v>
       </c>
@@ -28537,8 +29088,9 @@
       <c r="T531">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="532" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U531" s="1"/>
+    </row>
+    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>574</v>
       </c>
@@ -28587,8 +29139,9 @@
       <c r="T532">
         <v>4</v>
       </c>
-    </row>
-    <row r="533" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U532" s="1"/>
+    </row>
+    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>576</v>
       </c>
@@ -28634,8 +29187,9 @@
       <c r="T533">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="534" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U533" s="1"/>
+    </row>
+    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>577</v>
       </c>
@@ -28681,8 +29235,9 @@
       <c r="T534">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="535" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U534" s="1"/>
+    </row>
+    <row r="535" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>578</v>
       </c>
@@ -28728,8 +29283,9 @@
       <c r="T535">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="536" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U535" s="1"/>
+    </row>
+    <row r="536" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>579</v>
       </c>
@@ -28775,8 +29331,9 @@
       <c r="T536">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="537" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U536" s="1"/>
+    </row>
+    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>580</v>
       </c>
@@ -28822,8 +29379,9 @@
       <c r="T537">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="538" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U537" s="1"/>
+    </row>
+    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>581</v>
       </c>
@@ -28869,8 +29427,9 @@
       <c r="T538">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="539" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U538" s="1"/>
+    </row>
+    <row r="539" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>582</v>
       </c>
@@ -28916,8 +29475,9 @@
       <c r="T539">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="540" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U539" s="1"/>
+    </row>
+    <row r="540" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>583</v>
       </c>
@@ -28963,8 +29523,9 @@
       <c r="T540">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="541" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U540" s="1"/>
+    </row>
+    <row r="541" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>584</v>
       </c>
@@ -29010,8 +29571,9 @@
       <c r="T541">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="542" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U541" s="1"/>
+    </row>
+    <row r="542" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>585</v>
       </c>
@@ -29060,8 +29622,11 @@
       <c r="T542" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="543" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U542" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>588</v>
       </c>
@@ -29107,8 +29672,11 @@
       <c r="T543">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="544" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U543" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="544" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>589</v>
       </c>
@@ -29157,8 +29725,11 @@
       <c r="T544" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="545" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U544" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="545" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>590</v>
       </c>
@@ -29204,8 +29775,11 @@
       <c r="T545">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="546" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U545" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="546" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>591</v>
       </c>
@@ -29251,8 +29825,11 @@
       <c r="T546">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="547" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U546" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>592</v>
       </c>
@@ -29298,8 +29875,11 @@
       <c r="T547">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="548" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U547" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>593</v>
       </c>
@@ -29345,8 +29925,11 @@
       <c r="T548">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="549" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U548" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>594</v>
       </c>
@@ -29392,8 +29975,11 @@
       <c r="T549">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="550" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U549" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>595</v>
       </c>
@@ -29439,8 +30025,11 @@
       <c r="T550">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="551" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U550" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>596</v>
       </c>
@@ -29489,8 +30078,11 @@
       <c r="T551">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="552" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U551" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>597</v>
       </c>
@@ -29539,8 +30131,11 @@
       <c r="T552" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="553" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U552" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="553" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>598</v>
       </c>
@@ -29586,8 +30181,11 @@
       <c r="T553">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="554" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U553" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>599</v>
       </c>
@@ -29633,8 +30231,11 @@
       <c r="T554">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="555" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U554" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>600</v>
       </c>
@@ -29680,8 +30281,11 @@
       <c r="T555">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="556" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U555" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>601</v>
       </c>
@@ -29727,8 +30331,11 @@
       <c r="T556">
         <v>1</v>
       </c>
-    </row>
-    <row r="557" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U556" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>602</v>
       </c>
@@ -29777,8 +30384,11 @@
       <c r="T557" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="558" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U557" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="558" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>603</v>
       </c>
@@ -29824,8 +30434,11 @@
       <c r="T558">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="559" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U558" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="559" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>604</v>
       </c>
@@ -29871,8 +30484,11 @@
       <c r="T559">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="560" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U559" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="560" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>605</v>
       </c>
@@ -29921,8 +30537,11 @@
       <c r="T560">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="561" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U560" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>606</v>
       </c>
@@ -29968,8 +30587,11 @@
       <c r="T561">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="562" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U561" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="562" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>607</v>
       </c>
@@ -30015,8 +30637,11 @@
       <c r="T562">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="563" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U562" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="563" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>608</v>
       </c>
@@ -30062,8 +30687,11 @@
       <c r="T563">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="564" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U563" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="564" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>609</v>
       </c>
@@ -30112,8 +30740,11 @@
       <c r="T564">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="565" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U564" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="565" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>610</v>
       </c>
@@ -30159,8 +30790,11 @@
       <c r="T565">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="566" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U565" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>611</v>
       </c>
@@ -30209,8 +30843,11 @@
       <c r="T566" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="567" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U566" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="567" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>612</v>
       </c>
@@ -30256,8 +30893,11 @@
       <c r="T567">
         <v>1</v>
       </c>
-    </row>
-    <row r="568" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U567" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>613</v>
       </c>
@@ -30303,8 +30943,11 @@
       <c r="T568">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="569" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U568" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="569" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>614</v>
       </c>
@@ -30350,8 +30993,11 @@
       <c r="T569">
         <v>3</v>
       </c>
-    </row>
-    <row r="570" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U569" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="570" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>615</v>
       </c>
@@ -30397,8 +31043,11 @@
       <c r="T570">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="571" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U570" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="571" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>616</v>
       </c>
@@ -30444,8 +31093,11 @@
       <c r="T571" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="572" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U571" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="572" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>617</v>
       </c>
@@ -30491,8 +31143,11 @@
       <c r="T572">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="573" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U572" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="573" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>618</v>
       </c>
@@ -30538,8 +31193,11 @@
       <c r="T573">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="574" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U573" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>619</v>
       </c>
@@ -30585,8 +31243,11 @@
       <c r="T574" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="575" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U574" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="575" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>620</v>
       </c>
@@ -30635,8 +31296,11 @@
       <c r="T575" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="576" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U575" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="576" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>621</v>
       </c>
@@ -30685,8 +31349,11 @@
       <c r="T576" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="577" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U576" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="577" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>622</v>
       </c>
@@ -30732,8 +31399,11 @@
       <c r="T577">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="578" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U577" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="578" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>623</v>
       </c>
@@ -30779,8 +31449,11 @@
       <c r="T578">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="579" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U578" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="579" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>624</v>
       </c>
@@ -30826,8 +31499,11 @@
       <c r="T579">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="580" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U579" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>625</v>
       </c>
@@ -30873,8 +31549,11 @@
       <c r="T580">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="581" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U580" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>626</v>
       </c>
@@ -30920,8 +31599,11 @@
       <c r="T581">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="582" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U581" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="582" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>627</v>
       </c>
@@ -30967,8 +31649,11 @@
       <c r="T582">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="583" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U582" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="583" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>628</v>
       </c>
@@ -31014,8 +31699,11 @@
       <c r="T583">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="584" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U583" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>629</v>
       </c>
@@ -31061,8 +31749,11 @@
       <c r="T584">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="585" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U584" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="585" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>630</v>
       </c>
@@ -31108,8 +31799,11 @@
       <c r="T585">
         <v>3</v>
       </c>
-    </row>
-    <row r="586" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U585" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>631</v>
       </c>
@@ -31155,8 +31849,11 @@
       <c r="T586">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="587" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U586" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>632</v>
       </c>
@@ -31172,6 +31869,9 @@
       <c r="E587" t="s">
         <v>587</v>
       </c>
+      <c r="F587" t="s">
+        <v>739</v>
+      </c>
       <c r="J587">
         <v>0.4</v>
       </c>
@@ -31202,8 +31902,11 @@
       <c r="T587">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="588" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U587" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="588" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>633</v>
       </c>
@@ -31252,8 +31955,11 @@
       <c r="T588" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="589" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U588" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>635</v>
       </c>
@@ -31302,8 +32008,11 @@
       <c r="T589" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="590" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U589" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>637</v>
       </c>
@@ -31352,8 +32061,11 @@
       <c r="T590" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="591" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U590" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="591" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>638</v>
       </c>
@@ -31399,8 +32111,11 @@
       <c r="T591">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="592" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U591" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>639</v>
       </c>
@@ -31446,8 +32161,11 @@
       <c r="T592">
         <v>3</v>
       </c>
-    </row>
-    <row r="593" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U592" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>640</v>
       </c>
@@ -31493,8 +32211,11 @@
       <c r="T593">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="594" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U593" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="594" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>641</v>
       </c>
@@ -31540,8 +32261,11 @@
       <c r="T594">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="595" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U594" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="595" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>642</v>
       </c>
@@ -31587,8 +32311,11 @@
       <c r="T595">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="596" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U595" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>643</v>
       </c>
@@ -31634,8 +32361,11 @@
       <c r="T596">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="597" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U596" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>644</v>
       </c>
@@ -31651,6 +32381,9 @@
       <c r="E597" t="s">
         <v>587</v>
       </c>
+      <c r="F597" t="s">
+        <v>740</v>
+      </c>
       <c r="J597">
         <v>0.4</v>
       </c>
@@ -31681,8 +32414,11 @@
       <c r="T597">
         <v>1</v>
       </c>
-    </row>
-    <row r="598" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U597" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="598" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>645</v>
       </c>
@@ -31728,8 +32464,11 @@
       <c r="T598">
         <v>1</v>
       </c>
-    </row>
-    <row r="599" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U598" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="599" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>646</v>
       </c>
@@ -31775,8 +32514,11 @@
       <c r="T599">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="600" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U599" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="600" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>647</v>
       </c>
@@ -31792,6 +32534,9 @@
       <c r="E600" t="s">
         <v>587</v>
       </c>
+      <c r="F600" t="s">
+        <v>739</v>
+      </c>
       <c r="J600">
         <v>0.4</v>
       </c>
@@ -31822,8 +32567,11 @@
       <c r="T600">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="601" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U600" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>648</v>
       </c>
@@ -31872,8 +32620,11 @@
       <c r="T601" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="602" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U601" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="602" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>649</v>
       </c>
@@ -31919,8 +32670,11 @@
       <c r="T602">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="603" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U602" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>650</v>
       </c>
@@ -31969,8 +32723,11 @@
       <c r="T603" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="604" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U603" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="604" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>652</v>
       </c>
@@ -32019,8 +32776,11 @@
       <c r="T604" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="605" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U604" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="605" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>653</v>
       </c>
@@ -32066,8 +32826,11 @@
       <c r="T605" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="606" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U605" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="606" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>654</v>
       </c>
@@ -32113,8 +32876,11 @@
       <c r="T606">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="607" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U606" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>655</v>
       </c>
@@ -32163,8 +32929,11 @@
       <c r="T607">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="608" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U607" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>656</v>
       </c>
@@ -32210,8 +32979,11 @@
       <c r="T608">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="609" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U608" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>657</v>
       </c>
@@ -32260,8 +33032,11 @@
       <c r="T609" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="610" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U609" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="610" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>658</v>
       </c>
@@ -32307,8 +33082,11 @@
       <c r="T610">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="611" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U610" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>659</v>
       </c>
@@ -32357,8 +33135,11 @@
       <c r="T611">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="612" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U611" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="612" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>660</v>
       </c>
@@ -32407,8 +33188,11 @@
       <c r="T612" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="613" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U612" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>661</v>
       </c>
@@ -32454,8 +33238,11 @@
       <c r="T613">
         <v>3</v>
       </c>
-    </row>
-    <row r="614" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U613" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>662</v>
       </c>
@@ -32504,8 +33291,11 @@
       <c r="T614">
         <v>6</v>
       </c>
-    </row>
-    <row r="615" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U614" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>664</v>
       </c>
@@ -32551,8 +33341,11 @@
       <c r="T615">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="616" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U615" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>665</v>
       </c>
@@ -32598,8 +33391,11 @@
       <c r="T616">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="617" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U616" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="617" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>666</v>
       </c>
@@ -32645,8 +33441,11 @@
       <c r="T617">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="618" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U617" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="618" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>667</v>
       </c>
@@ -32692,8 +33491,11 @@
       <c r="T618">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="619" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U618" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>668</v>
       </c>
@@ -32709,6 +33511,9 @@
       <c r="E619" t="s">
         <v>587</v>
       </c>
+      <c r="F619" t="s">
+        <v>739</v>
+      </c>
       <c r="J619">
         <v>0.4</v>
       </c>
@@ -32739,8 +33544,11 @@
       <c r="T619">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="620" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U619" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="620" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>669</v>
       </c>
@@ -32789,8 +33597,11 @@
       <c r="T620" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="621" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U620" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="621" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>670</v>
       </c>
@@ -32839,8 +33650,11 @@
       <c r="T621">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="622" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U621" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="622" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>671</v>
       </c>
@@ -32886,8 +33700,11 @@
       <c r="T622">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="623" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U622" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>672</v>
       </c>
@@ -32933,8 +33750,11 @@
       <c r="T623">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="624" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U623" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="624" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>673</v>
       </c>
@@ -32980,8 +33800,11 @@
       <c r="T624">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="625" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U624" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>674</v>
       </c>
@@ -33027,8 +33850,11 @@
       <c r="T625">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="626" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U625" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="626" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>675</v>
       </c>
@@ -33077,8 +33903,11 @@
       <c r="T626">
         <v>1</v>
       </c>
-    </row>
-    <row r="627" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U626" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>676</v>
       </c>
@@ -33124,8 +33953,11 @@
       <c r="T627">
         <v>2</v>
       </c>
-    </row>
-    <row r="628" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U627" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>677</v>
       </c>
@@ -33171,8 +34003,11 @@
       <c r="T628">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="629" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U628" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="629" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>678</v>
       </c>
@@ -33218,8 +34053,11 @@
       <c r="T629">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="630" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U629" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>679</v>
       </c>
@@ -33265,8 +34103,11 @@
       <c r="T630">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="631" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U630" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="631" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>680</v>
       </c>
@@ -33313,6 +34154,9 @@
         <v>3.4</v>
       </c>
       <c r="T631" t="s">
+        <v>132</v>
+      </c>
+      <c r="U631" s="1" t="s">
         <v>132</v>
       </c>
     </row>

--- a/data/shoot_elongation/shoot_elongation.xlsx
+++ b/data/shoot_elongation/shoot_elongation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapph\Documents\ubc things\work\fuelinex\data\shoot_elongation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4397154F-E660-4A1F-AE60-B49300F77F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E33B201-7B62-48C6-B2D5-0D9B3AD6325D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2196" yWindow="828" windowWidth="19056" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="756">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2275,6 +2275,33 @@
   </si>
   <si>
     <t>doy 199: new shoot measured</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>resprouting</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>doy 206: red paint peeled off</t>
+  </si>
+  <si>
+    <t>doy 206: red paint peeled off, still hanging on</t>
+  </si>
+  <si>
+    <t>doy 199: probably dead</t>
+  </si>
+  <si>
+    <t>doy 206: red paint might fall off at any moment</t>
+  </si>
+  <si>
+    <t>doy 206: red mark maybe peeled off girl…</t>
+  </si>
+  <si>
+    <t>doy 206: red mark maybe peeled off</t>
   </si>
 </sst>
 </file>
@@ -2766,8 +2793,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2813,7 +2841,23 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3012,41 +3056,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:U631" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:U631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:W631" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:W631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
     <filterColumn colId="1">
       <filters>
-        <filter val="3"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
+    <filterColumn colId="3">
       <filters>
-        <filter val="populus_balsamifera"/>
+        <filter val="prunus"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{379A66C6-698B-434F-916E-AEAAE2414138}" name="128" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{62491E8B-0E97-FD4B-BCC5-4E7DBAEDE53C}" name="129" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{1393DE83-090B-694C-9F28-CB3508AB64D0}" name="130" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{207CC64C-FCD9-6541-912D-456AAFF93044}" name="131" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{B057ADF6-089A-7E49-A439-533CCCB22A43}" name="136" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{D0F960DD-A2F9-074D-98EC-CE8D38E12049}" name="137" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{35CC3589-A6D5-8840-9830-FA2F26525256}" name="143" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{42A0D812-81C2-384B-9DA8-8DD67E5EBF60}" name="150" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{5701E3D9-A7AB-1E4A-8802-92F3BFBE960B}" name="157" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{F90AD900-33C4-D449-ABD1-F7E0E3B4EDF2}" name="164" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{D706E942-3CA8-3F49-BA3E-A6ECB3F4F826}" name="171" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{CF92CF1B-48A8-4842-81E5-1005772FEFC3}" name="178" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{138A361D-3F66-E244-A947-0EFCE15F6690}" name="185" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{0BF7A4F6-800F-7548-A638-DF43A258D373}" name="192" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{84D950AD-7C40-4A1B-9BD8-38C59BC6ED07}" name="199" dataDxfId="0"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{379A66C6-698B-434F-916E-AEAAE2414138}" name="128" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{62491E8B-0E97-FD4B-BCC5-4E7DBAEDE53C}" name="129" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{1393DE83-090B-694C-9F28-CB3508AB64D0}" name="130" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{207CC64C-FCD9-6541-912D-456AAFF93044}" name="131" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{B057ADF6-089A-7E49-A439-533CCCB22A43}" name="136" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{D0F960DD-A2F9-074D-98EC-CE8D38E12049}" name="137" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{35CC3589-A6D5-8840-9830-FA2F26525256}" name="143" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{42A0D812-81C2-384B-9DA8-8DD67E5EBF60}" name="150" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{5701E3D9-A7AB-1E4A-8802-92F3BFBE960B}" name="157" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{F90AD900-33C4-D449-ABD1-F7E0E3B4EDF2}" name="164" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{D706E942-3CA8-3F49-BA3E-A6ECB3F4F826}" name="171" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{CF92CF1B-48A8-4842-81E5-1005772FEFC3}" name="178" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{138A361D-3F66-E244-A947-0EFCE15F6690}" name="185" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{0BF7A4F6-800F-7548-A638-DF43A258D373}" name="192" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{84D950AD-7C40-4A1B-9BD8-38C59BC6ED07}" name="199" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{FAFF9212-B9DB-4FE0-A10B-9A015D0BD45E}" name="206" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{BCC4DD0F-71CB-48F4-9836-608B978B30CE}" name="notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3369,11 +3415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U631"/>
+  <dimension ref="A1:W631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="A395" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V441" sqref="V441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3386,7 +3432,7 @@
     <col min="13" max="17" width="9.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3450,8 +3496,14 @@
       <c r="U1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V1" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3497,8 +3549,10 @@
       <c r="T2">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3544,8 +3598,10 @@
       <c r="T3">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3591,8 +3647,10 @@
       <c r="T4">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3638,8 +3696,10 @@
       <c r="T5">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3685,8 +3745,10 @@
       <c r="T6">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3732,8 +3794,10 @@
       <c r="T7">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3779,8 +3843,10 @@
       <c r="T8">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3826,8 +3892,10 @@
       <c r="T9">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3873,8 +3941,10 @@
       <c r="T10">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3920,8 +3990,10 @@
       <c r="T11">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3970,8 +4042,10 @@
       <c r="T12">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4017,8 +4091,10 @@
       <c r="T13">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4064,8 +4140,10 @@
       <c r="T14">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4111,8 +4189,10 @@
       <c r="T15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4158,8 +4238,10 @@
       <c r="T16">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4205,8 +4287,10 @@
       <c r="T17">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4252,8 +4336,10 @@
       <c r="T18">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4299,8 +4385,10 @@
       <c r="T19">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -4346,8 +4434,10 @@
       <c r="T20">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4390,8 +4480,10 @@
       <c r="T21">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4440,8 +4532,10 @@
       <c r="T22">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4487,8 +4581,10 @@
       <c r="T23">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4537,8 +4633,10 @@
       <c r="T24">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4584,8 +4682,10 @@
       <c r="T25">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4631,8 +4731,10 @@
       <c r="T26">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -4678,8 +4780,10 @@
       <c r="T27">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4728,8 +4832,10 @@
       <c r="T28">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -4775,8 +4881,10 @@
       <c r="T29">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -4825,8 +4933,10 @@
       <c r="T30">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -4872,8 +4982,10 @@
       <c r="T31">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4919,8 +5031,10 @@
       <c r="T32">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -4966,8 +5080,10 @@
       <c r="T33">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -5013,8 +5129,10 @@
       <c r="T34">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -5060,8 +5178,10 @@
       <c r="T35">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -5107,8 +5227,10 @@
       <c r="T36">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -5157,8 +5279,10 @@
       <c r="T37">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -5204,8 +5328,10 @@
       <c r="T38">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -5251,8 +5377,10 @@
       <c r="T39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -5298,8 +5426,10 @@
       <c r="T40">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -5345,8 +5475,10 @@
       <c r="T41">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -5392,8 +5524,10 @@
       <c r="T42">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -5439,8 +5573,10 @@
       <c r="T43">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -5486,8 +5622,10 @@
       <c r="T44">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -5533,8 +5671,10 @@
       <c r="T45">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -5580,8 +5720,10 @@
       <c r="T46">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -5627,8 +5769,10 @@
       <c r="T47">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -5674,8 +5818,10 @@
       <c r="T48">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -5721,8 +5867,10 @@
       <c r="T49">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +5916,10 @@
       <c r="T50">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -5815,8 +5965,10 @@
       <c r="T51">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -5862,8 +6014,10 @@
       <c r="T52">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -5909,8 +6063,10 @@
       <c r="T53">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -5959,8 +6115,10 @@
       <c r="T54">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -6006,8 +6164,10 @@
       <c r="T55">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -6056,8 +6216,10 @@
       <c r="T56">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -6103,8 +6265,10 @@
       <c r="T57">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6153,8 +6317,10 @@
       <c r="T58">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -6200,8 +6366,10 @@
       <c r="T59">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -6250,8 +6418,10 @@
       <c r="T60">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -6297,8 +6467,10 @@
       <c r="T61">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -6344,8 +6516,10 @@
       <c r="T62">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -6391,8 +6565,10 @@
       <c r="T63">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+    </row>
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -6438,8 +6614,10 @@
       <c r="T64">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -6485,8 +6663,10 @@
       <c r="T65">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -6532,8 +6712,10 @@
       <c r="T66">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -6579,8 +6761,10 @@
       <c r="T67">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+    </row>
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -6626,8 +6810,10 @@
       <c r="T68">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+    </row>
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -6673,8 +6859,10 @@
       <c r="T69">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+    </row>
+    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -6720,8 +6908,10 @@
       <c r="T70">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+    </row>
+    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -6767,8 +6957,10 @@
       <c r="T71">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+    </row>
+    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -6814,8 +7006,10 @@
       <c r="T72">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+    </row>
+    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -6861,8 +7055,10 @@
       <c r="T73">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+    </row>
+    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -6908,8 +7104,10 @@
       <c r="T74">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -6955,8 +7153,10 @@
       <c r="T75">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+    </row>
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -7002,8 +7202,10 @@
       <c r="T76">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+    </row>
+    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -7049,8 +7251,10 @@
       <c r="T77">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+    </row>
+    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -7096,8 +7300,10 @@
       <c r="T78">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+    </row>
+    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -7146,8 +7352,10 @@
       <c r="T79">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+    </row>
+    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -7196,8 +7404,10 @@
       <c r="T80">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+    </row>
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -7243,8 +7453,10 @@
       <c r="T81">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+    </row>
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -7290,8 +7502,10 @@
       <c r="T82">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+    </row>
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -7337,8 +7551,10 @@
       <c r="T83">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -7384,8 +7600,10 @@
       <c r="T84">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+    </row>
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -7431,8 +7649,10 @@
       <c r="T85">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+    </row>
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -7478,8 +7698,10 @@
       <c r="T86">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+    </row>
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -7525,8 +7747,10 @@
       <c r="T87">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+    </row>
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -7572,8 +7796,10 @@
       <c r="T88">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+    </row>
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -7619,8 +7845,10 @@
       <c r="T89">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+    </row>
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -7669,8 +7897,10 @@
       <c r="T90">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+    </row>
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -7716,8 +7946,10 @@
       <c r="T91">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+    </row>
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -7766,8 +7998,10 @@
       <c r="U92">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+    </row>
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -7816,8 +8050,10 @@
       <c r="U93">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+    </row>
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -7866,8 +8102,10 @@
       <c r="U94">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+    </row>
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -7919,8 +8157,10 @@
       <c r="U95">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+    </row>
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -7969,8 +8209,10 @@
       <c r="U96">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+    </row>
+    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -8019,8 +8261,10 @@
       <c r="U97">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+    </row>
+    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -8069,8 +8313,10 @@
       <c r="U98">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+    </row>
+    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -8119,8 +8365,10 @@
       <c r="U99">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+    </row>
+    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -8169,8 +8417,10 @@
       <c r="U100">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+    </row>
+    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -8219,8 +8469,10 @@
       <c r="U101">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+    </row>
+    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -8269,8 +8521,10 @@
       <c r="U102">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+    </row>
+    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -8319,8 +8573,10 @@
       <c r="U103">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+    </row>
+    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -8369,8 +8625,10 @@
       <c r="U104">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+    </row>
+    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -8419,8 +8677,10 @@
       <c r="U105">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+    </row>
+    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -8469,8 +8729,10 @@
       <c r="U106">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+    </row>
+    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -8519,8 +8781,10 @@
       <c r="U107">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+    </row>
+    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -8569,8 +8833,10 @@
       <c r="U108">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+    </row>
+    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -8622,8 +8888,10 @@
       <c r="U109">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+    </row>
+    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -8672,8 +8940,10 @@
       <c r="U110">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+    </row>
+    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -8722,8 +8992,10 @@
       <c r="U111">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+    </row>
+    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -8772,8 +9044,10 @@
       <c r="U112">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -8825,8 +9099,10 @@
       <c r="U113" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+    </row>
+    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -8875,8 +9151,10 @@
       <c r="U114">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+    </row>
+    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -8925,8 +9203,10 @@
       <c r="U115">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+    </row>
+    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -8975,8 +9255,10 @@
       <c r="U116">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+    </row>
+    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -9025,8 +9307,10 @@
       <c r="U117">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+    </row>
+    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -9075,8 +9359,10 @@
       <c r="U118">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+    </row>
+    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -9125,8 +9411,10 @@
       <c r="U119">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+    </row>
+    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -9175,8 +9463,10 @@
       <c r="U120">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+    </row>
+    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -9225,8 +9515,10 @@
       <c r="U121">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+    </row>
+    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -9278,8 +9570,10 @@
       <c r="U122">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+    </row>
+    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -9328,8 +9622,10 @@
       <c r="U123">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+    </row>
+    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -9378,8 +9674,10 @@
       <c r="U124">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
+    </row>
+    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -9428,8 +9726,10 @@
       <c r="U125">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+    </row>
+    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -9478,8 +9778,10 @@
       <c r="U126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+    </row>
+    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -9528,8 +9830,10 @@
       <c r="U127">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+    </row>
+    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -9578,8 +9882,10 @@
       <c r="U128">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+    </row>
+    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -9628,8 +9934,10 @@
       <c r="U129">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+    </row>
+    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -9678,8 +9986,10 @@
       <c r="U130">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V130" s="1"/>
+      <c r="W130" s="1"/>
+    </row>
+    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -9728,8 +10038,10 @@
       <c r="U131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+    </row>
+    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -9778,8 +10090,10 @@
       <c r="U132">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
+    </row>
+    <row r="133" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -9828,8 +10142,10 @@
       <c r="U133">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+    </row>
+    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -9878,8 +10194,10 @@
       <c r="U134">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+    </row>
+    <row r="135" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -9928,8 +10246,10 @@
       <c r="U135">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
+    </row>
+    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -9981,8 +10301,10 @@
       <c r="U136">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
+    </row>
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -10031,8 +10353,10 @@
       <c r="U137">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+    </row>
+    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>158</v>
       </c>
@@ -10081,8 +10405,10 @@
       <c r="U138">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+    </row>
+    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -10131,8 +10457,10 @@
       <c r="U139">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
+    </row>
+    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -10181,8 +10509,10 @@
       <c r="U140">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+    </row>
+    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -10231,8 +10561,10 @@
       <c r="U141">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V141" s="1"/>
+      <c r="W141" s="1"/>
+    </row>
+    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -10281,8 +10613,10 @@
       <c r="U142">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
+    </row>
+    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>163</v>
       </c>
@@ -10331,8 +10665,10 @@
       <c r="U143">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
+    </row>
+    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -10381,8 +10717,10 @@
       <c r="U144">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+    </row>
+    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -10431,8 +10769,10 @@
       <c r="U145">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+    </row>
+    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -10481,8 +10821,10 @@
       <c r="U146">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+    </row>
+    <row r="147" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -10531,8 +10873,10 @@
       <c r="U147">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+    </row>
+    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -10581,8 +10925,10 @@
       <c r="U148">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+    </row>
+    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>169</v>
       </c>
@@ -10631,8 +10977,10 @@
       <c r="U149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+    </row>
+    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -10681,8 +11029,10 @@
       <c r="U150">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+    </row>
+    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -10731,8 +11081,10 @@
       <c r="U151">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+    </row>
+    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -10781,8 +11133,10 @@
       <c r="U152">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+    </row>
+    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -10831,8 +11185,10 @@
       <c r="U153">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+    </row>
+    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -10881,8 +11237,10 @@
       <c r="U154">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V154" s="1"/>
+      <c r="W154" s="1"/>
+    </row>
+    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>175</v>
       </c>
@@ -10931,8 +11289,10 @@
       <c r="U155">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+    </row>
+    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -10981,8 +11341,10 @@
       <c r="U156">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+    </row>
+    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -11031,8 +11393,10 @@
       <c r="U157">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+    </row>
+    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -11081,8 +11445,10 @@
       <c r="U158">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+    </row>
+    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -11131,8 +11497,10 @@
       <c r="U159">
         <v>9</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+    </row>
+    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -11181,8 +11549,10 @@
       <c r="U160">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
+    </row>
+    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -11231,8 +11601,10 @@
       <c r="U161">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V161" s="1"/>
+      <c r="W161" s="1"/>
+    </row>
+    <row r="162" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -11284,8 +11656,10 @@
       <c r="U162">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V162" s="1"/>
+      <c r="W162" s="1"/>
+    </row>
+    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -11334,8 +11708,10 @@
       <c r="U163">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
+    </row>
+    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -11387,8 +11763,10 @@
       <c r="U164">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
+    </row>
+    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -11437,8 +11815,10 @@
       <c r="U165">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V165" s="1"/>
+      <c r="W165" s="1"/>
+    </row>
+    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -11487,8 +11867,10 @@
       <c r="U166">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V166" s="1"/>
+      <c r="W166" s="1"/>
+    </row>
+    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -11537,8 +11919,10 @@
       <c r="U167">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V167" s="1"/>
+      <c r="W167" s="1"/>
+    </row>
+    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -11587,8 +11971,10 @@
       <c r="U168">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V168" s="1"/>
+      <c r="W168" s="1"/>
+    </row>
+    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -11637,8 +12023,10 @@
       <c r="U169">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V169" s="1"/>
+      <c r="W169" s="1"/>
+    </row>
+    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -11687,8 +12075,10 @@
       <c r="U170">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V170" s="1"/>
+      <c r="W170" s="1"/>
+    </row>
+    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -11737,8 +12127,10 @@
       <c r="U171">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V171" s="1"/>
+      <c r="W171" s="1"/>
+    </row>
+    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -11787,8 +12179,10 @@
       <c r="U172">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V172" s="1"/>
+      <c r="W172" s="1"/>
+    </row>
+    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -11837,8 +12231,10 @@
       <c r="U173">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V173" s="1"/>
+      <c r="W173" s="1"/>
+    </row>
+    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -11887,8 +12283,10 @@
       <c r="U174">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V174" s="1"/>
+      <c r="W174" s="1"/>
+    </row>
+    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -11937,8 +12335,10 @@
       <c r="U175">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
+    </row>
+    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -11987,8 +12387,10 @@
       <c r="U176">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+    </row>
+    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -12037,8 +12439,10 @@
       <c r="U177">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+    </row>
+    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -12087,8 +12491,10 @@
       <c r="U178">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V178" s="1"/>
+      <c r="W178" s="1"/>
+    </row>
+    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -12137,8 +12543,10 @@
       <c r="U179">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V179" s="1"/>
+      <c r="W179" s="1"/>
+    </row>
+    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -12187,8 +12595,10 @@
       <c r="U180">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
+    </row>
+    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -12237,8 +12647,10 @@
       <c r="U181">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V181" s="1"/>
+      <c r="W181" s="1"/>
+    </row>
+    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -12284,8 +12696,12 @@
       <c r="T182">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V182" s="1">
+        <v>15</v>
+      </c>
+      <c r="W182" s="1"/>
+    </row>
+    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -12331,8 +12747,12 @@
       <c r="T183">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V183" s="1">
+        <v>12</v>
+      </c>
+      <c r="W183" s="1"/>
+    </row>
+    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -12378,8 +12798,12 @@
       <c r="T184">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V184" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W184" s="1"/>
+    </row>
+    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -12425,8 +12849,12 @@
       <c r="T185">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V185" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="W185" s="1"/>
+    </row>
+    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -12472,8 +12900,12 @@
       <c r="T186">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V186" s="1">
+        <v>13</v>
+      </c>
+      <c r="W186" s="1"/>
+    </row>
+    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -12519,8 +12951,12 @@
       <c r="T187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V187" s="1">
+        <v>3</v>
+      </c>
+      <c r="W187" s="1"/>
+    </row>
+    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -12566,8 +13002,12 @@
       <c r="T188">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V188" s="1">
+        <v>8</v>
+      </c>
+      <c r="W188" s="1"/>
+    </row>
+    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -12616,8 +13056,12 @@
       <c r="T189">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V189" s="1">
+        <v>3</v>
+      </c>
+      <c r="W189" s="1"/>
+    </row>
+    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>213</v>
       </c>
@@ -12663,8 +13107,12 @@
       <c r="T190">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V190" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="W190" s="1"/>
+    </row>
+    <row r="191" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -12710,8 +13158,12 @@
       <c r="T191">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V191" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="W191" s="1"/>
+    </row>
+    <row r="192" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -12757,8 +13209,12 @@
       <c r="T192">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V192" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="W192" s="1"/>
+    </row>
+    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -12804,8 +13260,12 @@
       <c r="T193">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V193" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="W193" s="1"/>
+    </row>
+    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -12854,8 +13314,14 @@
       <c r="T194">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V194" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="W194" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -12901,8 +13367,12 @@
       <c r="T195">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V195" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="W195" s="1"/>
+    </row>
+    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>219</v>
       </c>
@@ -12948,8 +13418,12 @@
       <c r="T196">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V196" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="W196" s="1"/>
+    </row>
+    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -12995,8 +13469,12 @@
       <c r="T197">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V197" s="1">
+        <v>4</v>
+      </c>
+      <c r="W197" s="1"/>
+    </row>
+    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>221</v>
       </c>
@@ -13042,8 +13520,12 @@
       <c r="T198">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V198" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="W198" s="1"/>
+    </row>
+    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -13089,8 +13571,12 @@
       <c r="T199">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V199" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="W199" s="1"/>
+    </row>
+    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -13136,8 +13622,12 @@
       <c r="T200">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V200" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="W200" s="1"/>
+    </row>
+    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -13183,8 +13673,12 @@
       <c r="T201">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V201" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="W201" s="1"/>
+    </row>
+    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -13230,8 +13724,12 @@
       <c r="T202">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V202" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="W202" s="1"/>
+    </row>
+    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -13277,8 +13775,12 @@
       <c r="T203">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V203" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="W203" s="1"/>
+    </row>
+    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -13324,8 +13826,12 @@
       <c r="T204">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V204" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W204" s="1"/>
+    </row>
+    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -13371,8 +13877,12 @@
       <c r="T205">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V205" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="W205" s="1"/>
+    </row>
+    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -13418,8 +13928,12 @@
       <c r="T206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V206" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="W206" s="1"/>
+    </row>
+    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -13465,8 +13979,12 @@
       <c r="T207">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V207" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="W207" s="1"/>
+    </row>
+    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -13512,8 +14030,12 @@
       <c r="T208">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V208" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="W208" s="1"/>
+    </row>
+    <row r="209" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -13559,8 +14081,12 @@
       <c r="T209">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V209" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="W209" s="1"/>
+    </row>
+    <row r="210" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -13606,8 +14132,12 @@
       <c r="T210">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V210" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W210" s="1"/>
+    </row>
+    <row r="211" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -13653,8 +14183,12 @@
       <c r="T211">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V211" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="W211" s="1"/>
+    </row>
+    <row r="212" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -13700,8 +14234,12 @@
       <c r="T212">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V212" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="W212" s="1"/>
+    </row>
+    <row r="213" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -13747,8 +14285,12 @@
       <c r="T213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V213" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W213" s="1"/>
+    </row>
+    <row r="214" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -13794,8 +14336,12 @@
       <c r="T214">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V214" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="W214" s="1"/>
+    </row>
+    <row r="215" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -13841,8 +14387,12 @@
       <c r="T215">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V215" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="W215" s="1"/>
+    </row>
+    <row r="216" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -13888,8 +14438,12 @@
       <c r="T216">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V216" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="W216" s="1"/>
+    </row>
+    <row r="217" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -13935,8 +14489,12 @@
       <c r="T217">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V217" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="W217" s="1"/>
+    </row>
+    <row r="218" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -13982,8 +14540,12 @@
       <c r="T218">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V218" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="W218" s="1"/>
+    </row>
+    <row r="219" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -14032,8 +14594,12 @@
       <c r="T219">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V219" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="W219" s="1"/>
+    </row>
+    <row r="220" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -14079,8 +14645,12 @@
       <c r="T220">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V220" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="W220" s="1"/>
+    </row>
+    <row r="221" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>244</v>
       </c>
@@ -14126,8 +14696,12 @@
       <c r="T221">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V221" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="W221" s="1"/>
+    </row>
+    <row r="222" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -14173,8 +14747,12 @@
       <c r="T222">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V222" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W222" s="1"/>
+    </row>
+    <row r="223" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>246</v>
       </c>
@@ -14220,8 +14798,12 @@
       <c r="T223">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V223" s="1">
+        <v>4</v>
+      </c>
+      <c r="W223" s="1"/>
+    </row>
+    <row r="224" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -14267,8 +14849,12 @@
       <c r="T224">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V224" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W224" s="1"/>
+    </row>
+    <row r="225" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>248</v>
       </c>
@@ -14314,8 +14900,12 @@
       <c r="T225">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V225" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="W225" s="1"/>
+    </row>
+    <row r="226" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -14361,8 +14951,12 @@
       <c r="T226">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V226" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="W226" s="1"/>
+    </row>
+    <row r="227" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -14408,8 +15002,12 @@
       <c r="T227">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V227" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="W227" s="1"/>
+    </row>
+    <row r="228" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -14455,8 +15053,12 @@
       <c r="T228">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V228" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="W228" s="1"/>
+    </row>
+    <row r="229" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -14502,8 +15104,12 @@
       <c r="T229">
         <v>12</v>
       </c>
-    </row>
-    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V229" s="1">
+        <v>13</v>
+      </c>
+      <c r="W229" s="1"/>
+    </row>
+    <row r="230" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -14549,8 +15155,12 @@
       <c r="T230">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V230" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="W230" s="1"/>
+    </row>
+    <row r="231" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -14596,8 +15206,12 @@
       <c r="T231">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V231" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W231" s="1"/>
+    </row>
+    <row r="232" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -14643,8 +15257,12 @@
       <c r="T232">
         <v>15</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V232" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="W232" s="1"/>
+    </row>
+    <row r="233" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -14690,8 +15308,12 @@
       <c r="T233">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V233" s="1">
+        <v>7</v>
+      </c>
+      <c r="W233" s="1"/>
+    </row>
+    <row r="234" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -14737,8 +15359,12 @@
       <c r="T234">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V234" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="W234" s="1"/>
+    </row>
+    <row r="235" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -14784,8 +15410,12 @@
       <c r="T235">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V235" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="W235" s="1"/>
+    </row>
+    <row r="236" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -14801,6 +15431,9 @@
       <c r="E236" t="s">
         <v>204</v>
       </c>
+      <c r="F236" t="s">
+        <v>754</v>
+      </c>
       <c r="I236">
         <v>12.9</v>
       </c>
@@ -14831,8 +15464,12 @@
       <c r="T236">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V236" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="W236" s="1"/>
+    </row>
+    <row r="237" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>260</v>
       </c>
@@ -14881,8 +15518,12 @@
       <c r="T237">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V237" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="W237" s="1"/>
+    </row>
+    <row r="238" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -14928,8 +15569,12 @@
       <c r="T238">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V238" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="W238" s="1"/>
+    </row>
+    <row r="239" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -14975,8 +15620,12 @@
       <c r="T239">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V239" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="W239" s="1"/>
+    </row>
+    <row r="240" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -15022,8 +15671,12 @@
       <c r="T240">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V240" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="W240" s="1"/>
+    </row>
+    <row r="241" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -15069,8 +15722,12 @@
       <c r="T241">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V241" s="1">
+        <v>8</v>
+      </c>
+      <c r="W241" s="1"/>
+    </row>
+    <row r="242" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -15116,8 +15773,12 @@
       <c r="T242">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V242" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="W242" s="1"/>
+    </row>
+    <row r="243" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -15163,8 +15824,12 @@
       <c r="T243">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V243" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="W243" s="1"/>
+    </row>
+    <row r="244" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -15210,8 +15875,12 @@
       <c r="T244">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V244" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="W244" s="1"/>
+    </row>
+    <row r="245" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>268</v>
       </c>
@@ -15227,6 +15896,9 @@
       <c r="E245" t="s">
         <v>204</v>
       </c>
+      <c r="F245" t="s">
+        <v>755</v>
+      </c>
       <c r="I245">
         <v>1.3</v>
       </c>
@@ -15257,8 +15929,12 @@
       <c r="T245">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V245" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W245" s="1"/>
+    </row>
+    <row r="246" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -15304,8 +15980,12 @@
       <c r="T246">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V246" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="W246" s="1"/>
+    </row>
+    <row r="247" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>270</v>
       </c>
@@ -15351,8 +16031,12 @@
       <c r="T247">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V247" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W247" s="1"/>
+    </row>
+    <row r="248" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -15398,8 +16082,12 @@
       <c r="T248">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V248" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="W248" s="1"/>
+    </row>
+    <row r="249" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>272</v>
       </c>
@@ -15445,8 +16133,12 @@
       <c r="T249">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V249" s="1">
+        <v>2</v>
+      </c>
+      <c r="W249" s="1"/>
+    </row>
+    <row r="250" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -15495,8 +16187,12 @@
       <c r="T250">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V250" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="W250" s="1"/>
+    </row>
+    <row r="251" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>274</v>
       </c>
@@ -15545,8 +16241,12 @@
       <c r="T251">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V251" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="W251" s="1"/>
+    </row>
+    <row r="252" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -15592,8 +16292,12 @@
       <c r="T252">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V252" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W252" s="1"/>
+    </row>
+    <row r="253" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>276</v>
       </c>
@@ -15639,8 +16343,12 @@
       <c r="T253">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V253" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="W253" s="1"/>
+    </row>
+    <row r="254" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -15686,8 +16394,12 @@
       <c r="T254">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V254" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="W254" s="1"/>
+    </row>
+    <row r="255" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -15733,8 +16445,12 @@
       <c r="T255">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V255" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="W255" s="1"/>
+    </row>
+    <row r="256" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -15780,8 +16496,12 @@
       <c r="T256">
         <v>10</v>
       </c>
-    </row>
-    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V256" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="W256" s="1"/>
+    </row>
+    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>280</v>
       </c>
@@ -15827,8 +16547,12 @@
       <c r="T257">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V257" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="W257" s="1"/>
+    </row>
+    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>281</v>
       </c>
@@ -15874,8 +16598,12 @@
       <c r="T258">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V258" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="W258" s="1"/>
+    </row>
+    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -15921,8 +16649,12 @@
       <c r="T259">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V259" s="1">
+        <v>12</v>
+      </c>
+      <c r="W259" s="1"/>
+    </row>
+    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>283</v>
       </c>
@@ -15968,8 +16700,12 @@
       <c r="T260">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V260" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="W260" s="1"/>
+    </row>
+    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -16015,8 +16751,12 @@
       <c r="T261">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V261" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="W261" s="1"/>
+    </row>
+    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>285</v>
       </c>
@@ -16062,8 +16802,12 @@
       <c r="T262">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V262" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="W262" s="1"/>
+    </row>
+    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -16109,8 +16853,12 @@
       <c r="T263">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V263" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="W263" s="1"/>
+    </row>
+    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -16156,8 +16904,12 @@
       <c r="T264">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V264" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="W264" s="1"/>
+    </row>
+    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -16203,8 +16955,12 @@
       <c r="T265">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V265" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="W265" s="1"/>
+    </row>
+    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -16250,8 +17006,12 @@
       <c r="T266">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V266" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="W266" s="1"/>
+    </row>
+    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -16297,8 +17057,12 @@
       <c r="T267">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V267" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="W267" s="1"/>
+    </row>
+    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>291</v>
       </c>
@@ -16344,8 +17108,12 @@
       <c r="T268">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V268" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="W268" s="1"/>
+    </row>
+    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -16391,8 +17159,12 @@
       <c r="T269">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V269" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="W269" s="1"/>
+    </row>
+    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -16438,8 +17210,12 @@
       <c r="T270">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V270" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="W270" s="1"/>
+    </row>
+    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -16485,8 +17261,12 @@
       <c r="T271">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V271" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="W271" s="1"/>
+    </row>
+    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -16538,8 +17318,10 @@
       <c r="U272">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V272" s="1"/>
+      <c r="W272" s="1"/>
+    </row>
+    <row r="273" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -16588,8 +17370,10 @@
       <c r="U273">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V273" s="1"/>
+      <c r="W273" s="1"/>
+    </row>
+    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>299</v>
       </c>
@@ -16641,8 +17425,10 @@
       <c r="U274">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V274" s="1"/>
+      <c r="W274" s="1"/>
+    </row>
+    <row r="275" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -16694,8 +17480,10 @@
       <c r="U275">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V275" s="1"/>
+      <c r="W275" s="1"/>
+    </row>
+    <row r="276" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>301</v>
       </c>
@@ -16747,8 +17535,10 @@
       <c r="U276">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V276" s="1"/>
+      <c r="W276" s="1"/>
+    </row>
+    <row r="277" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -16797,8 +17587,10 @@
       <c r="U277">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V277" s="1"/>
+      <c r="W277" s="1"/>
+    </row>
+    <row r="278" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>303</v>
       </c>
@@ -16847,8 +17639,10 @@
       <c r="U278">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V278" s="1"/>
+      <c r="W278" s="1"/>
+    </row>
+    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -16900,8 +17694,10 @@
       <c r="U279" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V279" s="1"/>
+      <c r="W279" s="1"/>
+    </row>
+    <row r="280" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>305</v>
       </c>
@@ -16950,8 +17746,10 @@
       <c r="U280">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V280" s="1"/>
+      <c r="W280" s="1"/>
+    </row>
+    <row r="281" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>306</v>
       </c>
@@ -17000,8 +17798,10 @@
       <c r="U281">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V281" s="1"/>
+      <c r="W281" s="1"/>
+    </row>
+    <row r="282" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -17053,8 +17853,10 @@
       <c r="U282">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V282" s="1"/>
+      <c r="W282" s="1"/>
+    </row>
+    <row r="283" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>308</v>
       </c>
@@ -17106,8 +17908,10 @@
       <c r="U283" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V283" s="1"/>
+      <c r="W283" s="1"/>
+    </row>
+    <row r="284" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -17159,8 +17963,10 @@
       <c r="U284">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V284" s="1"/>
+      <c r="W284" s="1"/>
+    </row>
+    <row r="285" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -17212,8 +18018,10 @@
       <c r="U285">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V285" s="1"/>
+      <c r="W285" s="1"/>
+    </row>
+    <row r="286" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -17262,8 +18070,10 @@
       <c r="U286">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V286" s="1"/>
+      <c r="W286" s="1"/>
+    </row>
+    <row r="287" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -17312,8 +18122,10 @@
       <c r="U287">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V287" s="1"/>
+      <c r="W287" s="1"/>
+    </row>
+    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -17362,8 +18174,10 @@
       <c r="U288">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V288" s="1"/>
+      <c r="W288" s="1"/>
+    </row>
+    <row r="289" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -17412,8 +18226,10 @@
       <c r="U289">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V289" s="1"/>
+      <c r="W289" s="1"/>
+    </row>
+    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -17462,8 +18278,10 @@
       <c r="U290">
         <v>14</v>
       </c>
-    </row>
-    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V290" s="1"/>
+      <c r="W290" s="1"/>
+    </row>
+    <row r="291" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -17512,8 +18330,10 @@
       <c r="U291">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V291" s="1"/>
+      <c r="W291" s="1"/>
+    </row>
+    <row r="292" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -17562,8 +18382,10 @@
       <c r="U292">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V292" s="1"/>
+      <c r="W292" s="1"/>
+    </row>
+    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -17612,8 +18434,10 @@
       <c r="U293">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V293" s="1"/>
+      <c r="W293" s="1"/>
+    </row>
+    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -17662,8 +18486,10 @@
       <c r="U294">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V294" s="1"/>
+      <c r="W294" s="1"/>
+    </row>
+    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>320</v>
       </c>
@@ -17712,8 +18538,10 @@
       <c r="U295">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V295" s="1"/>
+      <c r="W295" s="1"/>
+    </row>
+    <row r="296" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -17762,8 +18590,10 @@
       <c r="U296">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V296" s="1"/>
+      <c r="W296" s="1"/>
+    </row>
+    <row r="297" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>322</v>
       </c>
@@ -17815,8 +18645,10 @@
       <c r="U297">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V297" s="1"/>
+      <c r="W297" s="1"/>
+    </row>
+    <row r="298" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -17865,8 +18697,10 @@
       <c r="U298">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V298" s="1"/>
+      <c r="W298" s="1"/>
+    </row>
+    <row r="299" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>324</v>
       </c>
@@ -17918,8 +18752,10 @@
       <c r="U299">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V299" s="1"/>
+      <c r="W299" s="1"/>
+    </row>
+    <row r="300" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -17968,8 +18804,10 @@
       <c r="U300">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V300" s="1"/>
+      <c r="W300" s="1"/>
+    </row>
+    <row r="301" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>326</v>
       </c>
@@ -18018,8 +18856,10 @@
       <c r="U301">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V301" s="1"/>
+      <c r="W301" s="1"/>
+    </row>
+    <row r="302" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -18068,8 +18908,10 @@
       <c r="U302">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V302" s="1"/>
+      <c r="W302" s="1"/>
+    </row>
+    <row r="303" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>328</v>
       </c>
@@ -18118,8 +18960,10 @@
       <c r="U303">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V303" s="1"/>
+      <c r="W303" s="1"/>
+    </row>
+    <row r="304" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -18168,8 +19012,10 @@
       <c r="U304">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V304" s="1"/>
+      <c r="W304" s="1"/>
+    </row>
+    <row r="305" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>330</v>
       </c>
@@ -18218,8 +19064,10 @@
       <c r="U305">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V305" s="1"/>
+      <c r="W305" s="1"/>
+    </row>
+    <row r="306" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -18268,8 +19116,10 @@
       <c r="U306">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V306" s="1"/>
+      <c r="W306" s="1"/>
+    </row>
+    <row r="307" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>332</v>
       </c>
@@ -18318,8 +19168,10 @@
       <c r="U307">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V307" s="1"/>
+      <c r="W307" s="1"/>
+    </row>
+    <row r="308" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -18368,8 +19220,10 @@
       <c r="U308">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V308" s="1"/>
+      <c r="W308" s="1"/>
+    </row>
+    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>334</v>
       </c>
@@ -18418,8 +19272,10 @@
       <c r="U309">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V309" s="1"/>
+      <c r="W309" s="1"/>
+    </row>
+    <row r="310" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -18471,8 +19327,10 @@
       <c r="U310">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="311" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V310" s="1"/>
+      <c r="W310" s="1"/>
+    </row>
+    <row r="311" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -18521,8 +19379,10 @@
       <c r="U311">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V311" s="1"/>
+      <c r="W311" s="1"/>
+    </row>
+    <row r="312" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -18571,8 +19431,10 @@
       <c r="U312">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V312" s="1"/>
+      <c r="W312" s="1"/>
+    </row>
+    <row r="313" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -18624,8 +19486,10 @@
       <c r="U313">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V313" s="1"/>
+      <c r="W313" s="1"/>
+    </row>
+    <row r="314" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -18677,8 +19541,10 @@
       <c r="U314">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V314" s="1"/>
+      <c r="W314" s="1"/>
+    </row>
+    <row r="315" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -18727,8 +19593,10 @@
       <c r="U315">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V315" s="1"/>
+      <c r="W315" s="1"/>
+    </row>
+    <row r="316" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -18777,8 +19645,10 @@
       <c r="U316">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V316" s="1"/>
+      <c r="W316" s="1"/>
+    </row>
+    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -18830,8 +19700,10 @@
       <c r="U317">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="318" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V317" s="1"/>
+      <c r="W317" s="1"/>
+    </row>
+    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -18880,8 +19752,10 @@
       <c r="U318">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="319" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V318" s="1"/>
+      <c r="W318" s="1"/>
+    </row>
+    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -18930,8 +19804,10 @@
       <c r="U319">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V319" s="1"/>
+      <c r="W319" s="1"/>
+    </row>
+    <row r="320" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -18983,8 +19859,10 @@
       <c r="U320">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="321" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V320" s="1"/>
+      <c r="W320" s="1"/>
+    </row>
+    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -19033,8 +19911,10 @@
       <c r="U321">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="322" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V321" s="1"/>
+      <c r="W321" s="1"/>
+    </row>
+    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -19086,8 +19966,10 @@
       <c r="U322" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="323" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V322" s="1"/>
+      <c r="W322" s="1"/>
+    </row>
+    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>349</v>
       </c>
@@ -19136,8 +20018,10 @@
       <c r="U323">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="324" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V323" s="1"/>
+      <c r="W323" s="1"/>
+    </row>
+    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -19189,8 +20073,10 @@
       <c r="U324" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="325" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V324" s="1"/>
+      <c r="W324" s="1"/>
+    </row>
+    <row r="325" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>352</v>
       </c>
@@ -19239,8 +20125,10 @@
       <c r="U325">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="326" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V325" s="1"/>
+      <c r="W325" s="1"/>
+    </row>
+    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -19289,8 +20177,10 @@
       <c r="U326">
         <v>5</v>
       </c>
-    </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V326" s="1"/>
+      <c r="W326" s="1"/>
+    </row>
+    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>354</v>
       </c>
@@ -19339,8 +20229,10 @@
       <c r="U327">
         <v>16</v>
       </c>
-    </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V327" s="1"/>
+      <c r="W327" s="1"/>
+    </row>
+    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>355</v>
       </c>
@@ -19389,8 +20281,10 @@
       <c r="U328">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V328" s="1"/>
+      <c r="W328" s="1"/>
+    </row>
+    <row r="329" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -19439,8 +20333,10 @@
       <c r="U329">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V329" s="1"/>
+      <c r="W329" s="1"/>
+    </row>
+    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>357</v>
       </c>
@@ -19489,8 +20385,10 @@
       <c r="U330">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V330" s="1"/>
+      <c r="W330" s="1"/>
+    </row>
+    <row r="331" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -19542,8 +20440,10 @@
       <c r="U331">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="332" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V331" s="1"/>
+      <c r="W331" s="1"/>
+    </row>
+    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>359</v>
       </c>
@@ -19595,8 +20495,10 @@
       <c r="U332">
         <v>27</v>
       </c>
-    </row>
-    <row r="333" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V332" s="1"/>
+      <c r="W332" s="1"/>
+    </row>
+    <row r="333" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -19645,8 +20547,10 @@
       <c r="U333">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="334" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V333" s="1"/>
+      <c r="W333" s="1"/>
+    </row>
+    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>361</v>
       </c>
@@ -19698,8 +20602,10 @@
       <c r="U334">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="335" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V334" s="1"/>
+      <c r="W334" s="1"/>
+    </row>
+    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -19748,8 +20654,10 @@
       <c r="U335">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="336" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V335" s="1"/>
+      <c r="W335" s="1"/>
+    </row>
+    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>363</v>
       </c>
@@ -19801,8 +20709,10 @@
       <c r="U336">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="337" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V336" s="1"/>
+      <c r="W336" s="1"/>
+    </row>
+    <row r="337" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -19851,8 +20761,10 @@
       <c r="U337">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="338" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V337" s="1"/>
+      <c r="W337" s="1"/>
+    </row>
+    <row r="338" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>365</v>
       </c>
@@ -19901,8 +20813,10 @@
       <c r="U338">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="339" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V338" s="1"/>
+      <c r="W338" s="1"/>
+    </row>
+    <row r="339" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -19951,8 +20865,10 @@
       <c r="U339">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="340" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V339" s="1"/>
+      <c r="W339" s="1"/>
+    </row>
+    <row r="340" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>367</v>
       </c>
@@ -20001,8 +20917,10 @@
       <c r="U340">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="341" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V340" s="1"/>
+      <c r="W340" s="1"/>
+    </row>
+    <row r="341" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -20051,8 +20969,10 @@
       <c r="U341">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V341" s="1"/>
+      <c r="W341" s="1"/>
+    </row>
+    <row r="342" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>369</v>
       </c>
@@ -20101,8 +21021,10 @@
       <c r="U342">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V342" s="1"/>
+      <c r="W342" s="1"/>
+    </row>
+    <row r="343" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -20154,8 +21076,10 @@
       <c r="U343">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V343" s="1"/>
+      <c r="W343" s="1"/>
+    </row>
+    <row r="344" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>371</v>
       </c>
@@ -20204,8 +21128,10 @@
       <c r="U344">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V344" s="1"/>
+      <c r="W344" s="1"/>
+    </row>
+    <row r="345" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -20254,8 +21180,10 @@
       <c r="U345">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V345" s="1"/>
+      <c r="W345" s="1"/>
+    </row>
+    <row r="346" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>373</v>
       </c>
@@ -20304,8 +21232,10 @@
       <c r="U346">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="347" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V346" s="1"/>
+      <c r="W346" s="1"/>
+    </row>
+    <row r="347" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -20354,8 +21284,10 @@
       <c r="U347">
         <v>30</v>
       </c>
-    </row>
-    <row r="348" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V347" s="1"/>
+      <c r="W347" s="1"/>
+    </row>
+    <row r="348" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>375</v>
       </c>
@@ -20404,8 +21336,10 @@
       <c r="U348">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V348" s="1"/>
+      <c r="W348" s="1"/>
+    </row>
+    <row r="349" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -20454,8 +21388,10 @@
       <c r="U349">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="350" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V349" s="1"/>
+      <c r="W349" s="1"/>
+    </row>
+    <row r="350" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>377</v>
       </c>
@@ -20507,8 +21443,10 @@
       <c r="U350">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="351" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V350" s="1"/>
+      <c r="W350" s="1"/>
+    </row>
+    <row r="351" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>378</v>
       </c>
@@ -20557,8 +21495,10 @@
       <c r="U351">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="352" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V351" s="1"/>
+      <c r="W351" s="1"/>
+    </row>
+    <row r="352" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -20610,8 +21550,10 @@
       <c r="U352">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="353" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V352" s="1"/>
+      <c r="W352" s="1"/>
+    </row>
+    <row r="353" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>380</v>
       </c>
@@ -20660,8 +21602,10 @@
       <c r="U353">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V353" s="1"/>
+      <c r="W353" s="1"/>
+    </row>
+    <row r="354" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -20710,8 +21654,10 @@
       <c r="U354">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="355" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V354" s="1"/>
+      <c r="W354" s="1"/>
+    </row>
+    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>382</v>
       </c>
@@ -20763,8 +21709,10 @@
       <c r="U355" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="356" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V355" s="1"/>
+      <c r="W355" s="1"/>
+    </row>
+    <row r="356" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -20813,8 +21761,10 @@
       <c r="U356">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V356" s="1"/>
+      <c r="W356" s="1"/>
+    </row>
+    <row r="357" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>384</v>
       </c>
@@ -20866,8 +21816,10 @@
       <c r="U357">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V357" s="1"/>
+      <c r="W357" s="1"/>
+    </row>
+    <row r="358" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -20916,8 +21868,10 @@
       <c r="U358">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V358" s="1"/>
+      <c r="W358" s="1"/>
+    </row>
+    <row r="359" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>386</v>
       </c>
@@ -20966,8 +21920,10 @@
       <c r="U359">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V359" s="1"/>
+      <c r="W359" s="1"/>
+    </row>
+    <row r="360" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -21016,8 +21972,10 @@
       <c r="U360">
         <v>20</v>
       </c>
-    </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V360" s="1"/>
+      <c r="W360" s="1"/>
+    </row>
+    <row r="361" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>388</v>
       </c>
@@ -21066,8 +22024,10 @@
       <c r="U361">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="362" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V361" s="1"/>
+      <c r="W361" s="1"/>
+    </row>
+    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -21113,8 +22073,12 @@
       <c r="T362">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V362" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="W362" s="1"/>
+    </row>
+    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -21160,8 +22124,12 @@
       <c r="T363">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V363" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="W363" s="1"/>
+    </row>
+    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -21210,8 +22178,12 @@
       <c r="T364">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="365" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V364" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="W364" s="1"/>
+    </row>
+    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -21257,8 +22229,12 @@
       <c r="T365">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="366" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V365" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W365" s="1"/>
+    </row>
+    <row r="366" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -21304,8 +22280,12 @@
       <c r="T366">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="367" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V366" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="W366" s="1"/>
+    </row>
+    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -21351,8 +22331,12 @@
       <c r="T367">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="368" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V367" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W367" s="1"/>
+    </row>
+    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -21401,8 +22385,12 @@
       <c r="T368">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V368" s="1">
+        <v>1</v>
+      </c>
+      <c r="W368" s="1"/>
+    </row>
+    <row r="369" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -21451,8 +22439,12 @@
       <c r="T369">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V369" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W369" s="1"/>
+    </row>
+    <row r="370" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -21498,8 +22490,12 @@
       <c r="T370">
         <v>2</v>
       </c>
-    </row>
-    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V370" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W370" s="1"/>
+    </row>
+    <row r="371" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -21545,8 +22541,12 @@
       <c r="T371">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V371" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="W371" s="1"/>
+    </row>
+    <row r="372" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -21592,8 +22592,12 @@
       <c r="T372">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V372" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="W372" s="1"/>
+    </row>
+    <row r="373" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -21639,8 +22643,12 @@
       <c r="T373">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V373" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="W373" s="1"/>
+    </row>
+    <row r="374" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -21686,8 +22694,12 @@
       <c r="T374">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V374" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="W374" s="1"/>
+    </row>
+    <row r="375" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -21733,8 +22745,12 @@
       <c r="T375">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V375" s="1">
+        <v>1</v>
+      </c>
+      <c r="W375" s="1"/>
+    </row>
+    <row r="376" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -21783,8 +22799,12 @@
       <c r="T376">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V376" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W376" s="1"/>
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -21830,8 +22850,12 @@
       <c r="T377">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V377" s="1">
+        <v>1</v>
+      </c>
+      <c r="W377" s="1"/>
+    </row>
+    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -21877,8 +22901,12 @@
       <c r="T378">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V378" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="W378" s="1"/>
+    </row>
+    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -21924,8 +22952,12 @@
       <c r="T379">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V379" s="1">
+        <v>1</v>
+      </c>
+      <c r="W379" s="1"/>
+    </row>
+    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -21974,8 +23006,12 @@
       <c r="T380" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V380" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W380" s="1"/>
+    </row>
+    <row r="381" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -22024,8 +23060,12 @@
       <c r="T381">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V381" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W381" s="1"/>
+    </row>
+    <row r="382" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -22071,8 +23111,12 @@
       <c r="T382">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V382" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W382" s="1"/>
+    </row>
+    <row r="383" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>415</v>
       </c>
@@ -22118,8 +23162,12 @@
       <c r="T383">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V383" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="W383" s="1"/>
+    </row>
+    <row r="384" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -22165,8 +23213,12 @@
       <c r="T384">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V384" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="W384" s="1"/>
+    </row>
+    <row r="385" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>417</v>
       </c>
@@ -22212,8 +23264,12 @@
       <c r="T385">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V385" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="W385" s="1"/>
+    </row>
+    <row r="386" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -22259,8 +23315,12 @@
       <c r="T386">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V386" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W386" s="1"/>
+    </row>
+    <row r="387" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>419</v>
       </c>
@@ -22309,8 +23369,12 @@
       <c r="T387" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V387" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W387" s="1"/>
+    </row>
+    <row r="388" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -22356,8 +23420,12 @@
       <c r="T388">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V388" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W388" s="1"/>
+    </row>
+    <row r="389" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>422</v>
       </c>
@@ -22403,8 +23471,12 @@
       <c r="T389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V389" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="W389" s="1"/>
+    </row>
+    <row r="390" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -22450,8 +23522,12 @@
       <c r="T390">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V390" s="1">
+        <v>18</v>
+      </c>
+      <c r="W390" s="1"/>
+    </row>
+    <row r="391" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>424</v>
       </c>
@@ -22497,8 +23573,12 @@
       <c r="T391">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V391" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="W391" s="1"/>
+    </row>
+    <row r="392" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -22547,8 +23627,12 @@
       <c r="T392" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V392" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W392" s="1"/>
+    </row>
+    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -22594,8 +23678,12 @@
       <c r="T393">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V393" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="W393" s="1"/>
+    </row>
+    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -22644,8 +23732,12 @@
       <c r="T394">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V394" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="W394" s="1"/>
+    </row>
+    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -22691,8 +23783,12 @@
       <c r="T395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V395" s="1">
+        <v>1</v>
+      </c>
+      <c r="W395" s="1"/>
+    </row>
+    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -22738,8 +23834,12 @@
       <c r="T396">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V396" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="W396" s="1"/>
+    </row>
+    <row r="397" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -22785,8 +23885,12 @@
       <c r="T397">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V397" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W397" s="1"/>
+    </row>
+    <row r="398" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -22832,8 +23936,12 @@
       <c r="T398">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V398" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="W398" s="1"/>
+    </row>
+    <row r="399" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -22882,8 +23990,12 @@
       <c r="T399">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V399" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="W399" s="1"/>
+    </row>
+    <row r="400" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>434</v>
       </c>
@@ -22929,8 +24041,12 @@
       <c r="T400">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V400" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="W400" s="1"/>
+    </row>
+    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -22976,8 +24092,12 @@
       <c r="T401">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V401" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="W401" s="1"/>
+    </row>
+    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>436</v>
       </c>
@@ -23026,8 +24146,14 @@
       <c r="T402" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V402" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W402" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -23076,8 +24202,12 @@
       <c r="T403">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V403" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W403" s="1"/>
+    </row>
+    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>438</v>
       </c>
@@ -23126,8 +24256,12 @@
       <c r="T404" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V404" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W404" s="1"/>
+    </row>
+    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>439</v>
       </c>
@@ -23173,8 +24307,12 @@
       <c r="T405">
         <v>2</v>
       </c>
-    </row>
-    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V405" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W405" s="1"/>
+    </row>
+    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -23220,8 +24358,12 @@
       <c r="T406">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V406" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="W406" s="1"/>
+    </row>
+    <row r="407" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>441</v>
       </c>
@@ -23267,8 +24409,12 @@
       <c r="T407">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V407" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="W407" s="1"/>
+    </row>
+    <row r="408" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -23314,8 +24460,12 @@
       <c r="T408">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V408" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="W408" s="1"/>
+    </row>
+    <row r="409" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>443</v>
       </c>
@@ -23361,8 +24511,12 @@
       <c r="T409">
         <v>3</v>
       </c>
-    </row>
-    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V409" s="1">
+        <v>3</v>
+      </c>
+      <c r="W409" s="1"/>
+    </row>
+    <row r="410" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -23408,8 +24562,12 @@
       <c r="T410">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V410" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="W410" s="1"/>
+    </row>
+    <row r="411" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>445</v>
       </c>
@@ -23455,8 +24613,12 @@
       <c r="T411">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V411" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="W411" s="1"/>
+    </row>
+    <row r="412" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -23502,8 +24664,12 @@
       <c r="T412">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V412" s="1">
+        <v>2</v>
+      </c>
+      <c r="W412" s="1"/>
+    </row>
+    <row r="413" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>447</v>
       </c>
@@ -23549,8 +24715,12 @@
       <c r="T413">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V413" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W413" s="1"/>
+    </row>
+    <row r="414" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -23596,8 +24766,12 @@
       <c r="T414">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="415" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V414" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="W414" s="1"/>
+    </row>
+    <row r="415" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>449</v>
       </c>
@@ -23643,8 +24817,12 @@
       <c r="T415">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V415" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W415" s="1"/>
+    </row>
+    <row r="416" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -23693,8 +24871,12 @@
       <c r="T416" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V416" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W416" s="1"/>
+    </row>
+    <row r="417" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>451</v>
       </c>
@@ -23743,8 +24925,12 @@
       <c r="T417" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V417" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W417" s="1"/>
+    </row>
+    <row r="418" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -23790,8 +24976,12 @@
       <c r="T418">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V418" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W418" s="1"/>
+    </row>
+    <row r="419" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>453</v>
       </c>
@@ -23837,8 +25027,12 @@
       <c r="T419">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V419" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="W419" s="1"/>
+    </row>
+    <row r="420" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -23884,8 +25078,12 @@
       <c r="T420">
         <v>1</v>
       </c>
-    </row>
-    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V420" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="W420" s="1"/>
+    </row>
+    <row r="421" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -23934,8 +25132,12 @@
       <c r="T421" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V421" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W421" s="1"/>
+    </row>
+    <row r="422" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>457</v>
       </c>
@@ -23981,8 +25183,12 @@
       <c r="T422">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V422" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W422" s="1"/>
+    </row>
+    <row r="423" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>458</v>
       </c>
@@ -24031,8 +25237,12 @@
       <c r="T423" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V423" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W423" s="1"/>
+    </row>
+    <row r="424" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>460</v>
       </c>
@@ -24078,8 +25288,12 @@
       <c r="T424">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V424" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="W424" s="1"/>
+    </row>
+    <row r="425" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>461</v>
       </c>
@@ -24125,8 +25339,12 @@
       <c r="T425">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V425" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="W425" s="1"/>
+    </row>
+    <row r="426" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>462</v>
       </c>
@@ -24175,8 +25393,12 @@
       <c r="T426" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V426" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W426" s="1"/>
+    </row>
+    <row r="427" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>463</v>
       </c>
@@ -24222,8 +25444,12 @@
       <c r="T427">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V427" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="W427" s="1"/>
+    </row>
+    <row r="428" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>464</v>
       </c>
@@ -24269,8 +25495,12 @@
       <c r="T428">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V428" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="W428" s="1"/>
+    </row>
+    <row r="429" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>465</v>
       </c>
@@ -24316,8 +25546,12 @@
       <c r="T429" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V429" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W429" s="1"/>
+    </row>
+    <row r="430" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>467</v>
       </c>
@@ -24363,8 +25597,12 @@
       <c r="T430">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V430" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="W430" s="1"/>
+    </row>
+    <row r="431" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>468</v>
       </c>
@@ -24413,8 +25651,12 @@
       <c r="T431" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V431" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W431" s="1"/>
+    </row>
+    <row r="432" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>469</v>
       </c>
@@ -24460,8 +25702,12 @@
       <c r="T432">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V432" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="W432" s="1"/>
+    </row>
+    <row r="433" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>470</v>
       </c>
@@ -24507,8 +25753,12 @@
       <c r="T433">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V433" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="W433" s="1"/>
+    </row>
+    <row r="434" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>471</v>
       </c>
@@ -24554,8 +25804,12 @@
       <c r="T434">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V434" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="W434" s="1"/>
+    </row>
+    <row r="435" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>472</v>
       </c>
@@ -24601,8 +25855,12 @@
       <c r="T435">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V435" s="1">
+        <v>2</v>
+      </c>
+      <c r="W435" s="1"/>
+    </row>
+    <row r="436" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>473</v>
       </c>
@@ -24648,8 +25906,12 @@
       <c r="T436">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V436" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="W436" s="1"/>
+    </row>
+    <row r="437" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>474</v>
       </c>
@@ -24695,8 +25957,12 @@
       <c r="T437">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V437" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="W437" s="1"/>
+    </row>
+    <row r="438" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>475</v>
       </c>
@@ -24742,8 +26008,12 @@
       <c r="T438">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V438" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="W438" s="1"/>
+    </row>
+    <row r="439" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>476</v>
       </c>
@@ -24789,8 +26059,12 @@
       <c r="T439">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V439" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="W439" s="1"/>
+    </row>
+    <row r="440" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>477</v>
       </c>
@@ -24836,8 +26110,12 @@
       <c r="T440">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V440" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W440" s="1"/>
+    </row>
+    <row r="441" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>478</v>
       </c>
@@ -24883,8 +26161,12 @@
       <c r="T441">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V441" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="W441" s="1"/>
+    </row>
+    <row r="442" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>479</v>
       </c>
@@ -24933,8 +26215,12 @@
       <c r="T442" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V442" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W442" s="1"/>
+    </row>
+    <row r="443" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>481</v>
       </c>
@@ -24980,8 +26266,12 @@
       <c r="T443">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V443" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W443" s="1"/>
+    </row>
+    <row r="444" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>482</v>
       </c>
@@ -25027,8 +26317,12 @@
       <c r="T444" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V444" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W444" s="1"/>
+    </row>
+    <row r="445" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>483</v>
       </c>
@@ -25074,8 +26368,12 @@
       <c r="T445">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V445" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="W445" s="1"/>
+    </row>
+    <row r="446" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>484</v>
       </c>
@@ -25121,8 +26419,12 @@
       <c r="T446">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V446" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="W446" s="1"/>
+    </row>
+    <row r="447" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>485</v>
       </c>
@@ -25168,8 +26470,12 @@
       <c r="T447">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V447" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W447" s="1"/>
+    </row>
+    <row r="448" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>486</v>
       </c>
@@ -25215,8 +26521,12 @@
       <c r="T448">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V448" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="W448" s="1"/>
+    </row>
+    <row r="449" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>487</v>
       </c>
@@ -25262,8 +26572,12 @@
       <c r="T449">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V449" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="W449" s="1"/>
+    </row>
+    <row r="450" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>488</v>
       </c>
@@ -25309,8 +26623,12 @@
       <c r="T450">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V450" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="W450" s="1"/>
+    </row>
+    <row r="451" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>489</v>
       </c>
@@ -25359,8 +26677,12 @@
       <c r="T451" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V451" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W451" s="1"/>
+    </row>
+    <row r="452" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>490</v>
       </c>
@@ -25409,8 +26731,10 @@
       <c r="U452">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V452" s="1"/>
+      <c r="W452" s="1"/>
+    </row>
+    <row r="453" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>493</v>
       </c>
@@ -25459,8 +26783,10 @@
       <c r="U453">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V453" s="1"/>
+      <c r="W453" s="1"/>
+    </row>
+    <row r="454" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>494</v>
       </c>
@@ -25509,8 +26835,10 @@
       <c r="U454">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V454" s="1"/>
+      <c r="W454" s="1"/>
+    </row>
+    <row r="455" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>495</v>
       </c>
@@ -25559,8 +26887,10 @@
       <c r="U455">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V455" s="1"/>
+      <c r="W455" s="1"/>
+    </row>
+    <row r="456" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>496</v>
       </c>
@@ -25609,8 +26939,10 @@
       <c r="U456">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V456" s="1"/>
+      <c r="W456" s="1"/>
+    </row>
+    <row r="457" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>497</v>
       </c>
@@ -25659,8 +26991,10 @@
       <c r="U457">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V457" s="1"/>
+      <c r="W457" s="1"/>
+    </row>
+    <row r="458" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>498</v>
       </c>
@@ -25709,8 +27043,10 @@
       <c r="U458">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V458" s="1"/>
+      <c r="W458" s="1"/>
+    </row>
+    <row r="459" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>499</v>
       </c>
@@ -25759,8 +27095,10 @@
       <c r="U459">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V459" s="1"/>
+      <c r="W459" s="1"/>
+    </row>
+    <row r="460" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>500</v>
       </c>
@@ -25809,8 +27147,10 @@
       <c r="U460">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V460" s="1"/>
+      <c r="W460" s="1"/>
+    </row>
+    <row r="461" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>501</v>
       </c>
@@ -25859,8 +27199,10 @@
       <c r="U461">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V461" s="1"/>
+      <c r="W461" s="1"/>
+    </row>
+    <row r="462" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>502</v>
       </c>
@@ -25909,8 +27251,10 @@
       <c r="U462">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V462" s="1"/>
+      <c r="W462" s="1"/>
+    </row>
+    <row r="463" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>503</v>
       </c>
@@ -25959,8 +27303,10 @@
       <c r="U463">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V463" s="1"/>
+      <c r="W463" s="1"/>
+    </row>
+    <row r="464" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>504</v>
       </c>
@@ -26009,8 +27355,10 @@
       <c r="U464">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V464" s="1"/>
+      <c r="W464" s="1"/>
+    </row>
+    <row r="465" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>505</v>
       </c>
@@ -26059,8 +27407,10 @@
       <c r="U465">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V465" s="1"/>
+      <c r="W465" s="1"/>
+    </row>
+    <row r="466" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>506</v>
       </c>
@@ -26109,8 +27459,10 @@
       <c r="U466">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="467" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V466" s="1"/>
+      <c r="W466" s="1"/>
+    </row>
+    <row r="467" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>507</v>
       </c>
@@ -26159,8 +27511,10 @@
       <c r="U467">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="468" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V467" s="1"/>
+      <c r="W467" s="1"/>
+    </row>
+    <row r="468" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>508</v>
       </c>
@@ -26209,8 +27563,10 @@
       <c r="U468">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="469" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V468" s="1"/>
+      <c r="W468" s="1"/>
+    </row>
+    <row r="469" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>509</v>
       </c>
@@ -26259,8 +27615,10 @@
       <c r="U469">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V469" s="1"/>
+      <c r="W469" s="1"/>
+    </row>
+    <row r="470" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>510</v>
       </c>
@@ -26309,8 +27667,10 @@
       <c r="U470">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V470" s="1"/>
+      <c r="W470" s="1"/>
+    </row>
+    <row r="471" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>511</v>
       </c>
@@ -26359,8 +27719,10 @@
       <c r="U471">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V471" s="1"/>
+      <c r="W471" s="1"/>
+    </row>
+    <row r="472" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>512</v>
       </c>
@@ -26409,8 +27771,10 @@
       <c r="U472">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V472" s="1"/>
+      <c r="W472" s="1"/>
+    </row>
+    <row r="473" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>513</v>
       </c>
@@ -26459,8 +27823,10 @@
       <c r="U473">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V473" s="1"/>
+      <c r="W473" s="1"/>
+    </row>
+    <row r="474" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>514</v>
       </c>
@@ -26512,8 +27878,10 @@
       <c r="U474">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V474" s="1"/>
+      <c r="W474" s="1"/>
+    </row>
+    <row r="475" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>516</v>
       </c>
@@ -26562,8 +27930,10 @@
       <c r="U475">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V475" s="1"/>
+      <c r="W475" s="1"/>
+    </row>
+    <row r="476" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>517</v>
       </c>
@@ -26612,8 +27982,10 @@
       <c r="U476">
         <v>12</v>
       </c>
-    </row>
-    <row r="477" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V476" s="1"/>
+      <c r="W476" s="1"/>
+    </row>
+    <row r="477" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>518</v>
       </c>
@@ -26662,8 +28034,10 @@
       <c r="U477">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V477" s="1"/>
+      <c r="W477" s="1"/>
+    </row>
+    <row r="478" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>519</v>
       </c>
@@ -26712,8 +28086,10 @@
       <c r="U478">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V478" s="1"/>
+      <c r="W478" s="1"/>
+    </row>
+    <row r="479" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>520</v>
       </c>
@@ -26762,8 +28138,10 @@
       <c r="U479">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V479" s="1"/>
+      <c r="W479" s="1"/>
+    </row>
+    <row r="480" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>521</v>
       </c>
@@ -26812,8 +28190,10 @@
       <c r="U480">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V480" s="1"/>
+      <c r="W480" s="1"/>
+    </row>
+    <row r="481" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>522</v>
       </c>
@@ -26862,8 +28242,10 @@
       <c r="U481">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="482" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V481" s="1"/>
+      <c r="W481" s="1"/>
+    </row>
+    <row r="482" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>523</v>
       </c>
@@ -26912,8 +28294,10 @@
       <c r="U482">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="483" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V482" s="1"/>
+      <c r="W482" s="1"/>
+    </row>
+    <row r="483" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>524</v>
       </c>
@@ -26962,8 +28346,10 @@
       <c r="U483">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="484" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V483" s="1"/>
+      <c r="W483" s="1"/>
+    </row>
+    <row r="484" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>525</v>
       </c>
@@ -27012,8 +28398,10 @@
       <c r="U484">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="485" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V484" s="1"/>
+      <c r="W484" s="1"/>
+    </row>
+    <row r="485" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>526</v>
       </c>
@@ -27065,8 +28453,10 @@
       <c r="U485">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V485" s="1"/>
+      <c r="W485" s="1"/>
+    </row>
+    <row r="486" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>527</v>
       </c>
@@ -27115,8 +28505,10 @@
       <c r="U486">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="487" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V486" s="1"/>
+      <c r="W486" s="1"/>
+    </row>
+    <row r="487" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>528</v>
       </c>
@@ -27165,8 +28557,10 @@
       <c r="U487">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="488" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V487" s="1"/>
+      <c r="W487" s="1"/>
+    </row>
+    <row r="488" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>529</v>
       </c>
@@ -27215,8 +28609,10 @@
       <c r="U488">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="489" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V488" s="1"/>
+      <c r="W488" s="1"/>
+    </row>
+    <row r="489" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>530</v>
       </c>
@@ -27265,8 +28661,10 @@
       <c r="U489">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="490" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V489" s="1"/>
+      <c r="W489" s="1"/>
+    </row>
+    <row r="490" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>531</v>
       </c>
@@ -27315,8 +28713,10 @@
       <c r="U490">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="491" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V490" s="1"/>
+      <c r="W490" s="1"/>
+    </row>
+    <row r="491" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>532</v>
       </c>
@@ -27365,8 +28765,10 @@
       <c r="U491">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="492" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V491" s="1"/>
+      <c r="W491" s="1"/>
+    </row>
+    <row r="492" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>533</v>
       </c>
@@ -27415,8 +28817,10 @@
       <c r="U492">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="493" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V492" s="1"/>
+      <c r="W492" s="1"/>
+    </row>
+    <row r="493" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>534</v>
       </c>
@@ -27465,8 +28869,10 @@
       <c r="U493">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="494" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V493" s="1"/>
+      <c r="W493" s="1"/>
+    </row>
+    <row r="494" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>535</v>
       </c>
@@ -27515,8 +28921,10 @@
       <c r="U494">
         <v>2</v>
       </c>
-    </row>
-    <row r="495" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V494" s="1"/>
+      <c r="W494" s="1"/>
+    </row>
+    <row r="495" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>536</v>
       </c>
@@ -27568,8 +28976,10 @@
       <c r="U495" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="496" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V495" s="1"/>
+      <c r="W495" s="1"/>
+    </row>
+    <row r="496" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>538</v>
       </c>
@@ -27618,8 +29028,10 @@
       <c r="U496">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="497" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V496" s="1"/>
+      <c r="W496" s="1"/>
+    </row>
+    <row r="497" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>539</v>
       </c>
@@ -27668,8 +29080,10 @@
       <c r="U497">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="498" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V497" s="1"/>
+      <c r="W497" s="1"/>
+    </row>
+    <row r="498" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>540</v>
       </c>
@@ -27718,8 +29132,10 @@
       <c r="U498">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="499" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V498" s="1"/>
+      <c r="W498" s="1"/>
+    </row>
+    <row r="499" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>541</v>
       </c>
@@ -27768,8 +29184,10 @@
       <c r="U499">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="500" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V499" s="1"/>
+      <c r="W499" s="1"/>
+    </row>
+    <row r="500" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>542</v>
       </c>
@@ -27818,8 +29236,10 @@
       <c r="U500">
         <v>2</v>
       </c>
-    </row>
-    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V500" s="1"/>
+      <c r="W500" s="1"/>
+    </row>
+    <row r="501" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>543</v>
       </c>
@@ -27868,8 +29288,10 @@
       <c r="U501">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V501" s="1"/>
+      <c r="W501" s="1"/>
+    </row>
+    <row r="502" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>544</v>
       </c>
@@ -27918,8 +29340,10 @@
       <c r="U502">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="503" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V502" s="1"/>
+      <c r="W502" s="1"/>
+    </row>
+    <row r="503" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>545</v>
       </c>
@@ -27968,8 +29392,10 @@
       <c r="U503">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V503" s="1"/>
+      <c r="W503" s="1"/>
+    </row>
+    <row r="504" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>546</v>
       </c>
@@ -28018,8 +29444,10 @@
       <c r="U504">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="505" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V504" s="1"/>
+      <c r="W504" s="1"/>
+    </row>
+    <row r="505" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>547</v>
       </c>
@@ -28068,8 +29496,10 @@
       <c r="U505">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V505" s="1"/>
+      <c r="W505" s="1"/>
+    </row>
+    <row r="506" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>548</v>
       </c>
@@ -28118,8 +29548,10 @@
       <c r="U506">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V506" s="1"/>
+      <c r="W506" s="1"/>
+    </row>
+    <row r="507" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>549</v>
       </c>
@@ -28168,8 +29600,10 @@
       <c r="U507">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V507" s="1"/>
+      <c r="W507" s="1"/>
+    </row>
+    <row r="508" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>550</v>
       </c>
@@ -28218,8 +29652,10 @@
       <c r="U508">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V508" s="1"/>
+      <c r="W508" s="1"/>
+    </row>
+    <row r="509" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>551</v>
       </c>
@@ -28268,8 +29704,10 @@
       <c r="U509">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V509" s="1"/>
+      <c r="W509" s="1"/>
+    </row>
+    <row r="510" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>552</v>
       </c>
@@ -28318,8 +29756,10 @@
       <c r="U510">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="511" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V510" s="1"/>
+      <c r="W510" s="1"/>
+    </row>
+    <row r="511" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>553</v>
       </c>
@@ -28368,8 +29808,10 @@
       <c r="U511">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V511" s="1"/>
+      <c r="W511" s="1"/>
+    </row>
+    <row r="512" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>554</v>
       </c>
@@ -28418,8 +29860,10 @@
       <c r="U512">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="513" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V512" s="1"/>
+      <c r="W512" s="1"/>
+    </row>
+    <row r="513" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>555</v>
       </c>
@@ -28468,8 +29912,10 @@
       <c r="U513">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V513" s="1"/>
+      <c r="W513" s="1"/>
+    </row>
+    <row r="514" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>556</v>
       </c>
@@ -28518,8 +29964,10 @@
       <c r="U514">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V514" s="1"/>
+      <c r="W514" s="1"/>
+    </row>
+    <row r="515" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>557</v>
       </c>
@@ -28568,8 +30016,10 @@
       <c r="U515">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V515" s="1"/>
+      <c r="W515" s="1"/>
+    </row>
+    <row r="516" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>558</v>
       </c>
@@ -28618,8 +30068,10 @@
       <c r="U516">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V516" s="1"/>
+      <c r="W516" s="1"/>
+    </row>
+    <row r="517" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>559</v>
       </c>
@@ -28671,8 +30123,10 @@
       <c r="U517" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V517" s="1"/>
+      <c r="W517" s="1"/>
+    </row>
+    <row r="518" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>560</v>
       </c>
@@ -28724,8 +30178,10 @@
       <c r="U518" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V518" s="1"/>
+      <c r="W518" s="1"/>
+    </row>
+    <row r="519" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>561</v>
       </c>
@@ -28774,8 +30230,10 @@
       <c r="U519">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V519" s="1"/>
+      <c r="W519" s="1"/>
+    </row>
+    <row r="520" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>562</v>
       </c>
@@ -28824,8 +30282,10 @@
       <c r="U520">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V520" s="1"/>
+      <c r="W520" s="1"/>
+    </row>
+    <row r="521" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>563</v>
       </c>
@@ -28874,8 +30334,10 @@
       <c r="U521">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V521" s="1"/>
+      <c r="W521" s="1"/>
+    </row>
+    <row r="522" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>564</v>
       </c>
@@ -28924,8 +30386,10 @@
       <c r="U522">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V522" s="1"/>
+      <c r="W522" s="1"/>
+    </row>
+    <row r="523" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>565</v>
       </c>
@@ -28974,8 +30438,10 @@
       <c r="U523">
         <v>6</v>
       </c>
-    </row>
-    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V523" s="1"/>
+      <c r="W523" s="1"/>
+    </row>
+    <row r="524" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>566</v>
       </c>
@@ -29024,8 +30490,10 @@
       <c r="U524">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="525" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V524" s="1"/>
+      <c r="W524" s="1"/>
+    </row>
+    <row r="525" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>567</v>
       </c>
@@ -29074,8 +30542,10 @@
       <c r="U525">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V525" s="1"/>
+      <c r="W525" s="1"/>
+    </row>
+    <row r="526" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>568</v>
       </c>
@@ -29124,8 +30594,10 @@
       <c r="U526">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V526" s="1"/>
+      <c r="W526" s="1"/>
+    </row>
+    <row r="527" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>569</v>
       </c>
@@ -29174,8 +30646,10 @@
       <c r="U527">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="528" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V527" s="1"/>
+      <c r="W527" s="1"/>
+    </row>
+    <row r="528" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>570</v>
       </c>
@@ -29224,8 +30698,10 @@
       <c r="U528">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V528" s="1"/>
+      <c r="W528" s="1"/>
+    </row>
+    <row r="529" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>571</v>
       </c>
@@ -29274,8 +30750,10 @@
       <c r="U529">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V529" s="1"/>
+      <c r="W529" s="1"/>
+    </row>
+    <row r="530" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>572</v>
       </c>
@@ -29324,8 +30802,10 @@
       <c r="U530">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V530" s="1"/>
+      <c r="W530" s="1"/>
+    </row>
+    <row r="531" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>573</v>
       </c>
@@ -29374,8 +30854,10 @@
       <c r="U531">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V531" s="1"/>
+      <c r="W531" s="1"/>
+    </row>
+    <row r="532" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>574</v>
       </c>
@@ -29427,8 +30909,10 @@
       <c r="U532">
         <v>4</v>
       </c>
-    </row>
-    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V532" s="1"/>
+      <c r="W532" s="1"/>
+    </row>
+    <row r="533" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>576</v>
       </c>
@@ -29477,8 +30961,10 @@
       <c r="U533">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V533" s="1"/>
+      <c r="W533" s="1"/>
+    </row>
+    <row r="534" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>577</v>
       </c>
@@ -29527,8 +31013,10 @@
       <c r="U534">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="535" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V534" s="1"/>
+      <c r="W534" s="1"/>
+    </row>
+    <row r="535" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>578</v>
       </c>
@@ -29577,8 +31065,10 @@
       <c r="U535">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="536" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V535" s="1"/>
+      <c r="W535" s="1"/>
+    </row>
+    <row r="536" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>579</v>
       </c>
@@ -29627,8 +31117,10 @@
       <c r="U536">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V536" s="1"/>
+      <c r="W536" s="1"/>
+    </row>
+    <row r="537" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>580</v>
       </c>
@@ -29677,8 +31169,10 @@
       <c r="U537">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V537" s="1"/>
+      <c r="W537" s="1"/>
+    </row>
+    <row r="538" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>581</v>
       </c>
@@ -29727,8 +31221,10 @@
       <c r="U538">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="539" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V538" s="1"/>
+      <c r="W538" s="1"/>
+    </row>
+    <row r="539" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>582</v>
       </c>
@@ -29777,8 +31273,10 @@
       <c r="U539">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="540" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V539" s="1"/>
+      <c r="W539" s="1"/>
+    </row>
+    <row r="540" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>583</v>
       </c>
@@ -29827,8 +31325,10 @@
       <c r="U540">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="541" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V540" s="1"/>
+      <c r="W540" s="1"/>
+    </row>
+    <row r="541" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>584</v>
       </c>
@@ -29877,8 +31377,10 @@
       <c r="U541">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="542" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V541" s="1"/>
+      <c r="W541" s="1"/>
+    </row>
+    <row r="542" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>585</v>
       </c>
@@ -29930,8 +31432,12 @@
       <c r="U542" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V542" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W542" s="1"/>
+    </row>
+    <row r="543" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>588</v>
       </c>
@@ -29980,8 +31486,12 @@
       <c r="U543">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="544" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V543" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W543" s="1"/>
+    </row>
+    <row r="544" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>589</v>
       </c>
@@ -30033,8 +31543,12 @@
       <c r="U544" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="545" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V544" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W544" s="1"/>
+    </row>
+    <row r="545" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>590</v>
       </c>
@@ -30083,8 +31597,12 @@
       <c r="U545">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="546" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V545" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="W545" s="1"/>
+    </row>
+    <row r="546" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>591</v>
       </c>
@@ -30100,6 +31618,9 @@
       <c r="E546" t="s">
         <v>587</v>
       </c>
+      <c r="F546" t="s">
+        <v>750</v>
+      </c>
       <c r="J546">
         <v>0.2</v>
       </c>
@@ -30133,8 +31654,12 @@
       <c r="U546">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V546" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W546" s="1"/>
+    </row>
+    <row r="547" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>592</v>
       </c>
@@ -30183,8 +31708,12 @@
       <c r="U547">
         <v>3</v>
       </c>
-    </row>
-    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V547" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="W547" s="1"/>
+    </row>
+    <row r="548" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>593</v>
       </c>
@@ -30200,6 +31729,9 @@
       <c r="E548" t="s">
         <v>587</v>
       </c>
+      <c r="F548" t="s">
+        <v>753</v>
+      </c>
       <c r="J548">
         <v>0.5</v>
       </c>
@@ -30233,8 +31765,12 @@
       <c r="U548">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="549" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V548" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="W548" s="1"/>
+    </row>
+    <row r="549" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>594</v>
       </c>
@@ -30283,8 +31819,12 @@
       <c r="U549">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="550" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V549" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W549" s="1"/>
+    </row>
+    <row r="550" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>595</v>
       </c>
@@ -30333,8 +31873,12 @@
       <c r="U550">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V550" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="W550" s="1"/>
+    </row>
+    <row r="551" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>596</v>
       </c>
@@ -30386,8 +31930,12 @@
       <c r="U551">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="552" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V551" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W551" s="1"/>
+    </row>
+    <row r="552" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>597</v>
       </c>
@@ -30439,8 +31987,12 @@
       <c r="U552" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="553" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V552" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W552" s="1"/>
+    </row>
+    <row r="553" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>598</v>
       </c>
@@ -30489,8 +32041,12 @@
       <c r="U553">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="554" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V553" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="W553" s="1"/>
+    </row>
+    <row r="554" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>599</v>
       </c>
@@ -30539,8 +32095,12 @@
       <c r="U554">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="555" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V554" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="W554" s="1"/>
+    </row>
+    <row r="555" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>600</v>
       </c>
@@ -30589,8 +32149,12 @@
       <c r="U555">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="556" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V555" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="W555" s="1"/>
+    </row>
+    <row r="556" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>601</v>
       </c>
@@ -30639,8 +32203,12 @@
       <c r="U556">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V556" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="W556" s="1"/>
+    </row>
+    <row r="557" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>602</v>
       </c>
@@ -30692,8 +32260,12 @@
       <c r="U557" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="558" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V557" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W557" s="1"/>
+    </row>
+    <row r="558" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>603</v>
       </c>
@@ -30742,8 +32314,12 @@
       <c r="U558">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="559" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V558" s="1">
+        <v>1</v>
+      </c>
+      <c r="W558" s="1"/>
+    </row>
+    <row r="559" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>604</v>
       </c>
@@ -30792,8 +32368,12 @@
       <c r="U559">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="560" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V559" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="W559" s="1"/>
+    </row>
+    <row r="560" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>605</v>
       </c>
@@ -30845,8 +32425,12 @@
       <c r="U560">
         <v>1</v>
       </c>
-    </row>
-    <row r="561" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V560" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="W560" s="1"/>
+    </row>
+    <row r="561" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>606</v>
       </c>
@@ -30895,8 +32479,12 @@
       <c r="U561">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="562" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V561" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W561" s="1"/>
+    </row>
+    <row r="562" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>607</v>
       </c>
@@ -30945,8 +32533,12 @@
       <c r="U562">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="563" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V562" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="W562" s="1"/>
+    </row>
+    <row r="563" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>608</v>
       </c>
@@ -30995,8 +32587,12 @@
       <c r="U563">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="564" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V563" s="1">
+        <v>3</v>
+      </c>
+      <c r="W563" s="1"/>
+    </row>
+    <row r="564" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>609</v>
       </c>
@@ -31048,8 +32644,12 @@
       <c r="U564">
         <v>5</v>
       </c>
-    </row>
-    <row r="565" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V564" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="W564" s="1"/>
+    </row>
+    <row r="565" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>610</v>
       </c>
@@ -31098,8 +32698,12 @@
       <c r="U565">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="566" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V565" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W565" s="1"/>
+    </row>
+    <row r="566" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>611</v>
       </c>
@@ -31151,8 +32755,12 @@
       <c r="U566" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="567" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V566" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W566" s="1"/>
+    </row>
+    <row r="567" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>612</v>
       </c>
@@ -31201,8 +32809,12 @@
       <c r="U567">
         <v>2</v>
       </c>
-    </row>
-    <row r="568" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V567" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="W567" s="1"/>
+    </row>
+    <row r="568" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>613</v>
       </c>
@@ -31251,8 +32863,12 @@
       <c r="U568">
         <v>6</v>
       </c>
-    </row>
-    <row r="569" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V568" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="W568" s="1"/>
+    </row>
+    <row r="569" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>614</v>
       </c>
@@ -31301,8 +32917,12 @@
       <c r="U569">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="570" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V569" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="W569" s="1"/>
+    </row>
+    <row r="570" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>615</v>
       </c>
@@ -31351,8 +32971,12 @@
       <c r="U570">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="571" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V570" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="W570" s="1"/>
+    </row>
+    <row r="571" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>616</v>
       </c>
@@ -31401,8 +33025,12 @@
       <c r="U571" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="572" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V571" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W571" s="1"/>
+    </row>
+    <row r="572" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>617</v>
       </c>
@@ -31451,8 +33079,12 @@
       <c r="U572">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="573" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V572" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W572" s="1"/>
+    </row>
+    <row r="573" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>618</v>
       </c>
@@ -31501,8 +33133,12 @@
       <c r="U573">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="574" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V573" s="1">
+        <v>2</v>
+      </c>
+      <c r="W573" s="1"/>
+    </row>
+    <row r="574" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>619</v>
       </c>
@@ -31551,8 +33187,12 @@
       <c r="U574" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="575" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V574" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W574" s="1"/>
+    </row>
+    <row r="575" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>620</v>
       </c>
@@ -31604,8 +33244,12 @@
       <c r="U575" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="576" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V575" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W575" s="1"/>
+    </row>
+    <row r="576" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>621</v>
       </c>
@@ -31657,8 +33301,12 @@
       <c r="U576" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="577" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V576" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W576" s="1"/>
+    </row>
+    <row r="577" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>622</v>
       </c>
@@ -31674,6 +33322,9 @@
       <c r="E577" t="s">
         <v>587</v>
       </c>
+      <c r="F577" t="s">
+        <v>751</v>
+      </c>
       <c r="J577">
         <v>0.4</v>
       </c>
@@ -31707,8 +33358,12 @@
       <c r="U577">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="578" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V577" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="W577" s="1"/>
+    </row>
+    <row r="578" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>623</v>
       </c>
@@ -31724,6 +33379,9 @@
       <c r="E578" t="s">
         <v>587</v>
       </c>
+      <c r="F578" t="s">
+        <v>752</v>
+      </c>
       <c r="J578">
         <v>0.5</v>
       </c>
@@ -31757,8 +33415,12 @@
       <c r="U578" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="579" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V578" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W578" s="1"/>
+    </row>
+    <row r="579" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>624</v>
       </c>
@@ -31807,8 +33469,12 @@
       <c r="U579">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="580" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V579" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="W579" s="1"/>
+    </row>
+    <row r="580" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>625</v>
       </c>
@@ -31857,8 +33523,12 @@
       <c r="U580">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="581" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V580" s="1">
+        <v>1</v>
+      </c>
+      <c r="W580" s="1"/>
+    </row>
+    <row r="581" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>626</v>
       </c>
@@ -31907,8 +33577,12 @@
       <c r="U581">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="582" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V581" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="W581" s="1"/>
+    </row>
+    <row r="582" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>627</v>
       </c>
@@ -31957,8 +33631,12 @@
       <c r="U582">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="583" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V582" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="W582" s="1"/>
+    </row>
+    <row r="583" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>628</v>
       </c>
@@ -32007,8 +33685,12 @@
       <c r="U583">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="584" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V583" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W583" s="1"/>
+    </row>
+    <row r="584" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>629</v>
       </c>
@@ -32057,8 +33739,12 @@
       <c r="U584">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="585" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V584" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="W584" s="1"/>
+    </row>
+    <row r="585" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>630</v>
       </c>
@@ -32107,8 +33793,12 @@
       <c r="U585">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="586" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V585" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="W585" s="1"/>
+    </row>
+    <row r="586" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>631</v>
       </c>
@@ -32157,8 +33847,12 @@
       <c r="U586">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="587" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V586" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="W586" s="1"/>
+    </row>
+    <row r="587" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>632</v>
       </c>
@@ -32210,8 +33904,12 @@
       <c r="U587">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="588" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V587" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W587" s="1"/>
+    </row>
+    <row r="588" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>633</v>
       </c>
@@ -32263,8 +33961,12 @@
       <c r="U588" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="589" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V588" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W588" s="1"/>
+    </row>
+    <row r="589" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>635</v>
       </c>
@@ -32316,8 +34018,12 @@
       <c r="U589" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="590" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V589" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W589" s="1"/>
+    </row>
+    <row r="590" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>637</v>
       </c>
@@ -32369,8 +34075,12 @@
       <c r="U590" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="591" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V590" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W590" s="1"/>
+    </row>
+    <row r="591" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>638</v>
       </c>
@@ -32419,8 +34129,12 @@
       <c r="U591">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="592" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V591" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W591" s="1"/>
+    </row>
+    <row r="592" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>639</v>
       </c>
@@ -32469,8 +34183,12 @@
       <c r="U592">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="593" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V592" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="W592" s="1"/>
+    </row>
+    <row r="593" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>640</v>
       </c>
@@ -32519,8 +34237,12 @@
       <c r="U593">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="594" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V593" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="W593" s="1"/>
+    </row>
+    <row r="594" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>641</v>
       </c>
@@ -32569,8 +34291,12 @@
       <c r="U594">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="595" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V594" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="W594" s="1"/>
+    </row>
+    <row r="595" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>642</v>
       </c>
@@ -32619,8 +34345,12 @@
       <c r="U595">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="596" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V595" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W595" s="1"/>
+    </row>
+    <row r="596" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>643</v>
       </c>
@@ -32669,8 +34399,12 @@
       <c r="U596">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="597" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V596" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="W596" s="1"/>
+    </row>
+    <row r="597" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>644</v>
       </c>
@@ -32722,8 +34456,12 @@
       <c r="U597" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="598" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V597" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W597" s="1"/>
+    </row>
+    <row r="598" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>645</v>
       </c>
@@ -32772,8 +34510,12 @@
       <c r="U598">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="599" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V598" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="W598" s="1"/>
+    </row>
+    <row r="599" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>646</v>
       </c>
@@ -32822,8 +34564,12 @@
       <c r="U599">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="600" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V599" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="W599" s="1"/>
+    </row>
+    <row r="600" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>647</v>
       </c>
@@ -32875,8 +34621,12 @@
       <c r="U600">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="601" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V600" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W600" s="1"/>
+    </row>
+    <row r="601" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>648</v>
       </c>
@@ -32928,8 +34678,12 @@
       <c r="U601" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="602" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V601" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W601" s="1"/>
+    </row>
+    <row r="602" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>649</v>
       </c>
@@ -32978,8 +34732,12 @@
       <c r="U602">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="603" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V602" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="W602" s="1"/>
+    </row>
+    <row r="603" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>650</v>
       </c>
@@ -33031,8 +34789,12 @@
       <c r="U603" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="604" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V603" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W603" s="1"/>
+    </row>
+    <row r="604" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>652</v>
       </c>
@@ -33084,8 +34846,12 @@
       <c r="U604" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="605" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V604" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W604" s="1"/>
+    </row>
+    <row r="605" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>653</v>
       </c>
@@ -33134,8 +34900,12 @@
       <c r="U605" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="606" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V605" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W605" s="1"/>
+    </row>
+    <row r="606" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>654</v>
       </c>
@@ -33184,8 +34954,12 @@
       <c r="U606">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="607" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V606" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="W606" s="1"/>
+    </row>
+    <row r="607" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>655</v>
       </c>
@@ -33237,8 +35011,12 @@
       <c r="U607">
         <v>3</v>
       </c>
-    </row>
-    <row r="608" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V607" s="1">
+        <v>3</v>
+      </c>
+      <c r="W607" s="1"/>
+    </row>
+    <row r="608" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>656</v>
       </c>
@@ -33287,8 +35065,12 @@
       <c r="U608">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="609" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V608" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="W608" s="1"/>
+    </row>
+    <row r="609" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>657</v>
       </c>
@@ -33340,8 +35122,12 @@
       <c r="U609" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="610" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V609" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W609" s="1"/>
+    </row>
+    <row r="610" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>658</v>
       </c>
@@ -33390,8 +35176,12 @@
       <c r="U610">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="611" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V610" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W610" s="1"/>
+    </row>
+    <row r="611" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>659</v>
       </c>
@@ -33443,8 +35233,12 @@
       <c r="U611" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="612" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V611" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W611" s="1"/>
+    </row>
+    <row r="612" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>660</v>
       </c>
@@ -33496,8 +35290,12 @@
       <c r="U612" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="613" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V612" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W612" s="1"/>
+    </row>
+    <row r="613" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>661</v>
       </c>
@@ -33546,8 +35344,12 @@
       <c r="U613">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="614" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V613" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="W613" s="1"/>
+    </row>
+    <row r="614" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>662</v>
       </c>
@@ -33599,8 +35401,12 @@
       <c r="U614">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="615" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V614" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="W614" s="1"/>
+    </row>
+    <row r="615" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>664</v>
       </c>
@@ -33649,8 +35455,12 @@
       <c r="U615">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="616" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V615" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="W615" s="1"/>
+    </row>
+    <row r="616" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>665</v>
       </c>
@@ -33699,8 +35509,12 @@
       <c r="U616">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="617" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V616" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="W616" s="1"/>
+    </row>
+    <row r="617" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>666</v>
       </c>
@@ -33749,8 +35563,12 @@
       <c r="U617">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="618" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V617" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="W617" s="1"/>
+    </row>
+    <row r="618" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>667</v>
       </c>
@@ -33799,8 +35617,12 @@
       <c r="U618">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="619" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V618" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="W618" s="1"/>
+    </row>
+    <row r="619" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>668</v>
       </c>
@@ -33852,8 +35674,12 @@
       <c r="U619">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="620" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V619" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="W619" s="1"/>
+    </row>
+    <row r="620" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>669</v>
       </c>
@@ -33905,8 +35731,12 @@
       <c r="U620" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="621" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V620" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W620" s="1"/>
+    </row>
+    <row r="621" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>670</v>
       </c>
@@ -33958,8 +35788,12 @@
       <c r="U621">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="622" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V621" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W621" s="1"/>
+    </row>
+    <row r="622" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>671</v>
       </c>
@@ -34008,8 +35842,12 @@
       <c r="U622">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="623" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V622" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="W622" s="1"/>
+    </row>
+    <row r="623" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>672</v>
       </c>
@@ -34058,8 +35896,12 @@
       <c r="U623">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="624" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V623" s="1">
+        <v>3</v>
+      </c>
+      <c r="W623" s="1"/>
+    </row>
+    <row r="624" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>673</v>
       </c>
@@ -34108,8 +35950,12 @@
       <c r="U624">
         <v>5</v>
       </c>
-    </row>
-    <row r="625" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V624" s="1">
+        <v>6</v>
+      </c>
+      <c r="W624" s="1"/>
+    </row>
+    <row r="625" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>674</v>
       </c>
@@ -34158,8 +36004,12 @@
       <c r="U625">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="626" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V625" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="W625" s="1"/>
+    </row>
+    <row r="626" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>675</v>
       </c>
@@ -34211,8 +36061,12 @@
       <c r="U626">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="627" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V626" s="1">
+        <v>1</v>
+      </c>
+      <c r="W626" s="1"/>
+    </row>
+    <row r="627" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>676</v>
       </c>
@@ -34261,8 +36115,12 @@
       <c r="U627">
         <v>3</v>
       </c>
-    </row>
-    <row r="628" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V627" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="W627" s="1"/>
+    </row>
+    <row r="628" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>677</v>
       </c>
@@ -34311,8 +36169,12 @@
       <c r="U628">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="629" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V628" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W628" s="1"/>
+    </row>
+    <row r="629" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>678</v>
       </c>
@@ -34361,8 +36223,12 @@
       <c r="U629">
         <v>1</v>
       </c>
-    </row>
-    <row r="630" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V629" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="W629" s="1"/>
+    </row>
+    <row r="630" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>679</v>
       </c>
@@ -34411,8 +36277,12 @@
       <c r="U630">
         <v>6</v>
       </c>
-    </row>
-    <row r="631" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V630" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="W630" s="1"/>
+    </row>
+    <row r="631" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>680</v>
       </c>
@@ -34464,12 +36334,17 @@
       <c r="U631" t="s">
         <v>132</v>
       </c>
+      <c r="V631" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W631" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/shoot_elongation/shoot_elongation.xlsx
+++ b/data/shoot_elongation/shoot_elongation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapph\Documents\ubc things\work\fuelinex\data\shoot_elongation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\my_repo_dir\fuelinex\data\shoot_elongation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98746067-13D2-4E30-A793-9292FDB49D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1DBFD6-D1C9-4602-AE57-509486AD02A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7728" yWindow="2304" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">shoot_elongation!$D$1:$D$631</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="762">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2271,18 +2262,12 @@
     <t>doy 192: apical shoot broken; doy 199: part of shoot snapped off</t>
   </si>
   <si>
-    <t>doy 199: new shoot measured</t>
-  </si>
-  <si>
     <t>206</t>
   </si>
   <si>
     <t>resprouting</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>doy 206: red paint peeled off</t>
   </si>
   <si>
@@ -2311,6 +2296,21 @@
   </si>
   <si>
     <t>doy 206: growth spurt?</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>doy 213: last week might be wrong</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken doy 213: new shoot measured</t>
+  </si>
+  <si>
+    <t>doy 199: new shoot measured; doy 213: shoot dead</t>
+  </si>
+  <si>
+    <t>doy 213: apical shoot broken but still trying to grow</t>
   </si>
 </sst>
 </file>
@@ -2802,9 +2802,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3069,12 +3068,12 @@
   <autoFilter ref="A1:W631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
     <filterColumn colId="1">
       <filters>
-        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="populus"/>
+        <filter val="betula"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3101,7 +3100,7 @@
     <tableColumn id="20" xr3:uid="{0BF7A4F6-800F-7548-A638-DF43A258D373}" name="192" dataDxfId="3"/>
     <tableColumn id="21" xr3:uid="{84D950AD-7C40-4A1B-9BD8-38C59BC6ED07}" name="199" dataDxfId="2"/>
     <tableColumn id="22" xr3:uid="{FAFF9212-B9DB-4FE0-A10B-9A015D0BD45E}" name="206" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{BCC4DD0F-71CB-48F4-9836-608B978B30CE}" name="notes" dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{BCC4DD0F-71CB-48F4-9836-608B978B30CE}" name="213" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3427,21 +3426,21 @@
   <dimension ref="A1:W631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V292" sqref="V292"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z563" sqref="Z563"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="7" max="12" width="11" customWidth="1"/>
-    <col min="13" max="17" width="9.796875" customWidth="1"/>
+    <col min="13" max="17" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3506,13 +3505,13 @@
         <v>737</v>
       </c>
       <c r="V1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="W1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3608,11 +3607,11 @@
       <c r="T3">
         <v>12.3</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3">
         <v>12.3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3912,7 +3911,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -4012,7 +4011,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4203,7 +4202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4300,7 +4299,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4400,7 +4399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4497,7 +4496,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4653,7 +4652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4753,7 +4752,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -4800,7 +4799,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4850,7 +4849,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -4947,7 +4946,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -4994,7 +4993,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -5447,7 +5446,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -5544,7 +5543,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -5591,7 +5590,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -5638,7 +5637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -5882,7 +5881,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -6032,7 +6031,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -6082,7 +6081,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6135,7 +6134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -6432,7 +6431,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -6629,7 +6628,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -6729,7 +6728,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -6779,7 +6778,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -6829,7 +6828,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -6879,7 +6878,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -6979,7 +6978,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -7026,7 +7025,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -7073,7 +7072,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -7314,7 +7313,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -7367,7 +7366,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -7470,7 +7469,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -7670,7 +7669,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -7720,7 +7719,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -7767,7 +7766,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -7861,7 +7860,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -7958,7 +7957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -8010,8 +8009,11 @@
       <c r="V92">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W92">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -8063,8 +8065,11 @@
       <c r="V93">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W93">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -8116,8 +8121,11 @@
       <c r="V94">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W94">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -8172,8 +8180,11 @@
       <c r="V95">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W95">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -8225,8 +8236,11 @@
       <c r="V96">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W96">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -8278,8 +8292,11 @@
       <c r="V97">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W97">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -8331,8 +8348,11 @@
       <c r="V98">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W98">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -8384,8 +8404,11 @@
       <c r="V99">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W99">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -8437,8 +8460,11 @@
       <c r="V100">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W100">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -8490,8 +8516,11 @@
       <c r="V101">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W101">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -8540,8 +8569,11 @@
       <c r="U102">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W102">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -8590,8 +8622,11 @@
       <c r="U103">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W103">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -8640,8 +8675,11 @@
       <c r="U104">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W104">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -8690,8 +8728,11 @@
       <c r="U105">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W105">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -8740,8 +8781,11 @@
       <c r="U106">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -8793,8 +8837,11 @@
       <c r="V107">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W107">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -8846,8 +8893,11 @@
       <c r="V108">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W108">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -8902,8 +8952,11 @@
       <c r="V109">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W109">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -8955,8 +9008,11 @@
       <c r="V110">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W110">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -9008,8 +9064,11 @@
       <c r="V111">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W111">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -9061,8 +9120,11 @@
       <c r="V112">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W112">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -9117,8 +9179,11 @@
       <c r="V113" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -9170,8 +9235,11 @@
       <c r="V114">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W114">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -9223,8 +9291,11 @@
       <c r="V115">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W115">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -9276,8 +9347,11 @@
       <c r="V116">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W116">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -9326,8 +9400,11 @@
       <c r="U117">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W117">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -9376,8 +9453,11 @@
       <c r="U118">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W118">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -9426,8 +9506,11 @@
       <c r="U119">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -9476,8 +9559,11 @@
       <c r="U120">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W120">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -9526,8 +9612,11 @@
       <c r="U121">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W121">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -9582,8 +9671,11 @@
       <c r="V122">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W122">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -9635,8 +9727,11 @@
       <c r="V123">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -9688,8 +9783,11 @@
       <c r="V124">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W124">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -9741,8 +9839,11 @@
       <c r="V125">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W125">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -9794,8 +9895,11 @@
       <c r="V126">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -9847,8 +9951,11 @@
       <c r="V127">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W127">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -9900,8 +10007,11 @@
       <c r="V128">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W128">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -9953,8 +10063,11 @@
       <c r="V129">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W129">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -10006,8 +10119,11 @@
       <c r="V130">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W130">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -10059,8 +10175,11 @@
       <c r="V131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -10109,8 +10228,11 @@
       <c r="U132">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W132">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -10159,8 +10281,11 @@
       <c r="U133">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W133">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -10209,8 +10334,11 @@
       <c r="U134">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W134">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -10259,8 +10387,11 @@
       <c r="U135">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W135">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -10312,8 +10443,11 @@
       <c r="U136">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -10365,8 +10499,11 @@
       <c r="V137">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W137">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>158</v>
       </c>
@@ -10418,8 +10555,11 @@
       <c r="V138">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -10471,8 +10611,11 @@
       <c r="V139">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W139">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -10524,8 +10667,11 @@
       <c r="V140">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -10577,8 +10723,11 @@
       <c r="V141">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -10630,8 +10779,11 @@
       <c r="V142">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W142">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>163</v>
       </c>
@@ -10683,8 +10835,11 @@
       <c r="V143">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W143">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -10736,8 +10891,11 @@
       <c r="V144">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W144">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -10789,8 +10947,11 @@
       <c r="V145">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W145">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -10842,8 +11003,11 @@
       <c r="V146">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W146">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -10892,8 +11056,11 @@
       <c r="U147">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W147">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -10942,8 +11109,11 @@
       <c r="U148">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W148">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>169</v>
       </c>
@@ -10992,8 +11162,11 @@
       <c r="U149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W149">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -11042,8 +11215,11 @@
       <c r="U150">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W150">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -11092,8 +11268,11 @@
       <c r="U151">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W151">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -11145,8 +11324,11 @@
       <c r="V152">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W152">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -11198,8 +11380,11 @@
       <c r="V153">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W153">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -11251,8 +11436,11 @@
       <c r="V154">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W154">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>175</v>
       </c>
@@ -11304,8 +11492,11 @@
       <c r="V155">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -11357,8 +11548,11 @@
       <c r="V156">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W156">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -11410,8 +11604,11 @@
       <c r="V157">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W157">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -11463,8 +11660,11 @@
       <c r="V158">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W158">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -11516,8 +11716,11 @@
       <c r="V159">
         <v>9</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W159">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -11569,8 +11772,11 @@
       <c r="V160">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -11622,8 +11828,11 @@
       <c r="V161">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W161">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -11675,8 +11884,11 @@
       <c r="U162">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W162">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -11725,8 +11937,11 @@
       <c r="U163">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W163">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -11778,8 +11993,11 @@
       <c r="U164">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W164">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -11828,8 +12046,11 @@
       <c r="U165">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W165">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -11878,8 +12099,11 @@
       <c r="U166">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W166">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -11931,8 +12155,11 @@
       <c r="V167">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W167">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -11984,8 +12211,11 @@
       <c r="V168">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W168">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -12037,8 +12267,11 @@
       <c r="V169">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W169">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -12090,8 +12323,11 @@
       <c r="V170">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W170">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -12143,8 +12379,11 @@
       <c r="V171">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W171">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -12196,8 +12435,11 @@
       <c r="V172">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W172">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -12249,8 +12491,11 @@
       <c r="V173">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W173">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -12302,8 +12547,11 @@
       <c r="V174">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W174">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -12355,8 +12603,11 @@
       <c r="V175">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W175">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -12408,8 +12659,11 @@
       <c r="V176">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W176">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -12458,8 +12712,11 @@
       <c r="U177">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W177">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -12508,8 +12765,11 @@
       <c r="U178">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W178">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -12558,8 +12818,11 @@
       <c r="U179">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W179">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -12608,8 +12871,11 @@
       <c r="U180">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W180">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -12658,8 +12924,11 @@
       <c r="U181">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W181">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -12709,7 +12978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -12759,7 +13028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -12809,7 +13078,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="185" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -12859,7 +13128,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="186" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -12909,7 +13178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -12959,7 +13228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -13009,7 +13278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -13062,7 +13331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>213</v>
       </c>
@@ -13112,7 +13381,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="191" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -13162,7 +13431,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="192" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -13212,7 +13481,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -13262,7 +13531,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -13315,10 +13584,10 @@
         <v>7.5</v>
       </c>
       <c r="W194" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -13368,7 +13637,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>219</v>
       </c>
@@ -13418,7 +13687,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -13468,7 +13737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>221</v>
       </c>
@@ -13518,7 +13787,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -13568,7 +13837,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -13618,7 +13887,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -13668,7 +13937,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -13718,7 +13987,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -13768,7 +14037,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -13818,7 +14087,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -13868,7 +14137,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -13918,7 +14187,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -13968,7 +14237,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -14018,7 +14287,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="209" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -14068,7 +14337,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="210" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -14118,7 +14387,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="211" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -14168,7 +14437,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="212" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -14218,7 +14487,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="213" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -14268,7 +14537,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -14318,7 +14587,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="215" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -14368,7 +14637,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="216" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -14418,7 +14687,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="217" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -14468,7 +14737,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="218" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -14518,7 +14787,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="219" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -14571,7 +14840,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="220" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -14621,7 +14890,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="221" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>244</v>
       </c>
@@ -14671,7 +14940,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="222" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -14721,7 +14990,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>246</v>
       </c>
@@ -14771,7 +15040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -14821,7 +15090,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="225" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>248</v>
       </c>
@@ -14871,7 +15140,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="226" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -14921,7 +15190,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="227" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -14971,7 +15240,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="228" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -15021,7 +15290,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="229" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -15071,7 +15340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -15121,7 +15390,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="231" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -15171,7 +15440,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -15221,7 +15490,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="233" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -15271,7 +15540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -15321,7 +15590,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="235" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -15371,7 +15640,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="236" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -15388,7 +15657,7 @@
         <v>204</v>
       </c>
       <c r="F236" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I236">
         <v>12.9</v>
@@ -15424,7 +15693,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>260</v>
       </c>
@@ -15477,7 +15746,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="238" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -15527,7 +15796,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="239" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -15577,7 +15846,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="240" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -15627,7 +15896,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="241" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -15677,7 +15946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -15727,7 +15996,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="243" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -15777,7 +16046,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -15827,7 +16096,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="245" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>268</v>
       </c>
@@ -15844,7 +16113,7 @@
         <v>204</v>
       </c>
       <c r="F245" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I245">
         <v>1.3</v>
@@ -15880,7 +16149,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="246" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -15930,7 +16199,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>270</v>
       </c>
@@ -15980,7 +16249,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -16030,7 +16299,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="249" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>272</v>
       </c>
@@ -16080,7 +16349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -16133,7 +16402,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="251" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>274</v>
       </c>
@@ -16186,7 +16455,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="252" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -16236,7 +16505,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="253" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>276</v>
       </c>
@@ -16286,7 +16555,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="254" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -16336,7 +16605,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="255" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -16386,7 +16655,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="256" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -16436,7 +16705,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="257" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>280</v>
       </c>
@@ -16486,7 +16755,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="258" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>281</v>
       </c>
@@ -16536,7 +16805,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="259" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -16586,7 +16855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>283</v>
       </c>
@@ -16636,7 +16905,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="261" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -16686,7 +16955,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="262" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>285</v>
       </c>
@@ -16736,7 +17005,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="263" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -16786,7 +17055,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="264" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -16836,7 +17105,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="265" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -16886,7 +17155,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="266" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -16936,7 +17205,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="267" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -16986,7 +17255,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="268" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>291</v>
       </c>
@@ -17036,7 +17305,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="269" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -17086,7 +17355,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="270" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -17136,7 +17405,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="271" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -17186,7 +17455,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="272" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -17241,8 +17510,11 @@
       <c r="V272">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="273" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W272">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -17294,8 +17566,11 @@
       <c r="V273">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="274" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W273">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>299</v>
       </c>
@@ -17312,7 +17587,7 @@
         <v>297</v>
       </c>
       <c r="F274" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I274">
         <v>1.1000000000000001</v>
@@ -17350,8 +17625,11 @@
       <c r="V274">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="275" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W274">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -17406,8 +17684,11 @@
       <c r="V275">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="276" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W275">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>301</v>
       </c>
@@ -17462,8 +17743,11 @@
       <c r="V276">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W276">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -17515,8 +17799,11 @@
       <c r="V277">
         <v>13</v>
       </c>
-    </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W277">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>303</v>
       </c>
@@ -17568,8 +17855,11 @@
       <c r="V278">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W278">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -17624,8 +17914,11 @@
       <c r="V279" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W279" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>305</v>
       </c>
@@ -17677,8 +17970,11 @@
       <c r="V280">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W280">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>306</v>
       </c>
@@ -17730,8 +18026,11 @@
       <c r="V281">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="282" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W281">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -17783,8 +18082,11 @@
       <c r="U282">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="283" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W282">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>308</v>
       </c>
@@ -17836,8 +18138,11 @@
       <c r="U283" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="284" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W283" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -17889,8 +18194,11 @@
       <c r="U284">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="285" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W284">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -17942,8 +18250,11 @@
       <c r="U285">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="286" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W285">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -17992,8 +18303,11 @@
       <c r="U286">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="287" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W286">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -18045,8 +18359,11 @@
       <c r="V287">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="288" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W287">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -18098,8 +18415,11 @@
       <c r="V288">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="289" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W288">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -18151,8 +18471,11 @@
       <c r="V289">
         <v>18</v>
       </c>
-    </row>
-    <row r="290" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W289">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -18204,8 +18527,11 @@
       <c r="V290">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="291" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W290">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -18257,8 +18583,11 @@
       <c r="V291">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W291">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -18310,8 +18639,11 @@
       <c r="V292">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W292">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -18363,8 +18695,11 @@
       <c r="V293">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W293">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -18416,8 +18751,11 @@
       <c r="V294">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W294">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>320</v>
       </c>
@@ -18469,8 +18807,11 @@
       <c r="V295">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W295">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -18522,8 +18863,11 @@
       <c r="V296">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="297" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W296">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>322</v>
       </c>
@@ -18575,8 +18919,11 @@
       <c r="U297">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="298" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W297">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -18625,8 +18972,11 @@
       <c r="U298">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="299" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W298">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>324</v>
       </c>
@@ -18678,8 +19028,11 @@
       <c r="U299">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="300" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W299">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -18728,8 +19081,11 @@
       <c r="U300">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="301" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W300">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>326</v>
       </c>
@@ -18778,8 +19134,11 @@
       <c r="U301">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="302" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W301">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -18831,8 +19190,11 @@
       <c r="V302">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="303" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W302">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>328</v>
       </c>
@@ -18884,8 +19246,11 @@
       <c r="V303">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="304" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W303">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -18937,8 +19302,11 @@
       <c r="V304">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="305" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W304">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>330</v>
       </c>
@@ -18990,8 +19358,11 @@
       <c r="V305">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="306" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W305">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -19043,8 +19414,11 @@
       <c r="V306">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W306">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>332</v>
       </c>
@@ -19096,8 +19470,11 @@
       <c r="V307">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W307">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -19149,8 +19526,11 @@
       <c r="V308">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W308">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>334</v>
       </c>
@@ -19202,8 +19582,11 @@
       <c r="V309">
         <v>5</v>
       </c>
-    </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W309">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -19258,8 +19641,11 @@
       <c r="V310">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W310">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -19311,8 +19697,11 @@
       <c r="V311">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="312" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W311">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -19361,8 +19750,11 @@
       <c r="U312">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="313" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W312">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -19414,8 +19806,11 @@
       <c r="U313">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="314" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W313">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -19467,8 +19862,11 @@
       <c r="U314">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="315" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W314">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -19517,8 +19915,11 @@
       <c r="U315">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="316" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W315">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -19567,8 +19968,11 @@
       <c r="U316">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="317" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W316">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -19623,8 +20027,11 @@
       <c r="V317">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="318" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W317">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -19673,11 +20080,14 @@
       <c r="U318">
         <v>3.6</v>
       </c>
-      <c r="V318" s="1">
+      <c r="V318">
         <v>8</v>
       </c>
-    </row>
-    <row r="319" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W318">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -19729,8 +20139,11 @@
       <c r="V319">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="320" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W319">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -19785,8 +20198,11 @@
       <c r="V320">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="321" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W320">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -19838,8 +20254,11 @@
       <c r="V321">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W321">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -19894,8 +20313,11 @@
       <c r="V322" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W322" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>349</v>
       </c>
@@ -19947,8 +20369,11 @@
       <c r="V323">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W323">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -20003,8 +20428,11 @@
       <c r="V324" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W324" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>352</v>
       </c>
@@ -20056,8 +20484,11 @@
       <c r="V325">
         <v>38</v>
       </c>
-    </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W325">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -20109,8 +20540,11 @@
       <c r="V326">
         <v>9</v>
       </c>
-    </row>
-    <row r="327" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W326">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>354</v>
       </c>
@@ -20159,8 +20593,11 @@
       <c r="U327">
         <v>16</v>
       </c>
-    </row>
-    <row r="328" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W327">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>355</v>
       </c>
@@ -20209,8 +20646,11 @@
       <c r="U328">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="329" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W328">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -20259,8 +20699,11 @@
       <c r="U329">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="330" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W329">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>357</v>
       </c>
@@ -20309,8 +20752,11 @@
       <c r="U330">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="331" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W330">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -20327,7 +20773,7 @@
         <v>297</v>
       </c>
       <c r="F331" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="I331">
         <v>1.4</v>
@@ -20362,8 +20808,11 @@
       <c r="U331">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="332" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W331">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>359</v>
       </c>
@@ -20380,7 +20829,7 @@
         <v>297</v>
       </c>
       <c r="F332" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I332">
         <v>1.5</v>
@@ -20418,8 +20867,11 @@
       <c r="V332">
         <v>35</v>
       </c>
-    </row>
-    <row r="333" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W332">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -20471,8 +20923,11 @@
       <c r="V333">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="334" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W333">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>361</v>
       </c>
@@ -20527,8 +20982,11 @@
       <c r="V334">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="335" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W334">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -20580,8 +21038,11 @@
       <c r="V335">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="336" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W335">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>363</v>
       </c>
@@ -20598,7 +21059,7 @@
         <v>297</v>
       </c>
       <c r="F336" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I336">
         <v>1.7</v>
@@ -20636,8 +21097,11 @@
       <c r="V336">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W336">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -20689,8 +21153,11 @@
       <c r="V337">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W337">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>365</v>
       </c>
@@ -20742,8 +21209,11 @@
       <c r="V338">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W338">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -20795,8 +21265,11 @@
       <c r="V339">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="340" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>367</v>
       </c>
@@ -20848,8 +21321,11 @@
       <c r="V340">
         <v>33</v>
       </c>
-    </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W340">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -20901,8 +21377,11 @@
       <c r="V341">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="342" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W341">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="342" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>369</v>
       </c>
@@ -20951,8 +21430,11 @@
       <c r="U342">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="343" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W342">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -21004,8 +21486,11 @@
       <c r="U343">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="344" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W343">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="344" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>371</v>
       </c>
@@ -21021,6 +21506,9 @@
       <c r="E344" t="s">
         <v>297</v>
       </c>
+      <c r="F344" t="s">
+        <v>761</v>
+      </c>
       <c r="I344">
         <v>1.8</v>
       </c>
@@ -21054,8 +21542,11 @@
       <c r="U344">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="345" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W344">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -21104,8 +21595,11 @@
       <c r="U345">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="346" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W345">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>373</v>
       </c>
@@ -21154,8 +21648,11 @@
       <c r="U346">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="347" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W346">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -21207,8 +21704,11 @@
       <c r="V347">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="348" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W347">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>375</v>
       </c>
@@ -21260,8 +21760,11 @@
       <c r="V348">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="349" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W348">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -21313,8 +21816,11 @@
       <c r="V349">
         <v>5</v>
       </c>
-    </row>
-    <row r="350" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W349">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>377</v>
       </c>
@@ -21331,7 +21837,7 @@
         <v>297</v>
       </c>
       <c r="F350" t="s">
-        <v>730</v>
+        <v>759</v>
       </c>
       <c r="I350">
         <v>1.3</v>
@@ -21369,8 +21875,11 @@
       <c r="V350">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="351" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W350">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>378</v>
       </c>
@@ -21422,8 +21931,11 @@
       <c r="V351">
         <v>31</v>
       </c>
-    </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W351">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -21478,8 +21990,11 @@
       <c r="V352">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>380</v>
       </c>
@@ -21531,8 +22046,11 @@
       <c r="V353">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W353">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -21584,8 +22102,11 @@
       <c r="V354">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W354">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>382</v>
       </c>
@@ -21640,8 +22161,11 @@
       <c r="V355" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W355" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -21693,8 +22217,11 @@
       <c r="V356">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="357" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W356">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>384</v>
       </c>
@@ -21746,8 +22273,11 @@
       <c r="U357">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="358" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W357">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -21796,8 +22326,11 @@
       <c r="U358">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="359" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W358">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>386</v>
       </c>
@@ -21846,8 +22379,11 @@
       <c r="U359">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="360" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W359">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -21896,8 +22432,11 @@
       <c r="U360">
         <v>20</v>
       </c>
-    </row>
-    <row r="361" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W360">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>388</v>
       </c>
@@ -21946,8 +22485,11 @@
       <c r="U361">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="362" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W361">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -21997,7 +22539,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="363" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -22047,7 +22589,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="364" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -22100,7 +22642,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="365" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -22150,7 +22692,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="366" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -22200,7 +22742,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="367" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -22250,7 +22792,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="368" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -22303,7 +22845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -22356,7 +22898,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="370" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -22406,7 +22948,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -22456,7 +22998,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="372" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -22506,7 +23048,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="373" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -22556,7 +23098,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="374" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -22606,7 +23148,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="375" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -22656,7 +23198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -22709,7 +23251,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="377" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -22759,7 +23301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -22809,7 +23351,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="379" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -22859,7 +23401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -22912,7 +23454,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="381" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -22965,7 +23507,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="382" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -23015,7 +23557,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>415</v>
       </c>
@@ -23065,7 +23607,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="384" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -23115,7 +23657,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="385" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>417</v>
       </c>
@@ -23165,7 +23707,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="386" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -23215,7 +23757,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="387" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>419</v>
       </c>
@@ -23268,7 +23810,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="388" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -23318,7 +23860,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="389" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>422</v>
       </c>
@@ -23368,7 +23910,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="390" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -23418,7 +23960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>424</v>
       </c>
@@ -23468,7 +24010,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="392" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -23521,7 +24063,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="393" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -23571,7 +24113,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="394" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -23624,7 +24166,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="395" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -23674,7 +24216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -23724,7 +24266,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="397" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -23774,7 +24316,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="398" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -23824,7 +24366,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="399" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -23877,7 +24419,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="400" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>434</v>
       </c>
@@ -23927,7 +24469,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -23977,7 +24519,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>436</v>
       </c>
@@ -24033,7 +24575,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -24086,7 +24628,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
         <v>438</v>
       </c>
@@ -24139,7 +24681,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
         <v>439</v>
       </c>
@@ -24189,7 +24731,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -24239,7 +24781,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="407" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>441</v>
       </c>
@@ -24289,7 +24831,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="408" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -24339,7 +24881,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="409" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
         <v>443</v>
       </c>
@@ -24389,7 +24931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -24439,7 +24981,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="411" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>445</v>
       </c>
@@ -24489,7 +25031,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="412" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -24539,7 +25081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>447</v>
       </c>
@@ -24589,7 +25131,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="414" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -24639,7 +25181,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="415" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>449</v>
       </c>
@@ -24689,7 +25231,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="416" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -24742,7 +25284,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="417" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
         <v>451</v>
       </c>
@@ -24795,7 +25337,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="418" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -24845,7 +25387,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="419" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
         <v>453</v>
       </c>
@@ -24895,7 +25437,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="420" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -24945,7 +25487,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="421" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -24998,7 +25540,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="422" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
         <v>457</v>
       </c>
@@ -25048,7 +25590,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="423" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
         <v>458</v>
       </c>
@@ -25101,7 +25643,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="424" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
         <v>460</v>
       </c>
@@ -25151,7 +25693,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="425" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
         <v>461</v>
       </c>
@@ -25201,7 +25743,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="426" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
         <v>462</v>
       </c>
@@ -25254,7 +25796,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="427" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
         <v>463</v>
       </c>
@@ -25304,7 +25846,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="428" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
         <v>464</v>
       </c>
@@ -25354,7 +25896,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="429" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
         <v>465</v>
       </c>
@@ -25404,7 +25946,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="430" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
         <v>467</v>
       </c>
@@ -25454,7 +25996,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="431" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
         <v>468</v>
       </c>
@@ -25507,7 +26049,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="432" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
         <v>469</v>
       </c>
@@ -25557,7 +26099,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="433" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
         <v>470</v>
       </c>
@@ -25607,7 +26149,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="434" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
         <v>471</v>
       </c>
@@ -25657,7 +26199,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="435" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
         <v>472</v>
       </c>
@@ -25707,7 +26249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
         <v>473</v>
       </c>
@@ -25757,7 +26299,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="437" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>474</v>
       </c>
@@ -25807,7 +26349,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="438" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
         <v>475</v>
       </c>
@@ -25857,7 +26399,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="439" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
         <v>476</v>
       </c>
@@ -25907,7 +26449,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="440" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
         <v>477</v>
       </c>
@@ -25957,7 +26499,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
         <v>478</v>
       </c>
@@ -26007,7 +26549,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="442" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
         <v>479</v>
       </c>
@@ -26060,7 +26602,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="443" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
         <v>481</v>
       </c>
@@ -26110,7 +26652,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
         <v>482</v>
       </c>
@@ -26160,7 +26702,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="445" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
         <v>483</v>
       </c>
@@ -26210,7 +26752,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="446" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
         <v>484</v>
       </c>
@@ -26260,7 +26802,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="447" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
         <v>485</v>
       </c>
@@ -26310,7 +26852,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
         <v>486</v>
       </c>
@@ -26360,7 +26902,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="449" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
         <v>487</v>
       </c>
@@ -26410,7 +26952,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="450" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
         <v>488</v>
       </c>
@@ -26460,7 +27002,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="451" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
         <v>489</v>
       </c>
@@ -26513,7 +27055,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="452" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
         <v>490</v>
       </c>
@@ -26565,8 +27107,11 @@
       <c r="V452">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="453" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W452">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="453" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
         <v>493</v>
       </c>
@@ -26618,8 +27163,11 @@
       <c r="V453">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="454" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W453">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
         <v>494</v>
       </c>
@@ -26671,8 +27219,11 @@
       <c r="V454">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="455" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W454">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
         <v>495</v>
       </c>
@@ -26724,8 +27275,11 @@
       <c r="V455">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="456" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W455">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
         <v>496</v>
       </c>
@@ -26777,8 +27331,11 @@
       <c r="V456">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="457" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W456">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
         <v>497</v>
       </c>
@@ -26795,7 +27352,7 @@
         <v>492</v>
       </c>
       <c r="F457" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J457">
         <v>1.2</v>
@@ -26833,8 +27390,11 @@
       <c r="V457">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="458" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W457">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
         <v>498</v>
       </c>
@@ -26886,8 +27446,11 @@
       <c r="V458">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="459" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W458">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
         <v>499</v>
       </c>
@@ -26939,8 +27502,11 @@
       <c r="V459">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="460" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W459">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
         <v>500</v>
       </c>
@@ -26992,8 +27558,11 @@
       <c r="V460">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="461" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
         <v>501</v>
       </c>
@@ -27045,8 +27614,11 @@
       <c r="V461">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="462" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W461">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
         <v>502</v>
       </c>
@@ -27095,8 +27667,11 @@
       <c r="U462">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="463" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W462">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
         <v>503</v>
       </c>
@@ -27145,8 +27720,11 @@
       <c r="U463">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="464" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W463">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
         <v>504</v>
       </c>
@@ -27195,8 +27773,11 @@
       <c r="U464">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="465" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W464">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
         <v>505</v>
       </c>
@@ -27245,8 +27826,11 @@
       <c r="U465">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="466" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W465">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>506</v>
       </c>
@@ -27295,8 +27879,11 @@
       <c r="U466">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="467" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W466">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
         <v>507</v>
       </c>
@@ -27348,8 +27935,11 @@
       <c r="V467">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="468" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W467">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
         <v>508</v>
       </c>
@@ -27401,8 +27991,11 @@
       <c r="V468">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="469" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W468">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A469" t="s">
         <v>509</v>
       </c>
@@ -27454,8 +28047,11 @@
       <c r="V469">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="470" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W469">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
         <v>510</v>
       </c>
@@ -27507,8 +28103,11 @@
       <c r="V470">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="471" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W470">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
         <v>511</v>
       </c>
@@ -27560,8 +28159,11 @@
       <c r="V471">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="472" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W471">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="472" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A472" t="s">
         <v>512</v>
       </c>
@@ -27613,8 +28215,11 @@
       <c r="V472">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="473" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W472">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A473" t="s">
         <v>513</v>
       </c>
@@ -27666,8 +28271,11 @@
       <c r="V473">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="474" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A474" t="s">
         <v>514</v>
       </c>
@@ -27722,8 +28330,11 @@
       <c r="V474">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="475" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W474">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
         <v>516</v>
       </c>
@@ -27775,8 +28386,11 @@
       <c r="V475">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="476" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W475">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A476" t="s">
         <v>517</v>
       </c>
@@ -27828,8 +28442,11 @@
       <c r="V476">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="477" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W476">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A477" t="s">
         <v>518</v>
       </c>
@@ -27878,8 +28495,11 @@
       <c r="U477">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W477">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A478" t="s">
         <v>519</v>
       </c>
@@ -27928,8 +28548,11 @@
       <c r="U478">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="479" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W478">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A479" t="s">
         <v>520</v>
       </c>
@@ -27978,8 +28601,11 @@
       <c r="U479">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="480" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W479">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="480" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
         <v>521</v>
       </c>
@@ -28028,8 +28654,11 @@
       <c r="U480">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="481" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W480">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A481" t="s">
         <v>522</v>
       </c>
@@ -28078,8 +28707,11 @@
       <c r="U481">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="482" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W481">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A482" t="s">
         <v>523</v>
       </c>
@@ -28131,8 +28763,11 @@
       <c r="V482">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="483" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W482">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A483" t="s">
         <v>524</v>
       </c>
@@ -28184,8 +28819,11 @@
       <c r="V483">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="484" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W483">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A484" t="s">
         <v>525</v>
       </c>
@@ -28237,8 +28875,11 @@
       <c r="V484">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="485" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W484">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="485" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A485" t="s">
         <v>526</v>
       </c>
@@ -28293,8 +28934,11 @@
       <c r="V485">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="486" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W485">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A486" t="s">
         <v>527</v>
       </c>
@@ -28346,8 +28990,11 @@
       <c r="V486">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="487" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W486">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A487" t="s">
         <v>528</v>
       </c>
@@ -28363,6 +29010,9 @@
       <c r="E487" t="s">
         <v>492</v>
       </c>
+      <c r="F487" t="s">
+        <v>758</v>
+      </c>
       <c r="J487">
         <v>1.8</v>
       </c>
@@ -28399,8 +29049,11 @@
       <c r="V487">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="488" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W487">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A488" t="s">
         <v>529</v>
       </c>
@@ -28452,8 +29105,11 @@
       <c r="V488">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="489" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W488">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A489" t="s">
         <v>530</v>
       </c>
@@ -28505,8 +29161,11 @@
       <c r="V489">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="490" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W489">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A490" t="s">
         <v>531</v>
       </c>
@@ -28558,8 +29217,11 @@
       <c r="V490">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="491" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W490">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
         <v>532</v>
       </c>
@@ -28611,8 +29273,11 @@
       <c r="V491">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="492" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W491">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A492" t="s">
         <v>533</v>
       </c>
@@ -28661,8 +29326,11 @@
       <c r="U492">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="493" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W492">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A493" t="s">
         <v>534</v>
       </c>
@@ -28711,8 +29379,11 @@
       <c r="U493">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="494" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W493">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A494" t="s">
         <v>535</v>
       </c>
@@ -28761,8 +29432,11 @@
       <c r="U494">
         <v>2</v>
       </c>
-    </row>
-    <row r="495" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W494">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
         <v>536</v>
       </c>
@@ -28814,8 +29488,11 @@
       <c r="U495" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="496" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W495" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="496" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A496" t="s">
         <v>538</v>
       </c>
@@ -28864,8 +29541,11 @@
       <c r="U496">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="497" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W496">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A497" t="s">
         <v>539</v>
       </c>
@@ -28917,8 +29597,11 @@
       <c r="V497">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="498" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A498" t="s">
         <v>540</v>
       </c>
@@ -28970,8 +29653,11 @@
       <c r="V498">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="499" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W498">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="499" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A499" t="s">
         <v>541</v>
       </c>
@@ -29023,8 +29709,11 @@
       <c r="V499">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="500" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W499">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="500" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
         <v>542</v>
       </c>
@@ -29076,8 +29765,11 @@
       <c r="V500">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="501" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W500">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
         <v>543</v>
       </c>
@@ -29129,8 +29821,11 @@
       <c r="V501">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="502" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W501">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="502" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A502" t="s">
         <v>544</v>
       </c>
@@ -29182,8 +29877,11 @@
       <c r="V502">
         <v>2</v>
       </c>
-    </row>
-    <row r="503" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A503" t="s">
         <v>545</v>
       </c>
@@ -29235,8 +29933,11 @@
       <c r="V503">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="504" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W503">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A504" t="s">
         <v>546</v>
       </c>
@@ -29288,8 +29989,11 @@
       <c r="V504">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="505" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W504">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A505" t="s">
         <v>547</v>
       </c>
@@ -29341,8 +30045,11 @@
       <c r="V505">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="506" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W505">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A506" t="s">
         <v>548</v>
       </c>
@@ -29394,8 +30101,11 @@
       <c r="V506">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="507" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W506">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A507" t="s">
         <v>549</v>
       </c>
@@ -29444,8 +30154,11 @@
       <c r="U507">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="508" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W507">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A508" t="s">
         <v>550</v>
       </c>
@@ -29494,8 +30207,11 @@
       <c r="U508">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="509" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W508">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A509" t="s">
         <v>551</v>
       </c>
@@ -29544,8 +30260,11 @@
       <c r="U509">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="510" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W509">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A510" t="s">
         <v>552</v>
       </c>
@@ -29594,8 +30313,11 @@
       <c r="U510">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="511" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W510">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A511" t="s">
         <v>553</v>
       </c>
@@ -29644,8 +30366,11 @@
       <c r="U511">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="512" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W511">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A512" t="s">
         <v>554</v>
       </c>
@@ -29697,8 +30422,11 @@
       <c r="V512">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="513" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W512">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A513" t="s">
         <v>555</v>
       </c>
@@ -29750,8 +30478,11 @@
       <c r="V513">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="514" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W513">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="514" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A514" t="s">
         <v>556</v>
       </c>
@@ -29803,8 +30534,11 @@
       <c r="V514">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="515" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W514">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="515" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A515" t="s">
         <v>557</v>
       </c>
@@ -29856,8 +30590,11 @@
       <c r="V515">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="516" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W515">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A516" t="s">
         <v>558</v>
       </c>
@@ -29909,8 +30646,11 @@
       <c r="V516">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="517" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W516">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A517" t="s">
         <v>559</v>
       </c>
@@ -29965,8 +30705,11 @@
       <c r="V517" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="518" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W517" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="518" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A518" t="s">
         <v>560</v>
       </c>
@@ -30021,8 +30764,11 @@
       <c r="V518" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="519" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W518" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="519" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A519" t="s">
         <v>561</v>
       </c>
@@ -30074,8 +30820,11 @@
       <c r="V519">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="520" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W519">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A520" t="s">
         <v>562</v>
       </c>
@@ -30127,8 +30876,11 @@
       <c r="V520">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="521" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W520">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A521" t="s">
         <v>563</v>
       </c>
@@ -30180,8 +30932,11 @@
       <c r="V521">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="522" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W521">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A522" t="s">
         <v>564</v>
       </c>
@@ -30230,8 +30985,11 @@
       <c r="U522">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="523" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W522">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="523" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A523" t="s">
         <v>565</v>
       </c>
@@ -30280,8 +31038,11 @@
       <c r="U523">
         <v>6</v>
       </c>
-    </row>
-    <row r="524" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W523">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A524" t="s">
         <v>566</v>
       </c>
@@ -30330,8 +31091,11 @@
       <c r="U524">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="525" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W524">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="525" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A525" t="s">
         <v>567</v>
       </c>
@@ -30380,8 +31144,11 @@
       <c r="U525">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="526" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W525">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A526" t="s">
         <v>568</v>
       </c>
@@ -30430,8 +31197,11 @@
       <c r="U526">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="527" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W526">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A527" t="s">
         <v>569</v>
       </c>
@@ -30483,8 +31253,11 @@
       <c r="V527">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="528" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W527">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A528" t="s">
         <v>570</v>
       </c>
@@ -30536,8 +31309,11 @@
       <c r="V528">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="529" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W528">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A529" t="s">
         <v>571</v>
       </c>
@@ -30589,8 +31365,11 @@
       <c r="V529">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="530" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W529">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A530" t="s">
         <v>572</v>
       </c>
@@ -30642,8 +31421,11 @@
       <c r="V530">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="531" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W530">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="531" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A531" t="s">
         <v>573</v>
       </c>
@@ -30695,8 +31477,11 @@
       <c r="V531">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="532" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W531">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="532" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A532" t="s">
         <v>574</v>
       </c>
@@ -30751,8 +31536,11 @@
       <c r="V532">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="533" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W532">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A533" t="s">
         <v>576</v>
       </c>
@@ -30804,8 +31592,11 @@
       <c r="V533">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="534" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W533">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A534" t="s">
         <v>577</v>
       </c>
@@ -30857,8 +31648,11 @@
       <c r="V534">
         <v>5</v>
       </c>
-    </row>
-    <row r="535" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W534">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A535" t="s">
         <v>578</v>
       </c>
@@ -30910,8 +31704,11 @@
       <c r="V535">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="536" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W535">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="536" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A536" t="s">
         <v>579</v>
       </c>
@@ -30963,8 +31760,11 @@
       <c r="V536">
         <v>3</v>
       </c>
-    </row>
-    <row r="537" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W536">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A537" t="s">
         <v>580</v>
       </c>
@@ -31013,8 +31813,11 @@
       <c r="U537">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="538" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W537">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="538" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A538" t="s">
         <v>581</v>
       </c>
@@ -31063,8 +31866,11 @@
       <c r="U538">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="539" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W538">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A539" t="s">
         <v>582</v>
       </c>
@@ -31113,8 +31919,11 @@
       <c r="U539">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="540" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W539">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A540" t="s">
         <v>583</v>
       </c>
@@ -31163,8 +31972,11 @@
       <c r="U540">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="541" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W540">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A541" t="s">
         <v>584</v>
       </c>
@@ -31213,8 +32025,11 @@
       <c r="U541">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="542" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W541">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A542" t="s">
         <v>585</v>
       </c>
@@ -31269,8 +32084,11 @@
       <c r="V542" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="543" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W542" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="543" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A543" t="s">
         <v>588</v>
       </c>
@@ -31322,8 +32140,11 @@
       <c r="V543">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="544" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W543">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="544" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A544" t="s">
         <v>589</v>
       </c>
@@ -31378,8 +32199,11 @@
       <c r="V544" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="545" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W544" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="545" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A545" t="s">
         <v>590</v>
       </c>
@@ -31431,8 +32255,11 @@
       <c r="V545">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="546" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A546" t="s">
         <v>591</v>
       </c>
@@ -31449,7 +32276,7 @@
         <v>587</v>
       </c>
       <c r="F546" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J546">
         <v>0.2</v>
@@ -31487,8 +32314,11 @@
       <c r="V546" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="547" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W546" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="547" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A547" t="s">
         <v>592</v>
       </c>
@@ -31540,8 +32370,11 @@
       <c r="V547">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="548" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W547">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="548" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A548" t="s">
         <v>593</v>
       </c>
@@ -31558,7 +32391,7 @@
         <v>587</v>
       </c>
       <c r="F548" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J548">
         <v>0.5</v>
@@ -31596,8 +32429,11 @@
       <c r="V548">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="549" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W548">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A549" t="s">
         <v>594</v>
       </c>
@@ -31649,8 +32485,11 @@
       <c r="V549">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="550" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W549">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A550" t="s">
         <v>595</v>
       </c>
@@ -31702,8 +32541,11 @@
       <c r="V550">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="551" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W550">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A551" t="s">
         <v>596</v>
       </c>
@@ -31758,8 +32600,11 @@
       <c r="V551">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="552" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W551">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A552" t="s">
         <v>597</v>
       </c>
@@ -31814,8 +32659,11 @@
       <c r="V552" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="553" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W552" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="553" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A553" t="s">
         <v>598</v>
       </c>
@@ -31867,8 +32715,11 @@
       <c r="V553">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="554" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W553">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A554" t="s">
         <v>599</v>
       </c>
@@ -31920,8 +32771,11 @@
       <c r="V554">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="555" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W554">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A555" t="s">
         <v>600</v>
       </c>
@@ -31973,8 +32827,11 @@
       <c r="V555">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="556" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W555">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="556" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A556" t="s">
         <v>601</v>
       </c>
@@ -32026,8 +32883,11 @@
       <c r="V556">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="557" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W556">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A557" t="s">
         <v>602</v>
       </c>
@@ -32082,8 +32942,11 @@
       <c r="V557" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="558" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W557" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="558" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A558" t="s">
         <v>603</v>
       </c>
@@ -32135,8 +32998,11 @@
       <c r="V558">
         <v>1</v>
       </c>
-    </row>
-    <row r="559" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A559" t="s">
         <v>604</v>
       </c>
@@ -32188,8 +33054,11 @@
       <c r="V559">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="560" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W559">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="560" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A560" t="s">
         <v>605</v>
       </c>
@@ -32244,8 +33113,11 @@
       <c r="V560">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="561" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W560">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="561" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A561" t="s">
         <v>606</v>
       </c>
@@ -32297,8 +33169,11 @@
       <c r="V561">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="562" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W561">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A562" t="s">
         <v>607</v>
       </c>
@@ -32350,8 +33225,11 @@
       <c r="V562">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="563" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A563" t="s">
         <v>608</v>
       </c>
@@ -32403,8 +33281,11 @@
       <c r="V563">
         <v>3</v>
       </c>
-    </row>
-    <row r="564" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W563">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A564" t="s">
         <v>609</v>
       </c>
@@ -32459,8 +33340,11 @@
       <c r="V564">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="565" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W564">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="565" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A565" t="s">
         <v>610</v>
       </c>
@@ -32512,8 +33396,11 @@
       <c r="V565">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="566" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W565">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A566" t="s">
         <v>611</v>
       </c>
@@ -32568,8 +33455,11 @@
       <c r="V566" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="567" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W566" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="567" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A567" t="s">
         <v>612</v>
       </c>
@@ -32621,8 +33511,11 @@
       <c r="V567">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="568" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W567">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A568" t="s">
         <v>613</v>
       </c>
@@ -32674,8 +33567,11 @@
       <c r="V568">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="569" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W568">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A569" t="s">
         <v>614</v>
       </c>
@@ -32727,8 +33623,11 @@
       <c r="V569">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="570" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W569">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="570" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A570" t="s">
         <v>615</v>
       </c>
@@ -32780,8 +33679,11 @@
       <c r="V570">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="571" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W570">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A571" t="s">
         <v>616</v>
       </c>
@@ -32833,8 +33735,11 @@
       <c r="V571" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="572" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W571" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="572" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A572" t="s">
         <v>617</v>
       </c>
@@ -32886,8 +33791,11 @@
       <c r="V572">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="573" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W572">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="573" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A573" t="s">
         <v>618</v>
       </c>
@@ -32939,8 +33847,11 @@
       <c r="V573">
         <v>2</v>
       </c>
-    </row>
-    <row r="574" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W573">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="574" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A574" t="s">
         <v>619</v>
       </c>
@@ -32992,8 +33903,11 @@
       <c r="V574" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="575" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W574" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="575" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A575" t="s">
         <v>620</v>
       </c>
@@ -33048,8 +33962,11 @@
       <c r="V575" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="576" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W575" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="576" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A576" t="s">
         <v>621</v>
       </c>
@@ -33104,8 +34021,11 @@
       <c r="V576" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="577" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W576" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="577" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A577" t="s">
         <v>622</v>
       </c>
@@ -33122,7 +34042,7 @@
         <v>587</v>
       </c>
       <c r="F577" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J577">
         <v>0.4</v>
@@ -33160,8 +34080,11 @@
       <c r="V577">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="578" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W577">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A578" t="s">
         <v>623</v>
       </c>
@@ -33178,7 +34101,7 @@
         <v>587</v>
       </c>
       <c r="F578" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J578">
         <v>0.5</v>
@@ -33216,8 +34139,11 @@
       <c r="V578" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="579" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W578" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="579" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A579" t="s">
         <v>624</v>
       </c>
@@ -33269,8 +34195,11 @@
       <c r="V579">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="580" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W579">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="580" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A580" t="s">
         <v>625</v>
       </c>
@@ -33322,8 +34251,11 @@
       <c r="V580">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W580">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A581" t="s">
         <v>626</v>
       </c>
@@ -33375,8 +34307,11 @@
       <c r="V581">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="582" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W581">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A582" t="s">
         <v>627</v>
       </c>
@@ -33428,8 +34363,11 @@
       <c r="V582">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="583" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W582">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="583" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A583" t="s">
         <v>628</v>
       </c>
@@ -33481,8 +34419,11 @@
       <c r="V583">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="584" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W583">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A584" t="s">
         <v>629</v>
       </c>
@@ -33534,8 +34475,11 @@
       <c r="V584">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="585" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W584">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A585" t="s">
         <v>630</v>
       </c>
@@ -33587,8 +34531,11 @@
       <c r="V585">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="586" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W585">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A586" t="s">
         <v>631</v>
       </c>
@@ -33640,8 +34587,11 @@
       <c r="V586">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="587" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W586">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="587" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A587" t="s">
         <v>632</v>
       </c>
@@ -33696,8 +34646,11 @@
       <c r="V587">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="588" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W587">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A588" t="s">
         <v>633</v>
       </c>
@@ -33752,8 +34705,11 @@
       <c r="V588" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="589" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W588" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A589" t="s">
         <v>635</v>
       </c>
@@ -33808,8 +34764,11 @@
       <c r="V589" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="590" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W589" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A590" t="s">
         <v>637</v>
       </c>
@@ -33864,8 +34823,11 @@
       <c r="V590" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="591" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W590" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="591" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A591" t="s">
         <v>638</v>
       </c>
@@ -33917,8 +34879,11 @@
       <c r="V591">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="592" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W591">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A592" t="s">
         <v>639</v>
       </c>
@@ -33970,8 +34935,11 @@
       <c r="V592">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="593" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W592">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="593" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A593" t="s">
         <v>640</v>
       </c>
@@ -34023,8 +34991,11 @@
       <c r="V593">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="594" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W593">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="594" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A594" t="s">
         <v>641</v>
       </c>
@@ -34076,8 +35047,11 @@
       <c r="V594">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="595" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W594">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="595" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A595" t="s">
         <v>642</v>
       </c>
@@ -34129,8 +35103,11 @@
       <c r="V595">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="596" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W595">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="596" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A596" t="s">
         <v>643</v>
       </c>
@@ -34182,8 +35159,11 @@
       <c r="V596">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="597" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W596">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A597" t="s">
         <v>644</v>
       </c>
@@ -34238,8 +35218,11 @@
       <c r="V597" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="598" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W597" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="598" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A598" t="s">
         <v>645</v>
       </c>
@@ -34291,8 +35274,11 @@
       <c r="V598">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="599" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W598">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A599" t="s">
         <v>646</v>
       </c>
@@ -34344,8 +35330,11 @@
       <c r="V599">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="600" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W599">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="600" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A600" t="s">
         <v>647</v>
       </c>
@@ -34400,8 +35389,11 @@
       <c r="V600">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="601" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W600">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="601" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A601" t="s">
         <v>648</v>
       </c>
@@ -34456,8 +35448,11 @@
       <c r="V601" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="602" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W601" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="602" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A602" t="s">
         <v>649</v>
       </c>
@@ -34509,8 +35504,11 @@
       <c r="V602">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="603" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W602">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A603" t="s">
         <v>650</v>
       </c>
@@ -34565,8 +35563,11 @@
       <c r="V603" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="604" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W603" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="604" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A604" t="s">
         <v>652</v>
       </c>
@@ -34621,8 +35622,11 @@
       <c r="V604" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="605" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W604" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="605" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A605" t="s">
         <v>653</v>
       </c>
@@ -34674,8 +35678,11 @@
       <c r="V605" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="606" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W605" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="606" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A606" t="s">
         <v>654</v>
       </c>
@@ -34727,8 +35734,11 @@
       <c r="V606">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="607" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W606">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="607" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A607" t="s">
         <v>655</v>
       </c>
@@ -34783,8 +35793,11 @@
       <c r="V607">
         <v>3</v>
       </c>
-    </row>
-    <row r="608" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W607">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="608" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A608" t="s">
         <v>656</v>
       </c>
@@ -34836,8 +35849,11 @@
       <c r="V608">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="609" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W608">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="609" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A609" t="s">
         <v>657</v>
       </c>
@@ -34892,8 +35908,11 @@
       <c r="V609" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="610" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W609" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="610" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A610" t="s">
         <v>658</v>
       </c>
@@ -34945,8 +35964,11 @@
       <c r="V610">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="611" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W610">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="611" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A611" t="s">
         <v>659</v>
       </c>
@@ -35001,8 +36023,11 @@
       <c r="V611" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="612" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W611" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="612" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A612" t="s">
         <v>660</v>
       </c>
@@ -35057,8 +36082,11 @@
       <c r="V612" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="613" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W612" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A613" t="s">
         <v>661</v>
       </c>
@@ -35110,8 +36138,11 @@
       <c r="V613">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="614" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W613">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A614" t="s">
         <v>662</v>
       </c>
@@ -35166,8 +36197,11 @@
       <c r="V614">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="615" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W614">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="615" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A615" t="s">
         <v>664</v>
       </c>
@@ -35219,8 +36253,11 @@
       <c r="V615">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="616" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W615">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="616" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A616" t="s">
         <v>665</v>
       </c>
@@ -35272,8 +36309,11 @@
       <c r="V616">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="617" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W616">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="617" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A617" t="s">
         <v>666</v>
       </c>
@@ -35325,8 +36365,11 @@
       <c r="V617">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="618" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W617">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="618" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A618" t="s">
         <v>667</v>
       </c>
@@ -35378,8 +36421,11 @@
       <c r="V618">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="619" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W618">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A619" t="s">
         <v>668</v>
       </c>
@@ -35434,8 +36480,11 @@
       <c r="V619">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="620" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W619">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="620" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A620" t="s">
         <v>669</v>
       </c>
@@ -35490,8 +36539,11 @@
       <c r="V620" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="621" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W620" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="621" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A621" t="s">
         <v>670</v>
       </c>
@@ -35546,8 +36598,11 @@
       <c r="V621">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="622" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W621">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A622" t="s">
         <v>671</v>
       </c>
@@ -35599,8 +36654,11 @@
       <c r="V622">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="623" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W622">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="623" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A623" t="s">
         <v>672</v>
       </c>
@@ -35652,8 +36710,11 @@
       <c r="V623">
         <v>3</v>
       </c>
-    </row>
-    <row r="624" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W623">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="624" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A624" t="s">
         <v>673</v>
       </c>
@@ -35705,8 +36766,11 @@
       <c r="V624">
         <v>6</v>
       </c>
-    </row>
-    <row r="625" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W624">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="625" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A625" t="s">
         <v>674</v>
       </c>
@@ -35758,8 +36822,11 @@
       <c r="V625">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="626" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W625">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="626" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A626" t="s">
         <v>675</v>
       </c>
@@ -35814,8 +36881,11 @@
       <c r="V626">
         <v>1</v>
       </c>
-    </row>
-    <row r="627" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W626">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="627" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A627" t="s">
         <v>676</v>
       </c>
@@ -35867,8 +36937,11 @@
       <c r="V627">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="628" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W627">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A628" t="s">
         <v>677</v>
       </c>
@@ -35920,8 +36993,11 @@
       <c r="V628">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="629" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W628">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A629" t="s">
         <v>678</v>
       </c>
@@ -35973,8 +37049,11 @@
       <c r="V629">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="630" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W629">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A630" t="s">
         <v>679</v>
       </c>
@@ -36026,8 +37105,11 @@
       <c r="V630">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="631" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W630">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="631" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A631" t="s">
         <v>680</v>
       </c>
@@ -36080,6 +37162,9 @@
         <v>132</v>
       </c>
       <c r="V631" t="s">
+        <v>132</v>
+      </c>
+      <c r="W631" t="s">
         <v>132</v>
       </c>
     </row>

--- a/data/shoot_elongation/shoot_elongation.xlsx
+++ b/data/shoot_elongation/shoot_elongation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\my_repo_dir\fuelinex\data\shoot_elongation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1DBFD6-D1C9-4602-AE57-509486AD02A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF68E753-B7E5-40DE-A3F8-DFF4B140749D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -3426,8 +3426,8 @@
   <dimension ref="A1:W631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z563" sqref="Z563"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X163" sqref="X163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -8569,6 +8569,9 @@
       <c r="U102">
         <v>7.4</v>
       </c>
+      <c r="V102">
+        <v>7.3</v>
+      </c>
       <c r="W102">
         <v>7.3</v>
       </c>
@@ -8622,6 +8625,9 @@
       <c r="U103">
         <v>12.3</v>
       </c>
+      <c r="V103">
+        <v>12.4</v>
+      </c>
       <c r="W103">
         <v>12.2</v>
       </c>
@@ -8675,6 +8681,9 @@
       <c r="U104">
         <v>8.9</v>
       </c>
+      <c r="V104">
+        <v>8.9</v>
+      </c>
       <c r="W104">
         <v>8.8000000000000007</v>
       </c>
@@ -8728,6 +8737,9 @@
       <c r="U105">
         <v>6.6</v>
       </c>
+      <c r="V105">
+        <v>6.6</v>
+      </c>
       <c r="W105">
         <v>6.5</v>
       </c>
@@ -8781,6 +8793,9 @@
       <c r="U106">
         <v>11.2</v>
       </c>
+      <c r="V106">
+        <v>11.2</v>
+      </c>
       <c r="W106">
         <v>11</v>
       </c>
@@ -9400,6 +9415,9 @@
       <c r="U117">
         <v>7.8</v>
       </c>
+      <c r="V117">
+        <v>7.8</v>
+      </c>
       <c r="W117">
         <v>7.6</v>
       </c>
@@ -9453,6 +9471,9 @@
       <c r="U118">
         <v>6.9</v>
       </c>
+      <c r="V118">
+        <v>6.7</v>
+      </c>
       <c r="W118">
         <v>6.8</v>
       </c>
@@ -9506,6 +9527,9 @@
       <c r="U119">
         <v>5.9</v>
       </c>
+      <c r="V119">
+        <v>5.9</v>
+      </c>
       <c r="W119">
         <v>6</v>
       </c>
@@ -9559,6 +9583,9 @@
       <c r="U120">
         <v>6.4</v>
       </c>
+      <c r="V120">
+        <v>6.4</v>
+      </c>
       <c r="W120">
         <v>6.4</v>
       </c>
@@ -9612,6 +9639,9 @@
       <c r="U121">
         <v>3.4</v>
       </c>
+      <c r="V121">
+        <v>3.4</v>
+      </c>
       <c r="W121">
         <v>3.4</v>
       </c>
@@ -10228,6 +10258,9 @@
       <c r="U132">
         <v>3.2</v>
       </c>
+      <c r="V132">
+        <v>3.4</v>
+      </c>
       <c r="W132">
         <v>3.5</v>
       </c>
@@ -10281,6 +10314,9 @@
       <c r="U133">
         <v>4.8</v>
       </c>
+      <c r="V133">
+        <v>4.8</v>
+      </c>
       <c r="W133">
         <v>4.7</v>
       </c>
@@ -10334,6 +10370,9 @@
       <c r="U134">
         <v>13.2</v>
       </c>
+      <c r="V134">
+        <v>13.3</v>
+      </c>
       <c r="W134">
         <v>13.3</v>
       </c>
@@ -10387,6 +10426,9 @@
       <c r="U135">
         <v>14.8</v>
       </c>
+      <c r="V135">
+        <v>14.9</v>
+      </c>
       <c r="W135">
         <v>14.8</v>
       </c>
@@ -10443,6 +10485,9 @@
       <c r="U136">
         <v>10.1</v>
       </c>
+      <c r="V136">
+        <v>10</v>
+      </c>
       <c r="W136">
         <v>10</v>
       </c>
@@ -11056,6 +11101,9 @@
       <c r="U147">
         <v>6.6</v>
       </c>
+      <c r="V147">
+        <v>6.5</v>
+      </c>
       <c r="W147">
         <v>6.4</v>
       </c>
@@ -11109,6 +11157,9 @@
       <c r="U148">
         <v>1.7</v>
       </c>
+      <c r="V148">
+        <v>1.6</v>
+      </c>
       <c r="W148">
         <v>2.1</v>
       </c>
@@ -11162,6 +11213,9 @@
       <c r="U149">
         <v>3</v>
       </c>
+      <c r="V149">
+        <v>3.1</v>
+      </c>
       <c r="W149">
         <v>3.1</v>
       </c>
@@ -11215,6 +11269,9 @@
       <c r="U150">
         <v>9.9</v>
       </c>
+      <c r="V150">
+        <v>9.9</v>
+      </c>
       <c r="W150">
         <v>9.8000000000000007</v>
       </c>
@@ -11268,6 +11325,9 @@
       <c r="U151">
         <v>11.6</v>
       </c>
+      <c r="V151">
+        <v>11.6</v>
+      </c>
       <c r="W151">
         <v>11.6</v>
       </c>
@@ -11884,6 +11944,9 @@
       <c r="U162">
         <v>5.0999999999999996</v>
       </c>
+      <c r="V162">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="W162">
         <v>8.5</v>
       </c>
@@ -11937,6 +12000,9 @@
       <c r="U163">
         <v>11.3</v>
       </c>
+      <c r="V163">
+        <v>11.5</v>
+      </c>
       <c r="W163">
         <v>11.3</v>
       </c>
@@ -11993,6 +12059,9 @@
       <c r="U164">
         <v>5.4</v>
       </c>
+      <c r="V164">
+        <v>5.3</v>
+      </c>
       <c r="W164">
         <v>5.3</v>
       </c>
@@ -12046,6 +12115,9 @@
       <c r="U165">
         <v>13.4</v>
       </c>
+      <c r="V165">
+        <v>13.4</v>
+      </c>
       <c r="W165">
         <v>13.2</v>
       </c>
@@ -12099,6 +12171,9 @@
       <c r="U166">
         <v>7.1</v>
       </c>
+      <c r="V166">
+        <v>7.1</v>
+      </c>
       <c r="W166">
         <v>7.1</v>
       </c>
@@ -12712,6 +12787,9 @@
       <c r="U177">
         <v>4.2</v>
       </c>
+      <c r="V177">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="W177">
         <v>4.2</v>
       </c>
@@ -12765,6 +12843,9 @@
       <c r="U178">
         <v>9.6999999999999993</v>
       </c>
+      <c r="V178">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="W178">
         <v>9.6</v>
       </c>
@@ -12818,6 +12899,9 @@
       <c r="U179">
         <v>8.9</v>
       </c>
+      <c r="V179">
+        <v>9.1</v>
+      </c>
       <c r="W179">
         <v>8.9</v>
       </c>
@@ -12871,6 +12955,9 @@
       <c r="U180">
         <v>14.8</v>
       </c>
+      <c r="V180">
+        <v>14.2</v>
+      </c>
       <c r="W180">
         <v>14.8</v>
       </c>
@@ -12922,6 +13009,9 @@
         <v>6.1</v>
       </c>
       <c r="U181">
+        <v>6.1</v>
+      </c>
+      <c r="V181">
         <v>6.1</v>
       </c>
       <c r="W181">

--- a/data/shoot_elongation/shoot_elongation.xlsx
+++ b/data/shoot_elongation/shoot_elongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\my_repo_dir\fuelinex\data\shoot_elongation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapph\Documents\ubc things\work\fuelinex\data\shoot_elongation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF68E753-B7E5-40DE-A3F8-DFF4B140749D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936B774B-B6D6-420F-BD8D-FB66645F15D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">shoot_elongation!$D$1:$D$631</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="767">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2244,9 +2257,6 @@
     <t>doy 199: note that this is a side branch</t>
   </si>
   <si>
-    <t>doy 199: red paint fell off</t>
-  </si>
-  <si>
     <t>doy 199: second flush</t>
   </si>
   <si>
@@ -2311,6 +2321,24 @@
   </si>
   <si>
     <t>doy 213: apical shoot broken but still trying to grow</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>doy 220: red mark gone, measured from node</t>
+  </si>
+  <si>
+    <t>doy 199: red paint fell off; doy 220: new red mark</t>
+  </si>
+  <si>
+    <t>doy 220: measured from  upper red mark</t>
+  </si>
+  <si>
+    <t>doy 220: crispy and dead</t>
+  </si>
+  <si>
+    <t>doy 206: new shoot</t>
   </si>
 </sst>
 </file>
@@ -2802,8 +2830,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2849,7 +2878,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3064,43 +3101,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:W631" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:W631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:X631" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:X631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
     <filterColumn colId="1">
       <filters>
+        <filter val="2"/>
         <filter val="3"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="betula"/>
+        <filter val="prunus"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{379A66C6-698B-434F-916E-AEAAE2414138}" name="128" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{62491E8B-0E97-FD4B-BCC5-4E7DBAEDE53C}" name="129" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{1393DE83-090B-694C-9F28-CB3508AB64D0}" name="130" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{207CC64C-FCD9-6541-912D-456AAFF93044}" name="131" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{B057ADF6-089A-7E49-A439-533CCCB22A43}" name="136" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{D0F960DD-A2F9-074D-98EC-CE8D38E12049}" name="137" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{35CC3589-A6D5-8840-9830-FA2F26525256}" name="143" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{42A0D812-81C2-384B-9DA8-8DD67E5EBF60}" name="150" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{5701E3D9-A7AB-1E4A-8802-92F3BFBE960B}" name="157" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{F90AD900-33C4-D449-ABD1-F7E0E3B4EDF2}" name="164" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{D706E942-3CA8-3F49-BA3E-A6ECB3F4F826}" name="171" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{CF92CF1B-48A8-4842-81E5-1005772FEFC3}" name="178" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{138A361D-3F66-E244-A947-0EFCE15F6690}" name="185" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{0BF7A4F6-800F-7548-A638-DF43A258D373}" name="192" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{84D950AD-7C40-4A1B-9BD8-38C59BC6ED07}" name="199" dataDxfId="2"/>
-    <tableColumn id="22" xr3:uid="{FAFF9212-B9DB-4FE0-A10B-9A015D0BD45E}" name="206" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{BCC4DD0F-71CB-48F4-9836-608B978B30CE}" name="213" dataDxfId="0"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{379A66C6-698B-434F-916E-AEAAE2414138}" name="128" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{62491E8B-0E97-FD4B-BCC5-4E7DBAEDE53C}" name="129" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{1393DE83-090B-694C-9F28-CB3508AB64D0}" name="130" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{207CC64C-FCD9-6541-912D-456AAFF93044}" name="131" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{B057ADF6-089A-7E49-A439-533CCCB22A43}" name="136" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{D0F960DD-A2F9-074D-98EC-CE8D38E12049}" name="137" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{35CC3589-A6D5-8840-9830-FA2F26525256}" name="143" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{42A0D812-81C2-384B-9DA8-8DD67E5EBF60}" name="150" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{5701E3D9-A7AB-1E4A-8802-92F3BFBE960B}" name="157" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{F90AD900-33C4-D449-ABD1-F7E0E3B4EDF2}" name="164" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{D706E942-3CA8-3F49-BA3E-A6ECB3F4F826}" name="171" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{CF92CF1B-48A8-4842-81E5-1005772FEFC3}" name="178" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{138A361D-3F66-E244-A947-0EFCE15F6690}" name="185" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{0BF7A4F6-800F-7548-A638-DF43A258D373}" name="192" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{84D950AD-7C40-4A1B-9BD8-38C59BC6ED07}" name="199" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{FAFF9212-B9DB-4FE0-A10B-9A015D0BD45E}" name="206" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{BCC4DD0F-71CB-48F4-9836-608B978B30CE}" name="213" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{E9E923BE-EF5E-4850-8935-DFEFBA92F817}" name="220" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3423,24 +3462,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W631"/>
+  <dimension ref="A1:X631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X163" sqref="X163"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H372" sqref="H372"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" customWidth="1"/>
     <col min="7" max="12" width="11" customWidth="1"/>
-    <col min="13" max="17" width="9.83203125" customWidth="1"/>
+    <col min="13" max="17" width="9.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3505,13 +3544,16 @@
         <v>737</v>
       </c>
       <c r="V1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="W1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>756</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3560,8 +3602,9 @@
       <c r="V2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3610,8 +3653,9 @@
       <c r="V3">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3660,8 +3704,9 @@
       <c r="V4">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3710,8 +3755,9 @@
       <c r="V5">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3760,8 +3806,9 @@
       <c r="V6">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3810,8 +3857,11 @@
       <c r="V7">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3860,8 +3910,11 @@
       <c r="V8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3910,8 +3963,11 @@
       <c r="V9">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X9">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3960,8 +4016,11 @@
       <c r="V10">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X10">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -4010,8 +4069,11 @@
       <c r="V11">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4060,8 +4122,14 @@
       <c r="T12">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4107,8 +4175,14 @@
       <c r="T13">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V13">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X13">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4154,8 +4228,14 @@
       <c r="T14">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V14">
+        <v>7.3</v>
+      </c>
+      <c r="X14">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4201,8 +4281,14 @@
       <c r="T15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V15">
+        <v>13.3</v>
+      </c>
+      <c r="X15">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4248,8 +4334,14 @@
       <c r="T16">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X16">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4298,8 +4390,9 @@
       <c r="V17">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4348,8 +4441,9 @@
       <c r="V18">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4398,8 +4492,9 @@
       <c r="V19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -4448,8 +4543,9 @@
       <c r="V20">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4495,8 +4591,9 @@
       <c r="V21">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4548,8 +4645,11 @@
       <c r="V22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4598,8 +4698,11 @@
       <c r="V23">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X23">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4651,8 +4754,11 @@
       <c r="V24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4701,8 +4807,11 @@
       <c r="V25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4751,8 +4860,11 @@
       <c r="V26">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X26">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -4798,8 +4910,14 @@
       <c r="T27">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V27">
+        <v>16.7</v>
+      </c>
+      <c r="X27">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4848,8 +4966,14 @@
       <c r="T28">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V28">
+        <v>10.4</v>
+      </c>
+      <c r="X28">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -4895,8 +5019,14 @@
       <c r="T29">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V29">
+        <v>13.5</v>
+      </c>
+      <c r="X29">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -4945,8 +5075,14 @@
       <c r="T30">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V30">
+        <v>9.6</v>
+      </c>
+      <c r="X30">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -4992,8 +5128,14 @@
       <c r="T31">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V31">
+        <v>20.8</v>
+      </c>
+      <c r="X31">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -5042,8 +5184,9 @@
       <c r="V32">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -5092,8 +5235,9 @@
       <c r="V33">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -5142,8 +5286,9 @@
       <c r="V34">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -5192,8 +5337,9 @@
       <c r="V35">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -5242,8 +5388,9 @@
       <c r="V36">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -5295,8 +5442,11 @@
       <c r="V37">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X37">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -5345,8 +5495,11 @@
       <c r="V38">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X38">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -5395,8 +5548,11 @@
       <c r="V39">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X39">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -5445,8 +5601,11 @@
       <c r="V40">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X40">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -5495,8 +5654,11 @@
       <c r="V41">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X41">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -5542,8 +5704,14 @@
       <c r="T42">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V42">
+        <v>7.7</v>
+      </c>
+      <c r="X42">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -5589,8 +5757,14 @@
       <c r="T43">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V43">
+        <v>5.7</v>
+      </c>
+      <c r="X43">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -5636,8 +5810,14 @@
       <c r="T44">
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V44">
+        <v>27.5</v>
+      </c>
+      <c r="X44">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -5683,8 +5863,14 @@
       <c r="T45">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V45">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="X45">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -5730,8 +5916,14 @@
       <c r="T46">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V46">
+        <v>5.6</v>
+      </c>
+      <c r="X46">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -5780,8 +5972,9 @@
       <c r="V47">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -5830,8 +6023,9 @@
       <c r="V48">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -5880,8 +6074,9 @@
       <c r="V49">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -5930,8 +6125,9 @@
       <c r="V50">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -5980,8 +6176,9 @@
       <c r="V51">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -6030,8 +6227,11 @@
       <c r="V52">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X52">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -6080,8 +6280,11 @@
       <c r="V53">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X53">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6133,8 +6336,11 @@
       <c r="V54">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -6183,8 +6389,11 @@
       <c r="V55">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X55">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -6236,8 +6445,11 @@
       <c r="V56">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X56">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -6283,8 +6495,14 @@
       <c r="T57">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V57">
+        <v>5</v>
+      </c>
+      <c r="X57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6333,8 +6551,14 @@
       <c r="T58">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V58">
+        <v>11.5</v>
+      </c>
+      <c r="X58">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -6380,8 +6604,14 @@
       <c r="T59">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V59">
+        <v>13.1</v>
+      </c>
+      <c r="X59">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -6430,8 +6660,14 @@
       <c r="T60">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V60">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="X60">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -6477,8 +6713,14 @@
       <c r="T61">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V61">
+        <v>7.8</v>
+      </c>
+      <c r="X61">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -6527,8 +6769,9 @@
       <c r="V62">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -6577,8 +6820,9 @@
       <c r="V63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -6627,8 +6871,9 @@
       <c r="V64">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -6677,8 +6922,9 @@
       <c r="V65">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -6727,8 +6973,9 @@
       <c r="V66">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -6777,8 +7024,11 @@
       <c r="V67">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X67">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -6827,8 +7077,11 @@
       <c r="V68">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X68">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -6877,8 +7130,11 @@
       <c r="V69">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X69">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -6927,8 +7183,11 @@
       <c r="V70">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X70">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -6977,8 +7236,11 @@
       <c r="V71">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X71">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -7024,8 +7286,14 @@
       <c r="T72">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V72">
+        <v>13.1</v>
+      </c>
+      <c r="X72">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -7071,8 +7339,14 @@
       <c r="T73">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V73">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="X73">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -7118,8 +7392,14 @@
       <c r="T74">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V74">
+        <v>8.1</v>
+      </c>
+      <c r="X74">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -7165,8 +7445,14 @@
       <c r="T75">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V75">
+        <v>12.3</v>
+      </c>
+      <c r="X75">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -7212,8 +7498,14 @@
       <c r="T76">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V76">
+        <v>3.4</v>
+      </c>
+      <c r="X76">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -7262,8 +7554,9 @@
       <c r="V77">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -7312,8 +7605,9 @@
       <c r="V78">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X78" s="1"/>
+    </row>
+    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -7365,8 +7659,9 @@
       <c r="V79">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X79" s="1"/>
+    </row>
+    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -7418,8 +7713,9 @@
       <c r="V80">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X80" s="1"/>
+    </row>
+    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -7468,8 +7764,9 @@
       <c r="V81">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X81" s="1"/>
+    </row>
+    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -7518,8 +7815,11 @@
       <c r="V82">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X82">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -7568,8 +7868,11 @@
       <c r="V83">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X83">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -7618,8 +7921,11 @@
       <c r="V84">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X84">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -7668,8 +7974,11 @@
       <c r="V85">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X85">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -7718,8 +8027,11 @@
       <c r="V86">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X86">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -7765,8 +8077,14 @@
       <c r="T87">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V87">
+        <v>8.4</v>
+      </c>
+      <c r="X87">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -7812,8 +8130,14 @@
       <c r="T88">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V88">
+        <v>11.9</v>
+      </c>
+      <c r="X88">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -7859,8 +8183,14 @@
       <c r="T89">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V89">
+        <v>11.2</v>
+      </c>
+      <c r="X89">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -7909,8 +8239,14 @@
       <c r="T90">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V90">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="X90">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -7956,8 +8292,14 @@
       <c r="T91">
         <v>15</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="V91">
+        <v>15.3</v>
+      </c>
+      <c r="X91">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -8012,8 +8354,9 @@
       <c r="W92">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X92" s="1"/>
+    </row>
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -8068,8 +8411,9 @@
       <c r="W93">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X93" s="1"/>
+    </row>
+    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -8124,8 +8468,9 @@
       <c r="W94">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X94" s="1"/>
+    </row>
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -8183,8 +8528,9 @@
       <c r="W95">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X95" s="1"/>
+    </row>
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -8239,8 +8585,9 @@
       <c r="W96">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X96" s="1"/>
+    </row>
+    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -8295,8 +8642,11 @@
       <c r="W97">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X97">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -8351,8 +8701,11 @@
       <c r="W98">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X98">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -8407,8 +8760,11 @@
       <c r="W99">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X99">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -8463,8 +8819,11 @@
       <c r="W100">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X100">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -8519,8 +8878,11 @@
       <c r="W101">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X101">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -8575,8 +8937,11 @@
       <c r="W102">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X102">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -8631,8 +8996,11 @@
       <c r="W103">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X103">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -8687,8 +9055,11 @@
       <c r="W104">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X104">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -8743,8 +9114,11 @@
       <c r="W105">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X105">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -8799,8 +9173,11 @@
       <c r="W106">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -8855,8 +9232,9 @@
       <c r="W107">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X107" s="1"/>
+    </row>
+    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -8911,8 +9289,9 @@
       <c r="W108">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X108" s="1"/>
+    </row>
+    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -8970,8 +9349,9 @@
       <c r="W109">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X109" s="1"/>
+    </row>
+    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -9026,8 +9406,9 @@
       <c r="W110">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X110" s="1"/>
+    </row>
+    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -9082,8 +9463,9 @@
       <c r="W111">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X111" s="1"/>
+    </row>
+    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -9138,8 +9520,11 @@
       <c r="W112">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X112">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -9197,8 +9582,11 @@
       <c r="W113" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -9253,8 +9641,11 @@
       <c r="W114">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X114">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -9309,8 +9700,11 @@
       <c r="W115">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X115">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -9365,8 +9759,11 @@
       <c r="W116">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X116">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -9421,8 +9818,11 @@
       <c r="W117">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X117">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -9477,8 +9877,11 @@
       <c r="W118">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X118">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -9533,8 +9936,11 @@
       <c r="W119">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -9589,8 +9995,11 @@
       <c r="W120">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X120">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -9645,8 +10054,11 @@
       <c r="W121">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X121">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -9704,8 +10116,9 @@
       <c r="W122">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X122" s="1"/>
+    </row>
+    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -9760,8 +10173,9 @@
       <c r="W123">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X123" s="1"/>
+    </row>
+    <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -9816,8 +10230,9 @@
       <c r="W124">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X124" s="1"/>
+    </row>
+    <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -9872,8 +10287,9 @@
       <c r="W125">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X125" s="1"/>
+    </row>
+    <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -9928,8 +10344,9 @@
       <c r="W126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X126" s="1"/>
+    </row>
+    <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -9984,8 +10401,11 @@
       <c r="W127">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X127">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -10040,8 +10460,11 @@
       <c r="W128">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X128">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -10096,8 +10519,11 @@
       <c r="W129">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X129">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -10152,8 +10578,11 @@
       <c r="W130">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X130">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -10208,8 +10637,11 @@
       <c r="W131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -10264,8 +10696,11 @@
       <c r="W132">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X132">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -10320,8 +10755,11 @@
       <c r="W133">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X133">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -10376,8 +10814,11 @@
       <c r="W134">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X134">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -10432,8 +10873,11 @@
       <c r="W135">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X135">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -10491,8 +10935,11 @@
       <c r="W136">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -10547,8 +10994,9 @@
       <c r="W137">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X137" s="1"/>
+    </row>
+    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>158</v>
       </c>
@@ -10603,8 +11051,9 @@
       <c r="W138">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X138" s="1"/>
+    </row>
+    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -10659,8 +11108,9 @@
       <c r="W139">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X139" s="1"/>
+    </row>
+    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -10715,8 +11165,9 @@
       <c r="W140">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X140" s="1"/>
+    </row>
+    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -10771,8 +11222,9 @@
       <c r="W141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X141" s="1"/>
+    </row>
+    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -10827,8 +11279,11 @@
       <c r="W142">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X142">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>163</v>
       </c>
@@ -10883,8 +11338,11 @@
       <c r="W143">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X143">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -10939,8 +11397,11 @@
       <c r="W144">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X144">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -10995,8 +11456,11 @@
       <c r="W145">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X145">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -11051,8 +11515,11 @@
       <c r="W146">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X146">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -11107,8 +11574,11 @@
       <c r="W147">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X147">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -11163,8 +11633,11 @@
       <c r="W148">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X148">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>169</v>
       </c>
@@ -11219,8 +11692,11 @@
       <c r="W149">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X149">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -11275,8 +11751,11 @@
       <c r="W150">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X150">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -11331,8 +11810,11 @@
       <c r="W151">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X151">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -11387,8 +11869,9 @@
       <c r="W152">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X152" s="1"/>
+    </row>
+    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -11443,8 +11926,9 @@
       <c r="W153">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X153" s="1"/>
+    </row>
+    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -11499,8 +11983,9 @@
       <c r="W154">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X154" s="1"/>
+    </row>
+    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>175</v>
       </c>
@@ -11555,8 +12040,9 @@
       <c r="W155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X155" s="1"/>
+    </row>
+    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -11611,8 +12097,9 @@
       <c r="W156">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X156" s="1"/>
+    </row>
+    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -11667,8 +12154,11 @@
       <c r="W157">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X157">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -11723,8 +12213,11 @@
       <c r="W158">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X158">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -11779,8 +12272,11 @@
       <c r="W159">
         <v>9</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X159">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -11835,8 +12331,11 @@
       <c r="W160">
         <v>11</v>
       </c>
-    </row>
-    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -11891,8 +12390,11 @@
       <c r="W161">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X161">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -11950,8 +12452,11 @@
       <c r="W162">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X162" s="1">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -12006,8 +12511,11 @@
       <c r="W163">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X163">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -12065,8 +12573,11 @@
       <c r="W164">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X164">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -12121,8 +12632,11 @@
       <c r="W165">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X165">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -12177,8 +12691,11 @@
       <c r="W166">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X166">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -12233,8 +12750,11 @@
       <c r="W167">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X167">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -12289,8 +12809,11 @@
       <c r="W168">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X168">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -12345,8 +12868,11 @@
       <c r="W169">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X169">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -12401,8 +12927,11 @@
       <c r="W170">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X170">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -12457,8 +12986,11 @@
       <c r="W171">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X171">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -12513,8 +13045,11 @@
       <c r="W172">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X172">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -12569,8 +13104,11 @@
       <c r="W173">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X173">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -12625,8 +13163,11 @@
       <c r="W174">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X174">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -12681,8 +13222,11 @@
       <c r="W175">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X175">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -12737,8 +13281,11 @@
       <c r="W176">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X176">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -12793,8 +13340,11 @@
       <c r="W177">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X177">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -12849,8 +13399,11 @@
       <c r="W178">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X178">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -12905,8 +13458,11 @@
       <c r="W179">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X179">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -12961,8 +13517,11 @@
       <c r="W180">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X180">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -13017,8 +13576,11 @@
       <c r="W181">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="182" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X181">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -13067,8 +13629,11 @@
       <c r="V182">
         <v>15</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X182" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -13117,8 +13682,11 @@
       <c r="V183">
         <v>12</v>
       </c>
-    </row>
-    <row r="184" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X183" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -13167,8 +13735,11 @@
       <c r="V184">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X184" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -13217,8 +13788,11 @@
       <c r="V185">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X185" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -13267,8 +13841,11 @@
       <c r="V186">
         <v>13</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X186" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -13317,8 +13894,9 @@
       <c r="V187">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X187" s="1"/>
+    </row>
+    <row r="188" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -13367,8 +13945,9 @@
       <c r="V188">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X188" s="1"/>
+    </row>
+    <row r="189" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -13420,8 +13999,9 @@
       <c r="V189">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X189" s="1"/>
+    </row>
+    <row r="190" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>213</v>
       </c>
@@ -13470,8 +14050,9 @@
       <c r="V190">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X190" s="1"/>
+    </row>
+    <row r="191" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -13520,8 +14101,9 @@
       <c r="V191">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X191" s="1"/>
+    </row>
+    <row r="192" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -13570,8 +14152,11 @@
       <c r="V192">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X192" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -13620,8 +14205,11 @@
       <c r="V193">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X193" s="1">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -13674,10 +14262,13 @@
         <v>7.5</v>
       </c>
       <c r="W194" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>745</v>
+      </c>
+      <c r="X194" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -13726,8 +14317,11 @@
       <c r="V195">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X195" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>219</v>
       </c>
@@ -13776,8 +14370,11 @@
       <c r="V196">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X196" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -13826,8 +14423,11 @@
       <c r="V197">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X197" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>221</v>
       </c>
@@ -13876,8 +14476,11 @@
       <c r="V198">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X198" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -13926,8 +14529,11 @@
       <c r="V199">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X199" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -13976,8 +14582,11 @@
       <c r="V200">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X200" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -14026,8 +14635,11 @@
       <c r="V201">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X201" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -14076,8 +14688,9 @@
       <c r="V202">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X202" s="1"/>
+    </row>
+    <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -14126,8 +14739,9 @@
       <c r="V203">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X203" s="1"/>
+    </row>
+    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -14176,8 +14790,9 @@
       <c r="V204">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X204" s="1"/>
+    </row>
+    <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -14226,8 +14841,9 @@
       <c r="V205">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X205" s="1"/>
+    </row>
+    <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -14276,8 +14892,9 @@
       <c r="V206">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X206" s="1"/>
+    </row>
+    <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -14326,8 +14943,11 @@
       <c r="V207">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X207" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -14376,8 +14996,11 @@
       <c r="V208">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="209" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X208" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -14426,8 +15049,11 @@
       <c r="V209">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="210" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X209" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -14476,8 +15102,11 @@
       <c r="V210">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="211" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X210" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -14526,8 +15155,11 @@
       <c r="V211">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="212" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X211" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -14576,8 +15208,11 @@
       <c r="V212">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="213" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X212" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -14626,8 +15261,11 @@
       <c r="V213">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="214" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X213" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -14676,8 +15314,11 @@
       <c r="V214">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="215" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X214" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -14726,8 +15367,11 @@
       <c r="V215">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="216" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X215" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -14776,8 +15420,11 @@
       <c r="V216">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="217" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X216" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -14826,8 +15473,9 @@
       <c r="V217">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="218" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X217" s="1"/>
+    </row>
+    <row r="218" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -14876,8 +15524,9 @@
       <c r="V218">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="219" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X218" s="1"/>
+    </row>
+    <row r="219" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -14929,8 +15578,9 @@
       <c r="V219">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="220" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X219" s="1"/>
+    </row>
+    <row r="220" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -14979,8 +15629,9 @@
       <c r="V220">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="221" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X220" s="1"/>
+    </row>
+    <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>244</v>
       </c>
@@ -15029,8 +15680,9 @@
       <c r="V221">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="222" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X221" s="1"/>
+    </row>
+    <row r="222" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -15079,8 +15731,11 @@
       <c r="V222">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="223" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X222" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>246</v>
       </c>
@@ -15129,8 +15784,11 @@
       <c r="V223">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X223" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -15179,8 +15837,11 @@
       <c r="V224">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="225" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X224" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>248</v>
       </c>
@@ -15229,8 +15890,11 @@
       <c r="V225">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="226" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X225" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -15279,8 +15943,11 @@
       <c r="V226">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="227" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X226" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -15296,6 +15963,9 @@
       <c r="E227" t="s">
         <v>204</v>
       </c>
+      <c r="F227" t="s">
+        <v>762</v>
+      </c>
       <c r="I227">
         <v>5.3</v>
       </c>
@@ -15329,8 +15999,11 @@
       <c r="V227">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="228" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X227" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -15379,8 +16052,11 @@
       <c r="V228">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="229" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X228" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -15429,8 +16105,11 @@
       <c r="V229">
         <v>13</v>
       </c>
-    </row>
-    <row r="230" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X229" s="1">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -15479,8 +16158,11 @@
       <c r="V230">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="231" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X230" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -15529,8 +16211,11 @@
       <c r="V231">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="232" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X231" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -15579,8 +16264,9 @@
       <c r="V232">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="233" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X232" s="1"/>
+    </row>
+    <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -15629,8 +16315,9 @@
       <c r="V233">
         <v>7</v>
       </c>
-    </row>
-    <row r="234" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X233" s="1"/>
+    </row>
+    <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -15679,8 +16366,9 @@
       <c r="V234">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="235" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X234" s="1"/>
+    </row>
+    <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -15729,8 +16417,9 @@
       <c r="V235">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="236" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X235" s="1"/>
+    </row>
+    <row r="236" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -15747,7 +16436,7 @@
         <v>204</v>
       </c>
       <c r="F236" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I236">
         <v>12.9</v>
@@ -15782,8 +16471,9 @@
       <c r="V236">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X236" s="1"/>
+    </row>
+    <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>260</v>
       </c>
@@ -15835,8 +16525,11 @@
       <c r="V237">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="238" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X237" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -15885,8 +16578,11 @@
       <c r="V238">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="239" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X238" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -15935,8 +16631,11 @@
       <c r="V239">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="240" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X239" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -15985,8 +16684,11 @@
       <c r="V240">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="241" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X240" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -16035,8 +16737,11 @@
       <c r="V241">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X241" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -16085,8 +16790,11 @@
       <c r="V242">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="243" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X242" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -16135,8 +16843,11 @@
       <c r="V243">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="244" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X243" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -16185,8 +16896,11 @@
       <c r="V244">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="245" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X244" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>268</v>
       </c>
@@ -16203,7 +16917,7 @@
         <v>204</v>
       </c>
       <c r="F245" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I245">
         <v>1.3</v>
@@ -16238,8 +16952,11 @@
       <c r="V245" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="246" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X245" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -16288,8 +17005,11 @@
       <c r="V246">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X246" s="1">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>270</v>
       </c>
@@ -16338,8 +17058,9 @@
       <c r="V247">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="248" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X247" s="1"/>
+    </row>
+    <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -16388,8 +17109,9 @@
       <c r="V248">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="249" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X248" s="1"/>
+    </row>
+    <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>272</v>
       </c>
@@ -16438,8 +17160,9 @@
       <c r="V249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X249" s="1"/>
+    </row>
+    <row r="250" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -16491,8 +17214,9 @@
       <c r="V250">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="251" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X250" s="1"/>
+    </row>
+    <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>274</v>
       </c>
@@ -16544,8 +17268,9 @@
       <c r="V251">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="252" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X251" s="1"/>
+    </row>
+    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -16594,8 +17319,11 @@
       <c r="V252">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="253" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X252" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>276</v>
       </c>
@@ -16644,8 +17372,11 @@
       <c r="V253">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="254" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X253" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -16694,8 +17425,11 @@
       <c r="V254">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="255" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X254" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -16744,8 +17478,11 @@
       <c r="V255">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="256" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X255" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -16794,8 +17531,11 @@
       <c r="V256">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X256" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>280</v>
       </c>
@@ -16844,8 +17584,11 @@
       <c r="V257">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X257" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>281</v>
       </c>
@@ -16894,8 +17637,11 @@
       <c r="V258">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X258" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -16944,8 +17690,11 @@
       <c r="V259">
         <v>12</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X259" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>283</v>
       </c>
@@ -16994,8 +17743,11 @@
       <c r="V260">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X260" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -17044,8 +17796,11 @@
       <c r="V261">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X261" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>285</v>
       </c>
@@ -17094,8 +17849,9 @@
       <c r="V262">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X262" s="1"/>
+    </row>
+    <row r="263" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -17144,8 +17900,9 @@
       <c r="V263">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X263" s="1"/>
+    </row>
+    <row r="264" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -17194,8 +17951,9 @@
       <c r="V264">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X264" s="1"/>
+    </row>
+    <row r="265" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -17244,8 +18002,9 @@
       <c r="V265">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X265" s="1"/>
+    </row>
+    <row r="266" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -17294,8 +18053,9 @@
       <c r="V266">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X266" s="1"/>
+    </row>
+    <row r="267" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -17344,8 +18104,11 @@
       <c r="V267">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X267" s="1">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>291</v>
       </c>
@@ -17394,8 +18157,11 @@
       <c r="V268">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X268" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -17444,8 +18210,11 @@
       <c r="V269">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X269" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -17494,8 +18263,11 @@
       <c r="V270">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X270" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -17544,8 +18316,11 @@
       <c r="V271">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X271" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -17562,7 +18337,7 @@
         <v>297</v>
       </c>
       <c r="F272" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I272">
         <v>0.8</v>
@@ -17603,8 +18378,9 @@
       <c r="W272">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="273" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X272" s="1"/>
+    </row>
+    <row r="273" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -17659,8 +18435,9 @@
       <c r="W273">
         <v>30.6</v>
       </c>
-    </row>
-    <row r="274" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X273" s="1"/>
+    </row>
+    <row r="274" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>299</v>
       </c>
@@ -17677,7 +18454,7 @@
         <v>297</v>
       </c>
       <c r="F274" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I274">
         <v>1.1000000000000001</v>
@@ -17718,8 +18495,9 @@
       <c r="W274">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="275" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X274" s="1"/>
+    </row>
+    <row r="275" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -17777,8 +18555,9 @@
       <c r="W275">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="276" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X275" s="1"/>
+    </row>
+    <row r="276" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>301</v>
       </c>
@@ -17836,8 +18615,9 @@
       <c r="W276">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X276" s="1"/>
+    </row>
+    <row r="277" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -17892,8 +18672,9 @@
       <c r="W277">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="278" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X277" s="1"/>
+    </row>
+    <row r="278" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>303</v>
       </c>
@@ -17948,8 +18729,9 @@
       <c r="W278">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="279" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X278" s="1"/>
+    </row>
+    <row r="279" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -18007,8 +18789,9 @@
       <c r="W279" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="280" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X279" s="1"/>
+    </row>
+    <row r="280" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>305</v>
       </c>
@@ -18063,8 +18846,9 @@
       <c r="W280">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="281" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X280" s="1"/>
+    </row>
+    <row r="281" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>306</v>
       </c>
@@ -18119,8 +18903,9 @@
       <c r="W281">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X281" s="1"/>
+    </row>
+    <row r="282" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -18137,7 +18922,7 @@
         <v>297</v>
       </c>
       <c r="F282" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I282">
         <v>1.7</v>
@@ -18172,11 +18957,15 @@
       <c r="U282">
         <v>5.2</v>
       </c>
+      <c r="V282">
+        <v>5.2</v>
+      </c>
       <c r="W282">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="283" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X282" s="1"/>
+    </row>
+    <row r="283" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>308</v>
       </c>
@@ -18228,11 +19017,15 @@
       <c r="U283" t="s">
         <v>132</v>
       </c>
+      <c r="V283" t="s">
+        <v>132</v>
+      </c>
       <c r="W283" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="284" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X283" s="1"/>
+    </row>
+    <row r="284" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -18284,11 +19077,15 @@
       <c r="U284">
         <v>10.8</v>
       </c>
+      <c r="V284">
+        <v>13.1</v>
+      </c>
       <c r="W284">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="285" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X284" s="1"/>
+    </row>
+    <row r="285" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -18305,7 +19102,7 @@
         <v>297</v>
       </c>
       <c r="F285" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I285">
         <v>0.6</v>
@@ -18340,11 +19137,15 @@
       <c r="U285">
         <v>8.4</v>
       </c>
+      <c r="V285">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="W285">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="286" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X285" s="1"/>
+    </row>
+    <row r="286" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -18360,6 +19161,9 @@
       <c r="E286" t="s">
         <v>297</v>
       </c>
+      <c r="F286" t="s">
+        <v>766</v>
+      </c>
       <c r="I286">
         <v>1.1000000000000001</v>
       </c>
@@ -18393,11 +19197,15 @@
       <c r="U286">
         <v>23.3</v>
       </c>
+      <c r="V286">
+        <v>28.8</v>
+      </c>
       <c r="W286">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="287" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X286" s="1"/>
+    </row>
+    <row r="287" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -18452,8 +19260,9 @@
       <c r="W287">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="288" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X287" s="1"/>
+    </row>
+    <row r="288" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -18508,8 +19317,9 @@
       <c r="W288">
         <v>14</v>
       </c>
-    </row>
-    <row r="289" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X288" s="1"/>
+    </row>
+    <row r="289" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -18564,8 +19374,9 @@
       <c r="W289">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X289" s="1"/>
+    </row>
+    <row r="290" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -18620,8 +19431,9 @@
       <c r="W290">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="291" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X290" s="1"/>
+    </row>
+    <row r="291" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -18676,8 +19488,9 @@
       <c r="W291">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="292" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X291" s="1"/>
+    </row>
+    <row r="292" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -18732,8 +19545,9 @@
       <c r="W292">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="293" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X292" s="1"/>
+    </row>
+    <row r="293" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -18788,8 +19602,9 @@
       <c r="W293">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="294" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X293" s="1"/>
+    </row>
+    <row r="294" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -18844,8 +19659,9 @@
       <c r="W294">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="295" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X294" s="1"/>
+    </row>
+    <row r="295" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>320</v>
       </c>
@@ -18900,8 +19716,9 @@
       <c r="W295">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="296" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X295" s="1"/>
+    </row>
+    <row r="296" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -18956,8 +19773,9 @@
       <c r="W296">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="297" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X296" s="1"/>
+    </row>
+    <row r="297" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>322</v>
       </c>
@@ -18974,7 +19792,7 @@
         <v>297</v>
       </c>
       <c r="F297" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I297">
         <v>1.7</v>
@@ -19009,11 +19827,15 @@
       <c r="U297">
         <v>12.2</v>
       </c>
+      <c r="V297">
+        <v>11.9</v>
+      </c>
       <c r="W297">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="298" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X297" s="1"/>
+    </row>
+    <row r="298" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -19062,11 +19884,15 @@
       <c r="U298">
         <v>9.9</v>
       </c>
+      <c r="V298">
+        <v>14</v>
+      </c>
       <c r="W298">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="299" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X298" s="1"/>
+    </row>
+    <row r="299" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>324</v>
       </c>
@@ -19083,7 +19909,7 @@
         <v>297</v>
       </c>
       <c r="F299" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I299">
         <v>1.3</v>
@@ -19118,11 +19944,15 @@
       <c r="U299">
         <v>12.3</v>
       </c>
+      <c r="V299">
+        <v>15.4</v>
+      </c>
       <c r="W299">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="300" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X299" s="1"/>
+    </row>
+    <row r="300" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -19171,11 +20001,15 @@
       <c r="U300">
         <v>11.2</v>
       </c>
+      <c r="V300">
+        <v>16.2</v>
+      </c>
       <c r="W300">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="301" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X300" s="1"/>
+    </row>
+    <row r="301" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>326</v>
       </c>
@@ -19224,11 +20058,15 @@
       <c r="U301">
         <v>14.4</v>
       </c>
+      <c r="V301">
+        <v>19.399999999999999</v>
+      </c>
       <c r="W301">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="302" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X301" s="1"/>
+    </row>
+    <row r="302" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -19283,8 +20121,9 @@
       <c r="W302">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="303" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X302" s="1"/>
+    </row>
+    <row r="303" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>328</v>
       </c>
@@ -19339,8 +20178,9 @@
       <c r="W303">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="304" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X303" s="1"/>
+    </row>
+    <row r="304" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -19395,8 +20235,9 @@
       <c r="W304">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="305" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X304" s="1"/>
+    </row>
+    <row r="305" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>330</v>
       </c>
@@ -19451,8 +20292,9 @@
       <c r="W305">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="306" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X305" s="1"/>
+    </row>
+    <row r="306" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -19507,8 +20349,9 @@
       <c r="W306">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="307" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X306" s="1"/>
+    </row>
+    <row r="307" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>332</v>
       </c>
@@ -19563,8 +20406,9 @@
       <c r="W307">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="308" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X307" s="1"/>
+    </row>
+    <row r="308" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -19619,8 +20463,9 @@
       <c r="W308">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="309" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X308" s="1"/>
+    </row>
+    <row r="309" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>334</v>
       </c>
@@ -19675,8 +20520,9 @@
       <c r="W309">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="310" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X309" s="1"/>
+    </row>
+    <row r="310" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -19734,8 +20580,9 @@
       <c r="W310">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="311" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X310" s="1"/>
+    </row>
+    <row r="311" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -19790,8 +20637,9 @@
       <c r="W311">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="312" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X311" s="1"/>
+    </row>
+    <row r="312" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -19840,11 +20688,15 @@
       <c r="U312">
         <v>7.5</v>
       </c>
+      <c r="V312">
+        <v>10.1</v>
+      </c>
       <c r="W312">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="313" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X312" s="1"/>
+    </row>
+    <row r="313" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -19861,7 +20713,7 @@
         <v>297</v>
       </c>
       <c r="F313" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I313">
         <v>1.2</v>
@@ -19896,11 +20748,15 @@
       <c r="U313">
         <v>13.1</v>
       </c>
+      <c r="V313">
+        <v>17</v>
+      </c>
       <c r="W313">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="314" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X313" s="1"/>
+    </row>
+    <row r="314" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -19952,11 +20808,15 @@
       <c r="U314">
         <v>10.6</v>
       </c>
+      <c r="V314">
+        <v>14.8</v>
+      </c>
       <c r="W314">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="315" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X314" s="1"/>
+    </row>
+    <row r="315" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -20005,11 +20865,15 @@
       <c r="U315">
         <v>14.3</v>
       </c>
+      <c r="V315">
+        <v>17.5</v>
+      </c>
       <c r="W315">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="316" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X315" s="1"/>
+    </row>
+    <row r="316" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -20058,11 +20922,15 @@
       <c r="U316">
         <v>13.2</v>
       </c>
+      <c r="V316">
+        <v>18.399999999999999</v>
+      </c>
       <c r="W316">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="317" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X316" s="1"/>
+    </row>
+    <row r="317" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -20120,8 +20988,9 @@
       <c r="W317">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="318" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X317" s="1"/>
+    </row>
+    <row r="318" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -20176,8 +21045,9 @@
       <c r="W318">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="319" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X318" s="1"/>
+    </row>
+    <row r="319" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -20232,8 +21102,9 @@
       <c r="W319">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="320" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X319" s="1"/>
+    </row>
+    <row r="320" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -20250,7 +21121,7 @@
         <v>297</v>
       </c>
       <c r="F320" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I320">
         <v>1.4</v>
@@ -20291,8 +21162,9 @@
       <c r="W320">
         <v>24</v>
       </c>
-    </row>
-    <row r="321" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X320" s="1"/>
+    </row>
+    <row r="321" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -20347,8 +21219,9 @@
       <c r="W321">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="322" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X321" s="1"/>
+    </row>
+    <row r="322" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -20406,8 +21279,9 @@
       <c r="W322" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="323" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X322" s="1"/>
+    </row>
+    <row r="323" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>349</v>
       </c>
@@ -20462,8 +21336,9 @@
       <c r="W323">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="324" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X323" s="1"/>
+    </row>
+    <row r="324" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -20521,8 +21396,9 @@
       <c r="W324" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="325" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X324" s="1"/>
+    </row>
+    <row r="325" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>352</v>
       </c>
@@ -20577,8 +21453,9 @@
       <c r="W325">
         <v>47.2</v>
       </c>
-    </row>
-    <row r="326" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X325" s="1"/>
+    </row>
+    <row r="326" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -20633,8 +21510,9 @@
       <c r="W326">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="327" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X326" s="1"/>
+    </row>
+    <row r="327" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>354</v>
       </c>
@@ -20683,11 +21561,15 @@
       <c r="U327">
         <v>16</v>
       </c>
+      <c r="V327">
+        <v>22.7</v>
+      </c>
       <c r="W327">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="328" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X327" s="1"/>
+    </row>
+    <row r="328" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>355</v>
       </c>
@@ -20736,11 +21618,15 @@
       <c r="U328">
         <v>19.5</v>
       </c>
+      <c r="V328">
+        <v>2.4</v>
+      </c>
       <c r="W328">
         <v>29</v>
       </c>
-    </row>
-    <row r="329" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X328" s="1"/>
+    </row>
+    <row r="329" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -20789,11 +21675,15 @@
       <c r="U329">
         <v>8.4</v>
       </c>
+      <c r="V329">
+        <v>9.5</v>
+      </c>
       <c r="W329">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="330" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X329" s="1"/>
+    </row>
+    <row r="330" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>357</v>
       </c>
@@ -20842,11 +21732,15 @@
       <c r="U330">
         <v>12.5</v>
       </c>
+      <c r="V330">
+        <v>14.1</v>
+      </c>
       <c r="W330">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="331" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X330" s="1"/>
+    </row>
+    <row r="331" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -20863,7 +21757,7 @@
         <v>297</v>
       </c>
       <c r="F331" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I331">
         <v>1.4</v>
@@ -20898,11 +21792,15 @@
       <c r="U331">
         <v>10.3</v>
       </c>
+      <c r="V331">
+        <v>10.3</v>
+      </c>
       <c r="W331">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="332" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X331" s="1"/>
+    </row>
+    <row r="332" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>359</v>
       </c>
@@ -20919,7 +21817,7 @@
         <v>297</v>
       </c>
       <c r="F332" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I332">
         <v>1.5</v>
@@ -20960,8 +21858,9 @@
       <c r="W332">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="333" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X332" s="1"/>
+    </row>
+    <row r="333" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -21016,8 +21915,9 @@
       <c r="W333">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="334" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X333" s="1"/>
+    </row>
+    <row r="334" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>361</v>
       </c>
@@ -21075,8 +21975,9 @@
       <c r="W334">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="335" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X334" s="1"/>
+    </row>
+    <row r="335" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -21131,8 +22032,9 @@
       <c r="W335">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="336" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X335" s="1"/>
+    </row>
+    <row r="336" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>363</v>
       </c>
@@ -21149,7 +22051,7 @@
         <v>297</v>
       </c>
       <c r="F336" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I336">
         <v>1.7</v>
@@ -21190,8 +22092,9 @@
       <c r="W336">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="337" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X336" s="1"/>
+    </row>
+    <row r="337" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -21246,8 +22149,9 @@
       <c r="W337">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="338" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X337" s="1"/>
+    </row>
+    <row r="338" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>365</v>
       </c>
@@ -21302,8 +22206,9 @@
       <c r="W338">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="339" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X338" s="1"/>
+    </row>
+    <row r="339" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -21358,8 +22263,9 @@
       <c r="W339">
         <v>2</v>
       </c>
-    </row>
-    <row r="340" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X339" s="1"/>
+    </row>
+    <row r="340" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>367</v>
       </c>
@@ -21414,8 +22320,9 @@
       <c r="W340">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="341" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X340" s="1"/>
+    </row>
+    <row r="341" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -21470,8 +22377,9 @@
       <c r="W341">
         <v>19</v>
       </c>
-    </row>
-    <row r="342" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X341" s="1"/>
+    </row>
+    <row r="342" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>369</v>
       </c>
@@ -21520,11 +22428,15 @@
       <c r="U342">
         <v>2.2000000000000002</v>
       </c>
+      <c r="V342">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="W342">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="343" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X342" s="1"/>
+    </row>
+    <row r="343" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -21541,7 +22453,7 @@
         <v>297</v>
       </c>
       <c r="F343" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I343">
         <v>4.4000000000000004</v>
@@ -21576,11 +22488,15 @@
       <c r="U343">
         <v>25.3</v>
       </c>
+      <c r="V343">
+        <v>30.5</v>
+      </c>
       <c r="W343">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="344" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X343" s="1"/>
+    </row>
+    <row r="344" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>371</v>
       </c>
@@ -21597,7 +22513,7 @@
         <v>297</v>
       </c>
       <c r="F344" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I344">
         <v>1.8</v>
@@ -21632,11 +22548,15 @@
       <c r="U344">
         <v>25.7</v>
       </c>
+      <c r="V344">
+        <v>30.2</v>
+      </c>
       <c r="W344">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="345" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X344" s="1"/>
+    </row>
+    <row r="345" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -21685,11 +22605,15 @@
       <c r="U345">
         <v>11.5</v>
       </c>
+      <c r="V345">
+        <v>12.2</v>
+      </c>
       <c r="W345">
         <v>13</v>
       </c>
-    </row>
-    <row r="346" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X345" s="1"/>
+    </row>
+    <row r="346" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>373</v>
       </c>
@@ -21738,11 +22662,15 @@
       <c r="U346">
         <v>3.3</v>
       </c>
+      <c r="V346">
+        <v>3.3</v>
+      </c>
       <c r="W346">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="347" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X346" s="1"/>
+    </row>
+    <row r="347" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -21797,8 +22725,9 @@
       <c r="W347">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="348" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X347" s="1"/>
+    </row>
+    <row r="348" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>375</v>
       </c>
@@ -21853,8 +22782,9 @@
       <c r="W348">
         <v>5</v>
       </c>
-    </row>
-    <row r="349" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X348" s="1"/>
+    </row>
+    <row r="349" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -21909,8 +22839,9 @@
       <c r="W349">
         <v>5</v>
       </c>
-    </row>
-    <row r="350" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X349" s="1"/>
+    </row>
+    <row r="350" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>377</v>
       </c>
@@ -21927,7 +22858,7 @@
         <v>297</v>
       </c>
       <c r="F350" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I350">
         <v>1.3</v>
@@ -21968,8 +22899,9 @@
       <c r="W350">
         <v>12</v>
       </c>
-    </row>
-    <row r="351" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X350" s="1"/>
+    </row>
+    <row r="351" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>378</v>
       </c>
@@ -22024,8 +22956,9 @@
       <c r="W351">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="352" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X351" s="1"/>
+    </row>
+    <row r="352" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -22083,8 +23016,9 @@
       <c r="W352">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X352" s="1"/>
+    </row>
+    <row r="353" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>380</v>
       </c>
@@ -22139,8 +23073,9 @@
       <c r="W353">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="354" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X353" s="1"/>
+    </row>
+    <row r="354" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -22195,8 +23130,9 @@
       <c r="W354">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="355" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X354" s="1"/>
+    </row>
+    <row r="355" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>382</v>
       </c>
@@ -22254,8 +23190,9 @@
       <c r="W355" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="356" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X355" s="1"/>
+    </row>
+    <row r="356" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -22310,8 +23247,9 @@
       <c r="W356">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="357" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X356" s="1"/>
+    </row>
+    <row r="357" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>384</v>
       </c>
@@ -22363,11 +23301,15 @@
       <c r="U357">
         <v>7.2</v>
       </c>
+      <c r="V357">
+        <v>7.2</v>
+      </c>
       <c r="W357">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="358" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X357" s="1"/>
+    </row>
+    <row r="358" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -22416,11 +23358,15 @@
       <c r="U358">
         <v>9.1</v>
       </c>
+      <c r="V358">
+        <v>10.5</v>
+      </c>
       <c r="W358">
         <v>13</v>
       </c>
-    </row>
-    <row r="359" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X358" s="1"/>
+    </row>
+    <row r="359" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>386</v>
       </c>
@@ -22469,11 +23415,15 @@
       <c r="U359">
         <v>15.6</v>
       </c>
+      <c r="V359">
+        <v>15.5</v>
+      </c>
       <c r="W359">
         <v>16</v>
       </c>
-    </row>
-    <row r="360" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X359" s="1"/>
+    </row>
+    <row r="360" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -22522,11 +23472,15 @@
       <c r="U360">
         <v>20</v>
       </c>
+      <c r="V360">
+        <v>23.7</v>
+      </c>
       <c r="W360">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="361" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X360" s="1"/>
+    </row>
+    <row r="361" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>388</v>
       </c>
@@ -22575,11 +23529,15 @@
       <c r="U361">
         <v>12.5</v>
       </c>
+      <c r="V361">
+        <v>17.3</v>
+      </c>
       <c r="W361">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="362" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X361" s="1"/>
+    </row>
+    <row r="362" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -22628,8 +23586,9 @@
       <c r="V362">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="363" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X362" s="1"/>
+    </row>
+    <row r="363" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -22678,8 +23637,9 @@
       <c r="V363">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="364" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X363" s="1"/>
+    </row>
+    <row r="364" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -22731,8 +23691,9 @@
       <c r="V364">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="365" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X364" s="1"/>
+    </row>
+    <row r="365" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -22781,8 +23742,9 @@
       <c r="V365">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="366" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X365" s="1"/>
+    </row>
+    <row r="366" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -22831,8 +23793,9 @@
       <c r="V366">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X366" s="1"/>
+    </row>
+    <row r="367" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -22881,8 +23844,11 @@
       <c r="V367">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="368" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X367">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -22934,8 +23900,11 @@
       <c r="V368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -22987,8 +23956,11 @@
       <c r="V369">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="370" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X369">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -23037,8 +24009,11 @@
       <c r="V370">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="371" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X370">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="371" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -23087,8 +24062,11 @@
       <c r="V371">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="372" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X371">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -23137,8 +24115,11 @@
       <c r="V372">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="373" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X372">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -23187,8 +24168,11 @@
       <c r="V373">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="374" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X373">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -23237,8 +24221,11 @@
       <c r="V374">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="375" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X374">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -23287,8 +24274,11 @@
       <c r="V375">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -23340,8 +24330,11 @@
       <c r="V376">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="377" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X376">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -23390,8 +24383,9 @@
       <c r="V377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X377" s="1"/>
+    </row>
+    <row r="378" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -23440,8 +24434,9 @@
       <c r="V378">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="379" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X378" s="1"/>
+    </row>
+    <row r="379" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -23490,8 +24485,9 @@
       <c r="V379">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X379" s="1"/>
+    </row>
+    <row r="380" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -23543,8 +24539,9 @@
       <c r="V380" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="381" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X380" s="1"/>
+    </row>
+    <row r="381" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -23596,8 +24593,9 @@
       <c r="V381">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="382" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X381" s="1"/>
+    </row>
+    <row r="382" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -23646,8 +24644,11 @@
       <c r="V382">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="383" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X382">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>415</v>
       </c>
@@ -23696,8 +24697,11 @@
       <c r="V383">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="384" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X383">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -23746,8 +24750,11 @@
       <c r="V384">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="385" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X384">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>417</v>
       </c>
@@ -23796,8 +24803,11 @@
       <c r="V385">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="386" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X385">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -23846,8 +24856,11 @@
       <c r="V386">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="387" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X386">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>419</v>
       </c>
@@ -23899,8 +24912,11 @@
       <c r="V387" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="388" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X387" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="388" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -23949,8 +24965,11 @@
       <c r="V388">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="389" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X388">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>422</v>
       </c>
@@ -23999,8 +25018,11 @@
       <c r="V389">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="390" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X389">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -24049,8 +25071,11 @@
       <c r="V390">
         <v>18</v>
       </c>
-    </row>
-    <row r="391" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X390">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="391" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>424</v>
       </c>
@@ -24099,8 +25124,11 @@
       <c r="V391">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="392" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X391">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -24152,8 +25180,9 @@
       <c r="V392" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="393" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X392" s="1"/>
+    </row>
+    <row r="393" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -24202,8 +25231,9 @@
       <c r="V393">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="394" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X393" s="1"/>
+    </row>
+    <row r="394" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -24255,8 +25285,9 @@
       <c r="V394">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="395" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X394" s="1"/>
+    </row>
+    <row r="395" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -24305,8 +25336,9 @@
       <c r="V395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X395" s="1"/>
+    </row>
+    <row r="396" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -24355,8 +25387,9 @@
       <c r="V396">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="397" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X396" s="1"/>
+    </row>
+    <row r="397" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -24405,8 +25438,11 @@
       <c r="V397">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="398" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X397">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -24455,8 +25491,11 @@
       <c r="V398">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="399" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X398">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -24508,8 +25547,11 @@
       <c r="V399">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="400" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X399">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>434</v>
       </c>
@@ -24558,8 +25600,11 @@
       <c r="V400">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="401" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X400">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -24608,8 +25653,11 @@
       <c r="V401">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="402" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X401">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>436</v>
       </c>
@@ -24664,8 +25712,11 @@
       <c r="W402" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="403" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X402" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="403" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -24717,8 +25768,11 @@
       <c r="V403">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="404" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X403">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>438</v>
       </c>
@@ -24770,8 +25824,11 @@
       <c r="V404" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="405" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X404" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="405" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>439</v>
       </c>
@@ -24820,8 +25877,11 @@
       <c r="V405">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="406" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X405">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -24870,8 +25930,11 @@
       <c r="V406">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="407" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X406">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>441</v>
       </c>
@@ -24920,8 +25983,9 @@
       <c r="V407">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="408" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X407" s="1"/>
+    </row>
+    <row r="408" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -24970,8 +26034,9 @@
       <c r="V408">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="409" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X408" s="1"/>
+    </row>
+    <row r="409" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>443</v>
       </c>
@@ -25020,8 +26085,9 @@
       <c r="V409">
         <v>3</v>
       </c>
-    </row>
-    <row r="410" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X409" s="1"/>
+    </row>
+    <row r="410" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -25070,8 +26136,9 @@
       <c r="V410">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="411" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X410" s="1"/>
+    </row>
+    <row r="411" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>445</v>
       </c>
@@ -25120,8 +26187,9 @@
       <c r="V411">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="412" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X411" s="1"/>
+    </row>
+    <row r="412" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -25170,8 +26238,11 @@
       <c r="V412">
         <v>2</v>
       </c>
-    </row>
-    <row r="413" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>447</v>
       </c>
@@ -25220,8 +26291,11 @@
       <c r="V413">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="414" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X413">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -25270,8 +26344,11 @@
       <c r="V414">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="415" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X414">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>449</v>
       </c>
@@ -25320,8 +26397,11 @@
       <c r="V415">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="416" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X415">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="416" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -25373,8 +26453,11 @@
       <c r="V416" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="417" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X416" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="417" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>451</v>
       </c>
@@ -25426,8 +26509,11 @@
       <c r="V417" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="418" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X417" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="418" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -25476,8 +26562,11 @@
       <c r="V418">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="419" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X418">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>453</v>
       </c>
@@ -25526,8 +26615,11 @@
       <c r="V419">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="420" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X419">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -25576,8 +26668,11 @@
       <c r="V420">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="421" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X420">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -25629,8 +26724,11 @@
       <c r="V421" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="422" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X421" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="422" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>457</v>
       </c>
@@ -25679,8 +26777,9 @@
       <c r="V422">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="423" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X422" s="1"/>
+    </row>
+    <row r="423" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>458</v>
       </c>
@@ -25732,8 +26831,9 @@
       <c r="V423" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="424" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X423" s="1"/>
+    </row>
+    <row r="424" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>460</v>
       </c>
@@ -25782,8 +26882,9 @@
       <c r="V424">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="425" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X424" s="1"/>
+    </row>
+    <row r="425" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>461</v>
       </c>
@@ -25832,8 +26933,9 @@
       <c r="V425">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="426" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X425" s="1"/>
+    </row>
+    <row r="426" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>462</v>
       </c>
@@ -25885,8 +26987,9 @@
       <c r="V426" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="427" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X426" s="1"/>
+    </row>
+    <row r="427" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>463</v>
       </c>
@@ -25935,8 +27038,11 @@
       <c r="V427">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="428" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X427">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>464</v>
       </c>
@@ -25985,8 +27091,11 @@
       <c r="V428">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="429" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X428">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>465</v>
       </c>
@@ -26035,8 +27144,11 @@
       <c r="V429" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="430" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X429" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="430" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>467</v>
       </c>
@@ -26085,8 +27197,11 @@
       <c r="V430">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="431" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X430">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>468</v>
       </c>
@@ -26138,8 +27253,11 @@
       <c r="V431" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="432" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X431" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="432" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>469</v>
       </c>
@@ -26188,8 +27306,11 @@
       <c r="V432">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="433" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X432">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>470</v>
       </c>
@@ -26238,8 +27359,11 @@
       <c r="V433">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="434" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X433">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>471</v>
       </c>
@@ -26288,8 +27412,11 @@
       <c r="V434">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="435" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X434">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>472</v>
       </c>
@@ -26338,8 +27465,11 @@
       <c r="V435">
         <v>2</v>
       </c>
-    </row>
-    <row r="436" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>473</v>
       </c>
@@ -26388,8 +27518,11 @@
       <c r="V436">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="437" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X436">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>474</v>
       </c>
@@ -26438,8 +27571,9 @@
       <c r="V437">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="438" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X437" s="1"/>
+    </row>
+    <row r="438" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>475</v>
       </c>
@@ -26488,8 +27622,9 @@
       <c r="V438">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="439" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X438" s="1"/>
+    </row>
+    <row r="439" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>476</v>
       </c>
@@ -26538,8 +27673,9 @@
       <c r="V439">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="440" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X439" s="1"/>
+    </row>
+    <row r="440" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>477</v>
       </c>
@@ -26588,8 +27724,9 @@
       <c r="V440">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="441" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X440" s="1"/>
+    </row>
+    <row r="441" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>478</v>
       </c>
@@ -26638,8 +27775,9 @@
       <c r="V441">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="442" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X441" s="1"/>
+    </row>
+    <row r="442" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>479</v>
       </c>
@@ -26691,8 +27829,11 @@
       <c r="V442" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="443" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X442" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="443" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>481</v>
       </c>
@@ -26741,8 +27882,11 @@
       <c r="V443">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="444" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X443">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>482</v>
       </c>
@@ -26791,8 +27935,11 @@
       <c r="V444" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="445" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X444" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="445" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>483</v>
       </c>
@@ -26841,8 +27988,11 @@
       <c r="V445">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="446" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X445">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>484</v>
       </c>
@@ -26891,8 +28041,11 @@
       <c r="V446">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="447" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X446">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>485</v>
       </c>
@@ -26941,8 +28094,11 @@
       <c r="V447">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="448" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X447">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>486</v>
       </c>
@@ -26991,8 +28147,11 @@
       <c r="V448">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="449" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X448">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>487</v>
       </c>
@@ -27041,8 +28200,11 @@
       <c r="V449">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="450" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X449">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="450" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>488</v>
       </c>
@@ -27091,8 +28253,11 @@
       <c r="V450">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="451" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X450">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>489</v>
       </c>
@@ -27144,8 +28309,11 @@
       <c r="V451" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="452" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X451" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="452" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>490</v>
       </c>
@@ -27200,8 +28368,9 @@
       <c r="W452">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="453" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X452" s="1"/>
+    </row>
+    <row r="453" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>493</v>
       </c>
@@ -27256,8 +28425,9 @@
       <c r="W453">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="454" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X453" s="1"/>
+    </row>
+    <row r="454" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>494</v>
       </c>
@@ -27312,8 +28482,9 @@
       <c r="W454">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="455" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X454" s="1"/>
+    </row>
+    <row r="455" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>495</v>
       </c>
@@ -27368,8 +28539,9 @@
       <c r="W455">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="456" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X455" s="1"/>
+    </row>
+    <row r="456" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>496</v>
       </c>
@@ -27424,8 +28596,9 @@
       <c r="W456">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="457" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X456" s="1"/>
+    </row>
+    <row r="457" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>497</v>
       </c>
@@ -27442,7 +28615,7 @@
         <v>492</v>
       </c>
       <c r="F457" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J457">
         <v>1.2</v>
@@ -27483,8 +28656,11 @@
       <c r="W457">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="458" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X457">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>498</v>
       </c>
@@ -27539,8 +28715,11 @@
       <c r="W458">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="459" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X458">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>499</v>
       </c>
@@ -27595,8 +28774,11 @@
       <c r="W459">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="460" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X459">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>500</v>
       </c>
@@ -27651,8 +28833,11 @@
       <c r="W460">
         <v>3</v>
       </c>
-    </row>
-    <row r="461" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>501</v>
       </c>
@@ -27707,8 +28892,11 @@
       <c r="W461">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="462" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X461">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>502</v>
       </c>
@@ -27757,11 +28945,17 @@
       <c r="U462">
         <v>1.3</v>
       </c>
+      <c r="V462">
+        <v>1.3</v>
+      </c>
       <c r="W462">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="463" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X462">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>503</v>
       </c>
@@ -27810,11 +29004,17 @@
       <c r="U463">
         <v>18.2</v>
       </c>
+      <c r="V463">
+        <v>18.5</v>
+      </c>
       <c r="W463">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="464" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X463">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>504</v>
       </c>
@@ -27863,11 +29063,17 @@
       <c r="U464">
         <v>22.6</v>
       </c>
+      <c r="V464">
+        <v>22.6</v>
+      </c>
       <c r="W464">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="465" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X464">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>505</v>
       </c>
@@ -27916,11 +29122,17 @@
       <c r="U465">
         <v>2.6</v>
       </c>
+      <c r="V465">
+        <v>2.7</v>
+      </c>
       <c r="W465">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="466" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X465">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>506</v>
       </c>
@@ -27969,11 +29181,17 @@
       <c r="U466">
         <v>6.7</v>
       </c>
+      <c r="V466">
+        <v>6.7</v>
+      </c>
       <c r="W466">
         <v>7</v>
       </c>
-    </row>
-    <row r="467" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X466">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>507</v>
       </c>
@@ -28028,8 +29246,9 @@
       <c r="W467">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="468" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X467" s="1"/>
+    </row>
+    <row r="468" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>508</v>
       </c>
@@ -28084,8 +29303,9 @@
       <c r="W468">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="469" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X468" s="1"/>
+    </row>
+    <row r="469" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>509</v>
       </c>
@@ -28140,8 +29360,9 @@
       <c r="W469">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="470" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X469" s="1"/>
+    </row>
+    <row r="470" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>510</v>
       </c>
@@ -28196,8 +29417,9 @@
       <c r="W470">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="471" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X470" s="1"/>
+    </row>
+    <row r="471" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>511</v>
       </c>
@@ -28252,8 +29474,9 @@
       <c r="W471">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="472" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X471" s="1"/>
+    </row>
+    <row r="472" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>512</v>
       </c>
@@ -28308,8 +29531,11 @@
       <c r="W472">
         <v>8</v>
       </c>
-    </row>
-    <row r="473" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X472">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>513</v>
       </c>
@@ -28364,8 +29590,11 @@
       <c r="W473">
         <v>2</v>
       </c>
-    </row>
-    <row r="474" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>514</v>
       </c>
@@ -28423,8 +29652,11 @@
       <c r="W474">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="475" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X474">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>516</v>
       </c>
@@ -28479,8 +29711,11 @@
       <c r="W475">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="476" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X475">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>517</v>
       </c>
@@ -28535,8 +29770,11 @@
       <c r="W476">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="477" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X476">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>518</v>
       </c>
@@ -28585,11 +29823,17 @@
       <c r="U477">
         <v>4</v>
       </c>
+      <c r="V477">
+        <v>3.8</v>
+      </c>
       <c r="W477">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="478" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X477">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>519</v>
       </c>
@@ -28638,11 +29882,17 @@
       <c r="U478">
         <v>2.9</v>
       </c>
+      <c r="V478">
+        <v>2.9</v>
+      </c>
       <c r="W478">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="479" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X478">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>520</v>
       </c>
@@ -28691,11 +29941,17 @@
       <c r="U479">
         <v>3.6</v>
       </c>
+      <c r="V479">
+        <v>4</v>
+      </c>
       <c r="W479">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="480" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X479">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="480" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>521</v>
       </c>
@@ -28744,11 +30000,17 @@
       <c r="U480">
         <v>19.8</v>
       </c>
+      <c r="V480">
+        <v>19.899999999999999</v>
+      </c>
       <c r="W480">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="481" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X480">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>522</v>
       </c>
@@ -28797,11 +30059,17 @@
       <c r="U481">
         <v>23.1</v>
       </c>
+      <c r="V481">
+        <v>23.7</v>
+      </c>
       <c r="W481">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="482" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X481">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>523</v>
       </c>
@@ -28856,8 +30124,9 @@
       <c r="W482">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="483" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X482" s="1"/>
+    </row>
+    <row r="483" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>524</v>
       </c>
@@ -28912,8 +30181,9 @@
       <c r="W483">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="484" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X483" s="1"/>
+    </row>
+    <row r="484" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>525</v>
       </c>
@@ -28968,8 +30238,9 @@
       <c r="W484">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="485" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X484" s="1"/>
+    </row>
+    <row r="485" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>526</v>
       </c>
@@ -28986,7 +30257,7 @@
         <v>492</v>
       </c>
       <c r="F485" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J485">
         <v>0.5</v>
@@ -29027,8 +30298,9 @@
       <c r="W485">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="486" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X485" s="1"/>
+    </row>
+    <row r="486" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>527</v>
       </c>
@@ -29083,8 +30355,9 @@
       <c r="W486">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="487" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X486" s="1"/>
+    </row>
+    <row r="487" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>528</v>
       </c>
@@ -29101,7 +30374,7 @@
         <v>492</v>
       </c>
       <c r="F487" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J487">
         <v>1.8</v>
@@ -29142,8 +30415,11 @@
       <c r="W487">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="488" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X487">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>529</v>
       </c>
@@ -29198,8 +30474,11 @@
       <c r="W488">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="489" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X488">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>530</v>
       </c>
@@ -29254,8 +30533,11 @@
       <c r="W489">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="490" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X489">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>531</v>
       </c>
@@ -29310,8 +30592,11 @@
       <c r="W490">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="491" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X490">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>532</v>
       </c>
@@ -29366,8 +30651,11 @@
       <c r="W491">
         <v>3</v>
       </c>
-    </row>
-    <row r="492" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X491">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>533</v>
       </c>
@@ -29416,11 +30704,17 @@
       <c r="U492">
         <v>3.6</v>
       </c>
+      <c r="V492">
+        <v>3.6</v>
+      </c>
       <c r="W492">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="493" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X492">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>534</v>
       </c>
@@ -29469,11 +30763,17 @@
       <c r="U493">
         <v>11.7</v>
       </c>
+      <c r="V493">
+        <v>11.8</v>
+      </c>
       <c r="W493">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="494" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X493">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>535</v>
       </c>
@@ -29522,11 +30822,17 @@
       <c r="U494">
         <v>2</v>
       </c>
+      <c r="V494">
+        <v>2.1</v>
+      </c>
       <c r="W494">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="495" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X494">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>536</v>
       </c>
@@ -29578,11 +30884,17 @@
       <c r="U495" t="s">
         <v>132</v>
       </c>
+      <c r="V495" t="s">
+        <v>132</v>
+      </c>
       <c r="W495" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="496" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X495" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="496" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>538</v>
       </c>
@@ -29631,11 +30943,17 @@
       <c r="U496">
         <v>2.7</v>
       </c>
+      <c r="V496">
+        <v>2.7</v>
+      </c>
       <c r="W496">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="497" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X496">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>539</v>
       </c>
@@ -29690,8 +31008,9 @@
       <c r="W497">
         <v>2</v>
       </c>
-    </row>
-    <row r="498" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X497" s="1"/>
+    </row>
+    <row r="498" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>540</v>
       </c>
@@ -29746,8 +31065,9 @@
       <c r="W498">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="499" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X498" s="1"/>
+    </row>
+    <row r="499" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>541</v>
       </c>
@@ -29802,8 +31122,9 @@
       <c r="W499">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="500" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X499" s="1"/>
+    </row>
+    <row r="500" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>542</v>
       </c>
@@ -29858,8 +31179,9 @@
       <c r="W500">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="501" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X500" s="1"/>
+    </row>
+    <row r="501" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>543</v>
       </c>
@@ -29914,8 +31236,9 @@
       <c r="W501">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="502" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X501" s="1"/>
+    </row>
+    <row r="502" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>544</v>
       </c>
@@ -29970,8 +31293,11 @@
       <c r="W502">
         <v>2</v>
       </c>
-    </row>
-    <row r="503" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>545</v>
       </c>
@@ -30026,8 +31352,11 @@
       <c r="W503">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="504" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X503">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>546</v>
       </c>
@@ -30082,8 +31411,11 @@
       <c r="W504">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="505" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X504">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>547</v>
       </c>
@@ -30138,8 +31470,11 @@
       <c r="W505">
         <v>4</v>
       </c>
-    </row>
-    <row r="506" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X505">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>548</v>
       </c>
@@ -30194,8 +31529,11 @@
       <c r="W506">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="507" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X506">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>549</v>
       </c>
@@ -30244,11 +31582,17 @@
       <c r="U507">
         <v>3.2</v>
       </c>
+      <c r="V507">
+        <v>2.6</v>
+      </c>
       <c r="W507">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="508" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X507">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>550</v>
       </c>
@@ -30297,11 +31641,17 @@
       <c r="U508">
         <v>7.6</v>
       </c>
+      <c r="V508">
+        <v>7.8</v>
+      </c>
       <c r="W508">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="509" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X508">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>551</v>
       </c>
@@ -30350,11 +31700,17 @@
       <c r="U509">
         <v>4.0999999999999996</v>
       </c>
+      <c r="V509">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="W509">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="510" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X509">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>552</v>
       </c>
@@ -30403,11 +31759,17 @@
       <c r="U510">
         <v>7.1</v>
       </c>
+      <c r="V510">
+        <v>7.4</v>
+      </c>
       <c r="W510">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="511" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X510">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>553</v>
       </c>
@@ -30456,11 +31818,17 @@
       <c r="U511">
         <v>9.3000000000000007</v>
       </c>
+      <c r="V511">
+        <v>6.4</v>
+      </c>
       <c r="W511">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="512" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X511">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>554</v>
       </c>
@@ -30515,8 +31883,9 @@
       <c r="W512">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="513" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X512" s="1"/>
+    </row>
+    <row r="513" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>555</v>
       </c>
@@ -30571,8 +31940,9 @@
       <c r="W513">
         <v>14</v>
       </c>
-    </row>
-    <row r="514" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X513" s="1"/>
+    </row>
+    <row r="514" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>556</v>
       </c>
@@ -30627,8 +31997,9 @@
       <c r="W514">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="515" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X514" s="1"/>
+    </row>
+    <row r="515" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>557</v>
       </c>
@@ -30683,8 +32054,9 @@
       <c r="W515">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="516" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X515" s="1"/>
+    </row>
+    <row r="516" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>558</v>
       </c>
@@ -30739,8 +32111,9 @@
       <c r="W516">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="517" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X516" s="1"/>
+    </row>
+    <row r="517" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>559</v>
       </c>
@@ -30798,8 +32171,11 @@
       <c r="W517" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="518" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X517" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="518" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>560</v>
       </c>
@@ -30857,8 +32233,11 @@
       <c r="W518" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="519" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X518" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="519" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>561</v>
       </c>
@@ -30913,8 +32292,11 @@
       <c r="W519">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="520" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X519">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>562</v>
       </c>
@@ -30969,8 +32351,11 @@
       <c r="W520">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="521" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X520">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>563</v>
       </c>
@@ -31025,8 +32410,11 @@
       <c r="W521">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="522" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X521">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>564</v>
       </c>
@@ -31075,11 +32463,17 @@
       <c r="U522">
         <v>8.6</v>
       </c>
+      <c r="V522">
+        <v>8.6</v>
+      </c>
       <c r="W522">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="523" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X522">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="523" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>565</v>
       </c>
@@ -31128,11 +32522,17 @@
       <c r="U523">
         <v>6</v>
       </c>
+      <c r="V523">
+        <v>6</v>
+      </c>
       <c r="W523">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="524" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X523">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>566</v>
       </c>
@@ -31181,11 +32581,17 @@
       <c r="U524">
         <v>10.8</v>
       </c>
+      <c r="V524">
+        <v>10.9</v>
+      </c>
       <c r="W524">
         <v>11</v>
       </c>
-    </row>
-    <row r="525" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X524">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="525" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>567</v>
       </c>
@@ -31234,11 +32640,17 @@
       <c r="U525">
         <v>1.9</v>
       </c>
+      <c r="V525">
+        <v>1.9</v>
+      </c>
       <c r="W525">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="526" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X525">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>568</v>
       </c>
@@ -31287,11 +32699,17 @@
       <c r="U526">
         <v>3.4</v>
       </c>
+      <c r="V526">
+        <v>3.4</v>
+      </c>
       <c r="W526">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="527" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X526">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>569</v>
       </c>
@@ -31346,8 +32764,9 @@
       <c r="W527">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="528" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X527" s="1"/>
+    </row>
+    <row r="528" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>570</v>
       </c>
@@ -31402,8 +32821,9 @@
       <c r="W528">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="529" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X528" s="1"/>
+    </row>
+    <row r="529" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>571</v>
       </c>
@@ -31458,8 +32878,9 @@
       <c r="W529">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="530" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X529" s="1"/>
+    </row>
+    <row r="530" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>572</v>
       </c>
@@ -31514,8 +32935,9 @@
       <c r="W530">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="531" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X530" s="1"/>
+    </row>
+    <row r="531" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>573</v>
       </c>
@@ -31570,8 +32992,9 @@
       <c r="W531">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="532" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X531" s="1"/>
+    </row>
+    <row r="532" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>574</v>
       </c>
@@ -31629,8 +33052,11 @@
       <c r="W532">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="533" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X532">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>576</v>
       </c>
@@ -31685,8 +33111,11 @@
       <c r="W533">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="534" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X533">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>577</v>
       </c>
@@ -31741,8 +33170,11 @@
       <c r="W534">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="535" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X534">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>578</v>
       </c>
@@ -31797,8 +33229,11 @@
       <c r="W535">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="536" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X535">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="536" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>579</v>
       </c>
@@ -31853,8 +33288,11 @@
       <c r="W536">
         <v>3</v>
       </c>
-    </row>
-    <row r="537" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X536">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>580</v>
       </c>
@@ -31903,11 +33341,17 @@
       <c r="U537">
         <v>5.8</v>
       </c>
+      <c r="V537">
+        <v>5.9</v>
+      </c>
       <c r="W537">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="538" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X537">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="538" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>581</v>
       </c>
@@ -31956,11 +33400,17 @@
       <c r="U538">
         <v>5.2</v>
       </c>
+      <c r="V538">
+        <v>6.4</v>
+      </c>
       <c r="W538">
         <v>7</v>
       </c>
-    </row>
-    <row r="539" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X538">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>582</v>
       </c>
@@ -32009,11 +33459,17 @@
       <c r="U539">
         <v>3.5</v>
       </c>
+      <c r="V539">
+        <v>3.7</v>
+      </c>
       <c r="W539">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="540" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X539">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>583</v>
       </c>
@@ -32062,11 +33518,17 @@
       <c r="U540">
         <v>6.4</v>
       </c>
+      <c r="V540">
+        <v>6.4</v>
+      </c>
       <c r="W540">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="541" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X540">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>584</v>
       </c>
@@ -32115,11 +33577,17 @@
       <c r="U541">
         <v>4.8</v>
       </c>
+      <c r="V541">
+        <v>4.8</v>
+      </c>
       <c r="W541">
         <v>5</v>
       </c>
-    </row>
-    <row r="542" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X541">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>585</v>
       </c>
@@ -32177,8 +33645,11 @@
       <c r="W542" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="543" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X542" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="543" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>588</v>
       </c>
@@ -32233,8 +33704,11 @@
       <c r="W543">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="544" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X543" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>589</v>
       </c>
@@ -32292,8 +33766,11 @@
       <c r="W544" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="545" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X544" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="545" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>590</v>
       </c>
@@ -32348,8 +33825,11 @@
       <c r="W545">
         <v>1</v>
       </c>
-    </row>
-    <row r="546" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X545" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>591</v>
       </c>
@@ -32366,7 +33846,7 @@
         <v>587</v>
       </c>
       <c r="F546" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J546">
         <v>0.2</v>
@@ -32407,8 +33887,11 @@
       <c r="W546" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="547" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X546" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="547" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>592</v>
       </c>
@@ -32463,8 +33946,9 @@
       <c r="W547">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="548" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X547" s="1"/>
+    </row>
+    <row r="548" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>593</v>
       </c>
@@ -32481,7 +33965,7 @@
         <v>587</v>
       </c>
       <c r="F548" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J548">
         <v>0.5</v>
@@ -32522,8 +34006,9 @@
       <c r="W548">
         <v>4</v>
       </c>
-    </row>
-    <row r="549" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X548" s="1"/>
+    </row>
+    <row r="549" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>594</v>
       </c>
@@ -32578,8 +34063,9 @@
       <c r="W549">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="550" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X549" s="1"/>
+    </row>
+    <row r="550" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>595</v>
       </c>
@@ -32634,8 +34120,9 @@
       <c r="W550">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="551" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X550" s="1"/>
+    </row>
+    <row r="551" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>596</v>
       </c>
@@ -32693,8 +34180,9 @@
       <c r="W551">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="552" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X551" s="1"/>
+    </row>
+    <row r="552" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>597</v>
       </c>
@@ -32752,8 +34240,11 @@
       <c r="W552" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="553" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X552" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="553" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>598</v>
       </c>
@@ -32808,8 +34299,11 @@
       <c r="W553">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="554" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X553" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>599</v>
       </c>
@@ -32825,6 +34319,9 @@
       <c r="E554" t="s">
         <v>587</v>
       </c>
+      <c r="F554" t="s">
+        <v>765</v>
+      </c>
       <c r="J554">
         <v>0.6</v>
       </c>
@@ -32864,8 +34361,11 @@
       <c r="W554">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="555" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X554" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="555" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>600</v>
       </c>
@@ -32920,8 +34420,11 @@
       <c r="W555">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="556" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X555" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>601</v>
       </c>
@@ -32976,8 +34479,11 @@
       <c r="W556">
         <v>3</v>
       </c>
-    </row>
-    <row r="557" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X556" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>602</v>
       </c>
@@ -33035,8 +34541,11 @@
       <c r="W557" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="558" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X557" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="558" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>603</v>
       </c>
@@ -33091,8 +34600,11 @@
       <c r="W558">
         <v>1</v>
       </c>
-    </row>
-    <row r="559" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X558" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="559" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>604</v>
       </c>
@@ -33147,8 +34659,11 @@
       <c r="W559">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="560" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X559" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="560" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>605</v>
       </c>
@@ -33206,8 +34721,11 @@
       <c r="W560">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="561" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X560" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>606</v>
       </c>
@@ -33262,8 +34780,11 @@
       <c r="W561">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="562" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X561" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="562" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>607</v>
       </c>
@@ -33318,8 +34839,9 @@
       <c r="W562">
         <v>1</v>
       </c>
-    </row>
-    <row r="563" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X562" s="1"/>
+    </row>
+    <row r="563" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>608</v>
       </c>
@@ -33374,8 +34896,9 @@
       <c r="W563">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="564" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X563" s="1"/>
+    </row>
+    <row r="564" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>609</v>
       </c>
@@ -33433,8 +34956,9 @@
       <c r="W564">
         <v>6</v>
       </c>
-    </row>
-    <row r="565" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X564" s="1"/>
+    </row>
+    <row r="565" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>610</v>
       </c>
@@ -33489,8 +35013,9 @@
       <c r="W565">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="566" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X565" s="1"/>
+    </row>
+    <row r="566" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>611</v>
       </c>
@@ -33548,8 +35073,9 @@
       <c r="W566" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="567" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X566" s="1"/>
+    </row>
+    <row r="567" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>612</v>
       </c>
@@ -33604,8 +35130,11 @@
       <c r="W567">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="568" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X567" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>613</v>
       </c>
@@ -33621,6 +35150,9 @@
       <c r="E568" t="s">
         <v>587</v>
       </c>
+      <c r="F568" t="s">
+        <v>764</v>
+      </c>
       <c r="J568">
         <v>0.4</v>
       </c>
@@ -33660,8 +35192,11 @@
       <c r="W568">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="569" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X568" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>614</v>
       </c>
@@ -33716,8 +35251,11 @@
       <c r="W569">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="570" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X569" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="570" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>615</v>
       </c>
@@ -33772,8 +35310,11 @@
       <c r="W570">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="571" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X570" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>616</v>
       </c>
@@ -33828,8 +35369,11 @@
       <c r="W571" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="572" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X571" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="572" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>617</v>
       </c>
@@ -33884,8 +35428,11 @@
       <c r="W572">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="573" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X572" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>618</v>
       </c>
@@ -33940,8 +35487,11 @@
       <c r="W573">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="574" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X573" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="574" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>619</v>
       </c>
@@ -33996,8 +35546,11 @@
       <c r="W574" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="575" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X574" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="575" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>620</v>
       </c>
@@ -34055,8 +35608,11 @@
       <c r="W575" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="576" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X575" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="576" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>621</v>
       </c>
@@ -34114,8 +35670,11 @@
       <c r="W576" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="577" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X576" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="577" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>622</v>
       </c>
@@ -34132,7 +35691,7 @@
         <v>587</v>
       </c>
       <c r="F577" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J577">
         <v>0.4</v>
@@ -34173,8 +35732,9 @@
       <c r="W577">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="578" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X577" s="1"/>
+    </row>
+    <row r="578" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>623</v>
       </c>
@@ -34191,7 +35751,7 @@
         <v>587</v>
       </c>
       <c r="F578" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J578">
         <v>0.5</v>
@@ -34232,8 +35792,9 @@
       <c r="W578" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="579" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X578" s="1"/>
+    </row>
+    <row r="579" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>624</v>
       </c>
@@ -34288,8 +35849,9 @@
       <c r="W579">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="580" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X579" s="1"/>
+    </row>
+    <row r="580" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>625</v>
       </c>
@@ -34344,8 +35906,9 @@
       <c r="W580">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="581" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X580" s="1"/>
+    </row>
+    <row r="581" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>626</v>
       </c>
@@ -34400,8 +35963,9 @@
       <c r="W581">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="582" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X581" s="1"/>
+    </row>
+    <row r="582" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>627</v>
       </c>
@@ -34456,8 +36020,11 @@
       <c r="W582">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="583" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X582" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="583" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>628</v>
       </c>
@@ -34512,8 +36079,11 @@
       <c r="W583">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="584" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X583" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="584" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>629</v>
       </c>
@@ -34568,8 +36138,11 @@
       <c r="W584">
         <v>3</v>
       </c>
-    </row>
-    <row r="585" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X584" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="585" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>630</v>
       </c>
@@ -34624,8 +36197,11 @@
       <c r="W585">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="586" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X585" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>631</v>
       </c>
@@ -34680,8 +36256,11 @@
       <c r="W586">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="587" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X586" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>632</v>
       </c>
@@ -34739,8 +36318,11 @@
       <c r="W587">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="588" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X587" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="588" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>633</v>
       </c>
@@ -34798,8 +36380,11 @@
       <c r="W588" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="589" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X588" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>635</v>
       </c>
@@ -34857,8 +36442,11 @@
       <c r="W589" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="590" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X589" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>637</v>
       </c>
@@ -34916,8 +36504,11 @@
       <c r="W590" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="591" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X590" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="591" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>638</v>
       </c>
@@ -34972,8 +36563,11 @@
       <c r="W591">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="592" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X591" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>639</v>
       </c>
@@ -35028,8 +36622,9 @@
       <c r="W592">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="593" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X592" s="1"/>
+    </row>
+    <row r="593" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>640</v>
       </c>
@@ -35084,8 +36679,9 @@
       <c r="W593">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="594" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X593" s="1"/>
+    </row>
+    <row r="594" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>641</v>
       </c>
@@ -35140,8 +36736,9 @@
       <c r="W594">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="595" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X594" s="1"/>
+    </row>
+    <row r="595" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>642</v>
       </c>
@@ -35196,8 +36793,9 @@
       <c r="W595">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="596" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X595" s="1"/>
+    </row>
+    <row r="596" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>643</v>
       </c>
@@ -35252,8 +36850,9 @@
       <c r="W596">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="597" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X596" s="1"/>
+    </row>
+    <row r="597" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>644</v>
       </c>
@@ -35270,7 +36869,7 @@
         <v>587</v>
       </c>
       <c r="F597" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="J597">
         <v>0.4</v>
@@ -35311,8 +36910,11 @@
       <c r="W597" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="598" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X597" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>645</v>
       </c>
@@ -35367,8 +36969,11 @@
       <c r="W598">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="599" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X598" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="599" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>646</v>
       </c>
@@ -35423,8 +37028,11 @@
       <c r="W599">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="600" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X599" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>647</v>
       </c>
@@ -35482,8 +37090,11 @@
       <c r="W600">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="601" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X600" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="601" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>648</v>
       </c>
@@ -35541,8 +37152,11 @@
       <c r="W601" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="602" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X601" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="602" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>649</v>
       </c>
@@ -35597,8 +37211,11 @@
       <c r="W602">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="603" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X602" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="603" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>650</v>
       </c>
@@ -35656,8 +37273,11 @@
       <c r="W603" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="604" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X603" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="604" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>652</v>
       </c>
@@ -35715,8 +37335,11 @@
       <c r="W604" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="605" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X604" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="605" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>653</v>
       </c>
@@ -35771,8 +37394,11 @@
       <c r="W605" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="606" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X605" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="606" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>654</v>
       </c>
@@ -35827,8 +37453,11 @@
       <c r="W606">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="607" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X606" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="607" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>655</v>
       </c>
@@ -35886,8 +37515,9 @@
       <c r="W607">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="608" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X607" s="1"/>
+    </row>
+    <row r="608" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>656</v>
       </c>
@@ -35942,8 +37572,9 @@
       <c r="W608">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="609" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X608" s="1"/>
+    </row>
+    <row r="609" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>657</v>
       </c>
@@ -36001,8 +37632,9 @@
       <c r="W609" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="610" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X609" s="1"/>
+    </row>
+    <row r="610" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>658</v>
       </c>
@@ -36057,8 +37689,9 @@
       <c r="W610">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="611" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X610" s="1"/>
+    </row>
+    <row r="611" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>659</v>
       </c>
@@ -36116,8 +37749,9 @@
       <c r="W611" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="612" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X611" s="1"/>
+    </row>
+    <row r="612" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>660</v>
       </c>
@@ -36175,8 +37809,11 @@
       <c r="W612" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="613" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X612" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>661</v>
       </c>
@@ -36231,8 +37868,11 @@
       <c r="W613">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="614" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X613" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>662</v>
       </c>
@@ -36290,8 +37930,11 @@
       <c r="W614">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="615" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X614" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>664</v>
       </c>
@@ -36346,8 +37989,11 @@
       <c r="W615">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="616" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X615" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="616" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>665</v>
       </c>
@@ -36402,8 +38048,11 @@
       <c r="W616">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="617" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X616" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="617" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>666</v>
       </c>
@@ -36458,8 +38107,11 @@
       <c r="W617">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="618" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X617" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="618" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>667</v>
       </c>
@@ -36514,8 +38166,11 @@
       <c r="W618">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="619" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X618" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>668</v>
       </c>
@@ -36573,8 +38228,11 @@
       <c r="W619">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="620" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X619" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="620" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>669</v>
       </c>
@@ -36632,8 +38290,11 @@
       <c r="W620" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="621" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X620" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="621" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>670</v>
       </c>
@@ -36691,8 +38352,11 @@
       <c r="W621">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="622" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X621" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>671</v>
       </c>
@@ -36747,8 +38411,9 @@
       <c r="W622">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="623" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X622" s="1"/>
+    </row>
+    <row r="623" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>672</v>
       </c>
@@ -36803,8 +38468,9 @@
       <c r="W623">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="624" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X623" s="1"/>
+    </row>
+    <row r="624" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>673</v>
       </c>
@@ -36859,8 +38525,9 @@
       <c r="W624">
         <v>6</v>
       </c>
-    </row>
-    <row r="625" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X624" s="1"/>
+    </row>
+    <row r="625" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>674</v>
       </c>
@@ -36915,8 +38582,9 @@
       <c r="W625">
         <v>6</v>
       </c>
-    </row>
-    <row r="626" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X625" s="1"/>
+    </row>
+    <row r="626" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>675</v>
       </c>
@@ -36974,8 +38642,9 @@
       <c r="W626">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="627" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X626" s="1"/>
+    </row>
+    <row r="627" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>676</v>
       </c>
@@ -37030,8 +38699,11 @@
       <c r="W627">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="628" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X627" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>677</v>
       </c>
@@ -37086,8 +38758,11 @@
       <c r="W628">
         <v>2</v>
       </c>
-    </row>
-    <row r="629" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X628" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="629" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>678</v>
       </c>
@@ -37142,8 +38817,11 @@
       <c r="W629">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="630" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X629" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="630" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>679</v>
       </c>
@@ -37198,8 +38876,11 @@
       <c r="W630">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="631" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X630" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>680</v>
       </c>
@@ -37255,6 +38936,9 @@
         <v>132</v>
       </c>
       <c r="W631" t="s">
+        <v>132</v>
+      </c>
+      <c r="X631" s="1" t="s">
         <v>132</v>
       </c>
     </row>

--- a/data/shoot_elongation/shoot_elongation.xlsx
+++ b/data/shoot_elongation/shoot_elongation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapph\Documents\ubc things\work\fuelinex\data\shoot_elongation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936B774B-B6D6-420F-BD8D-FB66645F15D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6D6099-6FF8-4F20-8279-89ACCDEA0726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="769">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2281,9 +2281,6 @@
     <t>doy 206: red paint peeled off</t>
   </si>
   <si>
-    <t>doy 206: red paint peeled off, still hanging on</t>
-  </si>
-  <si>
     <t>doy 199: probably dead</t>
   </si>
   <si>
@@ -2339,6 +2336,15 @@
   </si>
   <si>
     <t>doy 206: new shoot</t>
+  </si>
+  <si>
+    <t>doy 199: apical shoot broken; doy 220: bud died and broke off</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken doy220: tip broke again</t>
+  </si>
+  <si>
+    <t>doy 206: red paint peeled off, still hanging on doy220: red paint peeled off</t>
   </si>
 </sst>
 </file>
@@ -2830,9 +2836,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3100,18 +3105,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1260000</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1260360</xdr:colOff>
+      <xdr:row>561</xdr:row>
+      <xdr:rowOff>66000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA37AA3B-693C-9B6C-7550-A6D38FC22FB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1260000" y="1254720"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA37AA3B-693C-9B6C-7550-A6D38FC22FB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1251000" y="1246080"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-08-07T21:56:25.981"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 22655</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:X631" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:X631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
     <filterColumn colId="1">
       <filters>
-        <filter val="2"/>
-        <filter val="3"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="prunus"/>
+        <filter val="acer"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3464,22 +3565,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H372" sqref="H372"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X81" sqref="X81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
     <col min="7" max="12" width="11" customWidth="1"/>
-    <col min="13" max="17" width="9.796875" customWidth="1"/>
+    <col min="13" max="17" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3547,13 +3648,13 @@
         <v>744</v>
       </c>
       <c r="W1" t="s">
-        <v>756</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+        <v>755</v>
+      </c>
+      <c r="X1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3602,9 +3703,11 @@
       <c r="V2">
         <v>14.5</v>
       </c>
-      <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X2">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3653,9 +3756,11 @@
       <c r="V3">
         <v>12.3</v>
       </c>
-      <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3704,9 +3809,11 @@
       <c r="V4">
         <v>17.5</v>
       </c>
-      <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3755,9 +3862,11 @@
       <c r="V5">
         <v>11.3</v>
       </c>
-      <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3806,9 +3915,11 @@
       <c r="V6">
         <v>18.7</v>
       </c>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3861,7 +3972,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3914,7 +4025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3967,7 +4078,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -4020,7 +4131,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -4073,7 +4184,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4129,7 +4240,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4182,7 +4293,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4235,7 +4346,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4288,7 +4399,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4341,7 +4452,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4390,9 +4501,11 @@
       <c r="V17">
         <v>10.3</v>
       </c>
-      <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X17">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4441,9 +4554,11 @@
       <c r="V18">
         <v>14.6</v>
       </c>
-      <c r="X18" s="1"/>
-    </row>
-    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X18">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4492,9 +4607,11 @@
       <c r="V19">
         <v>14</v>
       </c>
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X19">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -4543,9 +4660,11 @@
       <c r="V20">
         <v>19.899999999999999</v>
       </c>
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X20">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4591,9 +4710,11 @@
       <c r="V21">
         <v>12.6</v>
       </c>
-      <c r="X21" s="1"/>
-    </row>
-    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X21">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4649,7 +4770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4702,7 +4823,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4758,7 +4879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4811,7 +4932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4864,7 +4985,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -4917,7 +5038,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4973,7 +5094,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -5026,7 +5147,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -5082,7 +5203,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -5135,7 +5256,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -5184,9 +5305,11 @@
       <c r="V32">
         <v>7.1</v>
       </c>
-      <c r="X32" s="1"/>
-    </row>
-    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -5235,9 +5358,11 @@
       <c r="V33">
         <v>7.9</v>
       </c>
-      <c r="X33" s="1"/>
-    </row>
-    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X33">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -5286,9 +5411,11 @@
       <c r="V34">
         <v>6.6</v>
       </c>
-      <c r="X34" s="1"/>
-    </row>
-    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X34">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -5337,9 +5464,11 @@
       <c r="V35">
         <v>16.8</v>
       </c>
-      <c r="X35" s="1"/>
-    </row>
-    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X35">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -5388,9 +5517,11 @@
       <c r="V36">
         <v>21.2</v>
       </c>
-      <c r="X36" s="1"/>
-    </row>
-    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X36">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -5446,7 +5577,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -5499,7 +5630,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -5552,7 +5683,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -5605,7 +5736,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -5658,7 +5789,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -5711,7 +5842,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -5764,7 +5895,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -5817,7 +5948,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -5870,7 +6001,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -5923,7 +6054,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -5972,9 +6103,11 @@
       <c r="V47">
         <v>8.4</v>
       </c>
-      <c r="X47" s="1"/>
-    </row>
-    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X47">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -6023,9 +6156,11 @@
       <c r="V48">
         <v>6.9</v>
       </c>
-      <c r="X48" s="1"/>
-    </row>
-    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X48">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -6074,9 +6209,11 @@
       <c r="V49">
         <v>8.1</v>
       </c>
-      <c r="X49" s="1"/>
-    </row>
-    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X49">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -6125,9 +6262,11 @@
       <c r="V50">
         <v>9.9</v>
       </c>
-      <c r="X50" s="1"/>
-    </row>
-    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -6176,9 +6315,11 @@
       <c r="V51">
         <v>16.100000000000001</v>
       </c>
-      <c r="X51" s="1"/>
-    </row>
-    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X51">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -6231,7 +6372,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -6284,7 +6425,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6340,7 +6481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -6393,7 +6534,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -6449,7 +6590,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -6502,7 +6643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6558,7 +6699,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -6611,7 +6752,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -6667,7 +6808,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -6720,7 +6861,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -6769,9 +6910,11 @@
       <c r="V62">
         <v>5.2</v>
       </c>
-      <c r="X62" s="1"/>
-    </row>
-    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X62">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -6820,9 +6963,11 @@
       <c r="V63">
         <v>3</v>
       </c>
-      <c r="X63" s="1"/>
-    </row>
-    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X63">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -6871,9 +7016,11 @@
       <c r="V64">
         <v>7.6</v>
       </c>
-      <c r="X64" s="1"/>
-    </row>
-    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -6922,9 +7069,11 @@
       <c r="V65">
         <v>3.5</v>
       </c>
-      <c r="X65" s="1"/>
-    </row>
-    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X65">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -6973,9 +7122,11 @@
       <c r="V66">
         <v>7.5</v>
       </c>
-      <c r="X66" s="1"/>
-    </row>
-    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X66">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -7028,7 +7179,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -7081,7 +7232,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -7134,7 +7285,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -7187,7 +7338,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -7240,7 +7391,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -7293,7 +7444,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -7346,7 +7497,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -7399,7 +7550,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -7452,7 +7603,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -7505,7 +7656,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -7554,9 +7705,11 @@
       <c r="V77">
         <v>5.0999999999999996</v>
       </c>
-      <c r="X77" s="1"/>
-    </row>
-    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X77">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -7605,9 +7758,11 @@
       <c r="V78">
         <v>8.6999999999999993</v>
       </c>
-      <c r="X78" s="1"/>
-    </row>
-    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -7659,9 +7814,11 @@
       <c r="V79">
         <v>5.5</v>
       </c>
-      <c r="X79" s="1"/>
-    </row>
-    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X79">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -7713,9 +7870,11 @@
       <c r="V80">
         <v>8</v>
       </c>
-      <c r="X80" s="1"/>
-    </row>
-    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X80">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -7764,9 +7923,11 @@
       <c r="V81">
         <v>5.2</v>
       </c>
-      <c r="X81" s="1"/>
-    </row>
-    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X81">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -7819,7 +7980,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -7872,7 +8033,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -7925,7 +8086,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -7978,7 +8139,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -8031,7 +8192,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -8084,7 +8245,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -8137,7 +8298,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -8190,7 +8351,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -8246,7 +8407,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -8299,7 +8460,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -8354,9 +8515,8 @@
       <c r="W92">
         <v>5.6</v>
       </c>
-      <c r="X92" s="1"/>
-    </row>
-    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -8411,9 +8571,8 @@
       <c r="W93">
         <v>7.3</v>
       </c>
-      <c r="X93" s="1"/>
-    </row>
-    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -8468,9 +8627,8 @@
       <c r="W94">
         <v>6.6</v>
       </c>
-      <c r="X94" s="1"/>
-    </row>
-    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -8528,9 +8686,8 @@
       <c r="W95">
         <v>6.7</v>
       </c>
-      <c r="X95" s="1"/>
-    </row>
-    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -8585,9 +8742,8 @@
       <c r="W96">
         <v>10.9</v>
       </c>
-      <c r="X96" s="1"/>
-    </row>
-    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -8646,7 +8802,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -8705,7 +8861,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -8764,7 +8920,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -8823,7 +8979,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -8882,7 +9038,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -8941,7 +9097,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -9000,7 +9156,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -9059,7 +9215,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -9118,7 +9274,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -9177,7 +9333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -9232,9 +9388,8 @@
       <c r="W107">
         <v>9.4</v>
       </c>
-      <c r="X107" s="1"/>
-    </row>
-    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -9289,9 +9444,8 @@
       <c r="W108">
         <v>7.7</v>
       </c>
-      <c r="X108" s="1"/>
-    </row>
-    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -9349,9 +9503,8 @@
       <c r="W109">
         <v>3.9</v>
       </c>
-      <c r="X109" s="1"/>
-    </row>
-    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -9406,9 +9559,8 @@
       <c r="W110">
         <v>8.6999999999999993</v>
       </c>
-      <c r="X110" s="1"/>
-    </row>
-    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -9463,9 +9615,8 @@
       <c r="W111">
         <v>22.4</v>
       </c>
-      <c r="X111" s="1"/>
-    </row>
-    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -9524,7 +9675,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -9586,7 +9737,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -9645,7 +9796,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -9704,7 +9855,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -9763,7 +9914,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -9822,7 +9973,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -9881,7 +10032,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -9940,7 +10091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -9999,7 +10150,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="121" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -10058,7 +10209,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -10116,9 +10267,8 @@
       <c r="W122">
         <v>9.6999999999999993</v>
       </c>
-      <c r="X122" s="1"/>
-    </row>
-    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -10173,9 +10323,8 @@
       <c r="W123">
         <v>7</v>
       </c>
-      <c r="X123" s="1"/>
-    </row>
-    <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -10230,9 +10379,8 @@
       <c r="W124">
         <v>6.1</v>
       </c>
-      <c r="X124" s="1"/>
-    </row>
-    <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -10287,9 +10435,8 @@
       <c r="W125">
         <v>20.2</v>
       </c>
-      <c r="X125" s="1"/>
-    </row>
-    <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -10344,9 +10491,8 @@
       <c r="W126">
         <v>5</v>
       </c>
-      <c r="X126" s="1"/>
-    </row>
-    <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -10405,7 +10551,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -10464,7 +10610,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -10523,7 +10669,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -10582,7 +10728,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -10641,7 +10787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -10700,7 +10846,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -10759,7 +10905,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -10818,7 +10964,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -10877,7 +11023,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -10939,7 +11085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -10994,9 +11140,8 @@
       <c r="W137">
         <v>11.7</v>
       </c>
-      <c r="X137" s="1"/>
-    </row>
-    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>158</v>
       </c>
@@ -11051,9 +11196,8 @@
       <c r="W138">
         <v>9</v>
       </c>
-      <c r="X138" s="1"/>
-    </row>
-    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -11108,9 +11252,8 @@
       <c r="W139">
         <v>9.3000000000000007</v>
       </c>
-      <c r="X139" s="1"/>
-    </row>
-    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -11165,9 +11308,8 @@
       <c r="W140">
         <v>5</v>
       </c>
-      <c r="X140" s="1"/>
-    </row>
-    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -11222,9 +11364,8 @@
       <c r="W141">
         <v>4</v>
       </c>
-      <c r="X141" s="1"/>
-    </row>
-    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -11283,7 +11424,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>163</v>
       </c>
@@ -11342,7 +11483,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -11401,7 +11542,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -11460,7 +11601,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -11519,7 +11660,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -11578,7 +11719,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -11637,7 +11778,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>169</v>
       </c>
@@ -11696,7 +11837,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -11755,7 +11896,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -11814,7 +11955,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -11869,9 +12010,8 @@
       <c r="W152">
         <v>8.8000000000000007</v>
       </c>
-      <c r="X152" s="1"/>
-    </row>
-    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -11926,9 +12066,8 @@
       <c r="W153">
         <v>4.5</v>
       </c>
-      <c r="X153" s="1"/>
-    </row>
-    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -11983,9 +12122,8 @@
       <c r="W154">
         <v>9.9</v>
       </c>
-      <c r="X154" s="1"/>
-    </row>
-    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>175</v>
       </c>
@@ -12040,9 +12178,8 @@
       <c r="W155">
         <v>4</v>
       </c>
-      <c r="X155" s="1"/>
-    </row>
-    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -12097,9 +12234,8 @@
       <c r="W156">
         <v>9.6999999999999993</v>
       </c>
-      <c r="X156" s="1"/>
-    </row>
-    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -12158,7 +12294,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -12217,7 +12353,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -12276,7 +12412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -12335,7 +12471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -12394,7 +12530,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -12452,11 +12588,11 @@
       <c r="W162">
         <v>8.5</v>
       </c>
-      <c r="X162" s="1">
+      <c r="X162">
         <v>16.7</v>
       </c>
     </row>
-    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -12515,7 +12651,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -12577,7 +12713,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -12636,7 +12772,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -12695,7 +12831,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -12754,7 +12890,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -12813,7 +12949,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -12872,7 +13008,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -12931,7 +13067,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -12990,7 +13126,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -13049,7 +13185,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -13108,7 +13244,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -13167,7 +13303,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -13226,7 +13362,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -13285,7 +13421,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="177" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -13344,7 +13480,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="178" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -13403,7 +13539,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="179" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -13462,7 +13598,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="180" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -13521,7 +13657,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="181" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -13580,7 +13716,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="182" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -13629,11 +13765,11 @@
       <c r="V182">
         <v>15</v>
       </c>
-      <c r="X182" s="1">
+      <c r="X182">
         <v>15.5</v>
       </c>
     </row>
-    <row r="183" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -13682,11 +13818,11 @@
       <c r="V183">
         <v>12</v>
       </c>
-      <c r="X183" s="1">
+      <c r="X183">
         <v>12.3</v>
       </c>
     </row>
-    <row r="184" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -13735,11 +13871,11 @@
       <c r="V184">
         <v>2.5</v>
       </c>
-      <c r="X184" s="1">
+      <c r="X184">
         <v>3.1</v>
       </c>
     </row>
-    <row r="185" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -13788,11 +13924,11 @@
       <c r="V185">
         <v>2.6</v>
       </c>
-      <c r="X185" s="1">
+      <c r="X185">
         <v>3.1</v>
       </c>
     </row>
-    <row r="186" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -13841,11 +13977,11 @@
       <c r="V186">
         <v>13</v>
       </c>
-      <c r="X186" s="1">
+      <c r="X186">
         <v>13.1</v>
       </c>
     </row>
-    <row r="187" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -13894,9 +14030,11 @@
       <c r="V187">
         <v>3</v>
       </c>
-      <c r="X187" s="1"/>
-    </row>
-    <row r="188" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -13945,9 +14083,11 @@
       <c r="V188">
         <v>8</v>
       </c>
-      <c r="X188" s="1"/>
-    </row>
-    <row r="189" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X188">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -13999,9 +14139,11 @@
       <c r="V189">
         <v>3</v>
       </c>
-      <c r="X189" s="1"/>
-    </row>
-    <row r="190" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X189">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>213</v>
       </c>
@@ -14050,9 +14192,11 @@
       <c r="V190">
         <v>6.5</v>
       </c>
-      <c r="X190" s="1"/>
-    </row>
-    <row r="191" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X190">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -14101,9 +14245,11 @@
       <c r="V191">
         <v>6.5</v>
       </c>
-      <c r="X191" s="1"/>
-    </row>
-    <row r="192" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -14152,11 +14298,11 @@
       <c r="V192">
         <v>9.8000000000000007</v>
       </c>
-      <c r="X192" s="1">
+      <c r="X192">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -14205,11 +14351,11 @@
       <c r="V193">
         <v>6.5</v>
       </c>
-      <c r="X193" s="1">
+      <c r="X193">
         <v>6.7</v>
       </c>
     </row>
-    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -14264,11 +14410,11 @@
       <c r="W194" t="s">
         <v>745</v>
       </c>
-      <c r="X194" s="1">
+      <c r="X194">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -14317,11 +14463,11 @@
       <c r="V195">
         <v>1.9</v>
       </c>
-      <c r="X195" s="1">
+      <c r="X195">
         <v>2.1</v>
       </c>
     </row>
-    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>219</v>
       </c>
@@ -14370,11 +14516,11 @@
       <c r="V196">
         <v>11.5</v>
       </c>
-      <c r="X196" s="1">
+      <c r="X196">
         <v>11.6</v>
       </c>
     </row>
-    <row r="197" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -14423,11 +14569,11 @@
       <c r="V197">
         <v>4</v>
       </c>
-      <c r="X197" s="1">
+      <c r="X197">
         <v>3.8</v>
       </c>
     </row>
-    <row r="198" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>221</v>
       </c>
@@ -14476,11 +14622,11 @@
       <c r="V198">
         <v>11.6</v>
       </c>
-      <c r="X198" s="1">
+      <c r="X198">
         <v>11.2</v>
       </c>
     </row>
-    <row r="199" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -14529,11 +14675,11 @@
       <c r="V199">
         <v>4.7</v>
       </c>
-      <c r="X199" s="1">
+      <c r="X199">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="200" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -14582,11 +14728,11 @@
       <c r="V200">
         <v>3.4</v>
       </c>
-      <c r="X200" s="1">
+      <c r="X200">
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -14635,11 +14781,11 @@
       <c r="V201">
         <v>5.6</v>
       </c>
-      <c r="X201" s="1">
+      <c r="X201">
         <v>5.2</v>
       </c>
     </row>
-    <row r="202" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -14688,9 +14834,11 @@
       <c r="V202">
         <v>13.8</v>
       </c>
-      <c r="X202" s="1"/>
-    </row>
-    <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X202">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -14739,9 +14887,11 @@
       <c r="V203">
         <v>10.9</v>
       </c>
-      <c r="X203" s="1"/>
-    </row>
-    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X203">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -14790,9 +14940,11 @@
       <c r="V204">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X204" s="1"/>
-    </row>
-    <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -14841,9 +14993,11 @@
       <c r="V205">
         <v>13.1</v>
       </c>
-      <c r="X205" s="1"/>
-    </row>
-    <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X205">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -14892,9 +15046,11 @@
       <c r="V206">
         <v>0.8</v>
       </c>
-      <c r="X206" s="1"/>
-    </row>
-    <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X206">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -14943,11 +15099,11 @@
       <c r="V207">
         <v>9.6</v>
       </c>
-      <c r="X207" s="1">
+      <c r="X207">
         <v>9.4</v>
       </c>
     </row>
-    <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -14996,11 +15152,11 @@
       <c r="V208">
         <v>8.9</v>
       </c>
-      <c r="X208" s="1">
+      <c r="X208">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -15049,11 +15205,11 @@
       <c r="V209">
         <v>7.9</v>
       </c>
-      <c r="X209" s="1">
+      <c r="X209">
         <v>8.1</v>
       </c>
     </row>
-    <row r="210" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -15102,11 +15258,11 @@
       <c r="V210">
         <v>4.4000000000000004</v>
       </c>
-      <c r="X210" s="1">
+      <c r="X210">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -15155,11 +15311,11 @@
       <c r="V211">
         <v>7.1</v>
       </c>
-      <c r="X211" s="1">
+      <c r="X211">
         <v>7.1</v>
       </c>
     </row>
-    <row r="212" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -15208,11 +15364,11 @@
       <c r="V212">
         <v>6.2</v>
       </c>
-      <c r="X212" s="1">
+      <c r="X212">
         <v>6.2</v>
       </c>
     </row>
-    <row r="213" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -15261,11 +15417,11 @@
       <c r="V213">
         <v>2.2999999999999998</v>
       </c>
-      <c r="X213" s="1">
+      <c r="X213">
         <v>2.5</v>
       </c>
     </row>
-    <row r="214" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -15314,11 +15470,11 @@
       <c r="V214">
         <v>3.8</v>
       </c>
-      <c r="X214" s="1">
+      <c r="X214">
         <v>3.5</v>
       </c>
     </row>
-    <row r="215" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -15367,11 +15523,11 @@
       <c r="V215">
         <v>3.7</v>
       </c>
-      <c r="X215" s="1">
+      <c r="X215">
         <v>2.8</v>
       </c>
     </row>
-    <row r="216" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -15420,11 +15576,11 @@
       <c r="V216">
         <v>12.2</v>
       </c>
-      <c r="X216" s="1">
+      <c r="X216">
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -15473,9 +15629,11 @@
       <c r="V217">
         <v>0.8</v>
       </c>
-      <c r="X217" s="1"/>
-    </row>
-    <row r="218" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X217">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -15524,9 +15682,11 @@
       <c r="V218">
         <v>6.2</v>
       </c>
-      <c r="X218" s="1"/>
-    </row>
-    <row r="219" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X218">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -15578,9 +15738,11 @@
       <c r="V219">
         <v>1.5</v>
       </c>
-      <c r="X219" s="1"/>
-    </row>
-    <row r="220" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -15629,9 +15791,11 @@
       <c r="V220">
         <v>10.9</v>
       </c>
-      <c r="X220" s="1"/>
-    </row>
-    <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X220">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>244</v>
       </c>
@@ -15680,9 +15844,11 @@
       <c r="V221">
         <v>7.8</v>
       </c>
-      <c r="X221" s="1"/>
-    </row>
-    <row r="222" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X221">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -15731,11 +15897,11 @@
       <c r="V222">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X222" s="1">
+      <c r="X222">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="223" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>246</v>
       </c>
@@ -15784,11 +15950,11 @@
       <c r="V223">
         <v>4</v>
       </c>
-      <c r="X223" s="1">
+      <c r="X223">
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -15837,11 +16003,11 @@
       <c r="V224">
         <v>4.0999999999999996</v>
       </c>
-      <c r="X224" s="1">
+      <c r="X224">
         <v>3.7</v>
       </c>
     </row>
-    <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>248</v>
       </c>
@@ -15890,11 +16056,11 @@
       <c r="V225">
         <v>5.4</v>
       </c>
-      <c r="X225" s="1">
+      <c r="X225">
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -15943,11 +16109,11 @@
       <c r="V226">
         <v>1.3</v>
       </c>
-      <c r="X226" s="1">
+      <c r="X226">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -15964,7 +16130,7 @@
         <v>204</v>
       </c>
       <c r="F227" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I227">
         <v>5.3</v>
@@ -15999,11 +16165,11 @@
       <c r="V227">
         <v>5.5</v>
       </c>
-      <c r="X227" s="1">
+      <c r="X227">
         <v>5.7</v>
       </c>
     </row>
-    <row r="228" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -16052,11 +16218,11 @@
       <c r="V228">
         <v>12.5</v>
       </c>
-      <c r="X228" s="1">
+      <c r="X228">
         <v>12.4</v>
       </c>
     </row>
-    <row r="229" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -16105,11 +16271,11 @@
       <c r="V229">
         <v>13</v>
       </c>
-      <c r="X229" s="1">
+      <c r="X229">
         <v>13.1</v>
       </c>
     </row>
-    <row r="230" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -16158,11 +16324,11 @@
       <c r="V230">
         <v>3.4</v>
       </c>
-      <c r="X230" s="1">
+      <c r="X230">
         <v>3.3</v>
       </c>
     </row>
-    <row r="231" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -16211,11 +16377,11 @@
       <c r="V231">
         <v>4.9000000000000004</v>
       </c>
-      <c r="X231" s="1">
+      <c r="X231">
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -16264,9 +16430,11 @@
       <c r="V232">
         <v>14.1</v>
       </c>
-      <c r="X232" s="1"/>
-    </row>
-    <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X232">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -16315,9 +16483,11 @@
       <c r="V233">
         <v>7</v>
       </c>
-      <c r="X233" s="1"/>
-    </row>
-    <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X233">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -16366,9 +16536,11 @@
       <c r="V234">
         <v>9.1</v>
       </c>
-      <c r="X234" s="1"/>
-    </row>
-    <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X234">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -16417,9 +16589,11 @@
       <c r="V235">
         <v>12.8</v>
       </c>
-      <c r="X235" s="1"/>
-    </row>
-    <row r="236" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X235">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -16436,7 +16610,7 @@
         <v>204</v>
       </c>
       <c r="F236" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I236">
         <v>12.9</v>
@@ -16471,9 +16645,11 @@
       <c r="V236">
         <v>17.100000000000001</v>
       </c>
-      <c r="X236" s="1"/>
-    </row>
-    <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X236">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>260</v>
       </c>
@@ -16525,11 +16701,11 @@
       <c r="V237">
         <v>1.9</v>
       </c>
-      <c r="X237" s="1">
+      <c r="X237">
         <v>1.2</v>
       </c>
     </row>
-    <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -16578,11 +16754,11 @@
       <c r="V238">
         <v>8.1</v>
       </c>
-      <c r="X238" s="1">
+      <c r="X238">
         <v>8.4</v>
       </c>
     </row>
-    <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -16631,11 +16807,11 @@
       <c r="V239">
         <v>7.7</v>
       </c>
-      <c r="X239" s="1">
+      <c r="X239">
         <v>7.7</v>
       </c>
     </row>
-    <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -16684,11 +16860,11 @@
       <c r="V240">
         <v>15.3</v>
       </c>
-      <c r="X240" s="1">
+      <c r="X240">
         <v>14.6</v>
       </c>
     </row>
-    <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -16737,11 +16913,11 @@
       <c r="V241">
         <v>8</v>
       </c>
-      <c r="X241" s="1">
+      <c r="X241">
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -16790,11 +16966,11 @@
       <c r="V242">
         <v>5.9</v>
       </c>
-      <c r="X242" s="1">
+      <c r="X242">
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -16843,11 +17019,11 @@
       <c r="V243">
         <v>6.6</v>
       </c>
-      <c r="X243" s="1">
+      <c r="X243">
         <v>6.6</v>
       </c>
     </row>
-    <row r="244" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -16896,11 +17072,11 @@
       <c r="V244">
         <v>5.3</v>
       </c>
-      <c r="X244" s="1">
+      <c r="X244">
         <v>5.4</v>
       </c>
     </row>
-    <row r="245" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>268</v>
       </c>
@@ -16917,7 +17093,7 @@
         <v>204</v>
       </c>
       <c r="F245" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I245">
         <v>1.3</v>
@@ -16952,11 +17128,11 @@
       <c r="V245" t="s">
         <v>132</v>
       </c>
-      <c r="X245" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X245" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -17005,11 +17181,11 @@
       <c r="V246">
         <v>17.899999999999999</v>
       </c>
-      <c r="X246" s="1">
+      <c r="X246">
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>270</v>
       </c>
@@ -17058,9 +17234,11 @@
       <c r="V247">
         <v>4.4000000000000004</v>
       </c>
-      <c r="X247" s="1"/>
-    </row>
-    <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -17109,9 +17287,11 @@
       <c r="V248">
         <v>3.5</v>
       </c>
-      <c r="X248" s="1"/>
-    </row>
-    <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X248">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>272</v>
       </c>
@@ -17160,9 +17340,11 @@
       <c r="V249">
         <v>2</v>
       </c>
-      <c r="X249" s="1"/>
-    </row>
-    <row r="250" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X249">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -17214,9 +17396,11 @@
       <c r="V250">
         <v>13.1</v>
       </c>
-      <c r="X250" s="1"/>
-    </row>
-    <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X250">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>274</v>
       </c>
@@ -17268,9 +17452,11 @@
       <c r="V251">
         <v>7.1</v>
       </c>
-      <c r="X251" s="1"/>
-    </row>
-    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X251">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -17319,11 +17505,11 @@
       <c r="V252">
         <v>4.9000000000000004</v>
       </c>
-      <c r="X252" s="1">
+      <c r="X252">
         <v>4.2</v>
       </c>
     </row>
-    <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>276</v>
       </c>
@@ -17372,11 +17558,11 @@
       <c r="V253">
         <v>8.4</v>
       </c>
-      <c r="X253" s="1">
+      <c r="X253">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -17425,11 +17611,11 @@
       <c r="V254">
         <v>15.5</v>
       </c>
-      <c r="X254" s="1">
+      <c r="X254">
         <v>15.5</v>
       </c>
     </row>
-    <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -17478,11 +17664,11 @@
       <c r="V255">
         <v>6.4</v>
       </c>
-      <c r="X255" s="1">
+      <c r="X255">
         <v>6.5</v>
       </c>
     </row>
-    <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -17531,11 +17717,11 @@
       <c r="V256">
         <v>10.7</v>
       </c>
-      <c r="X256" s="1">
+      <c r="X256">
         <v>11.1</v>
       </c>
     </row>
-    <row r="257" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>280</v>
       </c>
@@ -17584,11 +17770,11 @@
       <c r="V257">
         <v>20.5</v>
       </c>
-      <c r="X257" s="1">
+      <c r="X257">
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>281</v>
       </c>
@@ -17637,11 +17823,11 @@
       <c r="V258">
         <v>3.1</v>
       </c>
-      <c r="X258" s="1">
+      <c r="X258">
         <v>2.8</v>
       </c>
     </row>
-    <row r="259" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -17690,11 +17876,11 @@
       <c r="V259">
         <v>12</v>
       </c>
-      <c r="X259" s="1">
+      <c r="X259">
         <v>11.9</v>
       </c>
     </row>
-    <row r="260" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>283</v>
       </c>
@@ -17743,11 +17929,11 @@
       <c r="V260">
         <v>15.5</v>
       </c>
-      <c r="X260" s="1">
+      <c r="X260">
         <v>15.3</v>
       </c>
     </row>
-    <row r="261" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -17796,11 +17982,11 @@
       <c r="V261">
         <v>12.2</v>
       </c>
-      <c r="X261" s="1">
+      <c r="X261">
         <v>12.2</v>
       </c>
     </row>
-    <row r="262" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>285</v>
       </c>
@@ -17849,9 +18035,11 @@
       <c r="V262">
         <v>10.8</v>
       </c>
-      <c r="X262" s="1"/>
-    </row>
-    <row r="263" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X262">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -17900,9 +18088,11 @@
       <c r="V263">
         <v>1.9</v>
       </c>
-      <c r="X263" s="1"/>
-    </row>
-    <row r="264" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X263">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -17951,9 +18141,11 @@
       <c r="V264">
         <v>10.7</v>
       </c>
-      <c r="X264" s="1"/>
-    </row>
-    <row r="265" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X264">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -18002,9 +18194,11 @@
       <c r="V265">
         <v>9.6999999999999993</v>
       </c>
-      <c r="X265" s="1"/>
-    </row>
-    <row r="266" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X265">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -18053,9 +18247,11 @@
       <c r="V266">
         <v>15.1</v>
       </c>
-      <c r="X266" s="1"/>
-    </row>
-    <row r="267" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X266">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -18104,11 +18300,11 @@
       <c r="V267">
         <v>12.3</v>
       </c>
-      <c r="X267" s="1">
+      <c r="X267">
         <v>12.3</v>
       </c>
     </row>
-    <row r="268" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>291</v>
       </c>
@@ -18157,11 +18353,11 @@
       <c r="V268">
         <v>4.8</v>
       </c>
-      <c r="X268" s="1">
+      <c r="X268">
         <v>4.2</v>
       </c>
     </row>
-    <row r="269" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -18210,11 +18406,11 @@
       <c r="V269">
         <v>5.2</v>
       </c>
-      <c r="X269" s="1">
+      <c r="X269">
         <v>5.3</v>
       </c>
     </row>
-    <row r="270" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -18263,11 +18459,11 @@
       <c r="V270">
         <v>13.9</v>
       </c>
-      <c r="X270" s="1">
+      <c r="X270">
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -18316,11 +18512,11 @@
       <c r="V271">
         <v>5.5</v>
       </c>
-      <c r="X271" s="1">
+      <c r="X271">
         <v>5.2</v>
       </c>
     </row>
-    <row r="272" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -18378,9 +18574,11 @@
       <c r="W272">
         <v>13.1</v>
       </c>
-      <c r="X272" s="1"/>
-    </row>
-    <row r="273" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X272">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -18435,9 +18633,11 @@
       <c r="W273">
         <v>30.6</v>
       </c>
-      <c r="X273" s="1"/>
-    </row>
-    <row r="274" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X273">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>299</v>
       </c>
@@ -18454,7 +18654,7 @@
         <v>297</v>
       </c>
       <c r="F274" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I274">
         <v>1.1000000000000001</v>
@@ -18495,9 +18695,11 @@
       <c r="W274">
         <v>18.5</v>
       </c>
-      <c r="X274" s="1"/>
-    </row>
-    <row r="275" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X274">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -18555,9 +18757,11 @@
       <c r="W275">
         <v>7.2</v>
       </c>
-      <c r="X275" s="1"/>
-    </row>
-    <row r="276" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X275">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>301</v>
       </c>
@@ -18615,9 +18819,11 @@
       <c r="W276">
         <v>18.399999999999999</v>
       </c>
-      <c r="X276" s="1"/>
-    </row>
-    <row r="277" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X276">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -18672,9 +18878,11 @@
       <c r="W277">
         <v>16.100000000000001</v>
       </c>
-      <c r="X277" s="1"/>
-    </row>
-    <row r="278" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X277">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>303</v>
       </c>
@@ -18729,9 +18937,11 @@
       <c r="W278">
         <v>18.899999999999999</v>
       </c>
-      <c r="X278" s="1"/>
-    </row>
-    <row r="279" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X278">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -18789,9 +18999,11 @@
       <c r="W279" t="s">
         <v>132</v>
       </c>
-      <c r="X279" s="1"/>
-    </row>
-    <row r="280" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X279" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>305</v>
       </c>
@@ -18846,9 +19058,11 @@
       <c r="W280">
         <v>4.8</v>
       </c>
-      <c r="X280" s="1"/>
-    </row>
-    <row r="281" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X280">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>306</v>
       </c>
@@ -18903,9 +19117,11 @@
       <c r="W281">
         <v>26.3</v>
       </c>
-      <c r="X281" s="1"/>
-    </row>
-    <row r="282" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X281">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -18922,7 +19138,7 @@
         <v>297</v>
       </c>
       <c r="F282" t="s">
-        <v>741</v>
+        <v>766</v>
       </c>
       <c r="I282">
         <v>1.7</v>
@@ -18963,9 +19179,11 @@
       <c r="W282">
         <v>5.2</v>
       </c>
-      <c r="X282" s="1"/>
-    </row>
-    <row r="283" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X282" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>308</v>
       </c>
@@ -19023,9 +19241,11 @@
       <c r="W283" t="s">
         <v>132</v>
       </c>
-      <c r="X283" s="1"/>
-    </row>
-    <row r="284" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X283" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -19083,9 +19303,11 @@
       <c r="W284">
         <v>15.1</v>
       </c>
-      <c r="X284" s="1"/>
-    </row>
-    <row r="285" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X284">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -19143,9 +19365,11 @@
       <c r="W285">
         <v>11.6</v>
       </c>
-      <c r="X285" s="1"/>
-    </row>
-    <row r="286" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X285">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -19162,7 +19386,7 @@
         <v>297</v>
       </c>
       <c r="F286" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I286">
         <v>1.1000000000000001</v>
@@ -19203,9 +19427,11 @@
       <c r="W286">
         <v>33.6</v>
       </c>
-      <c r="X286" s="1"/>
-    </row>
-    <row r="287" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X286">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -19260,9 +19486,11 @@
       <c r="W287">
         <v>23.6</v>
       </c>
-      <c r="X287" s="1"/>
-    </row>
-    <row r="288" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X287">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -19317,9 +19545,11 @@
       <c r="W288">
         <v>14</v>
       </c>
-      <c r="X288" s="1"/>
-    </row>
-    <row r="289" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X288">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -19374,9 +19604,11 @@
       <c r="W289">
         <v>20.7</v>
       </c>
-      <c r="X289" s="1"/>
-    </row>
-    <row r="290" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X289">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -19431,9 +19663,11 @@
       <c r="W290">
         <v>17.2</v>
       </c>
-      <c r="X290" s="1"/>
-    </row>
-    <row r="291" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X290">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -19488,9 +19722,11 @@
       <c r="W291">
         <v>20.399999999999999</v>
       </c>
-      <c r="X291" s="1"/>
-    </row>
-    <row r="292" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X291">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -19545,9 +19781,11 @@
       <c r="W292">
         <v>24.2</v>
       </c>
-      <c r="X292" s="1"/>
-    </row>
-    <row r="293" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X292">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -19602,9 +19840,11 @@
       <c r="W293">
         <v>16.899999999999999</v>
       </c>
-      <c r="X293" s="1"/>
-    </row>
-    <row r="294" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X293">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -19659,9 +19899,11 @@
       <c r="W294">
         <v>18.5</v>
       </c>
-      <c r="X294" s="1"/>
-    </row>
-    <row r="295" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X294">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>320</v>
       </c>
@@ -19716,9 +19958,11 @@
       <c r="W295">
         <v>2.7</v>
       </c>
-      <c r="X295" s="1"/>
-    </row>
-    <row r="296" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X295">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -19773,9 +20017,11 @@
       <c r="W296">
         <v>24.3</v>
       </c>
-      <c r="X296" s="1"/>
-    </row>
-    <row r="297" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X296">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>322</v>
       </c>
@@ -19833,9 +20079,11 @@
       <c r="W297">
         <v>16.5</v>
       </c>
-      <c r="X297" s="1"/>
-    </row>
-    <row r="298" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X297">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="298" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -19890,9 +20138,11 @@
       <c r="W298">
         <v>17.5</v>
       </c>
-      <c r="X298" s="1"/>
-    </row>
-    <row r="299" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X298">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>324</v>
       </c>
@@ -19950,9 +20200,11 @@
       <c r="W299">
         <v>16.600000000000001</v>
       </c>
-      <c r="X299" s="1"/>
-    </row>
-    <row r="300" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X299">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -20007,9 +20259,11 @@
       <c r="W300">
         <v>19.5</v>
       </c>
-      <c r="X300" s="1"/>
-    </row>
-    <row r="301" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X300">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>326</v>
       </c>
@@ -20064,9 +20318,11 @@
       <c r="W301">
         <v>21.5</v>
       </c>
-      <c r="X301" s="1"/>
-    </row>
-    <row r="302" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X301">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -20121,9 +20377,11 @@
       <c r="W302">
         <v>2.5</v>
       </c>
-      <c r="X302" s="1"/>
-    </row>
-    <row r="303" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X302">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="303" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>328</v>
       </c>
@@ -20178,9 +20436,11 @@
       <c r="W303">
         <v>19.7</v>
       </c>
-      <c r="X303" s="1"/>
-    </row>
-    <row r="304" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X303">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -20235,9 +20495,11 @@
       <c r="W304">
         <v>5.3</v>
       </c>
-      <c r="X304" s="1"/>
-    </row>
-    <row r="305" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X304">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>330</v>
       </c>
@@ -20292,9 +20554,11 @@
       <c r="W305">
         <v>22.2</v>
       </c>
-      <c r="X305" s="1"/>
-    </row>
-    <row r="306" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X305">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -20349,9 +20613,11 @@
       <c r="W306">
         <v>11.1</v>
       </c>
-      <c r="X306" s="1"/>
-    </row>
-    <row r="307" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X306">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>332</v>
       </c>
@@ -20406,9 +20672,11 @@
       <c r="W307">
         <v>24.3</v>
       </c>
-      <c r="X307" s="1"/>
-    </row>
-    <row r="308" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X307">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="308" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -20463,9 +20731,11 @@
       <c r="W308">
         <v>13.9</v>
       </c>
-      <c r="X308" s="1"/>
-    </row>
-    <row r="309" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X308">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>334</v>
       </c>
@@ -20520,9 +20790,11 @@
       <c r="W309">
         <v>5.9</v>
       </c>
-      <c r="X309" s="1"/>
-    </row>
-    <row r="310" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X309">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -20580,9 +20852,11 @@
       <c r="W310">
         <v>18.8</v>
       </c>
-      <c r="X310" s="1"/>
-    </row>
-    <row r="311" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X310">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -20637,9 +20911,11 @@
       <c r="W311">
         <v>16.7</v>
       </c>
-      <c r="X311" s="1"/>
-    </row>
-    <row r="312" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X311">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -20694,9 +20970,11 @@
       <c r="W312">
         <v>12.4</v>
       </c>
-      <c r="X312" s="1"/>
-    </row>
-    <row r="313" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X312">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -20754,9 +21032,11 @@
       <c r="W313">
         <v>20.6</v>
       </c>
-      <c r="X313" s="1"/>
-    </row>
-    <row r="314" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X313">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="314" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -20814,9 +21094,11 @@
       <c r="W314">
         <v>18.5</v>
       </c>
-      <c r="X314" s="1"/>
-    </row>
-    <row r="315" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X314">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -20871,9 +21153,11 @@
       <c r="W315">
         <v>20.8</v>
       </c>
-      <c r="X315" s="1"/>
-    </row>
-    <row r="316" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X315">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -20928,9 +21212,11 @@
       <c r="W316">
         <v>23.4</v>
       </c>
-      <c r="X316" s="1"/>
-    </row>
-    <row r="317" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X316">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -20947,7 +21233,7 @@
         <v>297</v>
       </c>
       <c r="F317" t="s">
-        <v>730</v>
+        <v>767</v>
       </c>
       <c r="I317">
         <v>0.9</v>
@@ -20988,9 +21274,11 @@
       <c r="W317">
         <v>5.5</v>
       </c>
-      <c r="X317" s="1"/>
-    </row>
-    <row r="318" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -21045,9 +21333,11 @@
       <c r="W318">
         <v>10.1</v>
       </c>
-      <c r="X318" s="1"/>
-    </row>
-    <row r="319" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X318">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -21102,9 +21392,11 @@
       <c r="W319">
         <v>23.5</v>
       </c>
-      <c r="X319" s="1"/>
-    </row>
-    <row r="320" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X319">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -21162,9 +21454,11 @@
       <c r="W320">
         <v>24</v>
       </c>
-      <c r="X320" s="1"/>
-    </row>
-    <row r="321" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X320">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -21219,9 +21513,11 @@
       <c r="W321">
         <v>20.6</v>
       </c>
-      <c r="X321" s="1"/>
-    </row>
-    <row r="322" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X321">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="322" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -21279,9 +21575,11 @@
       <c r="W322" t="s">
         <v>132</v>
       </c>
-      <c r="X322" s="1"/>
-    </row>
-    <row r="323" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X322" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>349</v>
       </c>
@@ -21336,9 +21634,11 @@
       <c r="W323">
         <v>28.4</v>
       </c>
-      <c r="X323" s="1"/>
-    </row>
-    <row r="324" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X323">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -21396,9 +21696,11 @@
       <c r="W324" t="s">
         <v>132</v>
       </c>
-      <c r="X324" s="1"/>
-    </row>
-    <row r="325" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X324" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="325" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>352</v>
       </c>
@@ -21453,9 +21755,11 @@
       <c r="W325">
         <v>47.2</v>
       </c>
-      <c r="X325" s="1"/>
-    </row>
-    <row r="326" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X325">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -21510,9 +21814,11 @@
       <c r="W326">
         <v>11.5</v>
       </c>
-      <c r="X326" s="1"/>
-    </row>
-    <row r="327" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X326">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>354</v>
       </c>
@@ -21567,9 +21873,11 @@
       <c r="W327">
         <v>28.1</v>
       </c>
-      <c r="X327" s="1"/>
-    </row>
-    <row r="328" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X327">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>355</v>
       </c>
@@ -21624,9 +21932,11 @@
       <c r="W328">
         <v>29</v>
       </c>
-      <c r="X328" s="1"/>
-    </row>
-    <row r="329" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X328">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -21681,9 +21991,11 @@
       <c r="W329">
         <v>12.2</v>
       </c>
-      <c r="X329" s="1"/>
-    </row>
-    <row r="330" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X329">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>357</v>
       </c>
@@ -21738,9 +22050,11 @@
       <c r="W330">
         <v>15.2</v>
       </c>
-      <c r="X330" s="1"/>
-    </row>
-    <row r="331" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X330">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -21757,7 +22071,7 @@
         <v>297</v>
       </c>
       <c r="F331" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I331">
         <v>1.4</v>
@@ -21798,9 +22112,11 @@
       <c r="W331">
         <v>10.3</v>
       </c>
-      <c r="X331" s="1"/>
-    </row>
-    <row r="332" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X331" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="332" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>359</v>
       </c>
@@ -21817,7 +22133,7 @@
         <v>297</v>
       </c>
       <c r="F332" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I332">
         <v>1.5</v>
@@ -21858,9 +22174,11 @@
       <c r="W332">
         <v>37.5</v>
       </c>
-      <c r="X332" s="1"/>
-    </row>
-    <row r="333" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X332">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -21915,9 +22233,11 @@
       <c r="W333">
         <v>12.4</v>
       </c>
-      <c r="X333" s="1"/>
-    </row>
-    <row r="334" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X333">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>361</v>
       </c>
@@ -21975,9 +22295,11 @@
       <c r="W334">
         <v>13.8</v>
       </c>
-      <c r="X334" s="1"/>
-    </row>
-    <row r="335" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X334">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -22032,9 +22354,11 @@
       <c r="W335">
         <v>11.9</v>
       </c>
-      <c r="X335" s="1"/>
-    </row>
-    <row r="336" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X335">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>363</v>
       </c>
@@ -22051,7 +22375,7 @@
         <v>297</v>
       </c>
       <c r="F336" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I336">
         <v>1.7</v>
@@ -22092,9 +22416,11 @@
       <c r="W336">
         <v>17.399999999999999</v>
       </c>
-      <c r="X336" s="1"/>
-    </row>
-    <row r="337" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X336">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -22149,9 +22475,11 @@
       <c r="W337">
         <v>7.9</v>
       </c>
-      <c r="X337" s="1"/>
-    </row>
-    <row r="338" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X337">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>365</v>
       </c>
@@ -22206,9 +22534,11 @@
       <c r="W338">
         <v>2.7</v>
       </c>
-      <c r="X338" s="1"/>
-    </row>
-    <row r="339" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X338">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -22263,9 +22593,11 @@
       <c r="W339">
         <v>2</v>
       </c>
-      <c r="X339" s="1"/>
-    </row>
-    <row r="340" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>367</v>
       </c>
@@ -22320,9 +22652,11 @@
       <c r="W340">
         <v>35.5</v>
       </c>
-      <c r="X340" s="1"/>
-    </row>
-    <row r="341" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X340">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -22377,9 +22711,11 @@
       <c r="W341">
         <v>19</v>
       </c>
-      <c r="X341" s="1"/>
-    </row>
-    <row r="342" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X341">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="342" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>369</v>
       </c>
@@ -22434,9 +22770,11 @@
       <c r="W342">
         <v>2.2000000000000002</v>
       </c>
-      <c r="X342" s="1"/>
-    </row>
-    <row r="343" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X342">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -22494,9 +22832,11 @@
       <c r="W343">
         <v>34.200000000000003</v>
       </c>
-      <c r="X343" s="1"/>
-    </row>
-    <row r="344" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X343">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="344" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>371</v>
       </c>
@@ -22513,7 +22853,7 @@
         <v>297</v>
       </c>
       <c r="F344" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I344">
         <v>1.8</v>
@@ -22554,9 +22894,11 @@
       <c r="W344">
         <v>26.5</v>
       </c>
-      <c r="X344" s="1"/>
-    </row>
-    <row r="345" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X344">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -22611,9 +22953,11 @@
       <c r="W345">
         <v>13</v>
       </c>
-      <c r="X345" s="1"/>
-    </row>
-    <row r="346" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X345">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>373</v>
       </c>
@@ -22668,9 +23012,11 @@
       <c r="W346">
         <v>3.3</v>
       </c>
-      <c r="X346" s="1"/>
-    </row>
-    <row r="347" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X346">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -22725,9 +23071,11 @@
       <c r="W347">
         <v>33.5</v>
       </c>
-      <c r="X347" s="1"/>
-    </row>
-    <row r="348" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X347">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="348" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>375</v>
       </c>
@@ -22782,9 +23130,11 @@
       <c r="W348">
         <v>5</v>
       </c>
-      <c r="X348" s="1"/>
-    </row>
-    <row r="349" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X348">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -22839,9 +23189,11 @@
       <c r="W349">
         <v>5</v>
       </c>
-      <c r="X349" s="1"/>
-    </row>
-    <row r="350" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X349">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="350" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>377</v>
       </c>
@@ -22858,7 +23210,7 @@
         <v>297</v>
       </c>
       <c r="F350" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I350">
         <v>1.3</v>
@@ -22899,9 +23251,11 @@
       <c r="W350">
         <v>12</v>
       </c>
-      <c r="X350" s="1"/>
-    </row>
-    <row r="351" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X350">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>378</v>
       </c>
@@ -22956,9 +23310,11 @@
       <c r="W351">
         <v>33.1</v>
       </c>
-      <c r="X351" s="1"/>
-    </row>
-    <row r="352" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X351">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="352" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -23016,9 +23372,11 @@
       <c r="W352">
         <v>3</v>
       </c>
-      <c r="X352" s="1"/>
-    </row>
-    <row r="353" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>380</v>
       </c>
@@ -23073,9 +23431,11 @@
       <c r="W353">
         <v>24.1</v>
       </c>
-      <c r="X353" s="1"/>
-    </row>
-    <row r="354" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X353">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -23130,9 +23490,11 @@
       <c r="W354">
         <v>2.6</v>
       </c>
-      <c r="X354" s="1"/>
-    </row>
-    <row r="355" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X354">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>382</v>
       </c>
@@ -23190,9 +23552,11 @@
       <c r="W355" t="s">
         <v>132</v>
       </c>
-      <c r="X355" s="1"/>
-    </row>
-    <row r="356" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X355" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="356" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -23247,9 +23611,11 @@
       <c r="W356">
         <v>27.4</v>
       </c>
-      <c r="X356" s="1"/>
-    </row>
-    <row r="357" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X356">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>384</v>
       </c>
@@ -23307,9 +23673,11 @@
       <c r="W357">
         <v>7.6</v>
       </c>
-      <c r="X357" s="1"/>
-    </row>
-    <row r="358" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X357">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -23364,9 +23732,11 @@
       <c r="W358">
         <v>13</v>
       </c>
-      <c r="X358" s="1"/>
-    </row>
-    <row r="359" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X358">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>386</v>
       </c>
@@ -23421,9 +23791,11 @@
       <c r="W359">
         <v>16</v>
       </c>
-      <c r="X359" s="1"/>
-    </row>
-    <row r="360" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X359">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -23478,9 +23850,11 @@
       <c r="W360">
         <v>27.2</v>
       </c>
-      <c r="X360" s="1"/>
-    </row>
-    <row r="361" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X360">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="361" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>388</v>
       </c>
@@ -23535,9 +23909,11 @@
       <c r="W361">
         <v>21.4</v>
       </c>
-      <c r="X361" s="1"/>
-    </row>
-    <row r="362" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X361">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -23586,9 +23962,8 @@
       <c r="V362">
         <v>2.7</v>
       </c>
-      <c r="X362" s="1"/>
-    </row>
-    <row r="363" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -23637,9 +24012,8 @@
       <c r="V363">
         <v>2.6</v>
       </c>
-      <c r="X363" s="1"/>
-    </row>
-    <row r="364" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -23691,9 +24065,8 @@
       <c r="V364">
         <v>0.8</v>
       </c>
-      <c r="X364" s="1"/>
-    </row>
-    <row r="365" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="365" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -23742,9 +24115,8 @@
       <c r="V365">
         <v>2.2000000000000002</v>
       </c>
-      <c r="X365" s="1"/>
-    </row>
-    <row r="366" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="366" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -23793,9 +24165,8 @@
       <c r="V366">
         <v>1.5</v>
       </c>
-      <c r="X366" s="1"/>
-    </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="367" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -23848,7 +24219,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -23904,7 +24275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -23960,7 +24331,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -24013,7 +24384,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -24066,7 +24437,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -24119,7 +24490,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -24172,7 +24543,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -24225,7 +24596,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -24278,7 +24649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -24334,7 +24705,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="377" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -24383,9 +24754,8 @@
       <c r="V377">
         <v>1</v>
       </c>
-      <c r="X377" s="1"/>
-    </row>
-    <row r="378" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="378" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -24434,9 +24804,8 @@
       <c r="V378">
         <v>1.2</v>
       </c>
-      <c r="X378" s="1"/>
-    </row>
-    <row r="379" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="379" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -24485,9 +24854,8 @@
       <c r="V379">
         <v>1</v>
       </c>
-      <c r="X379" s="1"/>
-    </row>
-    <row r="380" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="380" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -24539,9 +24907,8 @@
       <c r="V380" t="s">
         <v>132</v>
       </c>
-      <c r="X380" s="1"/>
-    </row>
-    <row r="381" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="381" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -24593,9 +24960,8 @@
       <c r="V381">
         <v>0.7</v>
       </c>
-      <c r="X381" s="1"/>
-    </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="382" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -24648,7 +25014,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>415</v>
       </c>
@@ -24701,7 +25067,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -24754,7 +25120,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>417</v>
       </c>
@@ -24807,7 +25173,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -24860,7 +25226,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>419</v>
       </c>
@@ -24916,7 +25282,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -24969,7 +25335,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>422</v>
       </c>
@@ -25022,7 +25388,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -25075,7 +25441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>424</v>
       </c>
@@ -25128,7 +25494,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="392" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -25180,9 +25546,8 @@
       <c r="V392" t="s">
         <v>132</v>
       </c>
-      <c r="X392" s="1"/>
-    </row>
-    <row r="393" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="393" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -25231,9 +25596,8 @@
       <c r="V393">
         <v>0.8</v>
       </c>
-      <c r="X393" s="1"/>
-    </row>
-    <row r="394" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="394" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -25285,9 +25649,8 @@
       <c r="V394">
         <v>0.9</v>
       </c>
-      <c r="X394" s="1"/>
-    </row>
-    <row r="395" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="395" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -25336,9 +25699,8 @@
       <c r="V395">
         <v>1</v>
       </c>
-      <c r="X395" s="1"/>
-    </row>
-    <row r="396" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="396" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -25387,9 +25749,8 @@
       <c r="V396">
         <v>1.4</v>
       </c>
-      <c r="X396" s="1"/>
-    </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="397" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -25442,7 +25803,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -25495,7 +25856,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -25551,7 +25912,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>434</v>
       </c>
@@ -25604,7 +25965,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -25657,7 +26018,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>436</v>
       </c>
@@ -25716,7 +26077,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -25772,7 +26133,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>438</v>
       </c>
@@ -25828,7 +26189,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>439</v>
       </c>
@@ -25881,7 +26242,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -25934,7 +26295,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="407" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>441</v>
       </c>
@@ -25983,9 +26344,8 @@
       <c r="V407">
         <v>0.8</v>
       </c>
-      <c r="X407" s="1"/>
-    </row>
-    <row r="408" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="408" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -26034,9 +26394,8 @@
       <c r="V408">
         <v>1.5</v>
       </c>
-      <c r="X408" s="1"/>
-    </row>
-    <row r="409" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="409" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>443</v>
       </c>
@@ -26085,9 +26444,8 @@
       <c r="V409">
         <v>3</v>
       </c>
-      <c r="X409" s="1"/>
-    </row>
-    <row r="410" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="410" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -26136,9 +26494,8 @@
       <c r="V410">
         <v>3.2</v>
       </c>
-      <c r="X410" s="1"/>
-    </row>
-    <row r="411" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="411" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>445</v>
       </c>
@@ -26187,9 +26544,8 @@
       <c r="V411">
         <v>2.7</v>
       </c>
-      <c r="X411" s="1"/>
-    </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="412" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -26242,7 +26598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>447</v>
       </c>
@@ -26295,7 +26651,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -26348,7 +26704,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>449</v>
       </c>
@@ -26401,7 +26757,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -26457,7 +26813,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>451</v>
       </c>
@@ -26513,7 +26869,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -26566,7 +26922,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>453</v>
       </c>
@@ -26619,7 +26975,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -26672,7 +27028,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -26728,7 +27084,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="422" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>457</v>
       </c>
@@ -26777,9 +27133,8 @@
       <c r="V422">
         <v>2.2999999999999998</v>
       </c>
-      <c r="X422" s="1"/>
-    </row>
-    <row r="423" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="423" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>458</v>
       </c>
@@ -26831,9 +27186,8 @@
       <c r="V423" t="s">
         <v>132</v>
       </c>
-      <c r="X423" s="1"/>
-    </row>
-    <row r="424" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="424" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>460</v>
       </c>
@@ -26882,9 +27236,8 @@
       <c r="V424">
         <v>7.8</v>
       </c>
-      <c r="X424" s="1"/>
-    </row>
-    <row r="425" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="425" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>461</v>
       </c>
@@ -26933,9 +27286,8 @@
       <c r="V425">
         <v>1.3</v>
       </c>
-      <c r="X425" s="1"/>
-    </row>
-    <row r="426" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="426" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>462</v>
       </c>
@@ -26987,9 +27339,8 @@
       <c r="V426" t="s">
         <v>132</v>
       </c>
-      <c r="X426" s="1"/>
-    </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="427" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>463</v>
       </c>
@@ -27042,7 +27393,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>464</v>
       </c>
@@ -27095,7 +27446,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>465</v>
       </c>
@@ -27148,7 +27499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>467</v>
       </c>
@@ -27201,7 +27552,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>468</v>
       </c>
@@ -27257,7 +27608,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>469</v>
       </c>
@@ -27310,7 +27661,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>470</v>
       </c>
@@ -27363,7 +27714,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>471</v>
       </c>
@@ -27416,7 +27767,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="435" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>472</v>
       </c>
@@ -27469,7 +27820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>473</v>
       </c>
@@ -27522,7 +27873,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="437" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>474</v>
       </c>
@@ -27571,9 +27922,8 @@
       <c r="V437">
         <v>2.7</v>
       </c>
-      <c r="X437" s="1"/>
-    </row>
-    <row r="438" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="438" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>475</v>
       </c>
@@ -27622,9 +27972,8 @@
       <c r="V438">
         <v>1.2</v>
       </c>
-      <c r="X438" s="1"/>
-    </row>
-    <row r="439" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="439" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>476</v>
       </c>
@@ -27673,9 +28022,8 @@
       <c r="V439">
         <v>3.4</v>
       </c>
-      <c r="X439" s="1"/>
-    </row>
-    <row r="440" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="440" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>477</v>
       </c>
@@ -27724,9 +28072,8 @@
       <c r="V440">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X440" s="1"/>
-    </row>
-    <row r="441" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="441" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>478</v>
       </c>
@@ -27775,9 +28122,8 @@
       <c r="V441">
         <v>3.4</v>
       </c>
-      <c r="X441" s="1"/>
-    </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="442" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>479</v>
       </c>
@@ -27833,7 +28179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="443" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>481</v>
       </c>
@@ -27886,7 +28232,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>482</v>
       </c>
@@ -27939,7 +28285,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="445" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>483</v>
       </c>
@@ -27992,7 +28338,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="446" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>484</v>
       </c>
@@ -28045,7 +28391,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="447" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>485</v>
       </c>
@@ -28098,7 +28444,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>486</v>
       </c>
@@ -28151,7 +28497,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>487</v>
       </c>
@@ -28204,7 +28550,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>488</v>
       </c>
@@ -28257,7 +28603,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>489</v>
       </c>
@@ -28313,7 +28659,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="452" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>490</v>
       </c>
@@ -28368,9 +28714,8 @@
       <c r="W452">
         <v>5.0999999999999996</v>
       </c>
-      <c r="X452" s="1"/>
-    </row>
-    <row r="453" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="453" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>493</v>
       </c>
@@ -28425,9 +28770,8 @@
       <c r="W453">
         <v>2.5</v>
       </c>
-      <c r="X453" s="1"/>
-    </row>
-    <row r="454" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="454" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>494</v>
       </c>
@@ -28482,9 +28826,8 @@
       <c r="W454">
         <v>1.4</v>
       </c>
-      <c r="X454" s="1"/>
-    </row>
-    <row r="455" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="455" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>495</v>
       </c>
@@ -28539,9 +28882,8 @@
       <c r="W455">
         <v>12.7</v>
       </c>
-      <c r="X455" s="1"/>
-    </row>
-    <row r="456" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="456" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>496</v>
       </c>
@@ -28596,9 +28938,8 @@
       <c r="W456">
         <v>3.6</v>
       </c>
-      <c r="X456" s="1"/>
-    </row>
-    <row r="457" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="457" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>497</v>
       </c>
@@ -28615,7 +28956,7 @@
         <v>492</v>
       </c>
       <c r="F457" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J457">
         <v>1.2</v>
@@ -28660,7 +29001,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="458" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>498</v>
       </c>
@@ -28719,7 +29060,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="459" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>499</v>
       </c>
@@ -28778,7 +29119,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="460" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>500</v>
       </c>
@@ -28837,7 +29178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>501</v>
       </c>
@@ -28896,7 +29237,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="462" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>502</v>
       </c>
@@ -28955,7 +29296,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="463" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>503</v>
       </c>
@@ -29014,7 +29355,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="464" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>504</v>
       </c>
@@ -29073,7 +29414,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="465" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>505</v>
       </c>
@@ -29132,7 +29473,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="466" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>506</v>
       </c>
@@ -29191,7 +29532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>507</v>
       </c>
@@ -29246,9 +29587,8 @@
       <c r="W467">
         <v>3.3</v>
       </c>
-      <c r="X467" s="1"/>
-    </row>
-    <row r="468" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="468" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>508</v>
       </c>
@@ -29303,9 +29643,8 @@
       <c r="W468">
         <v>4.8</v>
       </c>
-      <c r="X468" s="1"/>
-    </row>
-    <row r="469" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="469" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>509</v>
       </c>
@@ -29360,9 +29699,8 @@
       <c r="W469">
         <v>2.5</v>
       </c>
-      <c r="X469" s="1"/>
-    </row>
-    <row r="470" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="470" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>510</v>
       </c>
@@ -29417,9 +29755,8 @@
       <c r="W470">
         <v>2.1</v>
       </c>
-      <c r="X470" s="1"/>
-    </row>
-    <row r="471" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="471" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>511</v>
       </c>
@@ -29474,9 +29811,8 @@
       <c r="W471">
         <v>2.9</v>
       </c>
-      <c r="X471" s="1"/>
-    </row>
-    <row r="472" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="472" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>512</v>
       </c>
@@ -29535,7 +29871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>513</v>
       </c>
@@ -29594,7 +29930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>514</v>
       </c>
@@ -29656,7 +29992,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="475" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>516</v>
       </c>
@@ -29715,7 +30051,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="476" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>517</v>
       </c>
@@ -29774,7 +30110,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="477" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>518</v>
       </c>
@@ -29833,7 +30169,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="478" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>519</v>
       </c>
@@ -29892,7 +30228,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="479" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>520</v>
       </c>
@@ -29951,7 +30287,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="480" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>521</v>
       </c>
@@ -30010,7 +30346,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="481" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>522</v>
       </c>
@@ -30069,7 +30405,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="482" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>523</v>
       </c>
@@ -30124,9 +30460,8 @@
       <c r="W482">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X482" s="1"/>
-    </row>
-    <row r="483" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="483" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>524</v>
       </c>
@@ -30181,9 +30516,8 @@
       <c r="W483">
         <v>17.399999999999999</v>
       </c>
-      <c r="X483" s="1"/>
-    </row>
-    <row r="484" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="484" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>525</v>
       </c>
@@ -30238,9 +30572,8 @@
       <c r="W484">
         <v>4.4000000000000004</v>
       </c>
-      <c r="X484" s="1"/>
-    </row>
-    <row r="485" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="485" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>526</v>
       </c>
@@ -30298,9 +30631,8 @@
       <c r="W485">
         <v>14.8</v>
       </c>
-      <c r="X485" s="1"/>
-    </row>
-    <row r="486" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="486" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>527</v>
       </c>
@@ -30355,9 +30687,8 @@
       <c r="W486">
         <v>0.9</v>
       </c>
-      <c r="X486" s="1"/>
-    </row>
-    <row r="487" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="487" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>528</v>
       </c>
@@ -30374,7 +30705,7 @@
         <v>492</v>
       </c>
       <c r="F487" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J487">
         <v>1.8</v>
@@ -30419,7 +30750,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="488" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>529</v>
       </c>
@@ -30478,7 +30809,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="489" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>530</v>
       </c>
@@ -30537,7 +30868,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="490" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>531</v>
       </c>
@@ -30596,7 +30927,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="491" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>532</v>
       </c>
@@ -30655,7 +30986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>533</v>
       </c>
@@ -30714,7 +31045,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="493" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>534</v>
       </c>
@@ -30773,7 +31104,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="494" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>535</v>
       </c>
@@ -30832,7 +31163,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="495" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>536</v>
       </c>
@@ -30894,7 +31225,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>538</v>
       </c>
@@ -30953,7 +31284,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="497" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>539</v>
       </c>
@@ -31008,9 +31339,8 @@
       <c r="W497">
         <v>2</v>
       </c>
-      <c r="X497" s="1"/>
-    </row>
-    <row r="498" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="498" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>540</v>
       </c>
@@ -31065,9 +31395,8 @@
       <c r="W498">
         <v>4.9000000000000004</v>
       </c>
-      <c r="X498" s="1"/>
-    </row>
-    <row r="499" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="499" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>541</v>
       </c>
@@ -31122,9 +31451,8 @@
       <c r="W499">
         <v>4.0999999999999996</v>
       </c>
-      <c r="X499" s="1"/>
-    </row>
-    <row r="500" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="500" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>542</v>
       </c>
@@ -31179,9 +31507,8 @@
       <c r="W500">
         <v>2.1</v>
       </c>
-      <c r="X500" s="1"/>
-    </row>
-    <row r="501" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="501" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>543</v>
       </c>
@@ -31236,9 +31563,8 @@
       <c r="W501">
         <v>5.9</v>
       </c>
-      <c r="X501" s="1"/>
-    </row>
-    <row r="502" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="502" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>544</v>
       </c>
@@ -31297,7 +31623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>545</v>
       </c>
@@ -31356,7 +31682,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="504" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>546</v>
       </c>
@@ -31415,7 +31741,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="505" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>547</v>
       </c>
@@ -31474,7 +31800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>548</v>
       </c>
@@ -31533,7 +31859,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="507" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>549</v>
       </c>
@@ -31592,7 +31918,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="508" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>550</v>
       </c>
@@ -31651,7 +31977,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="509" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>551</v>
       </c>
@@ -31710,7 +32036,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="510" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>552</v>
       </c>
@@ -31769,7 +32095,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="511" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>553</v>
       </c>
@@ -31828,7 +32154,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="512" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>554</v>
       </c>
@@ -31883,9 +32209,8 @@
       <c r="W512">
         <v>2.7</v>
       </c>
-      <c r="X512" s="1"/>
-    </row>
-    <row r="513" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="513" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>555</v>
       </c>
@@ -31940,9 +32265,8 @@
       <c r="W513">
         <v>14</v>
       </c>
-      <c r="X513" s="1"/>
-    </row>
-    <row r="514" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="514" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>556</v>
       </c>
@@ -31997,9 +32321,8 @@
       <c r="W514">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X514" s="1"/>
-    </row>
-    <row r="515" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="515" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>557</v>
       </c>
@@ -32054,9 +32377,8 @@
       <c r="W515">
         <v>17.2</v>
       </c>
-      <c r="X515" s="1"/>
-    </row>
-    <row r="516" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="516" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>558</v>
       </c>
@@ -32111,9 +32433,8 @@
       <c r="W516">
         <v>12.2</v>
       </c>
-      <c r="X516" s="1"/>
-    </row>
-    <row r="517" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="517" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>559</v>
       </c>
@@ -32175,7 +32496,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>560</v>
       </c>
@@ -32237,7 +32558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>561</v>
       </c>
@@ -32296,7 +32617,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="520" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>562</v>
       </c>
@@ -32355,7 +32676,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="521" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>563</v>
       </c>
@@ -32414,7 +32735,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="522" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>564</v>
       </c>
@@ -32473,7 +32794,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="523" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>565</v>
       </c>
@@ -32532,7 +32853,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="524" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>566</v>
       </c>
@@ -32591,7 +32912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>567</v>
       </c>
@@ -32650,7 +32971,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="526" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>568</v>
       </c>
@@ -32709,7 +33030,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="527" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>569</v>
       </c>
@@ -32764,9 +33085,8 @@
       <c r="W527">
         <v>7.1</v>
       </c>
-      <c r="X527" s="1"/>
-    </row>
-    <row r="528" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="528" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>570</v>
       </c>
@@ -32821,9 +33141,8 @@
       <c r="W528">
         <v>5.3</v>
       </c>
-      <c r="X528" s="1"/>
-    </row>
-    <row r="529" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="529" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>571</v>
       </c>
@@ -32878,9 +33197,8 @@
       <c r="W529">
         <v>3.4</v>
       </c>
-      <c r="X529" s="1"/>
-    </row>
-    <row r="530" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="530" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>572</v>
       </c>
@@ -32935,9 +33253,8 @@
       <c r="W530">
         <v>1.5</v>
       </c>
-      <c r="X530" s="1"/>
-    </row>
-    <row r="531" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="531" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>573</v>
       </c>
@@ -32992,9 +33309,8 @@
       <c r="W531">
         <v>3.7</v>
       </c>
-      <c r="X531" s="1"/>
-    </row>
-    <row r="532" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="532" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>574</v>
       </c>
@@ -33056,7 +33372,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="533" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>576</v>
       </c>
@@ -33115,7 +33431,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="534" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>577</v>
       </c>
@@ -33174,7 +33490,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="535" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>578</v>
       </c>
@@ -33233,7 +33549,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="536" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>579</v>
       </c>
@@ -33292,7 +33608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>580</v>
       </c>
@@ -33351,7 +33667,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="538" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>581</v>
       </c>
@@ -33410,7 +33726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="539" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>582</v>
       </c>
@@ -33469,7 +33785,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="540" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>583</v>
       </c>
@@ -33528,7 +33844,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="541" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>584</v>
       </c>
@@ -33587,7 +33903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="542" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>585</v>
       </c>
@@ -33645,11 +33961,11 @@
       <c r="W542" t="s">
         <v>132</v>
       </c>
-      <c r="X542" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="543" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X542" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="543" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>588</v>
       </c>
@@ -33704,11 +34020,11 @@
       <c r="W543">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X543" s="1">
+      <c r="X543">
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>589</v>
       </c>
@@ -33766,11 +34082,11 @@
       <c r="W544" t="s">
         <v>132</v>
       </c>
-      <c r="X544" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="545" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X544" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="545" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>590</v>
       </c>
@@ -33825,11 +34141,11 @@
       <c r="W545">
         <v>1</v>
       </c>
-      <c r="X545" s="1">
+      <c r="X545">
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>591</v>
       </c>
@@ -33887,11 +34203,11 @@
       <c r="W546" t="s">
         <v>132</v>
       </c>
-      <c r="X546" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="547" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X546" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="547" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>592</v>
       </c>
@@ -33946,9 +34262,11 @@
       <c r="W547">
         <v>3.7</v>
       </c>
-      <c r="X547" s="1"/>
-    </row>
-    <row r="548" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X547">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="548" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>593</v>
       </c>
@@ -33965,7 +34283,7 @@
         <v>587</v>
       </c>
       <c r="F548" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J548">
         <v>0.5</v>
@@ -34006,9 +34324,11 @@
       <c r="W548">
         <v>4</v>
       </c>
-      <c r="X548" s="1"/>
-    </row>
-    <row r="549" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X548">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="549" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>594</v>
       </c>
@@ -34063,9 +34383,11 @@
       <c r="W549">
         <v>1.3</v>
       </c>
-      <c r="X549" s="1"/>
-    </row>
-    <row r="550" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>595</v>
       </c>
@@ -34120,9 +34442,11 @@
       <c r="W550">
         <v>0.7</v>
       </c>
-      <c r="X550" s="1"/>
-    </row>
-    <row r="551" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X550">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>596</v>
       </c>
@@ -34180,9 +34504,11 @@
       <c r="W551">
         <v>1.8</v>
       </c>
-      <c r="X551" s="1"/>
-    </row>
-    <row r="552" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X551">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>597</v>
       </c>
@@ -34240,11 +34566,11 @@
       <c r="W552" t="s">
         <v>132</v>
       </c>
-      <c r="X552" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="553" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X552" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="553" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>598</v>
       </c>
@@ -34299,11 +34625,11 @@
       <c r="W553">
         <v>0.5</v>
       </c>
-      <c r="X553" s="1">
+      <c r="X553">
         <v>1.4</v>
       </c>
     </row>
-    <row r="554" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>599</v>
       </c>
@@ -34320,7 +34646,7 @@
         <v>587</v>
       </c>
       <c r="F554" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J554">
         <v>0.6</v>
@@ -34361,11 +34687,11 @@
       <c r="W554">
         <v>0.5</v>
       </c>
-      <c r="X554" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="555" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X554" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="555" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>600</v>
       </c>
@@ -34420,11 +34746,11 @@
       <c r="W555">
         <v>0.8</v>
       </c>
-      <c r="X555" s="1">
+      <c r="X555">
         <v>1.2</v>
       </c>
     </row>
-    <row r="556" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>601</v>
       </c>
@@ -34479,11 +34805,11 @@
       <c r="W556">
         <v>3</v>
       </c>
-      <c r="X556" s="1">
+      <c r="X556">
         <v>4.3</v>
       </c>
     </row>
-    <row r="557" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>602</v>
       </c>
@@ -34541,11 +34867,11 @@
       <c r="W557" t="s">
         <v>132</v>
       </c>
-      <c r="X557" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="558" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X557" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="558" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>603</v>
       </c>
@@ -34600,11 +34926,11 @@
       <c r="W558">
         <v>1</v>
       </c>
-      <c r="X558" s="1">
+      <c r="X558">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="559" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>604</v>
       </c>
@@ -34659,11 +34985,11 @@
       <c r="W559">
         <v>2.2000000000000002</v>
       </c>
-      <c r="X559" s="1">
+      <c r="X559">
         <v>2.6</v>
       </c>
     </row>
-    <row r="560" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>605</v>
       </c>
@@ -34721,11 +35047,11 @@
       <c r="W560">
         <v>1.6</v>
       </c>
-      <c r="X560" s="1">
+      <c r="X560">
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>606</v>
       </c>
@@ -34780,11 +35106,11 @@
       <c r="W561">
         <v>1.3</v>
       </c>
-      <c r="X561" s="1">
+      <c r="X561">
         <v>1.6</v>
       </c>
     </row>
-    <row r="562" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>607</v>
       </c>
@@ -34839,9 +35165,11 @@
       <c r="W562">
         <v>1</v>
       </c>
-      <c r="X562" s="1"/>
-    </row>
-    <row r="563" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X562">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="563" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>608</v>
       </c>
@@ -34896,9 +35224,11 @@
       <c r="W563">
         <v>3.4</v>
       </c>
-      <c r="X563" s="1"/>
-    </row>
-    <row r="564" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X563">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>609</v>
       </c>
@@ -34956,9 +35286,11 @@
       <c r="W564">
         <v>6</v>
       </c>
-      <c r="X564" s="1"/>
-    </row>
-    <row r="565" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X564">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>610</v>
       </c>
@@ -35013,9 +35345,11 @@
       <c r="W565">
         <v>0.5</v>
       </c>
-      <c r="X565" s="1"/>
-    </row>
-    <row r="566" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X565">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="566" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>611</v>
       </c>
@@ -35073,9 +35407,11 @@
       <c r="W566" t="s">
         <v>132</v>
       </c>
-      <c r="X566" s="1"/>
-    </row>
-    <row r="567" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X566" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="567" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>612</v>
       </c>
@@ -35130,11 +35466,11 @@
       <c r="W567">
         <v>2.8</v>
       </c>
-      <c r="X567" s="1">
+      <c r="X567">
         <v>3.2</v>
       </c>
     </row>
-    <row r="568" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>613</v>
       </c>
@@ -35151,7 +35487,7 @@
         <v>587</v>
       </c>
       <c r="F568" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J568">
         <v>0.4</v>
@@ -35192,11 +35528,11 @@
       <c r="W568">
         <v>6.1</v>
       </c>
-      <c r="X568" s="1">
+      <c r="X568">
         <v>7.1</v>
       </c>
     </row>
-    <row r="569" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>614</v>
       </c>
@@ -35251,11 +35587,11 @@
       <c r="W569">
         <v>5.7</v>
       </c>
-      <c r="X569" s="1">
+      <c r="X569">
         <v>6.6</v>
       </c>
     </row>
-    <row r="570" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>615</v>
       </c>
@@ -35310,11 +35646,11 @@
       <c r="W570">
         <v>6.8</v>
       </c>
-      <c r="X570" s="1">
+      <c r="X570">
         <v>7.1</v>
       </c>
     </row>
-    <row r="571" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>616</v>
       </c>
@@ -35369,11 +35705,11 @@
       <c r="W571" t="s">
         <v>132</v>
       </c>
-      <c r="X571" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="572" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X571" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="572" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>617</v>
       </c>
@@ -35428,11 +35764,11 @@
       <c r="W572">
         <v>2.2000000000000002</v>
       </c>
-      <c r="X572" s="1">
+      <c r="X572">
         <v>3</v>
       </c>
     </row>
-    <row r="573" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>618</v>
       </c>
@@ -35487,11 +35823,11 @@
       <c r="W573">
         <v>2.2000000000000002</v>
       </c>
-      <c r="X573" s="1">
+      <c r="X573">
         <v>2.7</v>
       </c>
     </row>
-    <row r="574" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>619</v>
       </c>
@@ -35546,11 +35882,11 @@
       <c r="W574" t="s">
         <v>132</v>
       </c>
-      <c r="X574" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="575" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X574" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="575" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>620</v>
       </c>
@@ -35608,11 +35944,11 @@
       <c r="W575" t="s">
         <v>132</v>
       </c>
-      <c r="X575" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="576" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X575" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="576" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>621</v>
       </c>
@@ -35670,11 +36006,11 @@
       <c r="W576" t="s">
         <v>132</v>
       </c>
-      <c r="X576" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="577" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X576" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="577" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>622</v>
       </c>
@@ -35691,7 +36027,7 @@
         <v>587</v>
       </c>
       <c r="F577" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="J577">
         <v>0.4</v>
@@ -35732,9 +36068,11 @@
       <c r="W577">
         <v>4.2</v>
       </c>
-      <c r="X577" s="1"/>
-    </row>
-    <row r="578" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X577" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="578" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>623</v>
       </c>
@@ -35751,7 +36089,7 @@
         <v>587</v>
       </c>
       <c r="F578" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J578">
         <v>0.5</v>
@@ -35792,9 +36130,11 @@
       <c r="W578" t="s">
         <v>132</v>
       </c>
-      <c r="X578" s="1"/>
-    </row>
-    <row r="579" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X578" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="579" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>624</v>
       </c>
@@ -35849,9 +36189,11 @@
       <c r="W579">
         <v>4.0999999999999996</v>
       </c>
-      <c r="X579" s="1"/>
-    </row>
-    <row r="580" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X579">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="580" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>625</v>
       </c>
@@ -35906,9 +36248,11 @@
       <c r="W580">
         <v>1.2</v>
       </c>
-      <c r="X580" s="1"/>
-    </row>
-    <row r="581" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X580">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="581" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>626</v>
       </c>
@@ -35963,9 +36307,11 @@
       <c r="W581">
         <v>1.8</v>
       </c>
-      <c r="X581" s="1"/>
-    </row>
-    <row r="582" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X581">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="582" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>627</v>
       </c>
@@ -36020,11 +36366,11 @@
       <c r="W582">
         <v>4.0999999999999996</v>
       </c>
-      <c r="X582" s="1">
+      <c r="X582">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="583" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>628</v>
       </c>
@@ -36079,11 +36425,11 @@
       <c r="W583">
         <v>0.5</v>
       </c>
-      <c r="X583" s="1">
+      <c r="X583">
         <v>0.8</v>
       </c>
     </row>
-    <row r="584" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>629</v>
       </c>
@@ -36138,11 +36484,11 @@
       <c r="W584">
         <v>3</v>
       </c>
-      <c r="X584" s="1">
+      <c r="X584">
         <v>3.6</v>
       </c>
     </row>
-    <row r="585" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>630</v>
       </c>
@@ -36197,11 +36543,11 @@
       <c r="W585">
         <v>6.5</v>
       </c>
-      <c r="X585" s="1">
+      <c r="X585">
         <v>7.2</v>
       </c>
     </row>
-    <row r="586" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>631</v>
       </c>
@@ -36256,11 +36602,11 @@
       <c r="W586">
         <v>7.6</v>
       </c>
-      <c r="X586" s="1">
+      <c r="X586">
         <v>7.4</v>
       </c>
     </row>
-    <row r="587" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>632</v>
       </c>
@@ -36318,11 +36664,11 @@
       <c r="W587">
         <v>2.5</v>
       </c>
-      <c r="X587" s="1">
+      <c r="X587">
         <v>2.6</v>
       </c>
     </row>
-    <row r="588" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>633</v>
       </c>
@@ -36380,11 +36726,11 @@
       <c r="W588" t="s">
         <v>132</v>
       </c>
-      <c r="X588" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="589" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X588" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>635</v>
       </c>
@@ -36442,11 +36788,11 @@
       <c r="W589" t="s">
         <v>132</v>
       </c>
-      <c r="X589" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="590" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X589" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>637</v>
       </c>
@@ -36504,11 +36850,11 @@
       <c r="W590" t="s">
         <v>132</v>
       </c>
-      <c r="X590" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="591" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X590" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="591" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>638</v>
       </c>
@@ -36563,11 +36909,11 @@
       <c r="W591">
         <v>0.3</v>
       </c>
-      <c r="X591" s="1">
+      <c r="X591">
         <v>0.5</v>
       </c>
     </row>
-    <row r="592" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>639</v>
       </c>
@@ -36622,9 +36968,11 @@
       <c r="W592">
         <v>3.6</v>
       </c>
-      <c r="X592" s="1"/>
-    </row>
-    <row r="593" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X592">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="593" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>640</v>
       </c>
@@ -36679,9 +37027,11 @@
       <c r="W593">
         <v>5.0999999999999996</v>
       </c>
-      <c r="X593" s="1"/>
-    </row>
-    <row r="594" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X593">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="594" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>641</v>
       </c>
@@ -36736,9 +37086,11 @@
       <c r="W594">
         <v>6.7</v>
       </c>
-      <c r="X594" s="1"/>
-    </row>
-    <row r="595" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X594">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>642</v>
       </c>
@@ -36793,9 +37145,11 @@
       <c r="W595">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X595" s="1"/>
-    </row>
-    <row r="596" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X595">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>643</v>
       </c>
@@ -36850,9 +37204,11 @@
       <c r="W596">
         <v>0.4</v>
       </c>
-      <c r="X596" s="1"/>
-    </row>
-    <row r="597" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X596">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>644</v>
       </c>
@@ -36869,7 +37225,7 @@
         <v>587</v>
       </c>
       <c r="F597" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J597">
         <v>0.4</v>
@@ -36910,11 +37266,11 @@
       <c r="W597" t="s">
         <v>132</v>
       </c>
-      <c r="X597" s="1">
+      <c r="X597">
         <v>3.3</v>
       </c>
     </row>
-    <row r="598" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>645</v>
       </c>
@@ -36969,11 +37325,11 @@
       <c r="W598">
         <v>1.8</v>
       </c>
-      <c r="X598" s="1">
+      <c r="X598">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="599" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>646</v>
       </c>
@@ -37028,11 +37384,11 @@
       <c r="W599">
         <v>6.6</v>
       </c>
-      <c r="X599" s="1">
+      <c r="X599">
         <v>7.1</v>
       </c>
     </row>
-    <row r="600" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>647</v>
       </c>
@@ -37090,11 +37446,11 @@
       <c r="W600">
         <v>2.8</v>
       </c>
-      <c r="X600" s="1">
+      <c r="X600">
         <v>3.9</v>
       </c>
     </row>
-    <row r="601" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>648</v>
       </c>
@@ -37152,11 +37508,11 @@
       <c r="W601" t="s">
         <v>132</v>
       </c>
-      <c r="X601" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="602" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X601" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="602" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>649</v>
       </c>
@@ -37211,11 +37567,11 @@
       <c r="W602">
         <v>7.2</v>
       </c>
-      <c r="X602" s="1">
+      <c r="X602">
         <v>7.5</v>
       </c>
     </row>
-    <row r="603" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>650</v>
       </c>
@@ -37273,11 +37629,11 @@
       <c r="W603" t="s">
         <v>132</v>
       </c>
-      <c r="X603" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="604" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X603" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="604" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>652</v>
       </c>
@@ -37335,11 +37691,11 @@
       <c r="W604" t="s">
         <v>132</v>
       </c>
-      <c r="X604" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="605" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X604" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="605" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>653</v>
       </c>
@@ -37394,11 +37750,11 @@
       <c r="W605" t="s">
         <v>132</v>
       </c>
-      <c r="X605" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="606" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X605" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="606" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>654</v>
       </c>
@@ -37453,11 +37809,11 @@
       <c r="W606">
         <v>1.6</v>
       </c>
-      <c r="X606" s="1">
+      <c r="X606">
         <v>1.6</v>
       </c>
     </row>
-    <row r="607" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>655</v>
       </c>
@@ -37515,9 +37871,11 @@
       <c r="W607">
         <v>3.4</v>
       </c>
-      <c r="X607" s="1"/>
-    </row>
-    <row r="608" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X607">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="608" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>656</v>
       </c>
@@ -37572,9 +37930,11 @@
       <c r="W608">
         <v>4.9000000000000004</v>
       </c>
-      <c r="X608" s="1"/>
-    </row>
-    <row r="609" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X608">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="609" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>657</v>
       </c>
@@ -37632,9 +37992,11 @@
       <c r="W609" t="s">
         <v>132</v>
       </c>
-      <c r="X609" s="1"/>
-    </row>
-    <row r="610" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X609" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="610" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>658</v>
       </c>
@@ -37689,9 +38051,11 @@
       <c r="W610">
         <v>0.6</v>
       </c>
-      <c r="X610" s="1"/>
-    </row>
-    <row r="611" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X610">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>659</v>
       </c>
@@ -37749,9 +38113,11 @@
       <c r="W611" t="s">
         <v>132</v>
       </c>
-      <c r="X611" s="1"/>
-    </row>
-    <row r="612" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X611" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="612" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>660</v>
       </c>
@@ -37809,11 +38175,11 @@
       <c r="W612" t="s">
         <v>132</v>
       </c>
-      <c r="X612" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="613" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X612" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>661</v>
       </c>
@@ -37868,11 +38234,11 @@
       <c r="W613">
         <v>5.2</v>
       </c>
-      <c r="X613" s="1">
+      <c r="X613">
         <v>6</v>
       </c>
     </row>
-    <row r="614" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>662</v>
       </c>
@@ -37930,11 +38296,11 @@
       <c r="W614">
         <v>7.7</v>
       </c>
-      <c r="X614" s="1">
+      <c r="X614">
         <v>7.3</v>
       </c>
     </row>
-    <row r="615" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>664</v>
       </c>
@@ -37989,11 +38355,11 @@
       <c r="W615">
         <v>1.8</v>
       </c>
-      <c r="X615" s="1">
+      <c r="X615">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="616" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>665</v>
       </c>
@@ -38048,11 +38414,11 @@
       <c r="W616">
         <v>8.6999999999999993</v>
       </c>
-      <c r="X616" s="1">
+      <c r="X616">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="617" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>666</v>
       </c>
@@ -38107,11 +38473,11 @@
       <c r="W617">
         <v>4.5999999999999996</v>
       </c>
-      <c r="X617" s="1">
+      <c r="X617">
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>667</v>
       </c>
@@ -38166,11 +38532,11 @@
       <c r="W618">
         <v>0.5</v>
       </c>
-      <c r="X618" s="1">
+      <c r="X618">
         <v>0.5</v>
       </c>
     </row>
-    <row r="619" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>668</v>
       </c>
@@ -38228,11 +38594,11 @@
       <c r="W619">
         <v>5.7</v>
       </c>
-      <c r="X619" s="1">
+      <c r="X619">
         <v>5.7</v>
       </c>
     </row>
-    <row r="620" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>669</v>
       </c>
@@ -38290,11 +38656,11 @@
       <c r="W620" t="s">
         <v>132</v>
       </c>
-      <c r="X620" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="621" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X620" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="621" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>670</v>
       </c>
@@ -38352,11 +38718,11 @@
       <c r="W621">
         <v>2.1</v>
       </c>
-      <c r="X621" s="1">
+      <c r="X621">
         <v>2.1</v>
       </c>
     </row>
-    <row r="622" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>671</v>
       </c>
@@ -38411,9 +38777,11 @@
       <c r="W622">
         <v>4.9000000000000004</v>
       </c>
-      <c r="X622" s="1"/>
-    </row>
-    <row r="623" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X622">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>672</v>
       </c>
@@ -38468,9 +38836,11 @@
       <c r="W623">
         <v>3.8</v>
       </c>
-      <c r="X623" s="1"/>
-    </row>
-    <row r="624" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X623">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="624" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>673</v>
       </c>
@@ -38525,9 +38895,11 @@
       <c r="W624">
         <v>6</v>
       </c>
-      <c r="X624" s="1"/>
-    </row>
-    <row r="625" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X624">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>674</v>
       </c>
@@ -38582,9 +38954,11 @@
       <c r="W625">
         <v>6</v>
       </c>
-      <c r="X625" s="1"/>
-    </row>
-    <row r="626" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X625">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="626" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>675</v>
       </c>
@@ -38642,9 +39016,11 @@
       <c r="W626">
         <v>3.5</v>
       </c>
-      <c r="X626" s="1"/>
-    </row>
-    <row r="627" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X626">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>676</v>
       </c>
@@ -38699,11 +39075,11 @@
       <c r="W627">
         <v>3.4</v>
       </c>
-      <c r="X627" s="1">
+      <c r="X627">
         <v>4.2</v>
       </c>
     </row>
-    <row r="628" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>677</v>
       </c>
@@ -38758,11 +39134,11 @@
       <c r="W628">
         <v>2</v>
       </c>
-      <c r="X628" s="1">
+      <c r="X628">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="629" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>678</v>
       </c>
@@ -38817,11 +39193,11 @@
       <c r="W629">
         <v>2.1</v>
       </c>
-      <c r="X629" s="1">
+      <c r="X629">
         <v>2.7</v>
       </c>
     </row>
-    <row r="630" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>679</v>
       </c>
@@ -38876,11 +39252,11 @@
       <c r="W630">
         <v>5.9</v>
       </c>
-      <c r="X630" s="1">
+      <c r="X630">
         <v>6.1</v>
       </c>
     </row>
-    <row r="631" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>680</v>
       </c>
@@ -38938,7 +39314,7 @@
       <c r="W631" t="s">
         <v>132</v>
       </c>
-      <c r="X631" s="1" t="s">
+      <c r="X631" t="s">
         <v>132</v>
       </c>
     </row>
@@ -38946,8 +39322,9 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/shoot_elongation/shoot_elongation.xlsx
+++ b/data/shoot_elongation/shoot_elongation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\my_repo_dir\fuelinex\data\shoot_elongation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapph\Documents\ubc things\work\fuelinex\data\shoot_elongation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C186AC46-2179-4396-9C9F-DE21C43D0B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3EC865-E8C3-45C1-A575-AB6EF9895D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="1092" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="773">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2835,8 +2835,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3217,11 +3218,6 @@
         <filter val="1"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="sequoiadendron"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="24"/>
@@ -3573,12 +3569,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA341" sqref="AA341"/>
+    <sheetView tabSelected="1" topLeftCell="A527" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X527" sqref="X527:X531"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
@@ -3588,7 +3584,7 @@
     <col min="13" max="17" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3665,7 +3661,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3717,8 +3713,9 @@
       <c r="X2">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3771,7 +3768,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3824,7 +3821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3877,7 +3874,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3930,7 +3927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3983,7 +3980,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4036,7 +4033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4089,7 +4086,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -4142,7 +4139,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -4195,7 +4192,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4251,7 +4248,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4304,7 +4301,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4357,7 +4354,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4410,7 +4407,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4463,7 +4460,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4516,7 +4513,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4569,7 +4566,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4622,7 +4619,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -4675,7 +4672,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4725,7 +4722,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4781,7 +4778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4834,7 +4831,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4890,7 +4887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4943,7 +4940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4996,7 +4993,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -5049,7 +5046,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5105,7 +5102,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -5158,7 +5155,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -5214,7 +5211,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -5267,7 +5264,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -5320,7 +5317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -5373,7 +5370,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -5426,7 +5423,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -5479,7 +5476,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -5532,7 +5529,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -5588,7 +5585,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -5641,7 +5638,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -5694,7 +5691,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -5747,7 +5744,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -5800,7 +5797,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -5853,7 +5850,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -5906,7 +5903,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -5959,7 +5956,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -6012,7 +6009,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -6065,7 +6062,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -6118,7 +6115,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -6171,7 +6168,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -6224,7 +6221,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -6277,7 +6274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -6330,7 +6327,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -6383,7 +6380,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -6436,7 +6433,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6492,7 +6489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -6545,7 +6542,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -6601,7 +6598,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -6654,7 +6651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6710,7 +6707,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -6763,7 +6760,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -6819,7 +6816,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -6872,7 +6869,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -6925,7 +6922,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -6978,7 +6975,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -7031,7 +7028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -7084,7 +7081,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="66" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -7137,7 +7134,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -7190,7 +7187,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -7243,7 +7240,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -7296,7 +7293,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -7349,7 +7346,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -7402,7 +7399,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -7455,7 +7452,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -7508,7 +7505,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -7561,7 +7558,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -7614,7 +7611,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -7667,7 +7664,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="77" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -7720,7 +7717,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="78" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -7773,7 +7770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -7829,7 +7826,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="80" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -7885,7 +7882,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -7938,7 +7935,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -7991,7 +7988,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -8044,7 +8041,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -8097,7 +8094,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -8150,7 +8147,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -8203,7 +8200,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -8256,7 +8253,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -8309,7 +8306,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -8362,7 +8359,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -8418,7 +8415,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -8471,7 +8468,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -8526,11 +8523,14 @@
       <c r="W92">
         <v>5.6</v>
       </c>
+      <c r="X92">
+        <v>5.6</v>
+      </c>
       <c r="Y92">
         <v>5.6</v>
       </c>
     </row>
-    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -8585,11 +8585,14 @@
       <c r="W93">
         <v>7.3</v>
       </c>
+      <c r="X93">
+        <v>7.3</v>
+      </c>
       <c r="Y93">
         <v>7.4</v>
       </c>
     </row>
-    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -8644,11 +8647,14 @@
       <c r="W94">
         <v>6.6</v>
       </c>
+      <c r="X94">
+        <v>6.6</v>
+      </c>
       <c r="Y94">
         <v>6.7</v>
       </c>
     </row>
-    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -8706,11 +8712,14 @@
       <c r="W95">
         <v>6.7</v>
       </c>
+      <c r="X95">
+        <v>6.7</v>
+      </c>
       <c r="Y95">
         <v>6.5</v>
       </c>
     </row>
-    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -8765,11 +8774,14 @@
       <c r="W96">
         <v>10.9</v>
       </c>
+      <c r="X96">
+        <v>10.9</v>
+      </c>
       <c r="Y96">
         <v>10.9</v>
       </c>
     </row>
-    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -8831,7 +8843,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -8893,7 +8905,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -8955,7 +8967,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -9017,7 +9029,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -9079,7 +9091,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -9141,7 +9153,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -9203,7 +9215,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -9265,7 +9277,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -9327,7 +9339,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -9389,7 +9401,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -9444,11 +9456,14 @@
       <c r="W107">
         <v>9.4</v>
       </c>
+      <c r="X107">
+        <v>9.4</v>
+      </c>
       <c r="Y107">
         <v>9.5</v>
       </c>
     </row>
-    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -9503,11 +9518,14 @@
       <c r="W108">
         <v>7.7</v>
       </c>
+      <c r="X108">
+        <v>7.7</v>
+      </c>
       <c r="Y108">
         <v>7.8</v>
       </c>
     </row>
-    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -9565,11 +9583,14 @@
       <c r="W109">
         <v>3.9</v>
       </c>
+      <c r="X109">
+        <v>3.9</v>
+      </c>
       <c r="Y109">
         <v>4.2</v>
       </c>
     </row>
-    <row r="110" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -9624,11 +9645,14 @@
       <c r="W110">
         <v>8.6999999999999993</v>
       </c>
+      <c r="X110">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="Y110">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -9683,11 +9707,14 @@
       <c r="W111">
         <v>22.4</v>
       </c>
+      <c r="X111">
+        <v>22.4</v>
+      </c>
       <c r="Y111">
         <v>22.4</v>
       </c>
     </row>
-    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -9749,7 +9776,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -9814,7 +9841,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -9876,7 +9903,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -9938,7 +9965,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -10000,7 +10027,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -10062,7 +10089,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -10124,7 +10151,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -10186,7 +10213,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -10248,7 +10275,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -10310,7 +10337,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -10368,11 +10395,14 @@
       <c r="W122">
         <v>9.6999999999999993</v>
       </c>
+      <c r="X122">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="Y122">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -10427,11 +10457,14 @@
       <c r="W123">
         <v>7</v>
       </c>
+      <c r="X123">
+        <v>7</v>
+      </c>
       <c r="Y123">
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -10486,11 +10519,14 @@
       <c r="W124">
         <v>6.1</v>
       </c>
+      <c r="X124">
+        <v>6.1</v>
+      </c>
       <c r="Y124">
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -10545,11 +10581,14 @@
       <c r="W125">
         <v>20.2</v>
       </c>
+      <c r="X125">
+        <v>20.2</v>
+      </c>
       <c r="Y125">
         <v>20.2</v>
       </c>
     </row>
-    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -10604,11 +10643,14 @@
       <c r="W126">
         <v>5</v>
       </c>
+      <c r="X126">
+        <v>5</v>
+      </c>
       <c r="Y126">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -10670,7 +10712,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -10732,7 +10774,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -10794,7 +10836,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -10856,7 +10898,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -10918,7 +10960,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -10980,7 +11022,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -11042,7 +11084,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -11104,7 +11146,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -11166,7 +11208,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -11231,7 +11273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -11286,11 +11328,14 @@
       <c r="W137">
         <v>11.7</v>
       </c>
+      <c r="X137">
+        <v>11.7</v>
+      </c>
       <c r="Y137">
         <v>11.7</v>
       </c>
     </row>
-    <row r="138" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>158</v>
       </c>
@@ -11345,11 +11390,14 @@
       <c r="W138">
         <v>9</v>
       </c>
+      <c r="X138">
+        <v>9</v>
+      </c>
       <c r="Y138">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -11404,11 +11452,14 @@
       <c r="W139">
         <v>9.3000000000000007</v>
       </c>
+      <c r="X139">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="Y139">
         <v>9.4</v>
       </c>
     </row>
-    <row r="140" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -11463,11 +11514,14 @@
       <c r="W140">
         <v>5</v>
       </c>
+      <c r="X140">
+        <v>5</v>
+      </c>
       <c r="Y140">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -11522,11 +11576,14 @@
       <c r="W141">
         <v>4</v>
       </c>
+      <c r="X141">
+        <v>4</v>
+      </c>
       <c r="Y141">
         <v>3.9</v>
       </c>
     </row>
-    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -11588,7 +11645,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="143" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>163</v>
       </c>
@@ -11650,7 +11707,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -11712,7 +11769,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -11774,7 +11831,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -11836,7 +11893,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="147" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -11898,7 +11955,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="148" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -11960,7 +12017,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>169</v>
       </c>
@@ -12022,7 +12079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -12084,7 +12141,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -12146,7 +12203,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="152" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -12201,11 +12258,14 @@
       <c r="W152">
         <v>8.8000000000000007</v>
       </c>
+      <c r="X152">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="Y152">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="153" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -12260,11 +12320,14 @@
       <c r="W153">
         <v>4.5</v>
       </c>
+      <c r="X153">
+        <v>4.5</v>
+      </c>
       <c r="Y153">
         <v>4.7</v>
       </c>
     </row>
-    <row r="154" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -12319,11 +12382,14 @@
       <c r="W154">
         <v>9.9</v>
       </c>
+      <c r="X154">
+        <v>9.9</v>
+      </c>
       <c r="Y154">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="155" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>175</v>
       </c>
@@ -12378,11 +12444,14 @@
       <c r="W155">
         <v>4</v>
       </c>
+      <c r="X155">
+        <v>4</v>
+      </c>
       <c r="Y155">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -12437,11 +12506,14 @@
       <c r="W156">
         <v>9.6999999999999993</v>
       </c>
+      <c r="X156">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="Y156">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="157" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -12503,7 +12575,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="158" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -12565,7 +12637,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="159" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -12627,7 +12699,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="160" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -12689,7 +12761,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -12751,7 +12823,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="162" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -12816,7 +12888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -12878,7 +12950,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="164" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -12943,7 +13015,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="165" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -13005,7 +13077,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="166" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -13067,7 +13139,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="167" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -13129,7 +13201,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="168" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -13191,7 +13263,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="169" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -13253,7 +13325,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="170" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -13315,7 +13387,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="171" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -13377,7 +13449,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="172" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -13439,7 +13511,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="173" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -13501,7 +13573,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="174" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -13563,7 +13635,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="175" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -13625,7 +13697,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="176" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -13687,7 +13759,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -13749,7 +13821,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -13811,7 +13883,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -13873,7 +13945,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -13935,7 +14007,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -13997,7 +14069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -14050,7 +14122,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="183" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -14103,7 +14175,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="184" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -14156,7 +14228,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="185" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -14209,7 +14281,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="186" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -14262,7 +14334,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -14315,7 +14387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -14368,7 +14440,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -14424,7 +14496,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>213</v>
       </c>
@@ -14477,7 +14549,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -14530,7 +14602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -14583,7 +14655,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -14636,7 +14708,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -14695,7 +14767,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -14748,7 +14820,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>219</v>
       </c>
@@ -14801,7 +14873,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="197" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -14854,7 +14926,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="198" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>221</v>
       </c>
@@ -14907,7 +14979,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="199" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -14960,7 +15032,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="200" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -15013,7 +15085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -15066,7 +15138,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="202" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -15119,7 +15191,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -15172,7 +15244,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -15225,7 +15297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -15278,7 +15350,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -15331,7 +15403,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -15384,7 +15456,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -15437,7 +15509,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -15490,7 +15562,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="210" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -15543,7 +15615,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -15596,7 +15668,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="212" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -15649,7 +15721,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="213" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -15702,7 +15774,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="214" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -15755,7 +15827,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="215" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -15808,7 +15880,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="216" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -15861,7 +15933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -15914,7 +15986,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="218" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -15967,7 +16039,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="219" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -16023,7 +16095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -16076,7 +16148,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>244</v>
       </c>
@@ -16129,7 +16201,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="222" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -16182,7 +16254,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="223" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>246</v>
       </c>
@@ -16235,7 +16307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -16288,7 +16360,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>248</v>
       </c>
@@ -16341,7 +16413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -16394,7 +16466,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -16450,7 +16522,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="228" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -16503,7 +16575,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="229" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -16556,7 +16628,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="230" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -16609,7 +16681,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="231" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -16662,7 +16734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -16715,7 +16787,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -16768,7 +16840,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -16821,7 +16893,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -16874,7 +16946,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="236" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -16930,7 +17002,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>260</v>
       </c>
@@ -16986,7 +17058,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -17039,7 +17111,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -17092,7 +17164,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -17145,7 +17217,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -17198,7 +17270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -17251,7 +17323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -17304,7 +17376,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="244" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -17357,7 +17429,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="245" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>268</v>
       </c>
@@ -17413,7 +17485,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="246" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -17466,7 +17538,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>270</v>
       </c>
@@ -17519,7 +17591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -17572,7 +17644,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>272</v>
       </c>
@@ -17625,7 +17697,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="250" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -17681,7 +17753,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>274</v>
       </c>
@@ -17737,7 +17809,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -17790,7 +17862,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>276</v>
       </c>
@@ -17843,7 +17915,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -17896,7 +17968,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -17949,7 +18021,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -18002,7 +18074,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="257" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>280</v>
       </c>
@@ -18055,7 +18127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>281</v>
       </c>
@@ -18108,7 +18180,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="259" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -18161,7 +18233,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="260" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>283</v>
       </c>
@@ -18214,7 +18286,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="261" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -18267,7 +18339,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="262" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>285</v>
       </c>
@@ -18320,7 +18392,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="263" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -18373,7 +18445,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="264" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -18426,7 +18498,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="265" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -18479,7 +18551,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="266" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -18532,7 +18604,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="267" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -18585,7 +18657,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="268" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>291</v>
       </c>
@@ -18638,7 +18710,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="269" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -18691,7 +18763,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="270" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -18744,7 +18816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -18797,7 +18869,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="272" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -18862,7 +18934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -18924,7 +18996,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="274" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>299</v>
       </c>
@@ -18989,7 +19061,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="275" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -19054,7 +19126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>301</v>
       </c>
@@ -19119,7 +19191,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -19181,7 +19253,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="278" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>303</v>
       </c>
@@ -19243,7 +19315,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="279" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -19308,7 +19380,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>305</v>
       </c>
@@ -19370,7 +19442,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="281" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>306</v>
       </c>
@@ -19432,7 +19504,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="282" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -19497,7 +19569,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="283" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>308</v>
       </c>
@@ -19562,7 +19634,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -19627,7 +19699,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -19692,7 +19764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -19757,7 +19829,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="287" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -19819,7 +19891,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="288" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -19881,7 +19953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -19943,7 +20015,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="290" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -20005,7 +20077,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="291" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -20067,7 +20139,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="292" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -20129,7 +20201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -20191,7 +20263,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="294" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -20253,7 +20325,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="295" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>320</v>
       </c>
@@ -20315,7 +20387,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="296" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -20377,7 +20449,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="297" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>322</v>
       </c>
@@ -20442,7 +20514,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="298" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -20504,7 +20576,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="299" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>324</v>
       </c>
@@ -20569,7 +20641,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="300" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -20631,7 +20703,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="301" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>326</v>
       </c>
@@ -20693,7 +20765,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="302" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -20755,7 +20827,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="303" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>328</v>
       </c>
@@ -20817,7 +20889,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="304" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -20879,7 +20951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>330</v>
       </c>
@@ -20941,7 +21013,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="306" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -21003,7 +21075,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="307" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>332</v>
       </c>
@@ -21065,7 +21137,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="308" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -21127,7 +21199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>334</v>
       </c>
@@ -21189,7 +21261,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="310" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -21254,7 +21326,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="311" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -21316,7 +21388,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="312" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -21378,7 +21450,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="313" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -21443,7 +21515,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="314" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -21508,7 +21580,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="315" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -21570,7 +21642,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="316" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -21632,7 +21704,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="317" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -21697,7 +21769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -21759,7 +21831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -21821,7 +21893,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="320" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -21886,7 +21958,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="321" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -21948,7 +22020,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="322" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -22013,7 +22085,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="323" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>349</v>
       </c>
@@ -22075,7 +22147,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="324" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -22140,7 +22212,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="325" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>352</v>
       </c>
@@ -22202,7 +22274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="326" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -22264,7 +22336,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>354</v>
       </c>
@@ -22326,7 +22398,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="328" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>355</v>
       </c>
@@ -22391,7 +22463,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="329" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -22453,7 +22525,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="330" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>357</v>
       </c>
@@ -22515,7 +22587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -22580,7 +22652,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="332" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>359</v>
       </c>
@@ -22645,7 +22717,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="333" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -22707,7 +22779,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="334" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>361</v>
       </c>
@@ -22772,7 +22844,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="335" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -22834,7 +22906,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="336" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>363</v>
       </c>
@@ -22899,7 +22971,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="337" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -22961,7 +23033,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="338" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>365</v>
       </c>
@@ -23023,7 +23095,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="339" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -23085,7 +23157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>367</v>
       </c>
@@ -23147,7 +23219,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="341" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -23209,7 +23281,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>369</v>
       </c>
@@ -23271,7 +23343,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="343" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -23336,7 +23408,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="344" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>371</v>
       </c>
@@ -23401,7 +23473,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="345" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -23463,7 +23535,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="346" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>373</v>
       </c>
@@ -23525,7 +23597,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="347" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -23587,7 +23659,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="348" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>375</v>
       </c>
@@ -23649,7 +23721,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="349" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -23711,7 +23783,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="350" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>377</v>
       </c>
@@ -23776,7 +23848,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="351" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>378</v>
       </c>
@@ -23838,7 +23910,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="352" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -23903,7 +23975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>380</v>
       </c>
@@ -23965,7 +24037,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="354" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -24027,7 +24099,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="355" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>382</v>
       </c>
@@ -24092,7 +24164,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="356" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -24154,7 +24226,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="357" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>384</v>
       </c>
@@ -24219,7 +24291,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="358" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -24281,7 +24353,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="359" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>386</v>
       </c>
@@ -24343,7 +24415,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -24405,7 +24477,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="361" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>388</v>
       </c>
@@ -24467,7 +24539,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="362" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -24516,8 +24588,11 @@
       <c r="V362">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="363" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X362">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -24566,8 +24641,11 @@
       <c r="V363">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="364" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X363">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -24619,8 +24697,11 @@
       <c r="V364">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="365" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X364">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -24669,8 +24750,11 @@
       <c r="V365">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="366" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X365">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -24719,8 +24803,11 @@
       <c r="V366">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X366">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -24773,7 +24860,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="368" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -24829,7 +24916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -24885,7 +24972,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="370" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -24938,7 +25025,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -24991,7 +25078,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="372" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -25044,7 +25131,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="373" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -25097,7 +25184,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="374" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -25150,7 +25237,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="375" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -25203,7 +25290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -25259,7 +25346,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="377" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -25308,8 +25395,11 @@
       <c r="V377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -25358,8 +25448,11 @@
       <c r="V378">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="379" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X378">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -25408,8 +25501,11 @@
       <c r="V379">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -25461,8 +25557,11 @@
       <c r="V380" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="381" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X380" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -25514,8 +25613,11 @@
       <c r="V381">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="382" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X381">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -25568,7 +25670,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>415</v>
       </c>
@@ -25621,7 +25723,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="384" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -25674,7 +25776,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="385" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>417</v>
       </c>
@@ -25727,7 +25829,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="386" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -25780,7 +25882,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="387" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>419</v>
       </c>
@@ -25836,7 +25938,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="388" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -25889,7 +25991,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="389" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>422</v>
       </c>
@@ -25942,7 +26044,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="390" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -25995,7 +26097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>424</v>
       </c>
@@ -26048,7 +26150,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="392" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -26100,8 +26202,11 @@
       <c r="V392" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="393" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X392" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -26150,8 +26255,11 @@
       <c r="V393">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="394" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X393">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -26203,8 +26311,11 @@
       <c r="V394">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="395" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X394">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -26253,8 +26364,11 @@
       <c r="V395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -26303,8 +26417,11 @@
       <c r="V396">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="397" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X396">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -26357,7 +26474,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="398" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -26410,7 +26527,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="399" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -26466,7 +26583,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="400" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>434</v>
       </c>
@@ -26519,7 +26636,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="401" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -26572,7 +26689,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="402" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>436</v>
       </c>
@@ -26631,7 +26748,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="403" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -26687,7 +26804,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="404" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>438</v>
       </c>
@@ -26743,7 +26860,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="405" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>439</v>
       </c>
@@ -26796,7 +26913,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="406" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -26849,7 +26966,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="407" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>441</v>
       </c>
@@ -26898,8 +27015,11 @@
       <c r="V407">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="408" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X407">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -26948,8 +27068,11 @@
       <c r="V408">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="409" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X408">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>443</v>
       </c>
@@ -26998,8 +27121,11 @@
       <c r="V409">
         <v>3</v>
       </c>
-    </row>
-    <row r="410" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -27048,8 +27174,11 @@
       <c r="V410">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="411" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X410">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>445</v>
       </c>
@@ -27098,8 +27227,11 @@
       <c r="V411">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="412" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X411">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -27152,7 +27284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>447</v>
       </c>
@@ -27205,7 +27337,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="414" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -27258,7 +27390,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="415" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>449</v>
       </c>
@@ -27311,7 +27443,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="416" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -27367,7 +27499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="417" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>451</v>
       </c>
@@ -27423,7 +27555,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="418" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -27476,7 +27608,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="419" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>453</v>
       </c>
@@ -27529,7 +27661,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="420" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -27582,7 +27714,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="421" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -27638,7 +27770,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="422" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>457</v>
       </c>
@@ -27687,8 +27819,11 @@
       <c r="V422">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="423" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X422">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="423" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>458</v>
       </c>
@@ -27740,8 +27875,11 @@
       <c r="V423" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="424" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X423" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="424" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>460</v>
       </c>
@@ -27790,8 +27928,11 @@
       <c r="V424">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="425" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X424">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>461</v>
       </c>
@@ -27840,8 +27981,11 @@
       <c r="V425">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="426" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X425">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>462</v>
       </c>
@@ -27893,8 +28037,11 @@
       <c r="V426" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="427" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X426" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="427" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>463</v>
       </c>
@@ -27947,7 +28094,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="428" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>464</v>
       </c>
@@ -28000,7 +28147,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="429" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>465</v>
       </c>
@@ -28053,7 +28200,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="430" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>467</v>
       </c>
@@ -28106,7 +28253,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="431" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>468</v>
       </c>
@@ -28162,7 +28309,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="432" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>469</v>
       </c>
@@ -28215,7 +28362,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="433" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>470</v>
       </c>
@@ -28268,7 +28415,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="434" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>471</v>
       </c>
@@ -28321,7 +28468,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="435" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>472</v>
       </c>
@@ -28374,7 +28521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>473</v>
       </c>
@@ -28427,7 +28574,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="437" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>474</v>
       </c>
@@ -28476,8 +28623,11 @@
       <c r="V437">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="438" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X437">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>475</v>
       </c>
@@ -28526,8 +28676,11 @@
       <c r="V438">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="439" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X438">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>476</v>
       </c>
@@ -28576,8 +28729,11 @@
       <c r="V439">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="440" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X439">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>477</v>
       </c>
@@ -28626,8 +28782,11 @@
       <c r="V440">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="441" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X440">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>478</v>
       </c>
@@ -28676,8 +28835,11 @@
       <c r="V441">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="442" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+      <c r="X441">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>479</v>
       </c>
@@ -28733,7 +28895,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="443" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>481</v>
       </c>
@@ -28786,7 +28948,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>482</v>
       </c>
@@ -28839,7 +29001,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="445" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>483</v>
       </c>
@@ -28892,7 +29054,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="446" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>484</v>
       </c>
@@ -28945,7 +29107,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="447" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>485</v>
       </c>
@@ -28998,7 +29160,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:24" hidden="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>486</v>
       </c>
@@ -29051,7 +29213,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="449" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>487</v>
       </c>
@@ -29104,7 +29266,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="450" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>488</v>
       </c>
@@ -29157,7 +29319,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="451" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>489</v>
       </c>
@@ -29213,7 +29375,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="452" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>490</v>
       </c>
@@ -29268,11 +29430,14 @@
       <c r="W452">
         <v>5.0999999999999996</v>
       </c>
+      <c r="X452">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="Y452">
         <v>5.2</v>
       </c>
     </row>
-    <row r="453" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>493</v>
       </c>
@@ -29327,11 +29492,14 @@
       <c r="W453">
         <v>2.5</v>
       </c>
+      <c r="X453">
+        <v>2.5</v>
+      </c>
       <c r="Y453">
         <v>2.6</v>
       </c>
     </row>
-    <row r="454" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>494</v>
       </c>
@@ -29386,11 +29554,14 @@
       <c r="W454">
         <v>1.4</v>
       </c>
+      <c r="X454">
+        <v>1.4</v>
+      </c>
       <c r="Y454">
         <v>1.8</v>
       </c>
     </row>
-    <row r="455" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>495</v>
       </c>
@@ -29445,11 +29616,14 @@
       <c r="W455">
         <v>12.7</v>
       </c>
+      <c r="X455">
+        <v>12.7</v>
+      </c>
       <c r="Y455">
         <v>13.6</v>
       </c>
     </row>
-    <row r="456" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>496</v>
       </c>
@@ -29504,11 +29678,14 @@
       <c r="W456">
         <v>3.6</v>
       </c>
+      <c r="X456">
+        <v>3.6</v>
+      </c>
       <c r="Y456">
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>497</v>
       </c>
@@ -29573,7 +29750,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="458" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>498</v>
       </c>
@@ -29635,7 +29812,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="459" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>499</v>
       </c>
@@ -29697,7 +29874,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="460" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>500</v>
       </c>
@@ -29759,7 +29936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>501</v>
       </c>
@@ -29821,7 +29998,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="462" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>502</v>
       </c>
@@ -29883,7 +30060,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="463" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>503</v>
       </c>
@@ -29945,7 +30122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="464" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>504</v>
       </c>
@@ -30007,7 +30184,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="465" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>505</v>
       </c>
@@ -30069,7 +30246,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="466" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>506</v>
       </c>
@@ -30131,7 +30308,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="467" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>507</v>
       </c>
@@ -30186,11 +30363,14 @@
       <c r="W467">
         <v>3.3</v>
       </c>
+      <c r="X467">
+        <v>3.3</v>
+      </c>
       <c r="Y467">
         <v>3.5</v>
       </c>
     </row>
-    <row r="468" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>508</v>
       </c>
@@ -30245,11 +30425,14 @@
       <c r="W468">
         <v>4.8</v>
       </c>
+      <c r="X468">
+        <v>4.8</v>
+      </c>
       <c r="Y468">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="469" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>509</v>
       </c>
@@ -30304,11 +30487,14 @@
       <c r="W469">
         <v>2.5</v>
       </c>
+      <c r="X469">
+        <v>2.5</v>
+      </c>
       <c r="Y469">
         <v>2.9</v>
       </c>
     </row>
-    <row r="470" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>510</v>
       </c>
@@ -30363,11 +30549,14 @@
       <c r="W470">
         <v>2.1</v>
       </c>
+      <c r="X470">
+        <v>2.1</v>
+      </c>
       <c r="Y470">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="471" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>511</v>
       </c>
@@ -30422,11 +30611,14 @@
       <c r="W471">
         <v>2.9</v>
       </c>
+      <c r="X471">
+        <v>2.9</v>
+      </c>
       <c r="Y471">
         <v>3.2</v>
       </c>
     </row>
-    <row r="472" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>512</v>
       </c>
@@ -30488,7 +30680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>513</v>
       </c>
@@ -30550,7 +30742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>514</v>
       </c>
@@ -30615,7 +30807,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="475" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>516</v>
       </c>
@@ -30677,7 +30869,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="476" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>517</v>
       </c>
@@ -30739,7 +30931,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="477" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>518</v>
       </c>
@@ -30801,7 +30993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>519</v>
       </c>
@@ -30863,7 +31055,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="479" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>520</v>
       </c>
@@ -30925,7 +31117,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="480" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>521</v>
       </c>
@@ -30987,7 +31179,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>522</v>
       </c>
@@ -31049,7 +31241,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="482" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>523</v>
       </c>
@@ -31104,11 +31296,14 @@
       <c r="W482">
         <v>1.1000000000000001</v>
       </c>
+      <c r="X482">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="Y482">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>524</v>
       </c>
@@ -31163,11 +31358,14 @@
       <c r="W483">
         <v>17.399999999999999</v>
       </c>
+      <c r="X483">
+        <v>17.399999999999999</v>
+      </c>
       <c r="Y483">
         <v>17.8</v>
       </c>
     </row>
-    <row r="484" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>525</v>
       </c>
@@ -31222,11 +31420,14 @@
       <c r="W484">
         <v>4.4000000000000004</v>
       </c>
+      <c r="X484">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="Y484">
         <v>4.8</v>
       </c>
     </row>
-    <row r="485" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>526</v>
       </c>
@@ -31284,11 +31485,14 @@
       <c r="W485">
         <v>14.8</v>
       </c>
+      <c r="X485">
+        <v>14.8</v>
+      </c>
       <c r="Y485">
         <v>15.6</v>
       </c>
     </row>
-    <row r="486" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>527</v>
       </c>
@@ -31343,11 +31547,14 @@
       <c r="W486">
         <v>0.9</v>
       </c>
+      <c r="X486">
+        <v>0.9</v>
+      </c>
       <c r="Y486">
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>528</v>
       </c>
@@ -31412,7 +31619,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="488" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>529</v>
       </c>
@@ -31474,7 +31681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>530</v>
       </c>
@@ -31536,7 +31743,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="490" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>531</v>
       </c>
@@ -31598,7 +31805,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="491" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>532</v>
       </c>
@@ -31660,7 +31867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>533</v>
       </c>
@@ -31722,7 +31929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>534</v>
       </c>
@@ -31784,7 +31991,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="494" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>535</v>
       </c>
@@ -31846,7 +32053,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="495" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>536</v>
       </c>
@@ -31911,7 +32118,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>538</v>
       </c>
@@ -31973,7 +32180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>539</v>
       </c>
@@ -32028,11 +32235,14 @@
       <c r="W497">
         <v>2</v>
       </c>
+      <c r="X497">
+        <v>2</v>
+      </c>
       <c r="Y497">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>540</v>
       </c>
@@ -32087,11 +32297,14 @@
       <c r="W498">
         <v>4.9000000000000004</v>
       </c>
+      <c r="X498">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="Y498">
         <v>5.7</v>
       </c>
     </row>
-    <row r="499" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>541</v>
       </c>
@@ -32146,11 +32359,14 @@
       <c r="W499">
         <v>4.0999999999999996</v>
       </c>
+      <c r="X499">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="Y499">
         <v>4.5</v>
       </c>
     </row>
-    <row r="500" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>542</v>
       </c>
@@ -32205,11 +32421,14 @@
       <c r="W500">
         <v>2.1</v>
       </c>
+      <c r="X500">
+        <v>2.1</v>
+      </c>
       <c r="Y500">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>543</v>
       </c>
@@ -32264,11 +32483,14 @@
       <c r="W501">
         <v>5.9</v>
       </c>
+      <c r="X501">
+        <v>5.9</v>
+      </c>
       <c r="Y501">
         <v>6.3</v>
       </c>
     </row>
-    <row r="502" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>544</v>
       </c>
@@ -32330,7 +32552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>545</v>
       </c>
@@ -32392,7 +32614,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="504" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>546</v>
       </c>
@@ -32454,7 +32676,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="505" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>547</v>
       </c>
@@ -32516,7 +32738,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="506" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>548</v>
       </c>
@@ -32578,7 +32800,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="507" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>549</v>
       </c>
@@ -32640,7 +32862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>550</v>
       </c>
@@ -32702,7 +32924,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="509" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>551</v>
       </c>
@@ -32764,7 +32986,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="510" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>552</v>
       </c>
@@ -32826,7 +33048,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="511" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>553</v>
       </c>
@@ -32888,7 +33110,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="512" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>554</v>
       </c>
@@ -32943,11 +33165,14 @@
       <c r="W512">
         <v>2.7</v>
       </c>
+      <c r="X512">
+        <v>2.7</v>
+      </c>
       <c r="Y512">
         <v>3.3</v>
       </c>
     </row>
-    <row r="513" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>555</v>
       </c>
@@ -33002,11 +33227,14 @@
       <c r="W513">
         <v>14</v>
       </c>
+      <c r="X513">
+        <v>14</v>
+      </c>
       <c r="Y513">
         <v>14.6</v>
       </c>
     </row>
-    <row r="514" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>556</v>
       </c>
@@ -33061,11 +33289,14 @@
       <c r="W514">
         <v>4.5999999999999996</v>
       </c>
+      <c r="X514">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="Y514">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="515" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>557</v>
       </c>
@@ -33120,11 +33351,14 @@
       <c r="W515">
         <v>17.2</v>
       </c>
+      <c r="X515">
+        <v>17.2</v>
+      </c>
       <c r="Y515">
         <v>17.5</v>
       </c>
     </row>
-    <row r="516" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>558</v>
       </c>
@@ -33179,11 +33413,14 @@
       <c r="W516">
         <v>12.2</v>
       </c>
+      <c r="X516">
+        <v>12.2</v>
+      </c>
       <c r="Y516">
         <v>12.5</v>
       </c>
     </row>
-    <row r="517" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>559</v>
       </c>
@@ -33248,7 +33485,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>560</v>
       </c>
@@ -33313,7 +33550,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>561</v>
       </c>
@@ -33375,7 +33612,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="520" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>562</v>
       </c>
@@ -33437,7 +33674,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="521" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>563</v>
       </c>
@@ -33499,7 +33736,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="522" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>564</v>
       </c>
@@ -33561,7 +33798,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="523" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>565</v>
       </c>
@@ -33623,7 +33860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="524" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>566</v>
       </c>
@@ -33685,7 +33922,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="525" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>567</v>
       </c>
@@ -33747,7 +33984,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="526" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>568</v>
       </c>
@@ -33809,7 +34046,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="527" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>569</v>
       </c>
@@ -33864,11 +34101,14 @@
       <c r="W527">
         <v>7.1</v>
       </c>
+      <c r="X527">
+        <v>7.1</v>
+      </c>
       <c r="Y527">
         <v>7.6</v>
       </c>
     </row>
-    <row r="528" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>570</v>
       </c>
@@ -33923,11 +34163,14 @@
       <c r="W528">
         <v>5.3</v>
       </c>
+      <c r="X528">
+        <v>5.3</v>
+      </c>
       <c r="Y528">
         <v>5.5</v>
       </c>
     </row>
-    <row r="529" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>571</v>
       </c>
@@ -33982,11 +34225,14 @@
       <c r="W529">
         <v>3.4</v>
       </c>
+      <c r="X529">
+        <v>3.4</v>
+      </c>
       <c r="Y529">
         <v>3.7</v>
       </c>
     </row>
-    <row r="530" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>572</v>
       </c>
@@ -34041,11 +34287,14 @@
       <c r="W530">
         <v>1.5</v>
       </c>
+      <c r="X530">
+        <v>1.5</v>
+      </c>
       <c r="Y530">
         <v>1.6</v>
       </c>
     </row>
-    <row r="531" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>573</v>
       </c>
@@ -34100,11 +34349,14 @@
       <c r="W531">
         <v>3.7</v>
       </c>
+      <c r="X531">
+        <v>3.7</v>
+      </c>
       <c r="Y531">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="532" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>574</v>
       </c>
@@ -34169,7 +34421,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="533" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>576</v>
       </c>
@@ -34231,7 +34483,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="534" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>577</v>
       </c>
@@ -34293,7 +34545,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="535" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>578</v>
       </c>
@@ -34355,7 +34607,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="536" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>579</v>
       </c>
@@ -34417,7 +34669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>580</v>
       </c>
@@ -34479,7 +34731,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="538" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>581</v>
       </c>
@@ -34541,7 +34793,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="539" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>582</v>
       </c>
@@ -34603,7 +34855,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="540" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>583</v>
       </c>
@@ -34665,7 +34917,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="541" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>584</v>
       </c>
@@ -34727,7 +34979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="542" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>585</v>
       </c>
@@ -34792,7 +35044,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="543" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>588</v>
       </c>
@@ -34854,7 +35106,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="544" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>589</v>
       </c>
@@ -34919,7 +35171,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="545" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>590</v>
       </c>
@@ -34981,7 +35233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>591</v>
       </c>
@@ -35046,7 +35298,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="547" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>592</v>
       </c>
@@ -35108,7 +35360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="548" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>593</v>
       </c>
@@ -35173,7 +35425,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="549" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>594</v>
       </c>
@@ -35235,7 +35487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>595</v>
       </c>
@@ -35297,7 +35549,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="551" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>596</v>
       </c>
@@ -35362,7 +35614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>597</v>
       </c>
@@ -35427,7 +35679,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="553" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>598</v>
       </c>
@@ -35489,7 +35741,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="554" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>599</v>
       </c>
@@ -35554,7 +35806,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="555" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>600</v>
       </c>
@@ -35616,7 +35868,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="556" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>601</v>
       </c>
@@ -35678,7 +35930,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="557" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>602</v>
       </c>
@@ -35743,7 +35995,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="558" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>603</v>
       </c>
@@ -35805,7 +36057,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="559" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>604</v>
       </c>
@@ -35867,7 +36119,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="560" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>605</v>
       </c>
@@ -35932,7 +36184,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="561" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>606</v>
       </c>
@@ -35994,7 +36246,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="562" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>607</v>
       </c>
@@ -36056,7 +36308,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="563" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>608</v>
       </c>
@@ -36118,7 +36370,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="564" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>609</v>
       </c>
@@ -36183,7 +36435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>610</v>
       </c>
@@ -36245,7 +36497,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="566" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>611</v>
       </c>
@@ -36310,7 +36562,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="567" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>612</v>
       </c>
@@ -36372,7 +36624,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="568" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>613</v>
       </c>
@@ -36437,7 +36689,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="569" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>614</v>
       </c>
@@ -36499,7 +36751,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="570" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>615</v>
       </c>
@@ -36561,7 +36813,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="571" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>616</v>
       </c>
@@ -36623,7 +36875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="572" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>617</v>
       </c>
@@ -36685,7 +36937,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="573" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>618</v>
       </c>
@@ -36747,7 +36999,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="574" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>619</v>
       </c>
@@ -36809,7 +37061,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="575" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>620</v>
       </c>
@@ -36874,7 +37126,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="576" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>621</v>
       </c>
@@ -36939,7 +37191,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="577" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>622</v>
       </c>
@@ -37004,7 +37256,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="578" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>623</v>
       </c>
@@ -37069,7 +37321,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="579" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>624</v>
       </c>
@@ -37131,7 +37383,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="580" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>625</v>
       </c>
@@ -37193,7 +37445,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="581" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>626</v>
       </c>
@@ -37255,7 +37507,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="582" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>627</v>
       </c>
@@ -37317,7 +37569,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="583" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>628</v>
       </c>
@@ -37379,7 +37631,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="584" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>629</v>
       </c>
@@ -37441,7 +37693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="585" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>630</v>
       </c>
@@ -37503,7 +37755,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="586" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>631</v>
       </c>
@@ -37565,7 +37817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="587" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>632</v>
       </c>
@@ -37630,7 +37882,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="588" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>633</v>
       </c>
@@ -37695,7 +37947,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="589" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>635</v>
       </c>
@@ -37760,7 +38012,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="590" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>637</v>
       </c>
@@ -37825,7 +38077,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="591" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>638</v>
       </c>
@@ -37887,7 +38139,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="592" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>639</v>
       </c>
@@ -37949,7 +38201,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="593" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>640</v>
       </c>
@@ -38011,7 +38263,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="594" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>641</v>
       </c>
@@ -38073,7 +38325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="595" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>642</v>
       </c>
@@ -38135,7 +38387,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="596" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>643</v>
       </c>
@@ -38197,7 +38449,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="597" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>644</v>
       </c>
@@ -38262,7 +38514,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="598" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>645</v>
       </c>
@@ -38324,7 +38576,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="599" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>646</v>
       </c>
@@ -38386,7 +38638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="600" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>647</v>
       </c>
@@ -38451,7 +38703,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="601" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>648</v>
       </c>
@@ -38516,7 +38768,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="602" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>649</v>
       </c>
@@ -38578,7 +38830,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="603" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>650</v>
       </c>
@@ -38643,7 +38895,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="604" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>652</v>
       </c>
@@ -38708,7 +38960,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="605" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>653</v>
       </c>
@@ -38770,7 +39022,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="606" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>654</v>
       </c>
@@ -38832,7 +39084,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="607" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>655</v>
       </c>
@@ -38897,7 +39149,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="608" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>656</v>
       </c>
@@ -38959,7 +39211,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="609" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>657</v>
       </c>
@@ -39024,7 +39276,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="610" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>658</v>
       </c>
@@ -39086,7 +39338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="611" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>659</v>
       </c>
@@ -39151,7 +39403,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="612" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>660</v>
       </c>
@@ -39216,7 +39468,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="613" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>661</v>
       </c>
@@ -39278,7 +39530,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="614" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>662</v>
       </c>
@@ -39343,7 +39595,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="615" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>664</v>
       </c>
@@ -39405,7 +39657,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="616" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>665</v>
       </c>
@@ -39467,7 +39719,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="617" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>666</v>
       </c>
@@ -39529,7 +39781,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="618" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>667</v>
       </c>
@@ -39591,7 +39843,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="619" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>668</v>
       </c>
@@ -39656,7 +39908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>669</v>
       </c>
@@ -39721,7 +39973,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="621" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>670</v>
       </c>
@@ -39786,7 +40038,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="622" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>671</v>
       </c>
@@ -39848,7 +40100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="623" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>672</v>
       </c>
@@ -39910,7 +40162,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="624" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>673</v>
       </c>
@@ -39972,7 +40224,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="625" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>674</v>
       </c>
@@ -40034,7 +40286,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="626" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>675</v>
       </c>
@@ -40099,7 +40351,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="627" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>676</v>
       </c>
@@ -40161,7 +40413,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="628" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>677</v>
       </c>
@@ -40223,7 +40475,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="629" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>678</v>
       </c>
@@ -40285,7 +40537,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="630" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>679</v>
       </c>
@@ -40347,7 +40599,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="631" spans="1:25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>680</v>
       </c>

--- a/data/shoot_elongation/shoot_elongation.xlsx
+++ b/data/shoot_elongation/shoot_elongation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapph\Documents\ubc things\work\fuelinex\data\shoot_elongation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\my_repo_dir\fuelinex\data\shoot_elongation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3EC865-E8C3-45C1-A575-AB6EF9895D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69063486-924C-4A41-84D9-A97218E7F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1092" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="777">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2250,9 +2250,6 @@
     <t>doy 192: apical shoot broken; doy 199: new shoot measured</t>
   </si>
   <si>
-    <t>doy 199: apical shoot broken</t>
-  </si>
-  <si>
     <t>doy 199: last week measurement on file might be wrong</t>
   </si>
   <si>
@@ -2298,9 +2295,6 @@
     <t>doy 213: last week might be wrong</t>
   </si>
   <si>
-    <t>doy 192: apical shoot broken doy 213: new shoot measured</t>
-  </si>
-  <si>
     <t>doy 199: new shoot measured; doy 213: shoot dead</t>
   </si>
   <si>
@@ -2328,9 +2322,6 @@
     <t>doy 199: apical shoot broken; doy 220: bud died and broke off</t>
   </si>
   <si>
-    <t>doy 192: apical shoot broken doy220: tip broke again</t>
-  </si>
-  <si>
     <t>doy 206: red paint peeled off, still hanging on doy220: red paint peeled off</t>
   </si>
   <si>
@@ -2340,10 +2331,31 @@
     <t>doy 227: previous measurements might be from side shoot</t>
   </si>
   <si>
-    <t>doy 192: apical shoot broken; doy 199: new shoot measured; doy 227: main shoot snapped off</t>
-  </si>
-  <si>
-    <t>doy 192: apical shoot broken doy227: main shoot dead &amp; snapped off</t>
+    <t>234</t>
+  </si>
+  <si>
+    <t>doy 199: apical shoot broken doy 234: shoot died back</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken; doy 199: new shoot measured; doy 227: main shoot snapped off; doy234: shoot died back</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken; doy 199: new shoot measured; doy 234: shoot died back</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken; died back</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken doy227: main shoot dead &amp; snapped off; died back</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken doy220: tip broke again; died back</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken doy 213: new shoot measured; died back</t>
+  </si>
+  <si>
+    <t>doy 234: last week might be wrong</t>
   </si>
 </sst>
 </file>
@@ -2883,7 +2895,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3211,40 +3231,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:Y631" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:Y631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
-    <filterColumn colId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:Z631" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:Z631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
+    <filterColumn colId="3">
       <filters>
-        <filter val="1"/>
+        <filter val="sequoiadendron"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{379A66C6-698B-434F-916E-AEAAE2414138}" name="128" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{62491E8B-0E97-FD4B-BCC5-4E7DBAEDE53C}" name="129" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{1393DE83-090B-694C-9F28-CB3508AB64D0}" name="130" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{207CC64C-FCD9-6541-912D-456AAFF93044}" name="131" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{B057ADF6-089A-7E49-A439-533CCCB22A43}" name="136" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{D0F960DD-A2F9-074D-98EC-CE8D38E12049}" name="137" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{35CC3589-A6D5-8840-9830-FA2F26525256}" name="143" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{42A0D812-81C2-384B-9DA8-8DD67E5EBF60}" name="150" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{5701E3D9-A7AB-1E4A-8802-92F3BFBE960B}" name="157" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{F90AD900-33C4-D449-ABD1-F7E0E3B4EDF2}" name="164" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{D706E942-3CA8-3F49-BA3E-A6ECB3F4F826}" name="171" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{CF92CF1B-48A8-4842-81E5-1005772FEFC3}" name="178" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{138A361D-3F66-E244-A947-0EFCE15F6690}" name="185" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{0BF7A4F6-800F-7548-A638-DF43A258D373}" name="192" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{84D950AD-7C40-4A1B-9BD8-38C59BC6ED07}" name="199" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{FAFF9212-B9DB-4FE0-A10B-9A015D0BD45E}" name="206" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{BCC4DD0F-71CB-48F4-9836-608B978B30CE}" name="213" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{E9E923BE-EF5E-4850-8935-DFEFBA92F817}" name="220" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{A4B69044-94A7-4C2B-A2F9-3262C99A9632}" name="227" dataDxfId="0"/>
+  <tableColumns count="26">
+    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{379A66C6-698B-434F-916E-AEAAE2414138}" name="128" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{62491E8B-0E97-FD4B-BCC5-4E7DBAEDE53C}" name="129" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{1393DE83-090B-694C-9F28-CB3508AB64D0}" name="130" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{207CC64C-FCD9-6541-912D-456AAFF93044}" name="131" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{B057ADF6-089A-7E49-A439-533CCCB22A43}" name="136" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{D0F960DD-A2F9-074D-98EC-CE8D38E12049}" name="137" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{35CC3589-A6D5-8840-9830-FA2F26525256}" name="143" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{42A0D812-81C2-384B-9DA8-8DD67E5EBF60}" name="150" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{5701E3D9-A7AB-1E4A-8802-92F3BFBE960B}" name="157" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{F90AD900-33C4-D449-ABD1-F7E0E3B4EDF2}" name="164" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{D706E942-3CA8-3F49-BA3E-A6ECB3F4F826}" name="171" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{CF92CF1B-48A8-4842-81E5-1005772FEFC3}" name="178" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{138A361D-3F66-E244-A947-0EFCE15F6690}" name="185" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{0BF7A4F6-800F-7548-A638-DF43A258D373}" name="192" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{84D950AD-7C40-4A1B-9BD8-38C59BC6ED07}" name="199" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{FAFF9212-B9DB-4FE0-A10B-9A015D0BD45E}" name="206" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{BCC4DD0F-71CB-48F4-9836-608B978B30CE}" name="213" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{E9E923BE-EF5E-4850-8935-DFEFBA92F817}" name="220" dataDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{A4B69044-94A7-4C2B-A2F9-3262C99A9632}" name="227" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{B0E6284E-943B-4FF8-9BFE-47CD7C32CF3A}" name="234" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3567,14 +3588,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y631"/>
+  <dimension ref="A1:Z631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A527" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X527" sqref="X527:X531"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z465" sqref="Z465"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
@@ -3584,7 +3605,7 @@
     <col min="13" max="17" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3649,19 +3670,22 @@
         <v>737</v>
       </c>
       <c r="V1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="X1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="Y1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3713,9 +3737,11 @@
       <c r="X2">
         <v>14.3</v>
       </c>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3767,8 +3793,11 @@
       <c r="X3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3820,8 +3849,11 @@
       <c r="X4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3873,8 +3905,11 @@
       <c r="X5">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3926,8 +3961,11 @@
       <c r="X6">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3979,8 +4017,11 @@
       <c r="X7">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4032,8 +4073,11 @@
       <c r="X8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4085,8 +4129,11 @@
       <c r="X9">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -4138,8 +4185,11 @@
       <c r="X10">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -4191,8 +4241,11 @@
       <c r="X11">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4247,8 +4300,11 @@
       <c r="X12">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4300,8 +4356,11 @@
       <c r="X13">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z13">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4353,8 +4412,11 @@
       <c r="X14">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z14">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4406,8 +4468,11 @@
       <c r="X15">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z15">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4459,8 +4524,11 @@
       <c r="X16">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z16">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4512,8 +4580,11 @@
       <c r="X17">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z17">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4565,8 +4636,11 @@
       <c r="X18">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z18">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4618,8 +4692,11 @@
       <c r="X19">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z19">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -4671,8 +4748,11 @@
       <c r="X20">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z20">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4721,8 +4801,11 @@
       <c r="X21">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z21">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4777,8 +4860,11 @@
       <c r="X22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4830,8 +4916,11 @@
       <c r="X23">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4886,8 +4975,11 @@
       <c r="X24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4939,8 +5031,11 @@
       <c r="X25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4992,8 +5087,11 @@
       <c r="X26">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z26">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -5045,8 +5143,11 @@
       <c r="X27">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5101,8 +5202,11 @@
       <c r="X28">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z28">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -5154,8 +5258,11 @@
       <c r="X29">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z29">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -5210,8 +5317,11 @@
       <c r="X30">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z30">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -5263,8 +5373,11 @@
       <c r="X31">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z31">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -5316,8 +5429,11 @@
       <c r="X32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -5369,8 +5485,11 @@
       <c r="X33">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z33">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -5422,8 +5541,11 @@
       <c r="X34">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z34" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -5475,8 +5597,11 @@
       <c r="X35">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z35">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -5528,8 +5653,11 @@
       <c r="X36">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z36">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -5584,8 +5712,11 @@
       <c r="X37">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z37">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -5637,8 +5768,11 @@
       <c r="X38">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z38">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -5690,8 +5824,11 @@
       <c r="X39">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z39">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -5743,8 +5880,11 @@
       <c r="X40">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z40">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -5796,8 +5936,11 @@
       <c r="X41">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z41">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -5849,8 +5992,11 @@
       <c r="X42">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z42">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -5902,8 +6048,11 @@
       <c r="X43">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z43">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -5955,8 +6104,11 @@
       <c r="X44">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z44">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -6008,8 +6160,11 @@
       <c r="X45">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z45">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -6061,8 +6216,11 @@
       <c r="X46">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z46">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -6114,8 +6272,11 @@
       <c r="X47">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z47">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -6167,8 +6328,11 @@
       <c r="X48">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z48">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -6220,8 +6384,11 @@
       <c r="X49">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z49" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -6273,8 +6440,11 @@
       <c r="X50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -6326,8 +6496,11 @@
       <c r="X51">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z51">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -6379,8 +6552,11 @@
       <c r="X52">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z52">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -6432,8 +6608,11 @@
       <c r="X53">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z53">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6488,8 +6667,11 @@
       <c r="X54">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -6541,8 +6723,11 @@
       <c r="X55">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z55">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -6597,8 +6782,11 @@
       <c r="X56">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z56">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -6650,8 +6838,11 @@
       <c r="X57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6706,8 +6897,11 @@
       <c r="X58">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z58">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -6759,8 +6953,11 @@
       <c r="X59">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z59">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -6815,8 +7012,11 @@
       <c r="X60">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z60">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -6868,8 +7068,11 @@
       <c r="X61">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z61">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -6921,8 +7124,11 @@
       <c r="X62">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z62">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -6974,8 +7180,11 @@
       <c r="X63">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z63">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -7027,8 +7236,11 @@
       <c r="X64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -7080,8 +7292,11 @@
       <c r="X65">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z65">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -7133,8 +7348,11 @@
       <c r="X66">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z66">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -7186,8 +7404,11 @@
       <c r="X67">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z67">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -7239,8 +7460,11 @@
       <c r="X68">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z68">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -7292,8 +7516,11 @@
       <c r="X69">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z69">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -7345,8 +7572,11 @@
       <c r="X70">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z70">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -7398,8 +7628,11 @@
       <c r="X71">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z71">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -7451,8 +7684,11 @@
       <c r="X72">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z72">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -7504,8 +7740,11 @@
       <c r="X73">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z73">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -7557,8 +7796,11 @@
       <c r="X74">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z74">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -7610,8 +7852,11 @@
       <c r="X75">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z75">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -7663,8 +7908,11 @@
       <c r="X76">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z76">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -7716,8 +7964,11 @@
       <c r="X77">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z77">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -7769,8 +8020,11 @@
       <c r="X78">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -7825,8 +8079,11 @@
       <c r="X79">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z79">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -7881,8 +8138,11 @@
       <c r="X80">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z80">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -7934,8 +8194,11 @@
       <c r="X81">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z81">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -7987,8 +8250,11 @@
       <c r="X82">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z82">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -8040,8 +8306,11 @@
       <c r="X83">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z83">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -8093,8 +8362,11 @@
       <c r="X84">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z84">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -8146,8 +8418,11 @@
       <c r="X85">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z85">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -8199,8 +8474,11 @@
       <c r="X86">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z86">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -8252,8 +8530,11 @@
       <c r="X87">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z87">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -8305,8 +8586,11 @@
       <c r="X88">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z88">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -8358,8 +8642,11 @@
       <c r="X89">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z89">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -8414,8 +8701,11 @@
       <c r="X90">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z90">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -8467,8 +8757,11 @@
       <c r="X91">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z91" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -8529,8 +8822,11 @@
       <c r="Y92">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z92">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -8591,8 +8887,11 @@
       <c r="Y93">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z93">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -8653,8 +8952,11 @@
       <c r="Y94">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z94">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -8718,8 +9020,11 @@
       <c r="Y95">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z95">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -8780,8 +9085,11 @@
       <c r="Y96">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z96">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -8842,8 +9150,11 @@
       <c r="Y97">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z97">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -8904,8 +9215,11 @@
       <c r="Y98">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z98">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -8966,8 +9280,11 @@
       <c r="Y99">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z99">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -9028,8 +9345,11 @@
       <c r="Y100">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z100">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -9090,8 +9410,11 @@
       <c r="Y101">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z101">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -9152,8 +9475,11 @@
       <c r="Y102">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z102">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -9214,8 +9540,11 @@
       <c r="Y103">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z103">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -9276,8 +9605,11 @@
       <c r="Y104">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z104">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -9338,8 +9670,11 @@
       <c r="Y105">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z105">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -9400,8 +9735,11 @@
       <c r="Y106">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z106">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -9462,8 +9800,11 @@
       <c r="Y107">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z107">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -9524,8 +9865,11 @@
       <c r="Y108">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z108">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -9589,8 +9933,11 @@
       <c r="Y109">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z109">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -9651,8 +9998,11 @@
       <c r="Y110">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z110">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -9713,8 +10063,11 @@
       <c r="Y111">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z111">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -9775,8 +10128,11 @@
       <c r="Y112">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z112">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -9840,8 +10196,11 @@
       <c r="Y113" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -9902,8 +10261,11 @@
       <c r="Y114">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z114">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -9964,8 +10326,11 @@
       <c r="Y115">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z115">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -10026,8 +10391,11 @@
       <c r="Y116">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z116">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -10088,8 +10456,11 @@
       <c r="Y117">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z117">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -10150,8 +10521,11 @@
       <c r="Y118">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z118">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -10212,8 +10586,11 @@
       <c r="Y119">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z119">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -10274,8 +10651,11 @@
       <c r="Y120">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z120">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -10336,8 +10716,11 @@
       <c r="Y121">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z121">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -10401,8 +10784,11 @@
       <c r="Y122">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z122">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -10463,8 +10849,11 @@
       <c r="Y123">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -10525,8 +10914,11 @@
       <c r="Y124">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -10587,8 +10979,11 @@
       <c r="Y125">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z125">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -10649,8 +11044,11 @@
       <c r="Y126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -10711,8 +11109,11 @@
       <c r="Y127">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z127">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -10773,8 +11174,11 @@
       <c r="Y128">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z128">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -10835,8 +11239,11 @@
       <c r="Y129">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="130" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z129">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -10897,8 +11304,11 @@
       <c r="Y130">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z130">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -10959,8 +11369,11 @@
       <c r="Y131">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z131">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -11021,8 +11434,11 @@
       <c r="Y132">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z132">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -11083,8 +11499,11 @@
       <c r="Y133">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="134" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z133">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -11145,8 +11564,11 @@
       <c r="Y134">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z134">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -11207,8 +11629,11 @@
       <c r="Y135">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z135">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -11272,8 +11697,11 @@
       <c r="Y136">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -11334,8 +11762,11 @@
       <c r="Y137">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z137">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>158</v>
       </c>
@@ -11396,8 +11827,11 @@
       <c r="Y138">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -11458,8 +11892,11 @@
       <c r="Y139">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z139">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -11520,8 +11957,11 @@
       <c r="Y140">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -11582,8 +12022,11 @@
       <c r="Y141">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z141">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -11644,8 +12087,11 @@
       <c r="Y142">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="143" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z142">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>163</v>
       </c>
@@ -11706,8 +12152,11 @@
       <c r="Y143">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z143">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -11768,8 +12217,11 @@
       <c r="Y144">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z144">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -11830,8 +12282,11 @@
       <c r="Y145">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z145">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -11892,8 +12347,11 @@
       <c r="Y146">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="147" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z146">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -11954,8 +12412,11 @@
       <c r="Y147">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="148" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z147">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -12016,8 +12477,11 @@
       <c r="Y148">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z148">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>169</v>
       </c>
@@ -12078,8 +12542,11 @@
       <c r="Y149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -12140,8 +12607,11 @@
       <c r="Y150">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z150">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -12202,8 +12672,11 @@
       <c r="Y151">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z151">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -12264,8 +12737,11 @@
       <c r="Y152">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z152">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -12326,8 +12802,11 @@
       <c r="Y153">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z153">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -12388,8 +12867,11 @@
       <c r="Y154">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z154">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>175</v>
       </c>
@@ -12450,8 +12932,11 @@
       <c r="Y155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -12512,8 +12997,11 @@
       <c r="Y156">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="157" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z156">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -12574,8 +13062,11 @@
       <c r="Y157">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="158" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z157">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -12636,8 +13127,11 @@
       <c r="Y158">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="159" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z158">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -12698,8 +13192,11 @@
       <c r="Y159">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="160" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z159">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -12760,8 +13257,11 @@
       <c r="Y160">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z160">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -12822,8 +13322,11 @@
       <c r="Y161">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="162" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z161">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -12887,8 +13390,11 @@
       <c r="Y162">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z162" s="1">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -12949,8 +13455,11 @@
       <c r="Y163">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z163">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -13014,8 +13523,11 @@
       <c r="Y164">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="165" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z164">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -13076,8 +13588,11 @@
       <c r="Y165">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="166" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z165">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -13138,8 +13653,11 @@
       <c r="Y166">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z166">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -13200,8 +13718,11 @@
       <c r="Y167">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z167">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -13262,8 +13783,11 @@
       <c r="Y168">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z168">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -13324,8 +13848,11 @@
       <c r="Y169">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z169">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -13386,8 +13913,11 @@
       <c r="Y170">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z170">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -13448,8 +13978,11 @@
       <c r="Y171">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="172" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z171">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -13510,8 +14043,11 @@
       <c r="Y172">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="173" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z172">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -13572,8 +14108,11 @@
       <c r="Y173">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z173">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -13634,8 +14173,11 @@
       <c r="Y174">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z174">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -13696,8 +14238,11 @@
       <c r="Y175">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="176" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z175">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -13758,8 +14303,11 @@
       <c r="Y176">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="177" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z176">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -13820,8 +14368,11 @@
       <c r="Y177">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="178" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z177">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -13882,8 +14433,11 @@
       <c r="Y178">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="179" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z178">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -13944,8 +14498,11 @@
       <c r="Y179">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="180" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z179">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -14006,8 +14563,11 @@
       <c r="Y180">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="181" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z180">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -14068,8 +14628,11 @@
       <c r="Y181">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -14121,8 +14684,11 @@
       <c r="X182">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z182">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -14174,8 +14740,11 @@
       <c r="X183">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z183" s="1">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -14227,8 +14796,11 @@
       <c r="X184">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z184">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -14280,8 +14852,11 @@
       <c r="X185">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z185">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -14333,8 +14908,11 @@
       <c r="X186">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="187" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z186" s="1">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -14386,8 +14964,11 @@
       <c r="X187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -14439,8 +15020,11 @@
       <c r="X188">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z188">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -14495,8 +15079,11 @@
       <c r="X189">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="190" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z189">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>213</v>
       </c>
@@ -14548,8 +15135,11 @@
       <c r="X190">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="191" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z190">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -14601,8 +15191,11 @@
       <c r="X191">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -14654,8 +15247,11 @@
       <c r="X192">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="193" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z192">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -14707,8 +15303,11 @@
       <c r="X193">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="194" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z193">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -14761,13 +15360,16 @@
         <v>7.5</v>
       </c>
       <c r="W194" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="X194">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="195" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z194" s="1">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -14819,8 +15421,11 @@
       <c r="X195">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="196" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z195">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>219</v>
       </c>
@@ -14872,8 +15477,11 @@
       <c r="X196">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z196">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -14925,8 +15533,11 @@
       <c r="X197">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z197">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>221</v>
       </c>
@@ -14978,8 +15589,11 @@
       <c r="X198">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z198">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -15031,8 +15645,11 @@
       <c r="X199">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z199">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -15084,8 +15701,11 @@
       <c r="X200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -15137,8 +15757,11 @@
       <c r="X201">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="202" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z201">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -15190,8 +15813,11 @@
       <c r="X202">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="203" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z202">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -15243,8 +15869,11 @@
       <c r="X203">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="204" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z203">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -15296,8 +15925,11 @@
       <c r="X204">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -15349,8 +15981,11 @@
       <c r="X205">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="206" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z205">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -15402,8 +16037,11 @@
       <c r="X206">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="207" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z206">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -15455,8 +16093,11 @@
       <c r="X207">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="208" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z207">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -15508,8 +16149,11 @@
       <c r="X208">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="209" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z208">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -15561,8 +16205,11 @@
       <c r="X209">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="210" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z209">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -15614,8 +16261,11 @@
       <c r="X210">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="211" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z210">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -15667,8 +16317,11 @@
       <c r="X211">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z211">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -15720,8 +16373,11 @@
       <c r="X212">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z212">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -15773,8 +16429,11 @@
       <c r="X213">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z213">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -15826,8 +16485,11 @@
       <c r="X214">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z214">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -15879,8 +16541,11 @@
       <c r="X215">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z215">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -15932,8 +16597,11 @@
       <c r="X216">
         <v>12</v>
       </c>
-    </row>
-    <row r="217" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z216">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -15985,8 +16653,11 @@
       <c r="X217">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="218" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z217">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -16038,8 +16709,11 @@
       <c r="X218">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="219" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z218">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -16094,8 +16768,11 @@
       <c r="X219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -16147,8 +16824,11 @@
       <c r="X220">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z220">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>244</v>
       </c>
@@ -16200,8 +16880,11 @@
       <c r="X221">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="222" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z221">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -16253,8 +16936,11 @@
       <c r="X222">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="223" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z222">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>246</v>
       </c>
@@ -16306,8 +16992,11 @@
       <c r="X223">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -16359,8 +17048,11 @@
       <c r="X224">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="225" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z224">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>248</v>
       </c>
@@ -16412,8 +17104,11 @@
       <c r="X225">
         <v>5</v>
       </c>
-    </row>
-    <row r="226" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -16465,8 +17160,11 @@
       <c r="X226">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z226">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -16483,7 +17181,7 @@
         <v>204</v>
       </c>
       <c r="F227" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I227">
         <v>5.3</v>
@@ -16521,8 +17219,11 @@
       <c r="X227">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z227">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -16574,8 +17275,11 @@
       <c r="X228">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z228">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -16627,8 +17331,11 @@
       <c r="X229">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z229">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -16680,8 +17387,11 @@
       <c r="X230">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z230">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -16733,8 +17443,11 @@
       <c r="X231">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -16786,8 +17499,11 @@
       <c r="X232">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="233" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z232">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -16839,8 +17555,11 @@
       <c r="X233">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="234" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z233">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -16892,8 +17611,11 @@
       <c r="X234">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="235" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z234">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -16945,8 +17667,11 @@
       <c r="X235">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="236" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z235">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -16963,7 +17688,7 @@
         <v>204</v>
       </c>
       <c r="F236" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I236">
         <v>12.9</v>
@@ -17001,8 +17726,11 @@
       <c r="X236">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z236">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>260</v>
       </c>
@@ -17057,8 +17785,11 @@
       <c r="X237">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="238" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z237">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -17110,8 +17841,11 @@
       <c r="X238">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="239" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z238">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -17163,8 +17897,11 @@
       <c r="X239">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="240" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z239">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -17216,8 +17953,11 @@
       <c r="X240">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="241" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z240" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -17269,8 +18009,11 @@
       <c r="X241">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -17322,8 +18065,11 @@
       <c r="X242">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -17375,8 +18121,11 @@
       <c r="X243">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z243">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -17428,8 +18177,11 @@
       <c r="X244">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z244">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>268</v>
       </c>
@@ -17446,7 +18198,7 @@
         <v>204</v>
       </c>
       <c r="F245" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I245">
         <v>1.3</v>
@@ -17484,8 +18236,11 @@
       <c r="X245" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z245" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -17537,8 +18292,11 @@
       <c r="X246">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z246">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>270</v>
       </c>
@@ -17590,8 +18348,11 @@
       <c r="X247">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -17643,8 +18404,11 @@
       <c r="X248">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="249" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z248">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>272</v>
       </c>
@@ -17696,8 +18460,11 @@
       <c r="X249">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="250" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z249">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -17752,8 +18519,11 @@
       <c r="X250">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="251" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z250">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>274</v>
       </c>
@@ -17808,8 +18578,11 @@
       <c r="X251">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="252" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z251">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -17861,8 +18634,11 @@
       <c r="X252">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="253" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z252">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>276</v>
       </c>
@@ -17914,8 +18690,11 @@
       <c r="X253">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="254" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z253">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -17967,8 +18746,11 @@
       <c r="X254">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="255" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z254">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -18020,8 +18802,11 @@
       <c r="X255">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z255">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -18073,8 +18858,11 @@
       <c r="X256">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z256">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>280</v>
       </c>
@@ -18126,8 +18914,11 @@
       <c r="X257">
         <v>20</v>
       </c>
-    </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z257">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>281</v>
       </c>
@@ -18179,8 +18970,11 @@
       <c r="X258">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z258">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -18232,8 +19026,11 @@
       <c r="X259">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z259">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>283</v>
       </c>
@@ -18285,8 +19082,11 @@
       <c r="X260">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z260">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -18338,8 +19138,11 @@
       <c r="X261">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="262" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z261">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>285</v>
       </c>
@@ -18391,8 +19194,11 @@
       <c r="X262">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="263" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z262">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -18444,8 +19250,11 @@
       <c r="X263">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="264" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z263">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -18497,8 +19306,11 @@
       <c r="X264">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="265" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z264">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -18550,8 +19362,11 @@
       <c r="X265">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="266" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z265">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -18603,8 +19418,11 @@
       <c r="X266">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="267" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z266">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -18656,8 +19474,11 @@
       <c r="X267">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="268" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z267">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>291</v>
       </c>
@@ -18709,8 +19530,11 @@
       <c r="X268">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="269" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z268">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -18762,8 +19586,11 @@
       <c r="X269">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="270" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z269">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -18815,8 +19642,11 @@
       <c r="X270">
         <v>14</v>
       </c>
-    </row>
-    <row r="271" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z270">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -18868,8 +19698,11 @@
       <c r="X271">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z271">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -18933,8 +19766,11 @@
       <c r="Y272">
         <v>18</v>
       </c>
-    </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z272" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -18995,8 +19831,11 @@
       <c r="Y273">
         <v>40.200000000000003</v>
       </c>
-    </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z273" s="1">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>299</v>
       </c>
@@ -19013,7 +19852,7 @@
         <v>297</v>
       </c>
       <c r="F274" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I274">
         <v>1.1000000000000001</v>
@@ -19060,8 +19899,11 @@
       <c r="Y274">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z274" s="1">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -19078,7 +19920,7 @@
         <v>297</v>
       </c>
       <c r="F275" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="I275">
         <v>1.8</v>
@@ -19125,8 +19967,11 @@
       <c r="Y275">
         <v>7</v>
       </c>
-    </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z275" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>301</v>
       </c>
@@ -19190,8 +20035,11 @@
       <c r="Y276">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z276" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -19252,8 +20100,11 @@
       <c r="Y277">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="278" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z277" s="1">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>303</v>
       </c>
@@ -19314,8 +20165,11 @@
       <c r="Y278">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="279" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z278" s="1">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -19379,8 +20233,11 @@
       <c r="Y279" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="280" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z279" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>305</v>
       </c>
@@ -19441,8 +20298,11 @@
       <c r="Y280">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="281" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z280" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>306</v>
       </c>
@@ -19503,8 +20363,11 @@
       <c r="Y281">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="282" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z281" s="1">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="282" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -19521,7 +20384,7 @@
         <v>297</v>
       </c>
       <c r="F282" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I282">
         <v>1.7</v>
@@ -19568,8 +20431,11 @@
       <c r="Y282" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="283" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z282" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="283" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>308</v>
       </c>
@@ -19633,8 +20499,11 @@
       <c r="Y283" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="284" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z283" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -19698,8 +20567,11 @@
       <c r="Y284">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="285" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z284" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -19716,7 +20588,7 @@
         <v>297</v>
       </c>
       <c r="F285" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I285">
         <v>0.6</v>
@@ -19763,8 +20635,11 @@
       <c r="Y285">
         <v>16</v>
       </c>
-    </row>
-    <row r="286" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z285" s="1">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -19781,7 +20656,7 @@
         <v>297</v>
       </c>
       <c r="F286" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I286">
         <v>1.1000000000000001</v>
@@ -19828,8 +20703,11 @@
       <c r="Y286">
         <v>42.2</v>
       </c>
-    </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z286" s="1">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -19890,8 +20768,11 @@
       <c r="Y287">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z287" s="1">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -19952,8 +20833,11 @@
       <c r="Y288">
         <v>22</v>
       </c>
-    </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z288" s="1">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -20014,8 +20898,11 @@
       <c r="Y289">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z289" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -20076,8 +20963,11 @@
       <c r="Y290">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z290" s="1">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -20138,8 +21028,11 @@
       <c r="Y291">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="292" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z291" s="1">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -20200,8 +21093,11 @@
       <c r="Y292">
         <v>25</v>
       </c>
-    </row>
-    <row r="293" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z292" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -20262,8 +21158,11 @@
       <c r="Y293">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="294" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z293" s="1">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -20324,8 +21223,11 @@
       <c r="Y294">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="295" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z294" s="1">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>320</v>
       </c>
@@ -20386,8 +21288,11 @@
       <c r="Y295">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="296" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z295" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="296" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -20448,8 +21353,11 @@
       <c r="Y296">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="297" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z296" s="1">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>322</v>
       </c>
@@ -20466,7 +21374,7 @@
         <v>297</v>
       </c>
       <c r="F297" t="s">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="I297">
         <v>1.7</v>
@@ -20513,8 +21421,11 @@
       <c r="Y297">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="298" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z297" s="1">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -20575,8 +21486,11 @@
       <c r="Y298">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="299" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z298" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="299" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>324</v>
       </c>
@@ -20593,7 +21507,7 @@
         <v>297</v>
       </c>
       <c r="F299" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I299">
         <v>1.3</v>
@@ -20640,8 +21554,11 @@
       <c r="Y299">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="300" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z299" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -20702,8 +21619,11 @@
       <c r="Y300">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="301" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z300" s="1">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>326</v>
       </c>
@@ -20764,8 +21684,11 @@
       <c r="Y301">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z301" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -20826,8 +21749,11 @@
       <c r="Y302">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z302" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>328</v>
       </c>
@@ -20888,8 +21814,11 @@
       <c r="Y303">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z303" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -20950,8 +21879,11 @@
       <c r="Y304">
         <v>12</v>
       </c>
-    </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z304" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>330</v>
       </c>
@@ -21012,8 +21944,11 @@
       <c r="Y305">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z305" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -21074,8 +22009,11 @@
       <c r="Y306">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="307" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z306" s="1">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>332</v>
       </c>
@@ -21136,8 +22074,11 @@
       <c r="Y307">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="308" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z307" s="1">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="308" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -21198,8 +22139,11 @@
       <c r="Y308">
         <v>14</v>
       </c>
-    </row>
-    <row r="309" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z308" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>334</v>
       </c>
@@ -21260,8 +22204,11 @@
       <c r="Y309">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="310" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z309" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -21325,8 +22272,11 @@
       <c r="Y310">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="311" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z310" s="1">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -21387,8 +22337,11 @@
       <c r="Y311">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="312" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z311" s="1">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -21449,8 +22402,11 @@
       <c r="Y312">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="313" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z312" s="1">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -21467,7 +22423,7 @@
         <v>297</v>
       </c>
       <c r="F313" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I313">
         <v>1.2</v>
@@ -21514,8 +22470,11 @@
       <c r="Y313">
         <v>33</v>
       </c>
-    </row>
-    <row r="314" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z313" s="1">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -21579,8 +22538,11 @@
       <c r="Y314">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="315" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z314" s="1">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -21641,8 +22603,11 @@
       <c r="Y315">
         <v>33.4</v>
       </c>
-    </row>
-    <row r="316" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z315" s="1">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -21703,8 +22668,11 @@
       <c r="Y316">
         <v>37.4</v>
       </c>
-    </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z316" s="1">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="317" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -21721,7 +22689,7 @@
         <v>297</v>
       </c>
       <c r="F317" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="I317">
         <v>0.9</v>
@@ -21768,8 +22736,11 @@
       <c r="Y317">
         <v>3</v>
       </c>
-    </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z317" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -21830,8 +22801,11 @@
       <c r="Y318">
         <v>11</v>
       </c>
-    </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z318" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -21892,8 +22866,11 @@
       <c r="Y319">
         <v>30.3</v>
       </c>
-    </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z319" s="1">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -21957,8 +22934,11 @@
       <c r="Y320">
         <v>29.3</v>
       </c>
-    </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z320" s="1">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -22019,8 +22999,11 @@
       <c r="Y321">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="322" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z321" s="1">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -22084,8 +23067,11 @@
       <c r="Y322" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="323" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z322" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="323" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>349</v>
       </c>
@@ -22146,8 +23132,11 @@
       <c r="Y323">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="324" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z323" s="1">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -22211,8 +23200,11 @@
       <c r="Y324" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="325" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z324" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="325" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>352</v>
       </c>
@@ -22273,8 +23265,11 @@
       <c r="Y325">
         <v>60</v>
       </c>
-    </row>
-    <row r="326" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z325" s="1">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -22335,8 +23330,11 @@
       <c r="Y326">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="327" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z326" s="1">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>354</v>
       </c>
@@ -22397,8 +23395,11 @@
       <c r="Y327">
         <v>41</v>
       </c>
-    </row>
-    <row r="328" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z327" s="1">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>355</v>
       </c>
@@ -22415,7 +23416,7 @@
         <v>297</v>
       </c>
       <c r="F328" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="I328">
         <v>1.5</v>
@@ -22462,8 +23463,11 @@
       <c r="Y328">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="329" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z328" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -22524,8 +23528,11 @@
       <c r="Y329">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="330" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z329" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>357</v>
       </c>
@@ -22586,8 +23593,11 @@
       <c r="Y330">
         <v>19</v>
       </c>
-    </row>
-    <row r="331" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z330" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="331" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -22604,7 +23614,7 @@
         <v>297</v>
       </c>
       <c r="F331" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I331">
         <v>1.4</v>
@@ -22651,8 +23661,11 @@
       <c r="Y331" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z331" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="332" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>359</v>
       </c>
@@ -22669,7 +23682,7 @@
         <v>297</v>
       </c>
       <c r="F332" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I332">
         <v>1.5</v>
@@ -22716,8 +23729,11 @@
       <c r="Y332">
         <v>44.4</v>
       </c>
-    </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z332" s="1">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -22778,8 +23794,11 @@
       <c r="Y333">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z333" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>361</v>
       </c>
@@ -22796,7 +23815,7 @@
         <v>297</v>
       </c>
       <c r="F334" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I334">
         <v>3.2</v>
@@ -22843,8 +23862,11 @@
       <c r="Y334">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z334" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -22905,8 +23927,11 @@
       <c r="Y335">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z335" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>363</v>
       </c>
@@ -22923,7 +23948,7 @@
         <v>297</v>
       </c>
       <c r="F336" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I336">
         <v>1.7</v>
@@ -22970,8 +23995,11 @@
       <c r="Y336">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="337" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z336" s="1">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -23032,8 +24060,11 @@
       <c r="Y337">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="338" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z337" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>365</v>
       </c>
@@ -23094,8 +24125,11 @@
       <c r="Y338">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="339" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z338" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -23156,8 +24190,11 @@
       <c r="Y339">
         <v>2</v>
       </c>
-    </row>
-    <row r="340" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z339" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>367</v>
       </c>
@@ -23218,8 +24255,11 @@
       <c r="Y340">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="341" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z340" s="1">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -23280,8 +24320,11 @@
       <c r="Y341">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="342" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z341" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>369</v>
       </c>
@@ -23342,8 +24385,11 @@
       <c r="Y342">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="343" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z342" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -23360,7 +24406,7 @@
         <v>297</v>
       </c>
       <c r="F343" t="s">
-        <v>740</v>
+        <v>771</v>
       </c>
       <c r="I343">
         <v>4.4000000000000004</v>
@@ -23407,8 +24453,11 @@
       <c r="Y343">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="344" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z343" s="1">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>371</v>
       </c>
@@ -23425,7 +24474,7 @@
         <v>297</v>
       </c>
       <c r="F344" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I344">
         <v>1.8</v>
@@ -23472,8 +24521,11 @@
       <c r="Y344">
         <v>30.7</v>
       </c>
-    </row>
-    <row r="345" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z344" s="1">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="345" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -23534,8 +24586,11 @@
       <c r="Y345">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="346" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z345" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>373</v>
       </c>
@@ -23596,8 +24651,11 @@
       <c r="Y346">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z346" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -23658,8 +24716,11 @@
       <c r="Y347">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z347" s="1">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="348" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>375</v>
       </c>
@@ -23720,8 +24781,11 @@
       <c r="Y348">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z348" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -23782,8 +24846,11 @@
       <c r="Y349">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z349" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>377</v>
       </c>
@@ -23800,7 +24867,7 @@
         <v>297</v>
       </c>
       <c r="F350" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="I350">
         <v>1.3</v>
@@ -23847,8 +24914,11 @@
       <c r="Y350">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z350" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>378</v>
       </c>
@@ -23909,8 +24979,11 @@
       <c r="Y351">
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="352" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z351" s="1">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -23974,8 +25047,11 @@
       <c r="Y352">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z352" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>380</v>
       </c>
@@ -24036,8 +25112,11 @@
       <c r="Y353">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="354" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z353" s="1">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -24098,8 +25177,11 @@
       <c r="Y354">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="355" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z354" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>382</v>
       </c>
@@ -24163,8 +25245,11 @@
       <c r="Y355" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="356" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z355" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="356" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -24225,8 +25310,11 @@
       <c r="Y356">
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="357" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z356" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="357" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>384</v>
       </c>
@@ -24290,8 +25378,11 @@
       <c r="Y357">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="358" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z357" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -24352,8 +25443,11 @@
       <c r="Y358">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="359" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z358" s="1">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>386</v>
       </c>
@@ -24414,8 +25508,11 @@
       <c r="Y359">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="360" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z359" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -24476,8 +25573,11 @@
       <c r="Y360">
         <v>37</v>
       </c>
-    </row>
-    <row r="361" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z360" s="1">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>388</v>
       </c>
@@ -24538,8 +25638,11 @@
       <c r="Y361">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z361" s="1">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -24591,8 +25694,11 @@
       <c r="X362">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z362">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -24644,8 +25750,11 @@
       <c r="X363">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z363">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -24700,8 +25809,11 @@
       <c r="X364">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z364">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -24753,8 +25865,11 @@
       <c r="X365">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z365">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="366" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -24806,8 +25921,11 @@
       <c r="X366">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z366">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -24859,8 +25977,11 @@
       <c r="X367">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="368" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z367">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -24915,8 +26036,11 @@
       <c r="X368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -24971,8 +26095,11 @@
       <c r="X369">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="370" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z369">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -25024,8 +26151,11 @@
       <c r="X370">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="371" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z370">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="371" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -25077,8 +26207,11 @@
       <c r="X371">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="372" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z371">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -25130,8 +26263,11 @@
       <c r="X372">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="373" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z372">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -25183,8 +26319,11 @@
       <c r="X373">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="374" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z373">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -25236,8 +26375,11 @@
       <c r="X374">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="375" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z374">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -25289,8 +26431,11 @@
       <c r="X375">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -25345,8 +26490,11 @@
       <c r="X376">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z376">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -25398,8 +26546,11 @@
       <c r="X377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -25451,8 +26602,11 @@
       <c r="X378">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z378">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -25504,8 +26658,11 @@
       <c r="X379">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -25560,8 +26717,11 @@
       <c r="X380" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z380" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="381" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -25616,8 +26776,11 @@
       <c r="X381">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="382" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z381">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -25669,8 +26832,11 @@
       <c r="X382">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="383" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z382">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>415</v>
       </c>
@@ -25722,8 +26888,11 @@
       <c r="X383">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="384" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z383">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -25775,8 +26944,11 @@
       <c r="X384">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="385" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z384">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>417</v>
       </c>
@@ -25828,8 +27000,11 @@
       <c r="X385">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="386" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z385">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -25881,8 +27056,11 @@
       <c r="X386">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="387" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z386">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>419</v>
       </c>
@@ -25937,8 +27115,11 @@
       <c r="X387" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="388" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z387" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="388" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -25990,8 +27171,11 @@
       <c r="X388">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="389" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z388">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>422</v>
       </c>
@@ -26043,8 +27227,11 @@
       <c r="X389">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="390" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z389">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -26096,8 +27283,11 @@
       <c r="X390">
         <v>18</v>
       </c>
-    </row>
-    <row r="391" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z390">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="391" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>424</v>
       </c>
@@ -26149,8 +27339,11 @@
       <c r="X391">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z391">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -26205,8 +27398,11 @@
       <c r="X392" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z392" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="393" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -26258,8 +27454,11 @@
       <c r="X393">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z393">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -26314,8 +27513,11 @@
       <c r="X394">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z394">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -26367,8 +27569,11 @@
       <c r="X395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -26420,8 +27625,11 @@
       <c r="X396">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="397" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z396">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -26473,8 +27681,11 @@
       <c r="X397">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="398" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z397">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -26526,8 +27737,11 @@
       <c r="X398">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="399" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z398">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -26582,8 +27796,11 @@
       <c r="X399">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="400" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z399">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>434</v>
       </c>
@@ -26635,8 +27852,11 @@
       <c r="X400">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="401" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z400">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -26688,8 +27908,11 @@
       <c r="X401">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="402" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z401">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>436</v>
       </c>
@@ -26747,8 +27970,11 @@
       <c r="X402" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="403" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z402" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="403" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -26803,8 +28029,11 @@
       <c r="X403">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="404" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z403">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
         <v>438</v>
       </c>
@@ -26859,8 +28088,11 @@
       <c r="X404" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="405" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z404" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="405" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
         <v>439</v>
       </c>
@@ -26912,8 +28144,11 @@
       <c r="X405">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="406" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z405">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -26965,8 +28200,11 @@
       <c r="X406">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z406">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>441</v>
       </c>
@@ -27018,8 +28256,11 @@
       <c r="X407">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z407">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -27071,8 +28312,11 @@
       <c r="X408">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z408">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
         <v>443</v>
       </c>
@@ -27124,8 +28368,11 @@
       <c r="X409">
         <v>3</v>
       </c>
-    </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -27177,8 +28424,11 @@
       <c r="X410">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z410">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>445</v>
       </c>
@@ -27230,8 +28480,11 @@
       <c r="X411">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="412" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z411">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -27283,8 +28536,11 @@
       <c r="X412">
         <v>2</v>
       </c>
-    </row>
-    <row r="413" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>447</v>
       </c>
@@ -27336,8 +28592,11 @@
       <c r="X413">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="414" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z413">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -27389,8 +28648,11 @@
       <c r="X414">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="415" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z414">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>449</v>
       </c>
@@ -27442,8 +28704,11 @@
       <c r="X415">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="416" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z415">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="416" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -27498,8 +28763,11 @@
       <c r="X416" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="417" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z416" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="417" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
         <v>451</v>
       </c>
@@ -27554,8 +28822,11 @@
       <c r="X417" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="418" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z417" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="418" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -27607,8 +28878,11 @@
       <c r="X418">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="419" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z418">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
         <v>453</v>
       </c>
@@ -27660,8 +28934,11 @@
       <c r="X419">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="420" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z419">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -27713,8 +28990,11 @@
       <c r="X420">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="421" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z420">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -27769,8 +29049,11 @@
       <c r="X421" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z421" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="422" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
         <v>457</v>
       </c>
@@ -27822,8 +29105,11 @@
       <c r="X422">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z422">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="423" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
         <v>458</v>
       </c>
@@ -27878,8 +29164,11 @@
       <c r="X423" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z423" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="424" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
         <v>460</v>
       </c>
@@ -27931,8 +29220,11 @@
       <c r="X424">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z424">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
         <v>461</v>
       </c>
@@ -27984,8 +29276,11 @@
       <c r="X425">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z425">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
         <v>462</v>
       </c>
@@ -28040,8 +29335,11 @@
       <c r="X426" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="427" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z426" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="427" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
         <v>463</v>
       </c>
@@ -28093,8 +29391,11 @@
       <c r="X427">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="428" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z427">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
         <v>464</v>
       </c>
@@ -28146,8 +29447,11 @@
       <c r="X428">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="429" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z428">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
         <v>465</v>
       </c>
@@ -28199,8 +29503,11 @@
       <c r="X429" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="430" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z429" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="430" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
         <v>467</v>
       </c>
@@ -28252,8 +29559,11 @@
       <c r="X430">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="431" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z430">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
         <v>468</v>
       </c>
@@ -28308,8 +29618,11 @@
       <c r="X431" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="432" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z431" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="432" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
         <v>469</v>
       </c>
@@ -28361,8 +29674,11 @@
       <c r="X432">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="433" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z432">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
         <v>470</v>
       </c>
@@ -28414,8 +29730,11 @@
       <c r="X433">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="434" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z433">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
         <v>471</v>
       </c>
@@ -28467,8 +29786,11 @@
       <c r="X434">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="435" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z434">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
         <v>472</v>
       </c>
@@ -28520,8 +29842,11 @@
       <c r="X435">
         <v>2</v>
       </c>
-    </row>
-    <row r="436" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
         <v>473</v>
       </c>
@@ -28573,8 +29898,11 @@
       <c r="X436">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z436">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>474</v>
       </c>
@@ -28626,8 +29954,11 @@
       <c r="X437">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="438" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z437">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
         <v>475</v>
       </c>
@@ -28679,8 +30010,11 @@
       <c r="X438">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="439" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z438">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
         <v>476</v>
       </c>
@@ -28732,8 +30066,11 @@
       <c r="X439">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="440" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z439">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
         <v>477</v>
       </c>
@@ -28785,8 +30122,11 @@
       <c r="X440">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="441" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z440">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
         <v>478</v>
       </c>
@@ -28838,8 +30178,11 @@
       <c r="X441">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="442" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z441">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
         <v>479</v>
       </c>
@@ -28894,8 +30237,11 @@
       <c r="X442" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="443" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z442" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="443" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
         <v>481</v>
       </c>
@@ -28947,8 +30293,11 @@
       <c r="X443">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="444" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z443">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
         <v>482</v>
       </c>
@@ -29000,8 +30349,11 @@
       <c r="X444" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="445" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z444" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="445" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
         <v>483</v>
       </c>
@@ -29053,8 +30405,11 @@
       <c r="X445">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="446" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z445">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
         <v>484</v>
       </c>
@@ -29106,8 +30461,11 @@
       <c r="X446">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="447" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z446">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
         <v>485</v>
       </c>
@@ -29159,8 +30517,11 @@
       <c r="X447">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="448" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z447">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
         <v>486</v>
       </c>
@@ -29212,8 +30573,11 @@
       <c r="X448">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="449" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z448">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
         <v>487</v>
       </c>
@@ -29265,8 +30629,11 @@
       <c r="X449">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="450" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z449">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="450" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
         <v>488</v>
       </c>
@@ -29318,8 +30685,11 @@
       <c r="X450">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="451" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z450">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
         <v>489</v>
       </c>
@@ -29374,8 +30744,11 @@
       <c r="X451" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z451" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="452" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
         <v>490</v>
       </c>
@@ -29436,8 +30809,11 @@
       <c r="Y452">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z452">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
         <v>493</v>
       </c>
@@ -29498,8 +30874,11 @@
       <c r="Y453">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z453">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
         <v>494</v>
       </c>
@@ -29560,8 +30939,11 @@
       <c r="Y454">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z454">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
         <v>495</v>
       </c>
@@ -29622,8 +31004,11 @@
       <c r="Y455">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z455">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
         <v>496</v>
       </c>
@@ -29684,8 +31069,11 @@
       <c r="Y456">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z456">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
         <v>497</v>
       </c>
@@ -29702,7 +31090,7 @@
         <v>492</v>
       </c>
       <c r="F457" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J457">
         <v>1.2</v>
@@ -29749,8 +31137,11 @@
       <c r="Y457">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="458" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z457">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
         <v>498</v>
       </c>
@@ -29811,8 +31202,11 @@
       <c r="Y458">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="459" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z458">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
         <v>499</v>
       </c>
@@ -29873,8 +31267,11 @@
       <c r="Y459">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="460" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z459">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
         <v>500</v>
       </c>
@@ -29935,8 +31332,11 @@
       <c r="Y460">
         <v>3</v>
       </c>
-    </row>
-    <row r="461" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
         <v>501</v>
       </c>
@@ -29997,8 +31397,11 @@
       <c r="Y461">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="462" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z461">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
         <v>502</v>
       </c>
@@ -30059,8 +31462,11 @@
       <c r="Y462">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="463" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z462">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
         <v>503</v>
       </c>
@@ -30121,8 +31527,11 @@
       <c r="Y463">
         <v>19</v>
       </c>
-    </row>
-    <row r="464" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z463">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="464" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
         <v>504</v>
       </c>
@@ -30183,8 +31592,11 @@
       <c r="Y464">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="465" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z464">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
         <v>505</v>
       </c>
@@ -30245,8 +31657,11 @@
       <c r="Y465">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="466" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z465">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>506</v>
       </c>
@@ -30307,8 +31722,11 @@
       <c r="Y466">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z466">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
         <v>507</v>
       </c>
@@ -30369,8 +31787,11 @@
       <c r="Y467">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z467">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
         <v>508</v>
       </c>
@@ -30431,8 +31852,11 @@
       <c r="Y468">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z468">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="469" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A469" t="s">
         <v>509</v>
       </c>
@@ -30493,8 +31917,11 @@
       <c r="Y469">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z469">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="470" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
         <v>510</v>
       </c>
@@ -30555,8 +31982,11 @@
       <c r="Y470">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z470">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="471" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
         <v>511</v>
       </c>
@@ -30617,8 +32047,11 @@
       <c r="Y471">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="472" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z471">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A472" t="s">
         <v>512</v>
       </c>
@@ -30679,8 +32112,11 @@
       <c r="Y472">
         <v>8</v>
       </c>
-    </row>
-    <row r="473" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z472">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A473" t="s">
         <v>513</v>
       </c>
@@ -30741,8 +32177,11 @@
       <c r="Y473">
         <v>2</v>
       </c>
-    </row>
-    <row r="474" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A474" t="s">
         <v>514</v>
       </c>
@@ -30806,8 +32245,11 @@
       <c r="Y474">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="475" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z474">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
         <v>516</v>
       </c>
@@ -30868,8 +32310,11 @@
       <c r="Y475">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="476" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z475">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A476" t="s">
         <v>517</v>
       </c>
@@ -30930,8 +32375,11 @@
       <c r="Y476">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="477" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z476">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="477" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A477" t="s">
         <v>518</v>
       </c>
@@ -30992,8 +32440,11 @@
       <c r="Y477">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z477">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A478" t="s">
         <v>519</v>
       </c>
@@ -31054,8 +32505,11 @@
       <c r="Y478">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="479" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z478">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A479" t="s">
         <v>520</v>
       </c>
@@ -31116,8 +32570,11 @@
       <c r="Y479">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="480" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z479">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
         <v>521</v>
       </c>
@@ -31178,8 +32635,11 @@
       <c r="Y480">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="481" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z480">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="481" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A481" t="s">
         <v>522</v>
       </c>
@@ -31240,8 +32700,11 @@
       <c r="Y481">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z481">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A482" t="s">
         <v>523</v>
       </c>
@@ -31302,8 +32765,11 @@
       <c r="Y482">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z482">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A483" t="s">
         <v>524</v>
       </c>
@@ -31364,8 +32830,11 @@
       <c r="Y483">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z483">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A484" t="s">
         <v>525</v>
       </c>
@@ -31426,8 +32895,11 @@
       <c r="Y484">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z484">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A485" t="s">
         <v>526</v>
       </c>
@@ -31491,8 +32963,11 @@
       <c r="Y485">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z485">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A486" t="s">
         <v>527</v>
       </c>
@@ -31553,8 +33028,11 @@
       <c r="Y486">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A487" t="s">
         <v>528</v>
       </c>
@@ -31571,7 +33049,7 @@
         <v>492</v>
       </c>
       <c r="F487" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J487">
         <v>1.8</v>
@@ -31618,8 +33096,11 @@
       <c r="Y487">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="488" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z487">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="488" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A488" t="s">
         <v>529</v>
       </c>
@@ -31680,8 +33161,11 @@
       <c r="Y488">
         <v>4</v>
       </c>
-    </row>
-    <row r="489" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A489" t="s">
         <v>530</v>
       </c>
@@ -31742,8 +33226,11 @@
       <c r="Y489">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="490" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z489">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A490" t="s">
         <v>531</v>
       </c>
@@ -31804,8 +33291,11 @@
       <c r="Y490">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="491" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z490">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="491" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
         <v>532</v>
       </c>
@@ -31866,8 +33356,11 @@
       <c r="Y491">
         <v>3</v>
       </c>
-    </row>
-    <row r="492" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z491">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A492" t="s">
         <v>533</v>
       </c>
@@ -31928,8 +33421,11 @@
       <c r="Y492">
         <v>4</v>
       </c>
-    </row>
-    <row r="493" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z492">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A493" t="s">
         <v>534</v>
       </c>
@@ -31990,8 +33486,11 @@
       <c r="Y493">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="494" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z493">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A494" t="s">
         <v>535</v>
       </c>
@@ -32052,8 +33551,11 @@
       <c r="Y494">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="495" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z494">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
         <v>536</v>
       </c>
@@ -32117,8 +33619,11 @@
       <c r="Y495" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="496" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z495" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="496" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A496" t="s">
         <v>538</v>
       </c>
@@ -32179,8 +33684,11 @@
       <c r="Y496">
         <v>3</v>
       </c>
-    </row>
-    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z496">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A497" t="s">
         <v>539</v>
       </c>
@@ -32241,8 +33749,11 @@
       <c r="Y497">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z497">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="498" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A498" t="s">
         <v>540</v>
       </c>
@@ -32303,8 +33814,11 @@
       <c r="Y498">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z498">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A499" t="s">
         <v>541</v>
       </c>
@@ -32365,8 +33879,11 @@
       <c r="Y499">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z499">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
         <v>542</v>
       </c>
@@ -32427,8 +33944,11 @@
       <c r="Y500">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z500">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="501" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
         <v>543</v>
       </c>
@@ -32489,8 +34009,11 @@
       <c r="Y501">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="502" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z501">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A502" t="s">
         <v>544</v>
       </c>
@@ -32551,8 +34074,11 @@
       <c r="Y502">
         <v>2</v>
       </c>
-    </row>
-    <row r="503" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A503" t="s">
         <v>545</v>
       </c>
@@ -32613,8 +34139,11 @@
       <c r="Y503">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="504" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z503">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A504" t="s">
         <v>546</v>
       </c>
@@ -32675,8 +34204,11 @@
       <c r="Y504">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="505" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z504">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A505" t="s">
         <v>547</v>
       </c>
@@ -32737,8 +34269,11 @@
       <c r="Y505">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="506" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z505">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="506" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A506" t="s">
         <v>548</v>
       </c>
@@ -32799,8 +34334,11 @@
       <c r="Y506">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="507" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z506">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A507" t="s">
         <v>549</v>
       </c>
@@ -32861,8 +34399,11 @@
       <c r="Y507">
         <v>3</v>
       </c>
-    </row>
-    <row r="508" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z507">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A508" t="s">
         <v>550</v>
       </c>
@@ -32923,8 +34464,11 @@
       <c r="Y508">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="509" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z508">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A509" t="s">
         <v>551</v>
       </c>
@@ -32985,8 +34529,11 @@
       <c r="Y509">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="510" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z509">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A510" t="s">
         <v>552</v>
       </c>
@@ -33047,8 +34594,11 @@
       <c r="Y510">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="511" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z510">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A511" t="s">
         <v>553</v>
       </c>
@@ -33109,8 +34659,11 @@
       <c r="Y511">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z511">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A512" t="s">
         <v>554</v>
       </c>
@@ -33171,8 +34724,11 @@
       <c r="Y512">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="513" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z512">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A513" t="s">
         <v>555</v>
       </c>
@@ -33233,8 +34789,11 @@
       <c r="Y513">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="514" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z513">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="514" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A514" t="s">
         <v>556</v>
       </c>
@@ -33295,8 +34854,11 @@
       <c r="Y514">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="515" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z514">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="515" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A515" t="s">
         <v>557</v>
       </c>
@@ -33357,8 +34919,11 @@
       <c r="Y515">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="516" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z515">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A516" t="s">
         <v>558</v>
       </c>
@@ -33419,8 +34984,11 @@
       <c r="Y516">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="517" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z516">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A517" t="s">
         <v>559</v>
       </c>
@@ -33484,8 +35052,11 @@
       <c r="Y517" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="518" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z517" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="518" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A518" t="s">
         <v>560</v>
       </c>
@@ -33549,8 +35120,11 @@
       <c r="Y518" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="519" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z518" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="519" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A519" t="s">
         <v>561</v>
       </c>
@@ -33611,8 +35185,11 @@
       <c r="Y519">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="520" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z519">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A520" t="s">
         <v>562</v>
       </c>
@@ -33673,8 +35250,11 @@
       <c r="Y520">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="521" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z520">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A521" t="s">
         <v>563</v>
       </c>
@@ -33735,8 +35315,11 @@
       <c r="Y521">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="522" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z521">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A522" t="s">
         <v>564</v>
       </c>
@@ -33797,8 +35380,11 @@
       <c r="Y522">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="523" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z522">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="523" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A523" t="s">
         <v>565</v>
       </c>
@@ -33859,8 +35445,11 @@
       <c r="Y523">
         <v>6</v>
       </c>
-    </row>
-    <row r="524" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z523">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="524" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A524" t="s">
         <v>566</v>
       </c>
@@ -33921,8 +35510,11 @@
       <c r="Y524">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="525" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z524">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A525" t="s">
         <v>567</v>
       </c>
@@ -33983,8 +35575,11 @@
       <c r="Y525">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="526" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z525">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="526" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A526" t="s">
         <v>568</v>
       </c>
@@ -34045,8 +35640,11 @@
       <c r="Y526">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="527" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z526">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A527" t="s">
         <v>569</v>
       </c>
@@ -34107,8 +35705,11 @@
       <c r="Y527">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="528" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z527">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A528" t="s">
         <v>570</v>
       </c>
@@ -34169,8 +35770,11 @@
       <c r="Y528">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="529" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z528">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A529" t="s">
         <v>571</v>
       </c>
@@ -34231,8 +35835,11 @@
       <c r="Y529">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="530" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z529">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A530" t="s">
         <v>572</v>
       </c>
@@ -34293,8 +35900,11 @@
       <c r="Y530">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="531" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z530">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A531" t="s">
         <v>573</v>
       </c>
@@ -34355,8 +35965,11 @@
       <c r="Y531">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="532" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z531">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="532" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A532" t="s">
         <v>574</v>
       </c>
@@ -34420,8 +36033,11 @@
       <c r="Y532">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="533" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z532">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A533" t="s">
         <v>576</v>
       </c>
@@ -34482,8 +36098,11 @@
       <c r="Y533">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="534" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z533">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A534" t="s">
         <v>577</v>
       </c>
@@ -34544,8 +36163,11 @@
       <c r="Y534">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="535" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z534">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A535" t="s">
         <v>578</v>
       </c>
@@ -34606,8 +36228,11 @@
       <c r="Y535">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="536" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z535">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="536" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A536" t="s">
         <v>579</v>
       </c>
@@ -34668,8 +36293,11 @@
       <c r="Y536">
         <v>3</v>
       </c>
-    </row>
-    <row r="537" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z536">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A537" t="s">
         <v>580</v>
       </c>
@@ -34730,8 +36358,11 @@
       <c r="Y537">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="538" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z537">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A538" t="s">
         <v>581</v>
       </c>
@@ -34792,8 +36423,11 @@
       <c r="Y538">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="539" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z538">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A539" t="s">
         <v>582</v>
       </c>
@@ -34854,8 +36488,11 @@
       <c r="Y539">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="540" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z539">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A540" t="s">
         <v>583</v>
       </c>
@@ -34916,8 +36553,11 @@
       <c r="Y540">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="541" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z540">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
       <c r="A541" t="s">
         <v>584</v>
       </c>
@@ -34978,8 +36618,11 @@
       <c r="Y541">
         <v>5</v>
       </c>
-    </row>
-    <row r="542" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z541">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A542" t="s">
         <v>585</v>
       </c>
@@ -35043,8 +36686,11 @@
       <c r="Y542" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="543" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z542" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="543" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A543" t="s">
         <v>588</v>
       </c>
@@ -35060,6 +36706,9 @@
       <c r="E543" t="s">
         <v>587</v>
       </c>
+      <c r="F543" t="s">
+        <v>776</v>
+      </c>
       <c r="J543">
         <v>0.4</v>
       </c>
@@ -35105,8 +36754,11 @@
       <c r="Y543">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="544" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z543" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A544" t="s">
         <v>589</v>
       </c>
@@ -35170,8 +36822,11 @@
       <c r="Y544" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="545" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z544" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="545" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A545" t="s">
         <v>590</v>
       </c>
@@ -35232,8 +36887,11 @@
       <c r="Y545">
         <v>2</v>
       </c>
-    </row>
-    <row r="546" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z545" s="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="546" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A546" t="s">
         <v>591</v>
       </c>
@@ -35250,7 +36908,7 @@
         <v>587</v>
       </c>
       <c r="F546" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J546">
         <v>0.2</v>
@@ -35297,8 +36955,11 @@
       <c r="Y546">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="547" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z546" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A547" t="s">
         <v>592</v>
       </c>
@@ -35359,8 +37020,11 @@
       <c r="Y547">
         <v>4</v>
       </c>
-    </row>
-    <row r="548" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z547" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="548" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A548" t="s">
         <v>593</v>
       </c>
@@ -35377,7 +37041,7 @@
         <v>587</v>
       </c>
       <c r="F548" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J548">
         <v>0.5</v>
@@ -35424,8 +37088,11 @@
       <c r="Y548">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="549" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z548" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A549" t="s">
         <v>594</v>
       </c>
@@ -35486,8 +37153,11 @@
       <c r="Y549">
         <v>2</v>
       </c>
-    </row>
-    <row r="550" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z549" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A550" t="s">
         <v>595</v>
       </c>
@@ -35548,8 +37218,11 @@
       <c r="Y550">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="551" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z550" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="551" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A551" t="s">
         <v>596</v>
       </c>
@@ -35613,8 +37286,11 @@
       <c r="Y551">
         <v>3</v>
       </c>
-    </row>
-    <row r="552" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z551" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A552" t="s">
         <v>597</v>
       </c>
@@ -35678,8 +37354,11 @@
       <c r="Y552" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="553" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z552" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="553" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A553" t="s">
         <v>598</v>
       </c>
@@ -35740,8 +37419,11 @@
       <c r="Y553">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="554" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z553" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A554" t="s">
         <v>599</v>
       </c>
@@ -35758,7 +37440,7 @@
         <v>587</v>
       </c>
       <c r="F554" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J554">
         <v>0.6</v>
@@ -35805,8 +37487,11 @@
       <c r="Y554" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="555" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z554" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="555" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A555" t="s">
         <v>600</v>
       </c>
@@ -35867,8 +37552,11 @@
       <c r="Y555">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="556" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z555" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A556" t="s">
         <v>601</v>
       </c>
@@ -35929,8 +37617,11 @@
       <c r="Y556">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="557" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z556" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A557" t="s">
         <v>602</v>
       </c>
@@ -35994,8 +37685,11 @@
       <c r="Y557" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="558" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z557" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="558" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A558" t="s">
         <v>603</v>
       </c>
@@ -36056,8 +37750,11 @@
       <c r="Y558">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="559" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z558" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A559" t="s">
         <v>604</v>
       </c>
@@ -36118,8 +37815,11 @@
       <c r="Y559">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="560" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z559" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A560" t="s">
         <v>605</v>
       </c>
@@ -36183,8 +37883,11 @@
       <c r="Y560">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="561" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z560" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="561" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A561" t="s">
         <v>606</v>
       </c>
@@ -36245,8 +37948,11 @@
       <c r="Y561">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="562" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z561" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A562" t="s">
         <v>607</v>
       </c>
@@ -36307,8 +38013,11 @@
       <c r="Y562">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="563" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z562" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A563" t="s">
         <v>608</v>
       </c>
@@ -36369,8 +38078,11 @@
       <c r="Y563">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="564" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z563" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="564" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A564" t="s">
         <v>609</v>
       </c>
@@ -36434,8 +38146,11 @@
       <c r="Y564">
         <v>6</v>
       </c>
-    </row>
-    <row r="565" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z564" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="565" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A565" t="s">
         <v>610</v>
       </c>
@@ -36496,8 +38211,11 @@
       <c r="Y565">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="566" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z565" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A566" t="s">
         <v>611</v>
       </c>
@@ -36561,8 +38279,11 @@
       <c r="Y566" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="567" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z566" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="567" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A567" t="s">
         <v>612</v>
       </c>
@@ -36623,8 +38344,11 @@
       <c r="Y567">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="568" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z567" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A568" t="s">
         <v>613</v>
       </c>
@@ -36641,7 +38365,7 @@
         <v>587</v>
       </c>
       <c r="F568" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J568">
         <v>0.4</v>
@@ -36688,8 +38412,11 @@
       <c r="Y568">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="569" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z568" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="569" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A569" t="s">
         <v>614</v>
       </c>
@@ -36750,8 +38477,11 @@
       <c r="Y569">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="570" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z569" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A570" t="s">
         <v>615</v>
       </c>
@@ -36812,8 +38542,11 @@
       <c r="Y570">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="571" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z570" s="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A571" t="s">
         <v>616</v>
       </c>
@@ -36874,8 +38607,11 @@
       <c r="Y571" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="572" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z571" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="572" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A572" t="s">
         <v>617</v>
       </c>
@@ -36936,8 +38672,11 @@
       <c r="Y572">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="573" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z572" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A573" t="s">
         <v>618</v>
       </c>
@@ -36998,8 +38737,11 @@
       <c r="Y573">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="574" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z573" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A574" t="s">
         <v>619</v>
       </c>
@@ -37060,8 +38802,11 @@
       <c r="Y574" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="575" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z574" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="575" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A575" t="s">
         <v>620</v>
       </c>
@@ -37125,8 +38870,11 @@
       <c r="Y575" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="576" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z575" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="576" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A576" t="s">
         <v>621</v>
       </c>
@@ -37190,8 +38938,11 @@
       <c r="Y576" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="577" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z576" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="577" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A577" t="s">
         <v>622</v>
       </c>
@@ -37208,7 +38959,7 @@
         <v>587</v>
       </c>
       <c r="F577" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="J577">
         <v>0.4</v>
@@ -37255,8 +39006,11 @@
       <c r="Y577">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="578" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z577" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="578" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A578" t="s">
         <v>623</v>
       </c>
@@ -37273,7 +39027,7 @@
         <v>587</v>
       </c>
       <c r="F578" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J578">
         <v>0.5</v>
@@ -37320,8 +39074,11 @@
       <c r="Y578" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="579" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z578" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="579" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A579" t="s">
         <v>624</v>
       </c>
@@ -37382,8 +39139,11 @@
       <c r="Y579">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="580" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z579" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="580" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A580" t="s">
         <v>625</v>
       </c>
@@ -37444,8 +39204,11 @@
       <c r="Y580">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="581" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z580" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A581" t="s">
         <v>626</v>
       </c>
@@ -37506,8 +39269,11 @@
       <c r="Y581">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="582" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z581" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="582" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A582" t="s">
         <v>627</v>
       </c>
@@ -37568,8 +39334,11 @@
       <c r="Y582">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="583" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z582" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A583" t="s">
         <v>628</v>
       </c>
@@ -37630,8 +39399,11 @@
       <c r="Y583">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="584" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z583" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A584" t="s">
         <v>629</v>
       </c>
@@ -37692,8 +39464,11 @@
       <c r="Y584">
         <v>4</v>
       </c>
-    </row>
-    <row r="585" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z584" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="585" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A585" t="s">
         <v>630</v>
       </c>
@@ -37754,8 +39529,11 @@
       <c r="Y585">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="586" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z585" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="586" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A586" t="s">
         <v>631</v>
       </c>
@@ -37816,8 +39594,11 @@
       <c r="Y586">
         <v>7</v>
       </c>
-    </row>
-    <row r="587" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z586" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A587" t="s">
         <v>632</v>
       </c>
@@ -37881,8 +39662,11 @@
       <c r="Y587">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="588" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z587" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A588" t="s">
         <v>633</v>
       </c>
@@ -37946,8 +39730,11 @@
       <c r="Y588" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="589" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z588" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A589" t="s">
         <v>635</v>
       </c>
@@ -38011,8 +39798,11 @@
       <c r="Y589" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="590" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z589" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A590" t="s">
         <v>637</v>
       </c>
@@ -38076,8 +39866,11 @@
       <c r="Y590" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="591" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z590" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="591" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A591" t="s">
         <v>638</v>
       </c>
@@ -38138,8 +39931,11 @@
       <c r="Y591">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="592" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z591" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A592" t="s">
         <v>639</v>
       </c>
@@ -38200,8 +39996,11 @@
       <c r="Y592">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="593" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z592" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="593" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A593" t="s">
         <v>640</v>
       </c>
@@ -38262,8 +40061,11 @@
       <c r="Y593">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="594" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z593" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A594" t="s">
         <v>641</v>
       </c>
@@ -38324,8 +40126,11 @@
       <c r="Y594">
         <v>7</v>
       </c>
-    </row>
-    <row r="595" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z594" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A595" t="s">
         <v>642</v>
       </c>
@@ -38386,8 +40191,11 @@
       <c r="Y595">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="596" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z595" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="596" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A596" t="s">
         <v>643</v>
       </c>
@@ -38448,8 +40256,11 @@
       <c r="Y596">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="597" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z596" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A597" t="s">
         <v>644</v>
       </c>
@@ -38466,7 +40277,7 @@
         <v>587</v>
       </c>
       <c r="F597" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J597">
         <v>0.4</v>
@@ -38513,8 +40324,11 @@
       <c r="Y597">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="598" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z597" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A598" t="s">
         <v>645</v>
       </c>
@@ -38575,8 +40389,11 @@
       <c r="Y598">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="599" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z598" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="599" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A599" t="s">
         <v>646</v>
       </c>
@@ -38637,8 +40454,11 @@
       <c r="Y599">
         <v>7</v>
       </c>
-    </row>
-    <row r="600" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z599" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A600" t="s">
         <v>647</v>
       </c>
@@ -38702,8 +40522,11 @@
       <c r="Y600">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="601" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z600" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="601" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A601" t="s">
         <v>648</v>
       </c>
@@ -38767,8 +40590,11 @@
       <c r="Y601" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="602" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z601" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="602" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A602" t="s">
         <v>649</v>
       </c>
@@ -38829,8 +40655,11 @@
       <c r="Y602">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="603" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z602" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="603" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A603" t="s">
         <v>650</v>
       </c>
@@ -38894,8 +40723,11 @@
       <c r="Y603" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="604" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z603" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="604" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A604" t="s">
         <v>652</v>
       </c>
@@ -38959,8 +40791,11 @@
       <c r="Y604" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="605" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z604" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="605" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A605" t="s">
         <v>653</v>
       </c>
@@ -39021,8 +40856,11 @@
       <c r="Y605" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="606" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z605" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="606" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A606" t="s">
         <v>654</v>
       </c>
@@ -39083,8 +40921,11 @@
       <c r="Y606">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="607" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z606" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A607" t="s">
         <v>655</v>
       </c>
@@ -39148,8 +40989,11 @@
       <c r="Y607">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="608" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z607" s="1">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="608" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A608" t="s">
         <v>656</v>
       </c>
@@ -39210,8 +41054,11 @@
       <c r="Y608">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="609" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z608" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A609" t="s">
         <v>657</v>
       </c>
@@ -39275,8 +41122,11 @@
       <c r="Y609" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="610" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z609" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="610" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A610" t="s">
         <v>658</v>
       </c>
@@ -39337,8 +41187,11 @@
       <c r="Y610">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="611" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z610" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="611" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A611" t="s">
         <v>659</v>
       </c>
@@ -39402,8 +41255,11 @@
       <c r="Y611" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="612" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z611" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="612" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A612" t="s">
         <v>660</v>
       </c>
@@ -39467,8 +41323,11 @@
       <c r="Y612" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="613" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z612" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A613" t="s">
         <v>661</v>
       </c>
@@ -39529,8 +41388,11 @@
       <c r="Y613">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="614" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z613" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A614" t="s">
         <v>662</v>
       </c>
@@ -39594,8 +41456,11 @@
       <c r="Y614">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="615" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z614" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A615" t="s">
         <v>664</v>
       </c>
@@ -39656,8 +41521,11 @@
       <c r="Y615">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="616" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z615" s="1">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="616" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A616" t="s">
         <v>665</v>
       </c>
@@ -39718,8 +41586,11 @@
       <c r="Y616">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="617" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z616" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="617" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A617" t="s">
         <v>666</v>
       </c>
@@ -39780,8 +41651,11 @@
       <c r="Y617">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="618" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z617" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="618" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A618" t="s">
         <v>667</v>
       </c>
@@ -39842,8 +41716,11 @@
       <c r="Y618">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="619" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z618" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A619" t="s">
         <v>668</v>
       </c>
@@ -39907,8 +41784,11 @@
       <c r="Y619">
         <v>6</v>
       </c>
-    </row>
-    <row r="620" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z619" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="620" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A620" t="s">
         <v>669</v>
       </c>
@@ -39972,8 +41852,11 @@
       <c r="Y620" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="621" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z620" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="621" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A621" t="s">
         <v>670</v>
       </c>
@@ -40037,8 +41920,11 @@
       <c r="Y621">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="622" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z621" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="622" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A622" t="s">
         <v>671</v>
       </c>
@@ -40099,8 +41985,11 @@
       <c r="Y622">
         <v>5</v>
       </c>
-    </row>
-    <row r="623" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z622" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="623" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A623" t="s">
         <v>672</v>
       </c>
@@ -40161,8 +42050,11 @@
       <c r="Y623">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="624" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z623" s="1">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A624" t="s">
         <v>673</v>
       </c>
@@ -40223,8 +42115,11 @@
       <c r="Y624">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="625" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z624" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="625" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A625" t="s">
         <v>674</v>
       </c>
@@ -40285,8 +42180,11 @@
       <c r="Y625">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="626" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z625" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="626" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A626" t="s">
         <v>675</v>
       </c>
@@ -40350,8 +42248,11 @@
       <c r="Y626">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="627" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z626" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A627" t="s">
         <v>676</v>
       </c>
@@ -40412,8 +42313,11 @@
       <c r="Y627">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="628" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z627" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="628" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A628" t="s">
         <v>677</v>
       </c>
@@ -40474,8 +42378,11 @@
       <c r="Y628">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="629" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z628" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A629" t="s">
         <v>678</v>
       </c>
@@ -40536,8 +42443,11 @@
       <c r="Y629">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="630" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z629" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="630" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A630" t="s">
         <v>679</v>
       </c>
@@ -40598,8 +42508,11 @@
       <c r="Y630">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="631" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Z630" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A631" t="s">
         <v>680</v>
       </c>
@@ -40661,6 +42574,9 @@
         <v>132</v>
       </c>
       <c r="Y631" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z631" s="1" t="s">
         <v>132</v>
       </c>
     </row>

--- a/data/shoot_elongation/shoot_elongation.xlsx
+++ b/data/shoot_elongation/shoot_elongation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\my_repo_dir\fuelinex\data\shoot_elongation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69063486-924C-4A41-84D9-A97218E7F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E38911-E44F-4982-AE2E-A5FA03A778C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="779">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2337,25 +2337,31 @@
     <t>doy 199: apical shoot broken doy 234: shoot died back</t>
   </si>
   <si>
-    <t>doy 192: apical shoot broken; doy 199: new shoot measured; doy 227: main shoot snapped off; doy234: shoot died back</t>
-  </si>
-  <si>
     <t>doy 192: apical shoot broken; doy 199: new shoot measured; doy 234: shoot died back</t>
   </si>
   <si>
-    <t>doy 192: apical shoot broken; died back</t>
-  </si>
-  <si>
-    <t>doy 192: apical shoot broken doy227: main shoot dead &amp; snapped off; died back</t>
-  </si>
-  <si>
-    <t>doy 192: apical shoot broken doy220: tip broke again; died back</t>
-  </si>
-  <si>
-    <t>doy 192: apical shoot broken doy 213: new shoot measured; died back</t>
-  </si>
-  <si>
     <t>doy 234: last week might be wrong</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken; doy 234: died back</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken; doy 199: new shoot measured, doy 241: new shoot also died</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken doy227: main shoot dead &amp; snapped off; doy 234: died back, doy 241: new shoot dead</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken doy220: tip broke again; doy234: died back, doy 241: apical shoot dead</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken doy 213: new shoot measured; doy 234: died back, doy 241: new shoot died</t>
+  </si>
+  <si>
+    <t>doy 192: apical shoot broken; doy 199: new shoot measured; doy 227: main shoot snapped off; doy234: shoot died back, doy 241: shoot dead</t>
   </si>
 </sst>
 </file>
@@ -2895,7 +2901,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -3231,41 +3245,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:Z631" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:Z631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="sequoiadendron"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{379A66C6-698B-434F-916E-AEAAE2414138}" name="128" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{62491E8B-0E97-FD4B-BCC5-4E7DBAEDE53C}" name="129" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{1393DE83-090B-694C-9F28-CB3508AB64D0}" name="130" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{207CC64C-FCD9-6541-912D-456AAFF93044}" name="131" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{B057ADF6-089A-7E49-A439-533CCCB22A43}" name="136" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{D0F960DD-A2F9-074D-98EC-CE8D38E12049}" name="137" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{35CC3589-A6D5-8840-9830-FA2F26525256}" name="143" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{42A0D812-81C2-384B-9DA8-8DD67E5EBF60}" name="150" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{5701E3D9-A7AB-1E4A-8802-92F3BFBE960B}" name="157" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{F90AD900-33C4-D449-ABD1-F7E0E3B4EDF2}" name="164" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{D706E942-3CA8-3F49-BA3E-A6ECB3F4F826}" name="171" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{CF92CF1B-48A8-4842-81E5-1005772FEFC3}" name="178" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{138A361D-3F66-E244-A947-0EFCE15F6690}" name="185" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{0BF7A4F6-800F-7548-A638-DF43A258D373}" name="192" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{84D950AD-7C40-4A1B-9BD8-38C59BC6ED07}" name="199" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{FAFF9212-B9DB-4FE0-A10B-9A015D0BD45E}" name="206" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{BCC4DD0F-71CB-48F4-9836-608B978B30CE}" name="213" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{E9E923BE-EF5E-4850-8935-DFEFBA92F817}" name="220" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{A4B69044-94A7-4C2B-A2F9-3262C99A9632}" name="227" dataDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{B0E6284E-943B-4FF8-9BFE-47CD7C32CF3A}" name="234" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}" name="Table1" displayName="Table1" ref="A1:AA631" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:AA631" xr:uid="{427BC000-52E3-6840-B950-CDCA9CA72D7D}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{0515CFC8-9FED-CA41-BC7E-0EADE3E17C0D}" name="tree_ID" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{C257128B-E55F-4840-ABD4-C2DA6F8965CA}" name="bloc" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{2098FB30-2284-1240-A3C1-95071A2FF061}" name="treatment" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{4E33E83D-7474-6740-BDF7-43A4A2B8EED7}" name="genus" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{D5DB28AF-AC9D-F946-A03A-7DC61F0D91F2}" name="species" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{FC4BEC86-E813-EB4E-8837-1290E567AD1D}" name="Note" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{379A66C6-698B-434F-916E-AEAAE2414138}" name="128" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{62491E8B-0E97-FD4B-BCC5-4E7DBAEDE53C}" name="129" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{1393DE83-090B-694C-9F28-CB3508AB64D0}" name="130" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{207CC64C-FCD9-6541-912D-456AAFF93044}" name="131" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{B057ADF6-089A-7E49-A439-533CCCB22A43}" name="136" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{D0F960DD-A2F9-074D-98EC-CE8D38E12049}" name="137" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{35CC3589-A6D5-8840-9830-FA2F26525256}" name="143" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{42A0D812-81C2-384B-9DA8-8DD67E5EBF60}" name="150" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{5701E3D9-A7AB-1E4A-8802-92F3BFBE960B}" name="157" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{F90AD900-33C4-D449-ABD1-F7E0E3B4EDF2}" name="164" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{D706E942-3CA8-3F49-BA3E-A6ECB3F4F826}" name="171" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{CF92CF1B-48A8-4842-81E5-1005772FEFC3}" name="178" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{138A361D-3F66-E244-A947-0EFCE15F6690}" name="185" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{0BF7A4F6-800F-7548-A638-DF43A258D373}" name="192" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{84D950AD-7C40-4A1B-9BD8-38C59BC6ED07}" name="199" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{FAFF9212-B9DB-4FE0-A10B-9A015D0BD45E}" name="206" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{BCC4DD0F-71CB-48F4-9836-608B978B30CE}" name="213" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{E9E923BE-EF5E-4850-8935-DFEFBA92F817}" name="220" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{A4B69044-94A7-4C2B-A2F9-3262C99A9632}" name="227" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{B0E6284E-943B-4FF8-9BFE-47CD7C32CF3A}" name="234" dataDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{643075ED-B7B8-4E1E-B9B2-11D9D66B51F8}" name="241" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3588,11 +3597,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z631"/>
+  <dimension ref="A1:AA631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z465" sqref="Z465"/>
+    <sheetView tabSelected="1" topLeftCell="A625" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC636" sqref="AC636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -3605,7 +3614,7 @@
     <col min="13" max="17" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3681,11 +3690,14 @@
       <c r="Y1" t="s">
         <v>766</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA1" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3740,8 +3752,9 @@
       <c r="Z2">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3796,8 +3809,9 @@
       <c r="Z3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3852,8 +3866,9 @@
       <c r="Z4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3908,8 +3923,9 @@
       <c r="Z5">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3964,8 +3980,9 @@
       <c r="Z6">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4020,8 +4037,9 @@
       <c r="Z7">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4076,8 +4094,9 @@
       <c r="Z8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4132,8 +4151,9 @@
       <c r="Z9">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -4188,8 +4208,9 @@
       <c r="Z10">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -4244,8 +4265,9 @@
       <c r="Z11">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4303,8 +4325,9 @@
       <c r="Z12">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4359,8 +4382,9 @@
       <c r="Z13">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4415,8 +4439,9 @@
       <c r="Z14">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4471,8 +4496,9 @@
       <c r="Z15">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4527,8 +4553,9 @@
       <c r="Z16">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4583,8 +4610,9 @@
       <c r="Z17">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4639,8 +4667,9 @@
       <c r="Z18">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4695,8 +4724,9 @@
       <c r="Z19">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -4751,8 +4781,9 @@
       <c r="Z20">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4804,8 +4835,9 @@
       <c r="Z21">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4863,8 +4895,9 @@
       <c r="Z22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4919,8 +4952,9 @@
       <c r="Z23">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4978,8 +5012,9 @@
       <c r="Z24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -5034,8 +5069,9 @@
       <c r="Z25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5090,8 +5126,9 @@
       <c r="Z26">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -5146,8 +5183,9 @@
       <c r="Z27">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5205,8 +5243,9 @@
       <c r="Z28">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -5261,8 +5300,9 @@
       <c r="Z29">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -5320,8 +5360,9 @@
       <c r="Z30">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -5376,8 +5417,9 @@
       <c r="Z31">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -5432,8 +5474,9 @@
       <c r="Z32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -5488,8 +5531,9 @@
       <c r="Z33">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -5541,11 +5585,12 @@
       <c r="X34">
         <v>7.1</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="Z34">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA34" s="1"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -5600,8 +5645,9 @@
       <c r="Z35">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -5656,8 +5702,9 @@
       <c r="Z36">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA36" s="1"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -5715,8 +5762,9 @@
       <c r="Z37">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA37" s="1"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -5771,8 +5819,9 @@
       <c r="Z38">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA38" s="1"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -5827,8 +5876,9 @@
       <c r="Z39">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -5883,8 +5933,9 @@
       <c r="Z40">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA40" s="1"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -5939,8 +5990,9 @@
       <c r="Z41">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA41" s="1"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -5995,8 +6047,9 @@
       <c r="Z42">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA42" s="1"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -6051,8 +6104,9 @@
       <c r="Z43">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA43" s="1"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -6107,8 +6161,9 @@
       <c r="Z44">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA44" s="1"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -6163,8 +6218,9 @@
       <c r="Z45">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA45" s="1"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -6219,8 +6275,9 @@
       <c r="Z46">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA46" s="1"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -6275,8 +6332,9 @@
       <c r="Z47">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA47" s="1"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -6331,8 +6389,9 @@
       <c r="Z48">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA48" s="1"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -6384,11 +6443,12 @@
       <c r="X49">
         <v>8.4</v>
       </c>
-      <c r="Z49" s="1">
+      <c r="Z49">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA49" s="1"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -6443,8 +6503,9 @@
       <c r="Z50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA50" s="1"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -6499,8 +6560,9 @@
       <c r="Z51">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA51" s="1"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -6555,8 +6617,9 @@
       <c r="Z52">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA52" s="1"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -6611,8 +6674,9 @@
       <c r="Z53">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA53" s="1"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6670,8 +6734,9 @@
       <c r="Z54">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA54" s="1"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -6726,8 +6791,9 @@
       <c r="Z55">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA55" s="1"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -6785,8 +6851,9 @@
       <c r="Z56">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA56" s="1"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -6841,8 +6908,9 @@
       <c r="Z57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA57" s="1"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6900,8 +6968,9 @@
       <c r="Z58">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA58" s="1"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -6956,8 +7025,9 @@
       <c r="Z59">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA59" s="1"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -7015,8 +7085,9 @@
       <c r="Z60">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA60" s="1"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -7071,8 +7142,9 @@
       <c r="Z61">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA61" s="1"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -7127,8 +7199,9 @@
       <c r="Z62">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA62" s="1"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -7183,8 +7256,9 @@
       <c r="Z63">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA63" s="1"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -7239,8 +7313,9 @@
       <c r="Z64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA64" s="1"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -7295,8 +7370,9 @@
       <c r="Z65">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA65" s="1"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -7351,8 +7427,9 @@
       <c r="Z66">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA66" s="1"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -7407,8 +7484,9 @@
       <c r="Z67">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA67" s="1"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -7463,8 +7541,9 @@
       <c r="Z68">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA68" s="1"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -7519,8 +7598,9 @@
       <c r="Z69">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA69" s="1"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -7575,8 +7655,9 @@
       <c r="Z70">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA70" s="1"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -7631,8 +7712,9 @@
       <c r="Z71">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA71" s="1"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -7687,8 +7769,9 @@
       <c r="Z72">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA72" s="1"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -7743,8 +7826,9 @@
       <c r="Z73">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA73" s="1"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -7799,8 +7883,9 @@
       <c r="Z74">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA74" s="1"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -7855,8 +7940,9 @@
       <c r="Z75">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA75" s="1"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -7911,8 +7997,9 @@
       <c r="Z76">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA76" s="1"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -7967,8 +8054,9 @@
       <c r="Z77">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA77" s="1"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -8023,8 +8111,9 @@
       <c r="Z78">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA78" s="1"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -8082,8 +8171,9 @@
       <c r="Z79">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA79" s="1"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -8141,8 +8231,9 @@
       <c r="Z80">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA80" s="1"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -8197,8 +8288,9 @@
       <c r="Z81">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA81" s="1"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -8253,8 +8345,9 @@
       <c r="Z82">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA82" s="1"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -8309,8 +8402,9 @@
       <c r="Z83">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA83" s="1"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -8365,8 +8459,9 @@
       <c r="Z84">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA84" s="1"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -8421,8 +8516,9 @@
       <c r="Z85">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA85" s="1"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -8477,8 +8573,9 @@
       <c r="Z86">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA86" s="1"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -8533,8 +8630,9 @@
       <c r="Z87">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA87" s="1"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -8589,8 +8687,9 @@
       <c r="Z88">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA88" s="1"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -8645,8 +8744,9 @@
       <c r="Z89">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA89" s="1"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -8704,8 +8804,9 @@
       <c r="Z90">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA90" s="1"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -8757,11 +8858,12 @@
       <c r="X91">
         <v>15.3</v>
       </c>
-      <c r="Z91" s="1">
+      <c r="Z91">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA91" s="1"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -8825,8 +8927,11 @@
       <c r="Z92">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA92">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -8890,8 +8995,11 @@
       <c r="Z93">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA93">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -8955,8 +9063,11 @@
       <c r="Z94">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA94">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -9023,8 +9134,11 @@
       <c r="Z95">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA95">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -9088,8 +9202,11 @@
       <c r="Z96">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA96">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -9153,8 +9270,11 @@
       <c r="Z97">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA97">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -9218,8 +9338,11 @@
       <c r="Z98">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA98">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -9283,8 +9406,11 @@
       <c r="Z99">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA99">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -9348,8 +9474,11 @@
       <c r="Z100">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA100">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -9413,8 +9542,11 @@
       <c r="Z101">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA101">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -9478,8 +9610,11 @@
       <c r="Z102">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA102">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -9543,8 +9678,11 @@
       <c r="Z103">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA103">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -9608,8 +9746,11 @@
       <c r="Z104">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA104">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -9673,8 +9814,11 @@
       <c r="Z105">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA105">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -9738,8 +9882,11 @@
       <c r="Z106">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA106">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -9803,8 +9950,11 @@
       <c r="Z107">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA107">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -9868,8 +10018,11 @@
       <c r="Z108">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA108">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -9936,8 +10089,11 @@
       <c r="Z109">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA109">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -10001,8 +10157,11 @@
       <c r="Z110">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA110">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -10066,8 +10225,11 @@
       <c r="Z111">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA111">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -10131,8 +10293,11 @@
       <c r="Z112">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA112">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -10199,8 +10364,11 @@
       <c r="Z113" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -10264,8 +10432,11 @@
       <c r="Z114">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA114">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -10329,8 +10500,11 @@
       <c r="Z115">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA115">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -10394,8 +10568,11 @@
       <c r="Z116">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA116">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -10459,8 +10636,11 @@
       <c r="Z117">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA117">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -10524,8 +10704,11 @@
       <c r="Z118">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA118">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -10589,8 +10772,11 @@
       <c r="Z119">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA119">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -10654,8 +10840,11 @@
       <c r="Z120">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA120">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -10719,8 +10908,11 @@
       <c r="Z121">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA121">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -10787,8 +10979,11 @@
       <c r="Z122">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA122">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -10852,8 +11047,11 @@
       <c r="Z123">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -10917,8 +11115,11 @@
       <c r="Z124">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -10982,8 +11183,11 @@
       <c r="Z125">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA125">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -11047,8 +11251,11 @@
       <c r="Z126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -11112,8 +11319,11 @@
       <c r="Z127">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA127">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -11177,8 +11387,11 @@
       <c r="Z128">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA128">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -11242,8 +11455,11 @@
       <c r="Z129">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA129">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -11307,8 +11523,11 @@
       <c r="Z130">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA130">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -11372,8 +11591,11 @@
       <c r="Z131">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA131">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -11437,8 +11659,11 @@
       <c r="Z132">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA132">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -11502,8 +11727,11 @@
       <c r="Z133">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA133">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -11567,8 +11795,11 @@
       <c r="Z134">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA134">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -11632,8 +11863,11 @@
       <c r="Z135">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA135">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -11700,8 +11934,11 @@
       <c r="Z136">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -11765,8 +12002,11 @@
       <c r="Z137">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA137">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>158</v>
       </c>
@@ -11830,8 +12070,11 @@
       <c r="Z138">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -11895,8 +12138,11 @@
       <c r="Z139">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA139">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -11960,8 +12206,11 @@
       <c r="Z140">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -12025,8 +12274,11 @@
       <c r="Z141">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA141">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -12090,8 +12342,11 @@
       <c r="Z142">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA142">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>163</v>
       </c>
@@ -12155,8 +12410,11 @@
       <c r="Z143">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA143">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -12220,8 +12478,11 @@
       <c r="Z144">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA144">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -12285,8 +12546,11 @@
       <c r="Z145">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA145">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -12350,8 +12614,11 @@
       <c r="Z146">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA146">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -12415,8 +12682,11 @@
       <c r="Z147">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA147">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -12480,8 +12750,11 @@
       <c r="Z148">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="149" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA148">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>169</v>
       </c>
@@ -12545,8 +12818,11 @@
       <c r="Z149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -12610,8 +12886,11 @@
       <c r="Z150">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA150">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -12675,8 +12954,11 @@
       <c r="Z151">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA151">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -12740,8 +13022,11 @@
       <c r="Z152">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="153" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA152">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -12805,8 +13090,11 @@
       <c r="Z153">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="154" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA153">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -12870,8 +13158,11 @@
       <c r="Z154">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA154">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>175</v>
       </c>
@@ -12935,8 +13226,11 @@
       <c r="Z155">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -13000,8 +13294,11 @@
       <c r="Z156">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="157" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA156">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -13065,8 +13362,11 @@
       <c r="Z157">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="158" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA157">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -13130,8 +13430,11 @@
       <c r="Z158">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA158">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -13195,8 +13498,11 @@
       <c r="Z159">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA159">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -13260,8 +13566,11 @@
       <c r="Z160">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA160">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -13325,8 +13634,11 @@
       <c r="Z161">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="162" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA161">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -13390,11 +13702,14 @@
       <c r="Y162">
         <v>22</v>
       </c>
-      <c r="Z162" s="1">
+      <c r="Z162">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="163" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA162" s="1">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -13458,8 +13773,11 @@
       <c r="Z163">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA163">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -13526,8 +13844,11 @@
       <c r="Z164">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA164">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -13591,8 +13912,11 @@
       <c r="Z165">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="166" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA165">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -13656,8 +13980,11 @@
       <c r="Z166">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA166">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -13721,8 +14048,11 @@
       <c r="Z167">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA167">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -13786,8 +14116,11 @@
       <c r="Z168">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA168">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -13851,8 +14184,11 @@
       <c r="Z169">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA169">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -13916,8 +14252,11 @@
       <c r="Z170">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA170">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -13981,8 +14320,11 @@
       <c r="Z171">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA171">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -14046,8 +14388,11 @@
       <c r="Z172">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="173" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA172">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -14111,8 +14456,11 @@
       <c r="Z173">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA173">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -14176,8 +14524,11 @@
       <c r="Z174">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA174">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -14241,8 +14592,11 @@
       <c r="Z175">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="176" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA175">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -14306,8 +14660,11 @@
       <c r="Z176">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="177" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA176">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -14371,8 +14728,11 @@
       <c r="Z177">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="178" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA177">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -14436,8 +14796,11 @@
       <c r="Z178">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA178">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -14501,8 +14864,11 @@
       <c r="Z179">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA179">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -14566,8 +14932,11 @@
       <c r="Z180">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA180">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -14631,8 +15000,11 @@
       <c r="Z181">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -14687,8 +15059,9 @@
       <c r="Z182">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA182" s="1"/>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -14740,11 +15113,12 @@
       <c r="X183">
         <v>12.3</v>
       </c>
-      <c r="Z183" s="1">
+      <c r="Z183">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA183" s="1"/>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -14799,8 +15173,9 @@
       <c r="Z184">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA184" s="1"/>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -14855,8 +15230,9 @@
       <c r="Z185">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA185" s="1"/>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -14908,11 +15284,12 @@
       <c r="X186">
         <v>13.1</v>
       </c>
-      <c r="Z186" s="1">
+      <c r="Z186">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="187" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA186" s="1"/>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -14967,8 +15344,9 @@
       <c r="Z187">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA187" s="1"/>
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -15023,8 +15401,9 @@
       <c r="Z188">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA188" s="1"/>
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -15082,8 +15461,9 @@
       <c r="Z189">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA189" s="1"/>
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>213</v>
       </c>
@@ -15138,8 +15518,9 @@
       <c r="Z190">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA190" s="1"/>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -15194,8 +15575,9 @@
       <c r="Z191">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA191" s="1"/>
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -15250,8 +15632,9 @@
       <c r="Z192">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="193" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA192" s="1"/>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -15306,8 +15689,9 @@
       <c r="Z193">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA193" s="1"/>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -15365,11 +15749,12 @@
       <c r="X194">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Z194" s="1">
+      <c r="Z194">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA194" s="1"/>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -15424,8 +15809,9 @@
       <c r="Z195">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA195" s="1"/>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>219</v>
       </c>
@@ -15480,8 +15866,9 @@
       <c r="Z196">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="197" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA196" s="1"/>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -15536,8 +15923,9 @@
       <c r="Z197">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="198" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA197" s="1"/>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>221</v>
       </c>
@@ -15592,8 +15980,9 @@
       <c r="Z198">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="199" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA198" s="1"/>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -15648,8 +16037,9 @@
       <c r="Z199">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="200" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA199" s="1"/>
+    </row>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -15704,8 +16094,9 @@
       <c r="Z200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA200" s="1"/>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -15760,8 +16151,9 @@
       <c r="Z201">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="202" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA201" s="1"/>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -15816,8 +16208,9 @@
       <c r="Z202">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="203" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA202" s="1"/>
+    </row>
+    <row r="203" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -15872,8 +16265,9 @@
       <c r="Z203">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="204" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA203" s="1"/>
+    </row>
+    <row r="204" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -15928,8 +16322,9 @@
       <c r="Z204">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA204" s="1"/>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -15984,8 +16379,9 @@
       <c r="Z205">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="206" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA205" s="1"/>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -16040,8 +16436,9 @@
       <c r="Z206">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="207" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA206" s="1"/>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -16096,8 +16493,9 @@
       <c r="Z207">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="208" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA207" s="1"/>
+    </row>
+    <row r="208" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -16152,8 +16550,9 @@
       <c r="Z208">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="209" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA208" s="1"/>
+    </row>
+    <row r="209" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -16208,8 +16607,9 @@
       <c r="Z209">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="210" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA209" s="1"/>
+    </row>
+    <row r="210" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -16264,8 +16664,9 @@
       <c r="Z210">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="211" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA210" s="1"/>
+    </row>
+    <row r="211" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -16320,8 +16721,9 @@
       <c r="Z211">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="212" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA211" s="1"/>
+    </row>
+    <row r="212" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -16376,8 +16778,9 @@
       <c r="Z212">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="213" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA212" s="1"/>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -16432,8 +16835,9 @@
       <c r="Z213">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="214" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA213" s="1"/>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -16488,8 +16892,9 @@
       <c r="Z214">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="215" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA214" s="1"/>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -16544,8 +16949,9 @@
       <c r="Z215">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="216" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA215" s="1"/>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -16600,8 +17006,9 @@
       <c r="Z216">
         <v>12</v>
       </c>
-    </row>
-    <row r="217" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA216" s="1"/>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -16656,8 +17063,9 @@
       <c r="Z217">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="218" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA217" s="1"/>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -16712,8 +17120,9 @@
       <c r="Z218">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="219" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA218" s="1"/>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -16771,8 +17180,9 @@
       <c r="Z219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA219" s="1"/>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -16827,8 +17237,9 @@
       <c r="Z220">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="221" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA220" s="1"/>
+    </row>
+    <row r="221" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>244</v>
       </c>
@@ -16883,8 +17294,9 @@
       <c r="Z221">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="222" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA221" s="1"/>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -16939,8 +17351,9 @@
       <c r="Z222">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="223" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA222" s="1"/>
+    </row>
+    <row r="223" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>246</v>
       </c>
@@ -16995,8 +17408,9 @@
       <c r="Z223">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA223" s="1"/>
+    </row>
+    <row r="224" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -17051,8 +17465,9 @@
       <c r="Z224">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="225" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA224" s="1"/>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>248</v>
       </c>
@@ -17107,8 +17522,9 @@
       <c r="Z225">
         <v>5</v>
       </c>
-    </row>
-    <row r="226" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA225" s="1"/>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -17163,8 +17579,9 @@
       <c r="Z226">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA226" s="1"/>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -17222,8 +17639,9 @@
       <c r="Z227">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="228" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA227" s="1"/>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -17278,8 +17696,9 @@
       <c r="Z228">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="229" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA228" s="1"/>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -17334,8 +17753,9 @@
       <c r="Z229">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="230" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA229" s="1"/>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -17390,8 +17810,9 @@
       <c r="Z230">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="231" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA230" s="1"/>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -17446,8 +17867,9 @@
       <c r="Z231">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA231" s="1"/>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -17502,8 +17924,9 @@
       <c r="Z232">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="233" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA232" s="1"/>
+    </row>
+    <row r="233" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -17558,8 +17981,9 @@
       <c r="Z233">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="234" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA233" s="1"/>
+    </row>
+    <row r="234" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -17614,8 +18038,9 @@
       <c r="Z234">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="235" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA234" s="1"/>
+    </row>
+    <row r="235" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -17670,8 +18095,9 @@
       <c r="Z235">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="236" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA235" s="1"/>
+    </row>
+    <row r="236" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -17729,8 +18155,9 @@
       <c r="Z236">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA236" s="1"/>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>260</v>
       </c>
@@ -17788,8 +18215,9 @@
       <c r="Z237">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="238" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA237" s="1"/>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -17844,8 +18272,9 @@
       <c r="Z238">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="239" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA238" s="1"/>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -17900,8 +18329,9 @@
       <c r="Z239">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="240" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA239" s="1"/>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -17953,11 +18383,12 @@
       <c r="X240">
         <v>14.6</v>
       </c>
-      <c r="Z240" s="1">
+      <c r="Z240">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="241" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA240" s="1"/>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -18012,8 +18443,9 @@
       <c r="Z241">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA241" s="1"/>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -18068,8 +18500,9 @@
       <c r="Z242">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA242" s="1"/>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -18124,8 +18557,9 @@
       <c r="Z243">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="244" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA243" s="1"/>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -18180,8 +18614,9 @@
       <c r="Z244">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="245" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA244" s="1"/>
+    </row>
+    <row r="245" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>268</v>
       </c>
@@ -18239,8 +18674,9 @@
       <c r="Z245" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="246" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA245" s="1"/>
+    </row>
+    <row r="246" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -18295,8 +18731,9 @@
       <c r="Z246">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA246" s="1"/>
+    </row>
+    <row r="247" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>270</v>
       </c>
@@ -18351,8 +18788,9 @@
       <c r="Z247">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA247" s="1"/>
+    </row>
+    <row r="248" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -18407,8 +18845,9 @@
       <c r="Z248">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="249" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA248" s="1"/>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>272</v>
       </c>
@@ -18463,8 +18902,9 @@
       <c r="Z249">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="250" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA249" s="1"/>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -18522,8 +18962,9 @@
       <c r="Z250">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="251" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA250" s="1"/>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>274</v>
       </c>
@@ -18581,8 +19022,9 @@
       <c r="Z251">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="252" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA251" s="1"/>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -18637,8 +19079,9 @@
       <c r="Z252">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="253" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA252" s="1"/>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>276</v>
       </c>
@@ -18693,8 +19136,9 @@
       <c r="Z253">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="254" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA253" s="1"/>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -18749,8 +19193,9 @@
       <c r="Z254">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="255" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA254" s="1"/>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -18805,8 +19250,9 @@
       <c r="Z255">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA255" s="1"/>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -18861,8 +19307,9 @@
       <c r="Z256">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="257" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA256" s="1"/>
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>280</v>
       </c>
@@ -18917,8 +19364,9 @@
       <c r="Z257">
         <v>20</v>
       </c>
-    </row>
-    <row r="258" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA257" s="1"/>
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>281</v>
       </c>
@@ -18973,8 +19421,9 @@
       <c r="Z258">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="259" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA258" s="1"/>
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -19029,8 +19478,9 @@
       <c r="Z259">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="260" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA259" s="1"/>
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>283</v>
       </c>
@@ -19085,8 +19535,9 @@
       <c r="Z260">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="261" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA260" s="1"/>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -19141,8 +19592,9 @@
       <c r="Z261">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="262" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA261" s="1"/>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>285</v>
       </c>
@@ -19197,8 +19649,9 @@
       <c r="Z262">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="263" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA262" s="1"/>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -19253,8 +19706,9 @@
       <c r="Z263">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="264" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA263" s="1"/>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -19309,8 +19763,9 @@
       <c r="Z264">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="265" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA264" s="1"/>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -19365,8 +19820,9 @@
       <c r="Z265">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="266" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA265" s="1"/>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -19421,8 +19877,9 @@
       <c r="Z266">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="267" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA266" s="1"/>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -19477,8 +19934,9 @@
       <c r="Z267">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="268" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA267" s="1"/>
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>291</v>
       </c>
@@ -19533,8 +19991,9 @@
       <c r="Z268">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="269" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA268" s="1"/>
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -19589,8 +20048,9 @@
       <c r="Z269">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="270" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA269" s="1"/>
+    </row>
+    <row r="270" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -19645,8 +20105,9 @@
       <c r="Z270">
         <v>14</v>
       </c>
-    </row>
-    <row r="271" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA270" s="1"/>
+    </row>
+    <row r="271" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -19701,8 +20162,9 @@
       <c r="Z271">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="272" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA271" s="1"/>
+    </row>
+    <row r="272" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -19719,7 +20181,7 @@
         <v>297</v>
       </c>
       <c r="F272" t="s">
-        <v>740</v>
+        <v>774</v>
       </c>
       <c r="I272">
         <v>0.8</v>
@@ -19766,11 +20228,14 @@
       <c r="Y272">
         <v>18</v>
       </c>
-      <c r="Z272" s="1">
+      <c r="Z272">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="273" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA272" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -19831,11 +20296,14 @@
       <c r="Y273">
         <v>40.200000000000003</v>
       </c>
-      <c r="Z273" s="1">
+      <c r="Z273">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="274" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA273" s="1">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>299</v>
       </c>
@@ -19899,11 +20367,14 @@
       <c r="Y274">
         <v>23.2</v>
       </c>
-      <c r="Z274" s="1">
+      <c r="Z274">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="275" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA274" s="1">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -19920,7 +20391,7 @@
         <v>297</v>
       </c>
       <c r="F275" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I275">
         <v>1.8</v>
@@ -19967,11 +20438,14 @@
       <c r="Y275">
         <v>7</v>
       </c>
-      <c r="Z275" s="1">
+      <c r="Z275">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="276" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA275" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>301</v>
       </c>
@@ -20035,11 +20509,14 @@
       <c r="Y276">
         <v>19.399999999999999</v>
       </c>
-      <c r="Z276" s="1">
+      <c r="Z276">
         <v>21</v>
       </c>
-    </row>
-    <row r="277" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA276" s="1">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -20100,11 +20577,14 @@
       <c r="Y277">
         <v>22.8</v>
       </c>
-      <c r="Z277" s="1">
+      <c r="Z277">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="278" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA277" s="1">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>303</v>
       </c>
@@ -20165,11 +20645,14 @@
       <c r="Y278">
         <v>21.4</v>
       </c>
-      <c r="Z278" s="1">
+      <c r="Z278">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="279" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA278" s="1">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -20233,11 +20716,14 @@
       <c r="Y279" t="s">
         <v>132</v>
       </c>
-      <c r="Z279" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="280" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="Z279" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA279" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>305</v>
       </c>
@@ -20298,11 +20784,14 @@
       <c r="Y280">
         <v>7.2</v>
       </c>
-      <c r="Z280" s="1">
+      <c r="Z280">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="281" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA280" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>306</v>
       </c>
@@ -20363,11 +20852,14 @@
       <c r="Y281">
         <v>34.700000000000003</v>
       </c>
-      <c r="Z281" s="1">
+      <c r="Z281">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="282" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA281" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="282" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -20431,11 +20923,14 @@
       <c r="Y282" t="s">
         <v>132</v>
       </c>
-      <c r="Z282" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="283" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="Z282" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA282" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>308</v>
       </c>
@@ -20499,11 +20994,14 @@
       <c r="Y283" t="s">
         <v>132</v>
       </c>
-      <c r="Z283" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="284" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="Z283" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA283" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -20567,11 +21065,14 @@
       <c r="Y284">
         <v>18.899999999999999</v>
       </c>
-      <c r="Z284" s="1">
+      <c r="Z284">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="285" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA284" s="1">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -20635,11 +21136,14 @@
       <c r="Y285">
         <v>16</v>
       </c>
-      <c r="Z285" s="1">
+      <c r="Z285">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="286" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA285" s="1">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -20703,11 +21207,14 @@
       <c r="Y286">
         <v>42.2</v>
       </c>
-      <c r="Z286" s="1">
+      <c r="Z286">
         <v>43.5</v>
       </c>
-    </row>
-    <row r="287" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA286" s="1">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -20768,11 +21275,14 @@
       <c r="Y287">
         <v>31.4</v>
       </c>
-      <c r="Z287" s="1">
+      <c r="Z287">
         <v>33.200000000000003</v>
       </c>
-    </row>
-    <row r="288" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA287" s="1">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="288" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -20833,11 +21343,14 @@
       <c r="Y288">
         <v>22</v>
       </c>
-      <c r="Z288" s="1">
+      <c r="Z288">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="289" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA288" s="1">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -20898,11 +21411,14 @@
       <c r="Y289">
         <v>27.1</v>
       </c>
-      <c r="Z289" s="1">
+      <c r="Z289">
         <v>28</v>
       </c>
-    </row>
-    <row r="290" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA289" s="1">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -20963,11 +21479,14 @@
       <c r="Y290">
         <v>20.6</v>
       </c>
-      <c r="Z290" s="1">
+      <c r="Z290">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="291" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA290" s="1">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -21028,11 +21547,14 @@
       <c r="Y291">
         <v>32.6</v>
       </c>
-      <c r="Z291" s="1">
+      <c r="Z291">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="292" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA291" s="1">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -21093,11 +21615,14 @@
       <c r="Y292">
         <v>25</v>
       </c>
-      <c r="Z292" s="1">
+      <c r="Z292">
         <v>25</v>
       </c>
-    </row>
-    <row r="293" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA292" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -21158,11 +21683,14 @@
       <c r="Y293">
         <v>22.2</v>
       </c>
-      <c r="Z293" s="1">
+      <c r="Z293">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="294" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA293" s="1">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -21223,11 +21751,14 @@
       <c r="Y294">
         <v>22.5</v>
       </c>
-      <c r="Z294" s="1">
+      <c r="Z294">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="295" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA294" s="1">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>320</v>
       </c>
@@ -21288,11 +21819,14 @@
       <c r="Y295">
         <v>2.8</v>
       </c>
-      <c r="Z295" s="1">
+      <c r="Z295">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="296" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA295" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="296" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -21353,11 +21887,14 @@
       <c r="Y296">
         <v>32.9</v>
       </c>
-      <c r="Z296" s="1">
+      <c r="Z296">
         <v>35.4</v>
       </c>
-    </row>
-    <row r="297" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA296" s="1">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>322</v>
       </c>
@@ -21421,11 +21958,14 @@
       <c r="Y297">
         <v>25.5</v>
       </c>
-      <c r="Z297" s="1">
+      <c r="Z297">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="298" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA297" s="1">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -21486,11 +22026,14 @@
       <c r="Y298">
         <v>26.5</v>
       </c>
-      <c r="Z298" s="1">
+      <c r="Z298">
         <v>28</v>
       </c>
-    </row>
-    <row r="299" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA298" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="299" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>324</v>
       </c>
@@ -21507,7 +22050,7 @@
         <v>297</v>
       </c>
       <c r="F299" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="I299">
         <v>1.3</v>
@@ -21554,11 +22097,14 @@
       <c r="Y299">
         <v>5.6</v>
       </c>
-      <c r="Z299" s="1">
+      <c r="Z299">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="300" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA299" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -21619,11 +22165,14 @@
       <c r="Y300">
         <v>30.3</v>
       </c>
-      <c r="Z300" s="1">
+      <c r="Z300">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="301" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA300" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="301" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>326</v>
       </c>
@@ -21684,11 +22233,14 @@
       <c r="Y301">
         <v>27.7</v>
       </c>
-      <c r="Z301" s="1">
+      <c r="Z301">
         <v>30</v>
       </c>
-    </row>
-    <row r="302" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA301" s="1">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -21749,11 +22301,14 @@
       <c r="Y302">
         <v>5.4</v>
       </c>
-      <c r="Z302" s="1">
+      <c r="Z302">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="303" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA302" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>328</v>
       </c>
@@ -21814,11 +22369,14 @@
       <c r="Y303">
         <v>25.8</v>
       </c>
-      <c r="Z303" s="1">
+      <c r="Z303">
         <v>26</v>
       </c>
-    </row>
-    <row r="304" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA303" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -21879,11 +22437,14 @@
       <c r="Y304">
         <v>12</v>
       </c>
-      <c r="Z304" s="1">
+      <c r="Z304">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="305" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA304" s="1">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>330</v>
       </c>
@@ -21944,11 +22505,14 @@
       <c r="Y305">
         <v>28.9</v>
       </c>
-      <c r="Z305" s="1">
+      <c r="Z305">
         <v>30</v>
       </c>
-    </row>
-    <row r="306" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA305" s="1">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -22009,11 +22573,14 @@
       <c r="Y306">
         <v>15.3</v>
       </c>
-      <c r="Z306" s="1">
+      <c r="Z306">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="307" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA306" s="1">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>332</v>
       </c>
@@ -22074,11 +22641,14 @@
       <c r="Y307">
         <v>30.5</v>
       </c>
-      <c r="Z307" s="1">
+      <c r="Z307">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="308" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA307" s="1">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -22139,11 +22709,14 @@
       <c r="Y308">
         <v>14</v>
       </c>
-      <c r="Z308" s="1">
+      <c r="Z308">
         <v>14</v>
       </c>
-    </row>
-    <row r="309" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA308" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>334</v>
       </c>
@@ -22204,11 +22777,14 @@
       <c r="Y309">
         <v>5.9</v>
       </c>
-      <c r="Z309" s="1">
+      <c r="Z309">
         <v>6</v>
       </c>
-    </row>
-    <row r="310" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA309" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -22272,11 +22848,14 @@
       <c r="Y310">
         <v>23.2</v>
       </c>
-      <c r="Z310" s="1">
+      <c r="Z310">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="311" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA310" s="1">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -22337,11 +22916,14 @@
       <c r="Y311">
         <v>25.9</v>
       </c>
-      <c r="Z311" s="1">
+      <c r="Z311">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="312" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA311" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="312" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -22402,11 +22984,14 @@
       <c r="Y312">
         <v>20.8</v>
       </c>
-      <c r="Z312" s="1">
+      <c r="Z312">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="313" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA312" s="1">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -22470,11 +23055,14 @@
       <c r="Y313">
         <v>33</v>
       </c>
-      <c r="Z313" s="1">
+      <c r="Z313">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="314" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA313" s="1">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -22538,11 +23126,14 @@
       <c r="Y314">
         <v>29.4</v>
       </c>
-      <c r="Z314" s="1">
+      <c r="Z314">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="315" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA314" s="1">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -22603,11 +23194,14 @@
       <c r="Y315">
         <v>33.4</v>
       </c>
-      <c r="Z315" s="1">
+      <c r="Z315">
         <v>36.4</v>
       </c>
-    </row>
-    <row r="316" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA315" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="316" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -22668,11 +23262,14 @@
       <c r="Y316">
         <v>37.4</v>
       </c>
-      <c r="Z316" s="1">
+      <c r="Z316">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="317" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA316" s="1">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -22689,7 +23286,7 @@
         <v>297</v>
       </c>
       <c r="F317" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="I317">
         <v>0.9</v>
@@ -22736,11 +23333,14 @@
       <c r="Y317">
         <v>3</v>
       </c>
-      <c r="Z317" s="1">
+      <c r="Z317">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="318" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA317" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="318" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -22801,11 +23401,14 @@
       <c r="Y318">
         <v>11</v>
       </c>
-      <c r="Z318" s="1">
+      <c r="Z318">
         <v>11</v>
       </c>
-    </row>
-    <row r="319" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA318" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -22866,11 +23469,14 @@
       <c r="Y319">
         <v>30.3</v>
       </c>
-      <c r="Z319" s="1">
+      <c r="Z319">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="320" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA319" s="1">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -22934,11 +23540,14 @@
       <c r="Y320">
         <v>29.3</v>
       </c>
-      <c r="Z320" s="1">
+      <c r="Z320">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="321" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA320" s="1">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -22999,11 +23608,14 @@
       <c r="Y321">
         <v>27.3</v>
       </c>
-      <c r="Z321" s="1">
+      <c r="Z321">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="322" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA321" s="1">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -23067,11 +23679,14 @@
       <c r="Y322" t="s">
         <v>132</v>
       </c>
-      <c r="Z322" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="323" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="Z322" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA322" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>349</v>
       </c>
@@ -23132,11 +23747,14 @@
       <c r="Y323">
         <v>33.799999999999997</v>
       </c>
-      <c r="Z323" s="1">
+      <c r="Z323">
         <v>33.9</v>
       </c>
-    </row>
-    <row r="324" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA323" s="1">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -23200,11 +23818,14 @@
       <c r="Y324" t="s">
         <v>132</v>
       </c>
-      <c r="Z324" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="325" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="Z324" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA324" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="325" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>352</v>
       </c>
@@ -23265,11 +23886,14 @@
       <c r="Y325">
         <v>60</v>
       </c>
-      <c r="Z325" s="1">
+      <c r="Z325">
         <v>61.7</v>
       </c>
-    </row>
-    <row r="326" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA325" s="1">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -23330,11 +23954,14 @@
       <c r="Y326">
         <v>20.100000000000001</v>
       </c>
-      <c r="Z326" s="1">
+      <c r="Z326">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="327" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA326" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="327" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>354</v>
       </c>
@@ -23395,11 +24022,14 @@
       <c r="Y327">
         <v>41</v>
       </c>
-      <c r="Z327" s="1">
+      <c r="Z327">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="328" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA327" s="1">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>355</v>
       </c>
@@ -23463,11 +24093,14 @@
       <c r="Y328">
         <v>2.4</v>
       </c>
-      <c r="Z328" s="1">
+      <c r="Z328">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="329" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA328" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -23528,11 +24161,14 @@
       <c r="Y329">
         <v>16.3</v>
       </c>
-      <c r="Z329" s="1">
+      <c r="Z329">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="330" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA329" s="1">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>357</v>
       </c>
@@ -23593,11 +24229,14 @@
       <c r="Y330">
         <v>19</v>
       </c>
-      <c r="Z330" s="1">
+      <c r="Z330">
         <v>19</v>
       </c>
-    </row>
-    <row r="331" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA330" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -23661,11 +24300,14 @@
       <c r="Y331" t="s">
         <v>132</v>
       </c>
-      <c r="Z331" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="332" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="Z331" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA331" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="332" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>359</v>
       </c>
@@ -23729,11 +24371,14 @@
       <c r="Y332">
         <v>44.4</v>
       </c>
-      <c r="Z332" s="1">
+      <c r="Z332">
         <v>45.8</v>
       </c>
-    </row>
-    <row r="333" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA332" s="1">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -23794,11 +24439,14 @@
       <c r="Y333">
         <v>12.6</v>
       </c>
-      <c r="Z333" s="1">
+      <c r="Z333">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="334" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA333" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>361</v>
       </c>
@@ -23815,7 +24463,7 @@
         <v>297</v>
       </c>
       <c r="F334" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="I334">
         <v>3.2</v>
@@ -23862,11 +24510,14 @@
       <c r="Y334">
         <v>11.2</v>
       </c>
-      <c r="Z334" s="1">
+      <c r="Z334">
         <v>6</v>
       </c>
-    </row>
-    <row r="335" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA334" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="335" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -23927,11 +24578,14 @@
       <c r="Y335">
         <v>12.5</v>
       </c>
-      <c r="Z335" s="1">
+      <c r="Z335">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="336" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA335" s="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>363</v>
       </c>
@@ -23995,11 +24649,14 @@
       <c r="Y336">
         <v>21.3</v>
       </c>
-      <c r="Z336" s="1">
+      <c r="Z336">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="337" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA336" s="1">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -24060,11 +24717,14 @@
       <c r="Y337">
         <v>7.9</v>
       </c>
-      <c r="Z337" s="1">
+      <c r="Z337">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="338" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA337" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>365</v>
       </c>
@@ -24125,11 +24785,14 @@
       <c r="Y338">
         <v>2.6</v>
       </c>
-      <c r="Z338" s="1">
+      <c r="Z338">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="339" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA338" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -24190,11 +24853,14 @@
       <c r="Y339">
         <v>2</v>
       </c>
-      <c r="Z339" s="1">
+      <c r="Z339">
         <v>2</v>
       </c>
-    </row>
-    <row r="340" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA339" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>367</v>
       </c>
@@ -24255,11 +24921,14 @@
       <c r="Y340">
         <v>40.6</v>
       </c>
-      <c r="Z340" s="1">
+      <c r="Z340">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="341" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA340" s="1">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -24320,11 +24989,14 @@
       <c r="Y341">
         <v>19.100000000000001</v>
       </c>
-      <c r="Z341" s="1">
+      <c r="Z341">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="342" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA341" s="1">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>369</v>
       </c>
@@ -24385,11 +25057,14 @@
       <c r="Y342">
         <v>2.5</v>
       </c>
-      <c r="Z342" s="1">
+      <c r="Z342">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="343" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA342" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -24406,7 +25081,7 @@
         <v>297</v>
       </c>
       <c r="F343" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I343">
         <v>4.4000000000000004</v>
@@ -24453,11 +25128,14 @@
       <c r="Y343">
         <v>38.799999999999997</v>
       </c>
-      <c r="Z343" s="1">
+      <c r="Z343">
         <v>30.8</v>
       </c>
-    </row>
-    <row r="344" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA343" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="344" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>371</v>
       </c>
@@ -24521,11 +25199,14 @@
       <c r="Y344">
         <v>30.7</v>
       </c>
-      <c r="Z344" s="1">
+      <c r="Z344">
         <v>32.200000000000003</v>
       </c>
-    </row>
-    <row r="345" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA344" s="1">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="345" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -24586,11 +25267,14 @@
       <c r="Y345">
         <v>13.9</v>
       </c>
-      <c r="Z345" s="1">
+      <c r="Z345">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="346" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA345" s="1">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>373</v>
       </c>
@@ -24651,11 +25335,14 @@
       <c r="Y346">
         <v>4.5</v>
       </c>
-      <c r="Z346" s="1">
+      <c r="Z346">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="347" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA346" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -24716,11 +25403,14 @@
       <c r="Y347">
         <v>34.5</v>
       </c>
-      <c r="Z347" s="1">
+      <c r="Z347">
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="348" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA347" s="1">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="348" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>375</v>
       </c>
@@ -24781,11 +25471,14 @@
       <c r="Y348">
         <v>8.4</v>
       </c>
-      <c r="Z348" s="1">
+      <c r="Z348">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="349" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA348" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="349" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -24846,11 +25539,14 @@
       <c r="Y349">
         <v>5.2</v>
       </c>
-      <c r="Z349" s="1">
+      <c r="Z349">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="350" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA349" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>377</v>
       </c>
@@ -24867,7 +25563,7 @@
         <v>297</v>
       </c>
       <c r="F350" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="I350">
         <v>1.3</v>
@@ -24914,11 +25610,14 @@
       <c r="Y350">
         <v>13.4</v>
       </c>
-      <c r="Z350" s="1">
+      <c r="Z350">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="351" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA350" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="351" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>378</v>
       </c>
@@ -24979,11 +25678,14 @@
       <c r="Y351">
         <v>36.700000000000003</v>
       </c>
-      <c r="Z351" s="1">
+      <c r="Z351">
         <v>36.5</v>
       </c>
-    </row>
-    <row r="352" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA351" s="1">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -25047,11 +25749,14 @@
       <c r="Y352">
         <v>3</v>
       </c>
-      <c r="Z352" s="1">
+      <c r="Z352">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA352" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>380</v>
       </c>
@@ -25112,11 +25817,14 @@
       <c r="Y353">
         <v>27.6</v>
       </c>
-      <c r="Z353" s="1">
+      <c r="Z353">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="354" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA353" s="1">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -25177,11 +25885,14 @@
       <c r="Y354">
         <v>2.6</v>
       </c>
-      <c r="Z354" s="1">
+      <c r="Z354">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="355" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA354" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>382</v>
       </c>
@@ -25245,11 +25956,14 @@
       <c r="Y355" t="s">
         <v>132</v>
       </c>
-      <c r="Z355" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="356" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="Z355" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA355" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="356" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -25310,11 +26024,14 @@
       <c r="Y356">
         <v>36.700000000000003</v>
       </c>
-      <c r="Z356" s="1">
+      <c r="Z356">
         <v>37</v>
       </c>
-    </row>
-    <row r="357" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA356" s="1">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>384</v>
       </c>
@@ -25378,11 +26095,14 @@
       <c r="Y357">
         <v>8.1</v>
       </c>
-      <c r="Z357" s="1">
+      <c r="Z357">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="358" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA357" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -25443,11 +26163,14 @@
       <c r="Y358">
         <v>17.7</v>
       </c>
-      <c r="Z358" s="1">
+      <c r="Z358">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="359" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA358" s="1">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>386</v>
       </c>
@@ -25508,11 +26231,14 @@
       <c r="Y359">
         <v>16.899999999999999</v>
       </c>
-      <c r="Z359" s="1">
+      <c r="Z359">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="360" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA359" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -25573,11 +26299,14 @@
       <c r="Y360">
         <v>37</v>
       </c>
-      <c r="Z360" s="1">
+      <c r="Z360">
         <v>37.4</v>
       </c>
-    </row>
-    <row r="361" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA360" s="1">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>388</v>
       </c>
@@ -25638,11 +26367,14 @@
       <c r="Y361">
         <v>32.9</v>
       </c>
-      <c r="Z361" s="1">
+      <c r="Z361">
         <v>35.9</v>
       </c>
-    </row>
-    <row r="362" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA361" s="1">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -25697,8 +26429,9 @@
       <c r="Z362">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="363" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA362" s="1"/>
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -25753,8 +26486,9 @@
       <c r="Z363">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="364" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA363" s="1"/>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -25812,8 +26546,9 @@
       <c r="Z364">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="365" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA364" s="1"/>
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -25868,8 +26603,9 @@
       <c r="Z365">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="366" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA365" s="1"/>
+    </row>
+    <row r="366" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -25924,8 +26660,9 @@
       <c r="Z366">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA366" s="1"/>
+    </row>
+    <row r="367" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -25980,8 +26717,9 @@
       <c r="Z367">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="368" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA367" s="1"/>
+    </row>
+    <row r="368" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -26039,8 +26777,9 @@
       <c r="Z368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA368" s="1"/>
+    </row>
+    <row r="369" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -26098,8 +26837,9 @@
       <c r="Z369">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="370" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA369" s="1"/>
+    </row>
+    <row r="370" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -26154,8 +26894,9 @@
       <c r="Z370">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="371" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA370" s="1"/>
+    </row>
+    <row r="371" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -26210,8 +26951,9 @@
       <c r="Z371">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="372" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA371" s="1"/>
+    </row>
+    <row r="372" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -26266,8 +27008,9 @@
       <c r="Z372">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="373" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA372" s="1"/>
+    </row>
+    <row r="373" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -26322,8 +27065,9 @@
       <c r="Z373">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="374" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA373" s="1"/>
+    </row>
+    <row r="374" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -26378,8 +27122,9 @@
       <c r="Z374">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="375" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA374" s="1"/>
+    </row>
+    <row r="375" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -26434,8 +27179,9 @@
       <c r="Z375">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA375" s="1"/>
+    </row>
+    <row r="376" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -26493,8 +27239,9 @@
       <c r="Z376">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="377" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA376" s="1"/>
+    </row>
+    <row r="377" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -26549,8 +27296,9 @@
       <c r="Z377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA377" s="1"/>
+    </row>
+    <row r="378" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -26605,8 +27353,9 @@
       <c r="Z378">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="379" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA378" s="1"/>
+    </row>
+    <row r="379" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -26661,8 +27410,9 @@
       <c r="Z379">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA379" s="1"/>
+    </row>
+    <row r="380" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -26720,8 +27470,9 @@
       <c r="Z380" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="381" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA380" s="1"/>
+    </row>
+    <row r="381" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -26779,8 +27530,9 @@
       <c r="Z381">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="382" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA381" s="1"/>
+    </row>
+    <row r="382" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -26835,8 +27587,9 @@
       <c r="Z382">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="383" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA382" s="1"/>
+    </row>
+    <row r="383" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>415</v>
       </c>
@@ -26891,8 +27644,9 @@
       <c r="Z383">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="384" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA383" s="1"/>
+    </row>
+    <row r="384" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -26947,8 +27701,9 @@
       <c r="Z384">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="385" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA384" s="1"/>
+    </row>
+    <row r="385" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>417</v>
       </c>
@@ -27003,8 +27758,9 @@
       <c r="Z385">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="386" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA385" s="1"/>
+    </row>
+    <row r="386" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -27059,8 +27815,9 @@
       <c r="Z386">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="387" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA386" s="1"/>
+    </row>
+    <row r="387" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>419</v>
       </c>
@@ -27118,8 +27875,9 @@
       <c r="Z387" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="388" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA387" s="1"/>
+    </row>
+    <row r="388" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -27174,8 +27932,9 @@
       <c r="Z388">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="389" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA388" s="1"/>
+    </row>
+    <row r="389" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>422</v>
       </c>
@@ -27230,8 +27989,9 @@
       <c r="Z389">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="390" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA389" s="1"/>
+    </row>
+    <row r="390" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -27286,8 +28046,9 @@
       <c r="Z390">
         <v>18</v>
       </c>
-    </row>
-    <row r="391" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA390" s="1"/>
+    </row>
+    <row r="391" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>424</v>
       </c>
@@ -27342,8 +28103,9 @@
       <c r="Z391">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="392" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA391" s="1"/>
+    </row>
+    <row r="392" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -27401,8 +28163,9 @@
       <c r="Z392" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="393" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA392" s="1"/>
+    </row>
+    <row r="393" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -27457,8 +28220,9 @@
       <c r="Z393">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="394" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA393" s="1"/>
+    </row>
+    <row r="394" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -27516,8 +28280,9 @@
       <c r="Z394">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="395" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA394" s="1"/>
+    </row>
+    <row r="395" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -27572,8 +28337,9 @@
       <c r="Z395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA395" s="1"/>
+    </row>
+    <row r="396" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -27628,8 +28394,9 @@
       <c r="Z396">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="397" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA396" s="1"/>
+    </row>
+    <row r="397" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -27684,8 +28451,9 @@
       <c r="Z397">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="398" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA397" s="1"/>
+    </row>
+    <row r="398" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -27740,8 +28508,9 @@
       <c r="Z398">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="399" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA398" s="1"/>
+    </row>
+    <row r="399" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -27799,8 +28568,9 @@
       <c r="Z399">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="400" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA399" s="1"/>
+    </row>
+    <row r="400" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>434</v>
       </c>
@@ -27855,8 +28625,9 @@
       <c r="Z400">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="401" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA400" s="1"/>
+    </row>
+    <row r="401" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -27911,8 +28682,9 @@
       <c r="Z401">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="402" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA401" s="1"/>
+    </row>
+    <row r="402" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>436</v>
       </c>
@@ -27973,8 +28745,9 @@
       <c r="Z402" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="403" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA402" s="1"/>
+    </row>
+    <row r="403" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -28032,8 +28805,9 @@
       <c r="Z403">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="404" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA403" s="1"/>
+    </row>
+    <row r="404" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
         <v>438</v>
       </c>
@@ -28091,8 +28865,9 @@
       <c r="Z404" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="405" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA404" s="1"/>
+    </row>
+    <row r="405" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
         <v>439</v>
       </c>
@@ -28147,8 +28922,9 @@
       <c r="Z405">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="406" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA405" s="1"/>
+    </row>
+    <row r="406" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -28203,8 +28979,9 @@
       <c r="Z406">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="407" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA406" s="1"/>
+    </row>
+    <row r="407" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>441</v>
       </c>
@@ -28259,8 +29036,9 @@
       <c r="Z407">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="408" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA407" s="1"/>
+    </row>
+    <row r="408" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -28315,8 +29093,9 @@
       <c r="Z408">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="409" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA408" s="1"/>
+    </row>
+    <row r="409" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
         <v>443</v>
       </c>
@@ -28371,8 +29150,9 @@
       <c r="Z409">
         <v>3</v>
       </c>
-    </row>
-    <row r="410" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA409" s="1"/>
+    </row>
+    <row r="410" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -28427,8 +29207,9 @@
       <c r="Z410">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="411" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA410" s="1"/>
+    </row>
+    <row r="411" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>445</v>
       </c>
@@ -28483,8 +29264,9 @@
       <c r="Z411">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="412" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA411" s="1"/>
+    </row>
+    <row r="412" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -28539,8 +29321,9 @@
       <c r="Z412">
         <v>2</v>
       </c>
-    </row>
-    <row r="413" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA412" s="1"/>
+    </row>
+    <row r="413" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>447</v>
       </c>
@@ -28595,8 +29378,9 @@
       <c r="Z413">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="414" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA413" s="1"/>
+    </row>
+    <row r="414" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -28651,8 +29435,9 @@
       <c r="Z414">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="415" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA414" s="1"/>
+    </row>
+    <row r="415" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>449</v>
       </c>
@@ -28707,8 +29492,9 @@
       <c r="Z415">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="416" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA415" s="1"/>
+    </row>
+    <row r="416" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -28766,8 +29552,9 @@
       <c r="Z416" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="417" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA416" s="1"/>
+    </row>
+    <row r="417" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
         <v>451</v>
       </c>
@@ -28825,8 +29612,9 @@
       <c r="Z417" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="418" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA417" s="1"/>
+    </row>
+    <row r="418" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -28881,8 +29669,9 @@
       <c r="Z418">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="419" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA418" s="1"/>
+    </row>
+    <row r="419" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
         <v>453</v>
       </c>
@@ -28937,8 +29726,9 @@
       <c r="Z419">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="420" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA419" s="1"/>
+    </row>
+    <row r="420" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -28993,8 +29783,9 @@
       <c r="Z420">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="421" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA420" s="1"/>
+    </row>
+    <row r="421" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -29052,8 +29843,9 @@
       <c r="Z421" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="422" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA421" s="1"/>
+    </row>
+    <row r="422" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
         <v>457</v>
       </c>
@@ -29108,8 +29900,9 @@
       <c r="Z422">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="423" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA422" s="1"/>
+    </row>
+    <row r="423" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
         <v>458</v>
       </c>
@@ -29167,8 +29960,9 @@
       <c r="Z423" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="424" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA423" s="1"/>
+    </row>
+    <row r="424" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
         <v>460</v>
       </c>
@@ -29223,8 +30017,9 @@
       <c r="Z424">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="425" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA424" s="1"/>
+    </row>
+    <row r="425" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
         <v>461</v>
       </c>
@@ -29279,8 +30074,9 @@
       <c r="Z425">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="426" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA425" s="1"/>
+    </row>
+    <row r="426" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
         <v>462</v>
       </c>
@@ -29338,8 +30134,9 @@
       <c r="Z426" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="427" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA426" s="1"/>
+    </row>
+    <row r="427" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
         <v>463</v>
       </c>
@@ -29394,8 +30191,9 @@
       <c r="Z427">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="428" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA427" s="1"/>
+    </row>
+    <row r="428" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
         <v>464</v>
       </c>
@@ -29450,8 +30248,9 @@
       <c r="Z428">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="429" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA428" s="1"/>
+    </row>
+    <row r="429" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
         <v>465</v>
       </c>
@@ -29506,8 +30305,9 @@
       <c r="Z429" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="430" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA429" s="1"/>
+    </row>
+    <row r="430" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
         <v>467</v>
       </c>
@@ -29562,8 +30362,9 @@
       <c r="Z430">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="431" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA430" s="1"/>
+    </row>
+    <row r="431" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
         <v>468</v>
       </c>
@@ -29621,8 +30422,9 @@
       <c r="Z431" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="432" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA431" s="1"/>
+    </row>
+    <row r="432" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
         <v>469</v>
       </c>
@@ -29677,8 +30479,9 @@
       <c r="Z432">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="433" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA432" s="1"/>
+    </row>
+    <row r="433" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
         <v>470</v>
       </c>
@@ -29733,8 +30536,9 @@
       <c r="Z433">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="434" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA433" s="1"/>
+    </row>
+    <row r="434" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
         <v>471</v>
       </c>
@@ -29789,8 +30593,9 @@
       <c r="Z434">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="435" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA434" s="1"/>
+    </row>
+    <row r="435" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
         <v>472</v>
       </c>
@@ -29845,8 +30650,9 @@
       <c r="Z435">
         <v>2</v>
       </c>
-    </row>
-    <row r="436" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA435" s="1"/>
+    </row>
+    <row r="436" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
         <v>473</v>
       </c>
@@ -29901,8 +30707,9 @@
       <c r="Z436">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="437" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA436" s="1"/>
+    </row>
+    <row r="437" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>474</v>
       </c>
@@ -29957,8 +30764,9 @@
       <c r="Z437">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="438" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA437" s="1"/>
+    </row>
+    <row r="438" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
         <v>475</v>
       </c>
@@ -30013,8 +30821,9 @@
       <c r="Z438">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="439" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA438" s="1"/>
+    </row>
+    <row r="439" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
         <v>476</v>
       </c>
@@ -30069,8 +30878,9 @@
       <c r="Z439">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="440" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA439" s="1"/>
+    </row>
+    <row r="440" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
         <v>477</v>
       </c>
@@ -30125,8 +30935,9 @@
       <c r="Z440">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="441" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA440" s="1"/>
+    </row>
+    <row r="441" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
         <v>478</v>
       </c>
@@ -30181,8 +30992,9 @@
       <c r="Z441">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="442" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA441" s="1"/>
+    </row>
+    <row r="442" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
         <v>479</v>
       </c>
@@ -30240,8 +31052,9 @@
       <c r="Z442" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="443" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA442" s="1"/>
+    </row>
+    <row r="443" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
         <v>481</v>
       </c>
@@ -30296,8 +31109,9 @@
       <c r="Z443">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="444" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA443" s="1"/>
+    </row>
+    <row r="444" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
         <v>482</v>
       </c>
@@ -30352,8 +31166,9 @@
       <c r="Z444" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="445" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA444" s="1"/>
+    </row>
+    <row r="445" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
         <v>483</v>
       </c>
@@ -30408,8 +31223,9 @@
       <c r="Z445">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="446" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA445" s="1"/>
+    </row>
+    <row r="446" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
         <v>484</v>
       </c>
@@ -30464,8 +31280,9 @@
       <c r="Z446">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="447" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA446" s="1"/>
+    </row>
+    <row r="447" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
         <v>485</v>
       </c>
@@ -30520,8 +31337,9 @@
       <c r="Z447">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="448" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA447" s="1"/>
+    </row>
+    <row r="448" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
         <v>486</v>
       </c>
@@ -30576,8 +31394,9 @@
       <c r="Z448">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="449" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA448" s="1"/>
+    </row>
+    <row r="449" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
         <v>487</v>
       </c>
@@ -30632,8 +31451,9 @@
       <c r="Z449">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="450" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA449" s="1"/>
+    </row>
+    <row r="450" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
         <v>488</v>
       </c>
@@ -30688,8 +31508,9 @@
       <c r="Z450">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="451" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA450" s="1"/>
+    </row>
+    <row r="451" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
         <v>489</v>
       </c>
@@ -30747,8 +31568,9 @@
       <c r="Z451" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="452" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA451" s="1"/>
+    </row>
+    <row r="452" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
         <v>490</v>
       </c>
@@ -30812,8 +31634,11 @@
       <c r="Z452">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="453" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA452">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
         <v>493</v>
       </c>
@@ -30877,8 +31702,11 @@
       <c r="Z453">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="454" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA453">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
         <v>494</v>
       </c>
@@ -30942,8 +31770,11 @@
       <c r="Z454">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="455" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA454">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
         <v>495</v>
       </c>
@@ -31007,8 +31838,11 @@
       <c r="Z455">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="456" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA455">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
         <v>496</v>
       </c>
@@ -31072,8 +31906,11 @@
       <c r="Z456">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA456">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
         <v>497</v>
       </c>
@@ -31140,8 +31977,11 @@
       <c r="Z457">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="458" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA457">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
         <v>498</v>
       </c>
@@ -31205,8 +32045,11 @@
       <c r="Z458">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="459" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA458">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
         <v>499</v>
       </c>
@@ -31270,8 +32113,11 @@
       <c r="Z459">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="460" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA459">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
         <v>500</v>
       </c>
@@ -31335,8 +32181,11 @@
       <c r="Z460">
         <v>3</v>
       </c>
-    </row>
-    <row r="461" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
         <v>501</v>
       </c>
@@ -31400,8 +32249,11 @@
       <c r="Z461">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="462" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA461">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
         <v>502</v>
       </c>
@@ -31465,8 +32317,11 @@
       <c r="Z462">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="463" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA462">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
         <v>503</v>
       </c>
@@ -31530,8 +32385,11 @@
       <c r="Z463">
         <v>19</v>
       </c>
-    </row>
-    <row r="464" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA463">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="464" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
         <v>504</v>
       </c>
@@ -31595,8 +32453,11 @@
       <c r="Z464">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="465" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA464">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
         <v>505</v>
       </c>
@@ -31660,8 +32521,11 @@
       <c r="Z465">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="466" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA465">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>506</v>
       </c>
@@ -31725,8 +32589,11 @@
       <c r="Z466">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="467" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA466">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
         <v>507</v>
       </c>
@@ -31790,8 +32657,11 @@
       <c r="Z467">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="468" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA467">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
         <v>508</v>
       </c>
@@ -31855,8 +32725,11 @@
       <c r="Z468">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="469" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA468">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="469" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A469" t="s">
         <v>509</v>
       </c>
@@ -31920,8 +32793,11 @@
       <c r="Z469">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="470" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA469">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="470" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
         <v>510</v>
       </c>
@@ -31985,8 +32861,11 @@
       <c r="Z470">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="471" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA470">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="471" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
         <v>511</v>
       </c>
@@ -32050,8 +32929,11 @@
       <c r="Z471">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="472" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA471">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A472" t="s">
         <v>512</v>
       </c>
@@ -32115,8 +32997,11 @@
       <c r="Z472">
         <v>8</v>
       </c>
-    </row>
-    <row r="473" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA472">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A473" t="s">
         <v>513</v>
       </c>
@@ -32180,8 +33065,11 @@
       <c r="Z473">
         <v>2</v>
       </c>
-    </row>
-    <row r="474" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A474" t="s">
         <v>514</v>
       </c>
@@ -32248,8 +33136,11 @@
       <c r="Z474">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="475" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA474">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
         <v>516</v>
       </c>
@@ -32313,8 +33204,11 @@
       <c r="Z475">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="476" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA475">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A476" t="s">
         <v>517</v>
       </c>
@@ -32378,8 +33272,11 @@
       <c r="Z476">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="477" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA476">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="477" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A477" t="s">
         <v>518</v>
       </c>
@@ -32443,8 +33340,11 @@
       <c r="Z477">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA477">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A478" t="s">
         <v>519</v>
       </c>
@@ -32508,8 +33408,11 @@
       <c r="Z478">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="479" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA478">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A479" t="s">
         <v>520</v>
       </c>
@@ -32573,8 +33476,11 @@
       <c r="Z479">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="480" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA479">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
         <v>521</v>
       </c>
@@ -32638,8 +33544,11 @@
       <c r="Z480">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="481" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA480">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="481" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A481" t="s">
         <v>522</v>
       </c>
@@ -32703,8 +33612,11 @@
       <c r="Z481">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="482" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA481">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A482" t="s">
         <v>523</v>
       </c>
@@ -32768,8 +33680,11 @@
       <c r="Z482">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="483" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA482">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A483" t="s">
         <v>524</v>
       </c>
@@ -32833,8 +33748,11 @@
       <c r="Z483">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="484" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA483">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A484" t="s">
         <v>525</v>
       </c>
@@ -32898,8 +33816,11 @@
       <c r="Z484">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="485" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA484">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A485" t="s">
         <v>526</v>
       </c>
@@ -32966,8 +33887,11 @@
       <c r="Z485">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="486" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA485">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A486" t="s">
         <v>527</v>
       </c>
@@ -33031,8 +33955,11 @@
       <c r="Z486">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A487" t="s">
         <v>528</v>
       </c>
@@ -33099,8 +34026,11 @@
       <c r="Z487">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="488" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA487">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="488" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A488" t="s">
         <v>529</v>
       </c>
@@ -33164,8 +34094,11 @@
       <c r="Z488">
         <v>4</v>
       </c>
-    </row>
-    <row r="489" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A489" t="s">
         <v>530</v>
       </c>
@@ -33229,8 +34162,11 @@
       <c r="Z489">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="490" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA489">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A490" t="s">
         <v>531</v>
       </c>
@@ -33294,8 +34230,11 @@
       <c r="Z490">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="491" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA490">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="491" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
         <v>532</v>
       </c>
@@ -33359,8 +34298,11 @@
       <c r="Z491">
         <v>3</v>
       </c>
-    </row>
-    <row r="492" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA491">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A492" t="s">
         <v>533</v>
       </c>
@@ -33424,8 +34366,11 @@
       <c r="Z492">
         <v>4</v>
       </c>
-    </row>
-    <row r="493" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA492">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A493" t="s">
         <v>534</v>
       </c>
@@ -33489,8 +34434,11 @@
       <c r="Z493">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="494" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA493">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A494" t="s">
         <v>535</v>
       </c>
@@ -33554,8 +34502,11 @@
       <c r="Z494">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="495" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA494">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
         <v>536</v>
       </c>
@@ -33622,8 +34573,11 @@
       <c r="Z495" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="496" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA495" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="496" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A496" t="s">
         <v>538</v>
       </c>
@@ -33687,8 +34641,11 @@
       <c r="Z496">
         <v>3</v>
       </c>
-    </row>
-    <row r="497" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA496">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A497" t="s">
         <v>539</v>
       </c>
@@ -33752,8 +34709,11 @@
       <c r="Z497">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="498" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA497">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="498" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A498" t="s">
         <v>540</v>
       </c>
@@ -33817,8 +34777,11 @@
       <c r="Z498">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="499" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA498">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A499" t="s">
         <v>541</v>
       </c>
@@ -33882,8 +34845,11 @@
       <c r="Z499">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="500" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA499">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
         <v>542</v>
       </c>
@@ -33947,8 +34913,11 @@
       <c r="Z500">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="501" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA500">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="501" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
         <v>543</v>
       </c>
@@ -34012,8 +34981,11 @@
       <c r="Z501">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="502" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA501">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A502" t="s">
         <v>544</v>
       </c>
@@ -34077,8 +35049,11 @@
       <c r="Z502">
         <v>2</v>
       </c>
-    </row>
-    <row r="503" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A503" t="s">
         <v>545</v>
       </c>
@@ -34142,8 +35117,11 @@
       <c r="Z503">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="504" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA503">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A504" t="s">
         <v>546</v>
       </c>
@@ -34207,8 +35185,11 @@
       <c r="Z504">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="505" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA504">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A505" t="s">
         <v>547</v>
       </c>
@@ -34272,8 +35253,11 @@
       <c r="Z505">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="506" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA505">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="506" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A506" t="s">
         <v>548</v>
       </c>
@@ -34337,8 +35321,11 @@
       <c r="Z506">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="507" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA506">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A507" t="s">
         <v>549</v>
       </c>
@@ -34402,8 +35389,11 @@
       <c r="Z507">
         <v>3</v>
       </c>
-    </row>
-    <row r="508" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA507">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A508" t="s">
         <v>550</v>
       </c>
@@ -34467,8 +35457,11 @@
       <c r="Z508">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="509" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA508">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A509" t="s">
         <v>551</v>
       </c>
@@ -34532,8 +35525,11 @@
       <c r="Z509">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="510" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA509">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A510" t="s">
         <v>552</v>
       </c>
@@ -34597,8 +35593,11 @@
       <c r="Z510">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="511" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA510">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A511" t="s">
         <v>553</v>
       </c>
@@ -34662,8 +35661,11 @@
       <c r="Z511">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="512" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA511">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A512" t="s">
         <v>554</v>
       </c>
@@ -34727,8 +35729,11 @@
       <c r="Z512">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="513" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA512">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A513" t="s">
         <v>555</v>
       </c>
@@ -34792,8 +35797,11 @@
       <c r="Z513">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="514" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA513">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="514" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A514" t="s">
         <v>556</v>
       </c>
@@ -34857,8 +35865,11 @@
       <c r="Z514">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="515" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA514">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="515" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A515" t="s">
         <v>557</v>
       </c>
@@ -34922,8 +35933,11 @@
       <c r="Z515">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="516" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA515">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A516" t="s">
         <v>558</v>
       </c>
@@ -34987,8 +36001,11 @@
       <c r="Z516">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="517" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA516">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A517" t="s">
         <v>559</v>
       </c>
@@ -35055,8 +36072,11 @@
       <c r="Z517" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="518" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA517" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="518" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A518" t="s">
         <v>560</v>
       </c>
@@ -35123,8 +36143,11 @@
       <c r="Z518" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="519" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA518" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="519" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A519" t="s">
         <v>561</v>
       </c>
@@ -35188,8 +36211,11 @@
       <c r="Z519">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="520" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA519">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A520" t="s">
         <v>562</v>
       </c>
@@ -35253,8 +36279,11 @@
       <c r="Z520">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="521" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA520">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A521" t="s">
         <v>563</v>
       </c>
@@ -35318,8 +36347,11 @@
       <c r="Z521">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="522" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA521">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A522" t="s">
         <v>564</v>
       </c>
@@ -35383,8 +36415,11 @@
       <c r="Z522">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="523" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA522">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="523" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A523" t="s">
         <v>565</v>
       </c>
@@ -35448,8 +36483,11 @@
       <c r="Z523">
         <v>6</v>
       </c>
-    </row>
-    <row r="524" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA523">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="524" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A524" t="s">
         <v>566</v>
       </c>
@@ -35513,8 +36551,11 @@
       <c r="Z524">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="525" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA524">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A525" t="s">
         <v>567</v>
       </c>
@@ -35578,8 +36619,11 @@
       <c r="Z525">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="526" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA525">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="526" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A526" t="s">
         <v>568</v>
       </c>
@@ -35643,8 +36687,11 @@
       <c r="Z526">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="527" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA526">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A527" t="s">
         <v>569</v>
       </c>
@@ -35708,8 +36755,11 @@
       <c r="Z527">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="528" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA527">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A528" t="s">
         <v>570</v>
       </c>
@@ -35773,8 +36823,11 @@
       <c r="Z528">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="529" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA528">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A529" t="s">
         <v>571</v>
       </c>
@@ -35838,8 +36891,11 @@
       <c r="Z529">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="530" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA529">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A530" t="s">
         <v>572</v>
       </c>
@@ -35903,8 +36959,11 @@
       <c r="Z530">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="531" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA530">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A531" t="s">
         <v>573</v>
       </c>
@@ -35968,8 +37027,11 @@
       <c r="Z531">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="532" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA531">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="532" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A532" t="s">
         <v>574</v>
       </c>
@@ -36036,8 +37098,11 @@
       <c r="Z532">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="533" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA532">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A533" t="s">
         <v>576</v>
       </c>
@@ -36101,8 +37166,11 @@
       <c r="Z533">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="534" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA533">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A534" t="s">
         <v>577</v>
       </c>
@@ -36166,8 +37234,11 @@
       <c r="Z534">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="535" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA534">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A535" t="s">
         <v>578</v>
       </c>
@@ -36231,8 +37302,11 @@
       <c r="Z535">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="536" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA535">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="536" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A536" t="s">
         <v>579</v>
       </c>
@@ -36296,8 +37370,11 @@
       <c r="Z536">
         <v>3</v>
       </c>
-    </row>
-    <row r="537" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA536">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A537" t="s">
         <v>580</v>
       </c>
@@ -36361,8 +37438,11 @@
       <c r="Z537">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="538" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA537">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A538" t="s">
         <v>581</v>
       </c>
@@ -36426,8 +37506,11 @@
       <c r="Z538">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="539" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA538">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A539" t="s">
         <v>582</v>
       </c>
@@ -36491,8 +37574,11 @@
       <c r="Z539">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="540" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA539">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A540" t="s">
         <v>583</v>
       </c>
@@ -36556,8 +37642,11 @@
       <c r="Z540">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="541" spans="1:26" hidden="1" x14ac:dyDescent="0.4">
+      <c r="AA540">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A541" t="s">
         <v>584</v>
       </c>
@@ -36621,8 +37710,11 @@
       <c r="Z541">
         <v>5</v>
       </c>
-    </row>
-    <row r="542" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA541">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A542" t="s">
         <v>585</v>
       </c>
@@ -36686,11 +37778,14 @@
       <c r="Y542" t="s">
         <v>132</v>
       </c>
-      <c r="Z542" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="543" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z542" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA542" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="543" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A543" t="s">
         <v>588</v>
       </c>
@@ -36707,7 +37802,7 @@
         <v>587</v>
       </c>
       <c r="F543" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="J543">
         <v>0.4</v>
@@ -36754,11 +37849,14 @@
       <c r="Y543">
         <v>3.4</v>
       </c>
-      <c r="Z543" s="1">
+      <c r="Z543">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="544" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA543" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="544" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A544" t="s">
         <v>589</v>
       </c>
@@ -36822,11 +37920,14 @@
       <c r="Y544" t="s">
         <v>132</v>
       </c>
-      <c r="Z544" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="545" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z544" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA544" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="545" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A545" t="s">
         <v>590</v>
       </c>
@@ -36887,11 +37988,14 @@
       <c r="Y545">
         <v>2</v>
       </c>
-      <c r="Z545" s="1">
+      <c r="Z545">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="546" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA545" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A546" t="s">
         <v>591</v>
       </c>
@@ -36955,11 +38059,14 @@
       <c r="Y546">
         <v>0.6</v>
       </c>
-      <c r="Z546" s="1">
+      <c r="Z546">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="547" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA546" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="547" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A547" t="s">
         <v>592</v>
       </c>
@@ -37020,11 +38127,14 @@
       <c r="Y547">
         <v>4</v>
       </c>
-      <c r="Z547" s="1">
+      <c r="Z547">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="548" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA547" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="548" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A548" t="s">
         <v>593</v>
       </c>
@@ -37088,11 +38198,14 @@
       <c r="Y548">
         <v>4.5</v>
       </c>
-      <c r="Z548" s="1">
+      <c r="Z548">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="549" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA548" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A549" t="s">
         <v>594</v>
       </c>
@@ -37153,11 +38266,14 @@
       <c r="Y549">
         <v>2</v>
       </c>
-      <c r="Z549" s="1">
+      <c r="Z549">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="550" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA549" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="550" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A550" t="s">
         <v>595</v>
       </c>
@@ -37218,11 +38334,14 @@
       <c r="Y550">
         <v>0.8</v>
       </c>
-      <c r="Z550" s="1">
+      <c r="Z550">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="551" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA550" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="551" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A551" t="s">
         <v>596</v>
       </c>
@@ -37286,11 +38405,14 @@
       <c r="Y551">
         <v>3</v>
       </c>
-      <c r="Z551" s="1">
+      <c r="Z551">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="552" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA551" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A552" t="s">
         <v>597</v>
       </c>
@@ -37354,11 +38476,14 @@
       <c r="Y552" t="s">
         <v>132</v>
       </c>
-      <c r="Z552" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="553" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z552" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA552" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="553" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A553" t="s">
         <v>598</v>
       </c>
@@ -37419,11 +38544,14 @@
       <c r="Y553">
         <v>0.8</v>
       </c>
-      <c r="Z553" s="1">
+      <c r="Z553">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="554" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA553" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="554" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A554" t="s">
         <v>599</v>
       </c>
@@ -37487,11 +38615,14 @@
       <c r="Y554" t="s">
         <v>132</v>
       </c>
-      <c r="Z554" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="555" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z554" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA554" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="555" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A555" t="s">
         <v>600</v>
       </c>
@@ -37552,11 +38683,14 @@
       <c r="Y555">
         <v>0.9</v>
       </c>
-      <c r="Z555" s="1">
+      <c r="Z555">
         <v>1</v>
       </c>
-    </row>
-    <row r="556" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA555" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A556" t="s">
         <v>601</v>
       </c>
@@ -37617,11 +38751,14 @@
       <c r="Y556">
         <v>3.9</v>
       </c>
-      <c r="Z556" s="1">
+      <c r="Z556">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="557" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA556" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="557" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A557" t="s">
         <v>602</v>
       </c>
@@ -37685,11 +38822,14 @@
       <c r="Y557" t="s">
         <v>132</v>
       </c>
-      <c r="Z557" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="558" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z557" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA557" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="558" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A558" t="s">
         <v>603</v>
       </c>
@@ -37750,11 +38890,14 @@
       <c r="Y558">
         <v>1.4</v>
       </c>
-      <c r="Z558" s="1">
+      <c r="Z558">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="559" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA558" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A559" t="s">
         <v>604</v>
       </c>
@@ -37815,11 +38958,14 @@
       <c r="Y559">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z559" s="1">
+      <c r="Z559">
         <v>3</v>
       </c>
-    </row>
-    <row r="560" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA559" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A560" t="s">
         <v>605</v>
       </c>
@@ -37883,11 +39029,14 @@
       <c r="Y560">
         <v>2.1</v>
       </c>
-      <c r="Z560" s="1">
+      <c r="Z560">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="561" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA560" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="561" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A561" t="s">
         <v>606</v>
       </c>
@@ -37948,11 +39097,14 @@
       <c r="Y561">
         <v>1.8</v>
       </c>
-      <c r="Z561" s="1">
+      <c r="Z561">
         <v>2</v>
       </c>
-    </row>
-    <row r="562" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA561" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A562" t="s">
         <v>607</v>
       </c>
@@ -38013,11 +39165,14 @@
       <c r="Y562">
         <v>1.4</v>
       </c>
-      <c r="Z562" s="1">
+      <c r="Z562">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="563" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA562" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A563" t="s">
         <v>608</v>
       </c>
@@ -38078,11 +39233,14 @@
       <c r="Y563">
         <v>3.7</v>
       </c>
-      <c r="Z563" s="1">
+      <c r="Z563">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="564" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA563" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A564" t="s">
         <v>609</v>
       </c>
@@ -38146,11 +39304,14 @@
       <c r="Y564">
         <v>6</v>
       </c>
-      <c r="Z564" s="1">
+      <c r="Z564">
         <v>6</v>
       </c>
-    </row>
-    <row r="565" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA564" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A565" t="s">
         <v>610</v>
       </c>
@@ -38211,11 +39372,14 @@
       <c r="Y565">
         <v>0.6</v>
       </c>
-      <c r="Z565" s="1">
+      <c r="Z565">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="566" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA565" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="566" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A566" t="s">
         <v>611</v>
       </c>
@@ -38279,11 +39443,14 @@
       <c r="Y566" t="s">
         <v>132</v>
       </c>
-      <c r="Z566" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="567" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z566" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA566" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="567" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A567" t="s">
         <v>612</v>
       </c>
@@ -38344,11 +39511,14 @@
       <c r="Y567">
         <v>3.2</v>
       </c>
-      <c r="Z567" s="1">
+      <c r="Z567">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="568" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA567" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A568" t="s">
         <v>613</v>
       </c>
@@ -38412,11 +39582,14 @@
       <c r="Y568">
         <v>6.2</v>
       </c>
-      <c r="Z568" s="1">
+      <c r="Z568">
         <v>10</v>
       </c>
-    </row>
-    <row r="569" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA568" s="1">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="569" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A569" t="s">
         <v>614</v>
       </c>
@@ -38477,11 +39650,14 @@
       <c r="Y569">
         <v>8.4</v>
       </c>
-      <c r="Z569" s="1">
+      <c r="Z569">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="570" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA569" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A570" t="s">
         <v>615</v>
       </c>
@@ -38542,11 +39718,14 @@
       <c r="Y570">
         <v>7.9</v>
       </c>
-      <c r="Z570" s="1">
+      <c r="Z570">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="571" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA570" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A571" t="s">
         <v>616</v>
       </c>
@@ -38607,11 +39786,14 @@
       <c r="Y571" t="s">
         <v>132</v>
       </c>
-      <c r="Z571" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="572" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z571" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA571" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="572" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A572" t="s">
         <v>617</v>
       </c>
@@ -38672,11 +39854,14 @@
       <c r="Y572">
         <v>3.1</v>
       </c>
-      <c r="Z572" s="1">
+      <c r="Z572">
         <v>3</v>
       </c>
-    </row>
-    <row r="573" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA572" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A573" t="s">
         <v>618</v>
       </c>
@@ -38737,11 +39922,14 @@
       <c r="Y573">
         <v>3.1</v>
       </c>
-      <c r="Z573" s="1">
+      <c r="Z573">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="574" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA573" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A574" t="s">
         <v>619</v>
       </c>
@@ -38802,11 +39990,14 @@
       <c r="Y574" t="s">
         <v>132</v>
       </c>
-      <c r="Z574" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="575" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z574" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA574" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="575" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A575" t="s">
         <v>620</v>
       </c>
@@ -38870,11 +40061,14 @@
       <c r="Y575" t="s">
         <v>132</v>
       </c>
-      <c r="Z575" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="576" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z575" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA575" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="576" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A576" t="s">
         <v>621</v>
       </c>
@@ -38938,11 +40132,14 @@
       <c r="Y576" t="s">
         <v>132</v>
       </c>
-      <c r="Z576" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="577" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z576" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA576" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="577" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A577" t="s">
         <v>622</v>
       </c>
@@ -39006,11 +40203,14 @@
       <c r="Y577">
         <v>7.1</v>
       </c>
-      <c r="Z577" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="578" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z577" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA577" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="578" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A578" t="s">
         <v>623</v>
       </c>
@@ -39074,11 +40274,14 @@
       <c r="Y578" t="s">
         <v>132</v>
       </c>
-      <c r="Z578" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="579" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z578" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA578" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="579" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A579" t="s">
         <v>624</v>
       </c>
@@ -39139,11 +40342,14 @@
       <c r="Y579">
         <v>4.2</v>
       </c>
-      <c r="Z579" s="1">
+      <c r="Z579">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="580" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA579" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="580" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A580" t="s">
         <v>625</v>
       </c>
@@ -39204,11 +40410,14 @@
       <c r="Y580">
         <v>1.6</v>
       </c>
-      <c r="Z580" s="1">
+      <c r="Z580">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="581" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA580" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A581" t="s">
         <v>626</v>
       </c>
@@ -39269,11 +40478,14 @@
       <c r="Y581">
         <v>2.5</v>
       </c>
-      <c r="Z581" s="1">
+      <c r="Z581">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="582" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA581" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A582" t="s">
         <v>627</v>
       </c>
@@ -39334,11 +40546,14 @@
       <c r="Y582">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Z582" s="1">
+      <c r="Z582">
         <v>5</v>
       </c>
-    </row>
-    <row r="583" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA582" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A583" t="s">
         <v>628</v>
       </c>
@@ -39399,11 +40614,14 @@
       <c r="Y583">
         <v>0.5</v>
       </c>
-      <c r="Z583" s="1">
+      <c r="Z583">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="584" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA583" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A584" t="s">
         <v>629</v>
       </c>
@@ -39464,11 +40682,14 @@
       <c r="Y584">
         <v>4</v>
       </c>
-      <c r="Z584" s="1">
+      <c r="Z584">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="585" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA584" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="585" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A585" t="s">
         <v>630</v>
       </c>
@@ -39529,11 +40750,14 @@
       <c r="Y585">
         <v>7.3</v>
       </c>
-      <c r="Z585" s="1">
+      <c r="Z585">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="586" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA585" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="586" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A586" t="s">
         <v>631</v>
       </c>
@@ -39594,11 +40818,14 @@
       <c r="Y586">
         <v>7</v>
       </c>
-      <c r="Z586" s="1">
+      <c r="Z586">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="587" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA586" s="1">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A587" t="s">
         <v>632</v>
       </c>
@@ -39662,11 +40889,14 @@
       <c r="Y587">
         <v>1.2</v>
       </c>
-      <c r="Z587" s="1">
+      <c r="Z587">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="588" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA587" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A588" t="s">
         <v>633</v>
       </c>
@@ -39730,11 +40960,14 @@
       <c r="Y588" t="s">
         <v>132</v>
       </c>
-      <c r="Z588" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="589" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z588" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA588" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A589" t="s">
         <v>635</v>
       </c>
@@ -39798,11 +41031,14 @@
       <c r="Y589" t="s">
         <v>132</v>
       </c>
-      <c r="Z589" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="590" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z589" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA589" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A590" t="s">
         <v>637</v>
       </c>
@@ -39866,11 +41102,14 @@
       <c r="Y590" t="s">
         <v>132</v>
       </c>
-      <c r="Z590" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="591" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z590" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA590" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="591" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A591" t="s">
         <v>638</v>
       </c>
@@ -39931,11 +41170,14 @@
       <c r="Y591">
         <v>0.4</v>
       </c>
-      <c r="Z591" s="1">
+      <c r="Z591">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="592" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA591" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A592" t="s">
         <v>639</v>
       </c>
@@ -39996,11 +41238,14 @@
       <c r="Y592">
         <v>3.8</v>
       </c>
-      <c r="Z592" s="1">
+      <c r="Z592">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="593" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA592" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="593" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A593" t="s">
         <v>640</v>
       </c>
@@ -40061,11 +41306,14 @@
       <c r="Y593">
         <v>5.3</v>
       </c>
-      <c r="Z593" s="1">
+      <c r="Z593">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="594" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA593" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A594" t="s">
         <v>641</v>
       </c>
@@ -40126,11 +41374,14 @@
       <c r="Y594">
         <v>7</v>
       </c>
-      <c r="Z594" s="1">
+      <c r="Z594">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="595" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA594" s="1">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A595" t="s">
         <v>642</v>
       </c>
@@ -40191,11 +41442,14 @@
       <c r="Y595">
         <v>4.8</v>
       </c>
-      <c r="Z595" s="1">
+      <c r="Z595">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="596" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA595" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A596" t="s">
         <v>643</v>
       </c>
@@ -40256,11 +41510,14 @@
       <c r="Y596">
         <v>0.5</v>
       </c>
-      <c r="Z596" s="1">
+      <c r="Z596">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="597" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA596" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A597" t="s">
         <v>644</v>
       </c>
@@ -40324,11 +41581,14 @@
       <c r="Y597">
         <v>3.2</v>
       </c>
-      <c r="Z597" s="1">
+      <c r="Z597">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="598" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA597" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A598" t="s">
         <v>645</v>
       </c>
@@ -40389,11 +41649,14 @@
       <c r="Y598">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z598" s="1">
+      <c r="Z598">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="599" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA598" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="599" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A599" t="s">
         <v>646</v>
       </c>
@@ -40454,11 +41717,14 @@
       <c r="Y599">
         <v>7</v>
       </c>
-      <c r="Z599" s="1">
+      <c r="Z599">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="600" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA599" s="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A600" t="s">
         <v>647</v>
       </c>
@@ -40522,11 +41788,14 @@
       <c r="Y600">
         <v>3.6</v>
       </c>
-      <c r="Z600" s="1">
+      <c r="Z600">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="601" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA600" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="601" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A601" t="s">
         <v>648</v>
       </c>
@@ -40590,11 +41859,14 @@
       <c r="Y601" t="s">
         <v>132</v>
       </c>
-      <c r="Z601" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="602" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z601" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA601" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="602" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A602" t="s">
         <v>649</v>
       </c>
@@ -40655,11 +41927,14 @@
       <c r="Y602">
         <v>7.8</v>
       </c>
-      <c r="Z602" s="1">
+      <c r="Z602">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="603" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA602" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="603" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A603" t="s">
         <v>650</v>
       </c>
@@ -40723,11 +41998,14 @@
       <c r="Y603" t="s">
         <v>132</v>
       </c>
-      <c r="Z603" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="604" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z603" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA603" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="604" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A604" t="s">
         <v>652</v>
       </c>
@@ -40791,11 +42069,14 @@
       <c r="Y604" t="s">
         <v>132</v>
       </c>
-      <c r="Z604" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="605" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z604" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA604" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="605" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A605" t="s">
         <v>653</v>
       </c>
@@ -40856,11 +42137,14 @@
       <c r="Y605" t="s">
         <v>132</v>
       </c>
-      <c r="Z605" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="606" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z605" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA605" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="606" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A606" t="s">
         <v>654</v>
       </c>
@@ -40921,11 +42205,14 @@
       <c r="Y606">
         <v>1.6</v>
       </c>
-      <c r="Z606" s="1">
+      <c r="Z606">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="607" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA606" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="607" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A607" t="s">
         <v>655</v>
       </c>
@@ -40989,11 +42276,14 @@
       <c r="Y607">
         <v>3.8</v>
       </c>
-      <c r="Z607" s="1">
+      <c r="Z607">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="608" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA607" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="608" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A608" t="s">
         <v>656</v>
       </c>
@@ -41054,11 +42344,14 @@
       <c r="Y608">
         <v>3.9</v>
       </c>
-      <c r="Z608" s="1">
+      <c r="Z608">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="609" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA608" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="609" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A609" t="s">
         <v>657</v>
       </c>
@@ -41122,11 +42415,14 @@
       <c r="Y609" t="s">
         <v>132</v>
       </c>
-      <c r="Z609" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="610" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z609" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA609" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="610" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A610" t="s">
         <v>658</v>
       </c>
@@ -41187,11 +42483,14 @@
       <c r="Y610">
         <v>0.5</v>
       </c>
-      <c r="Z610" s="1">
+      <c r="Z610">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="611" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA610" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A611" t="s">
         <v>659</v>
       </c>
@@ -41255,11 +42554,14 @@
       <c r="Y611" t="s">
         <v>132</v>
       </c>
-      <c r="Z611" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="612" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z611" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA611" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="612" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A612" t="s">
         <v>660</v>
       </c>
@@ -41323,11 +42625,14 @@
       <c r="Y612" t="s">
         <v>132</v>
       </c>
-      <c r="Z612" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="613" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z612" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA612" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A613" t="s">
         <v>661</v>
       </c>
@@ -41388,11 +42693,14 @@
       <c r="Y613">
         <v>6.1</v>
       </c>
-      <c r="Z613" s="1">
+      <c r="Z613">
         <v>6</v>
       </c>
-    </row>
-    <row r="614" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA613" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A614" t="s">
         <v>662</v>
       </c>
@@ -41456,11 +42764,14 @@
       <c r="Y614">
         <v>8.4</v>
       </c>
-      <c r="Z614" s="1">
+      <c r="Z614">
         <v>9</v>
       </c>
-    </row>
-    <row r="615" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA614" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="615" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A615" t="s">
         <v>664</v>
       </c>
@@ -41521,11 +42832,14 @@
       <c r="Y615">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Z615" s="1">
+      <c r="Z615">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="616" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA615" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="616" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A616" t="s">
         <v>665</v>
       </c>
@@ -41586,11 +42900,14 @@
       <c r="Y616">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Z616" s="1">
+      <c r="Z616">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="617" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA616" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="617" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A617" t="s">
         <v>666</v>
       </c>
@@ -41651,11 +42968,14 @@
       <c r="Y617">
         <v>5.2</v>
       </c>
-      <c r="Z617" s="1">
+      <c r="Z617">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="618" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA617" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="618" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A618" t="s">
         <v>667</v>
       </c>
@@ -41716,11 +43036,14 @@
       <c r="Y618">
         <v>0.5</v>
       </c>
-      <c r="Z618" s="1">
+      <c r="Z618">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="619" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA618" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A619" t="s">
         <v>668</v>
       </c>
@@ -41784,11 +43107,14 @@
       <c r="Y619">
         <v>6</v>
       </c>
-      <c r="Z619" s="1">
+      <c r="Z619">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="620" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA619" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="620" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A620" t="s">
         <v>669</v>
       </c>
@@ -41852,11 +43178,14 @@
       <c r="Y620" t="s">
         <v>132</v>
       </c>
-      <c r="Z620" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="621" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="Z620" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA620" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="621" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A621" t="s">
         <v>670</v>
       </c>
@@ -41920,11 +43249,14 @@
       <c r="Y621">
         <v>2.1</v>
       </c>
-      <c r="Z621" s="1">
+      <c r="Z621">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="622" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA621" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A622" t="s">
         <v>671</v>
       </c>
@@ -41985,11 +43317,14 @@
       <c r="Y622">
         <v>5</v>
       </c>
-      <c r="Z622" s="1">
+      <c r="Z622">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="623" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA622" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A623" t="s">
         <v>672</v>
       </c>
@@ -42050,11 +43385,14 @@
       <c r="Y623">
         <v>3.2</v>
       </c>
-      <c r="Z623" s="1">
+      <c r="Z623">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="624" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA623" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="624" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A624" t="s">
         <v>673</v>
       </c>
@@ -42115,11 +43453,14 @@
       <c r="Y624">
         <v>6.2</v>
       </c>
-      <c r="Z624" s="1">
+      <c r="Z624">
         <v>6</v>
       </c>
-    </row>
-    <row r="625" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA624" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="625" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A625" t="s">
         <v>674</v>
       </c>
@@ -42180,11 +43521,14 @@
       <c r="Y625">
         <v>6.2</v>
       </c>
-      <c r="Z625" s="1">
+      <c r="Z625">
         <v>6</v>
       </c>
-    </row>
-    <row r="626" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA625" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A626" t="s">
         <v>675</v>
       </c>
@@ -42248,11 +43592,14 @@
       <c r="Y626">
         <v>1.8</v>
       </c>
-      <c r="Z626" s="1">
+      <c r="Z626">
         <v>2</v>
       </c>
-    </row>
-    <row r="627" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA626" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A627" t="s">
         <v>676</v>
       </c>
@@ -42313,11 +43660,14 @@
       <c r="Y627">
         <v>3.6</v>
       </c>
-      <c r="Z627" s="1">
+      <c r="Z627">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="628" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA627" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A628" t="s">
         <v>677</v>
       </c>
@@ -42378,11 +43728,14 @@
       <c r="Y628">
         <v>2.1</v>
       </c>
-      <c r="Z628" s="1">
+      <c r="Z628">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="629" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA628" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="629" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A629" t="s">
         <v>678</v>
       </c>
@@ -42443,11 +43796,14 @@
       <c r="Y629">
         <v>2.4</v>
       </c>
-      <c r="Z629" s="1">
+      <c r="Z629">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="630" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA629" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A630" t="s">
         <v>679</v>
       </c>
@@ -42508,11 +43864,14 @@
       <c r="Y630">
         <v>6.1</v>
       </c>
-      <c r="Z630" s="1">
+      <c r="Z630">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="631" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA630" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="631" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A631" t="s">
         <v>680</v>
       </c>
@@ -42576,7 +43935,10 @@
       <c r="Y631" t="s">
         <v>132</v>
       </c>
-      <c r="Z631" s="1" t="s">
+      <c r="Z631" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA631" s="1" t="s">
         <v>132</v>
       </c>
     </row>
